--- a/Excel文件/xiakeqian/心法.xlsx
+++ b/Excel文件/xiakeqian/心法.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B9DF47-373A-4DCE-BB06-91143D57AD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,25 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$O$156</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$B$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$B$191</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="821">
   <si>
     <t>#功体编号</t>
   </si>
@@ -1849,12 +1839,6 @@
     <t>(8,60014,0)</t>
   </si>
   <si>
-    <t>(8,60015,0)</t>
-  </si>
-  <si>
-    <t>(8,60016,0)</t>
-  </si>
-  <si>
     <t>(8,60017,0)</t>
   </si>
   <si>
@@ -2044,15 +2028,6 @@
     <t>(8,70005,0)</t>
   </si>
   <si>
-    <t>(8,70006,0)</t>
-  </si>
-  <si>
-    <t>(8,70007,0)</t>
-  </si>
-  <si>
-    <t>(8,70008,0)</t>
-  </si>
-  <si>
     <t>(8,70009,0)</t>
   </si>
   <si>
@@ -2074,9 +2049,6 @@
     <t>(8,70018,0)</t>
   </si>
   <si>
-    <t>(8,70020,0)</t>
-  </si>
-  <si>
     <t>(8,70021,0)</t>
   </si>
   <si>
@@ -2092,15 +2064,6 @@
     <t>(8,70025,0)</t>
   </si>
   <si>
-    <t>(8,70026,0)</t>
-  </si>
-  <si>
-    <t>(8,70027,0)</t>
-  </si>
-  <si>
-    <t>(8,70028,0)</t>
-  </si>
-  <si>
     <t>(8,70029,0)</t>
   </si>
   <si>
@@ -2125,9 +2088,6 @@
     <t>(8,70036,0)</t>
   </si>
   <si>
-    <t>(8,70038,0)</t>
-  </si>
-  <si>
     <t>(8,70039,0)</t>
   </si>
   <si>
@@ -2143,9 +2103,6 @@
     <t>(8,70044,0)</t>
   </si>
   <si>
-    <t>(8,70045,0)</t>
-  </si>
-  <si>
     <t>(8,70046,0)</t>
   </si>
   <si>
@@ -2164,45 +2121,6 @@
     <t>(8,70051,0)</t>
   </si>
   <si>
-    <t>(8,70053,0)</t>
-  </si>
-  <si>
-    <t>(8,70054,0)</t>
-  </si>
-  <si>
-    <t>(8,70055,0)</t>
-  </si>
-  <si>
-    <t>(8,70056,0)</t>
-  </si>
-  <si>
-    <t>(8,70057,0)</t>
-  </si>
-  <si>
-    <t>(8,70058,0)</t>
-  </si>
-  <si>
-    <t>(8,70059,0)</t>
-  </si>
-  <si>
-    <t>(8,70060,0)</t>
-  </si>
-  <si>
-    <t>(8,70061,0)</t>
-  </si>
-  <si>
-    <t>(8,70062,0)</t>
-  </si>
-  <si>
-    <t>(8,70063,0)</t>
-  </si>
-  <si>
-    <t>(8,70064,0)</t>
-  </si>
-  <si>
-    <t>(8,70065,0)</t>
-  </si>
-  <si>
     <t>(8,70066,0)</t>
   </si>
   <si>
@@ -2222,15 +2140,6 @@
   </si>
   <si>
     <t>(8,70072,0)</t>
-  </si>
-  <si>
-    <t>(8,70073,0)</t>
-  </si>
-  <si>
-    <t>(8,70074,0)</t>
-  </si>
-  <si>
-    <t>(8,70075,0)</t>
   </si>
   <si>
     <t>(8,70076,0)</t>
@@ -2883,8 +2792,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2988,9 +2897,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3028,7 +2937,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3062,6 +2971,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3096,9 +3006,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3271,15 +3182,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:O218"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
@@ -3287,7 +3198,7 @@
     <col min="12" max="12" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3334,7 +3245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3381,7 +3292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5">
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>60001</v>
       </c>
@@ -3431,7 +3342,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>60002</v>
       </c>
@@ -3481,7 +3392,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.5">
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60003</v>
       </c>
@@ -3531,7 +3442,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5">
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>60004</v>
       </c>
@@ -3581,7 +3492,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5">
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>60005</v>
       </c>
@@ -3631,7 +3542,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.5">
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60006</v>
       </c>
@@ -3681,7 +3592,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5">
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>60007</v>
       </c>
@@ -3731,7 +3642,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5">
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>60008</v>
       </c>
@@ -3781,7 +3692,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5">
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>60009</v>
       </c>
@@ -3831,7 +3742,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.5">
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>60010</v>
       </c>
@@ -3881,7 +3792,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.5">
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>60011</v>
       </c>
@@ -3931,7 +3842,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.5">
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>60012</v>
       </c>
@@ -3981,7 +3892,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.5">
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>60013</v>
       </c>
@@ -4031,7 +3942,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.5">
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>60014</v>
       </c>
@@ -4081,7 +3992,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16.5">
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>60015</v>
       </c>
@@ -4131,7 +4042,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16.5">
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>60016</v>
       </c>
@@ -4181,7 +4092,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16.5">
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>60017</v>
       </c>
@@ -4231,7 +4142,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16.5">
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>60018</v>
       </c>
@@ -4281,7 +4192,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16.5">
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>60019</v>
       </c>
@@ -4331,7 +4242,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16.5">
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>60020</v>
       </c>
@@ -4381,7 +4292,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16.5">
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>60021</v>
       </c>
@@ -4431,7 +4342,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16.5">
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>60022</v>
       </c>
@@ -4481,7 +4392,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16.5">
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>60023</v>
       </c>
@@ -4531,7 +4442,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16.5">
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>60024</v>
       </c>
@@ -4581,7 +4492,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16.5">
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>60025</v>
       </c>
@@ -4631,7 +4542,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16.5">
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>60026</v>
       </c>
@@ -4681,7 +4592,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="16.5">
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>60027</v>
       </c>
@@ -4731,7 +4642,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16.5">
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>60028</v>
       </c>
@@ -4781,7 +4692,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16.5">
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>60029</v>
       </c>
@@ -4831,7 +4742,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16.5">
+    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>60030</v>
       </c>
@@ -4881,7 +4792,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="16.5">
+    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>60031</v>
       </c>
@@ -4931,7 +4842,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="16.5">
+    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>60032</v>
       </c>
@@ -4981,7 +4892,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="16.5">
+    <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>60033</v>
       </c>
@@ -5031,7 +4942,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16.5">
+    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>60034</v>
       </c>
@@ -5081,7 +4992,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="16.5">
+    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>60035</v>
       </c>
@@ -5131,7 +5042,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="16.5">
+    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>60036</v>
       </c>
@@ -5181,7 +5092,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="16.5">
+    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>60037</v>
       </c>
@@ -5231,7 +5142,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="16.5">
+    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>60038</v>
       </c>
@@ -5281,7 +5192,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="16.5">
+    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>60039</v>
       </c>
@@ -5331,7 +5242,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="16.5">
+    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>60040</v>
       </c>
@@ -5381,7 +5292,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="16.5">
+    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>60041</v>
       </c>
@@ -5431,7 +5342,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="16.5">
+    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>60042</v>
       </c>
@@ -5481,7 +5392,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="16.5">
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>60043</v>
       </c>
@@ -5531,7 +5442,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="16.5">
+    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>60044</v>
       </c>
@@ -5581,7 +5492,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="16.5">
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>60045</v>
       </c>
@@ -5631,7 +5542,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="16.5">
+    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>60046</v>
       </c>
@@ -5681,7 +5592,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="16.5">
+    <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>60047</v>
       </c>
@@ -5731,7 +5642,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="16.5">
+    <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>60048</v>
       </c>
@@ -5781,7 +5692,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="16.5">
+    <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>60049</v>
       </c>
@@ -5831,7 +5742,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="16.5">
+    <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>60050</v>
       </c>
@@ -5881,7 +5792,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="16.5">
+    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>60051</v>
       </c>
@@ -5931,7 +5842,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="16.5">
+    <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>60052</v>
       </c>
@@ -5981,7 +5892,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="16.5">
+    <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>60053</v>
       </c>
@@ -6031,7 +5942,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="16.5">
+    <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>60054</v>
       </c>
@@ -6081,7 +5992,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="16.5">
+    <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>60055</v>
       </c>
@@ -6131,7 +6042,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="16.5">
+    <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>60056</v>
       </c>
@@ -6181,7 +6092,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="16.5">
+    <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>60057</v>
       </c>
@@ -6231,7 +6142,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="16.5">
+    <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60058</v>
       </c>
@@ -6281,7 +6192,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="16.5">
+    <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60059</v>
       </c>
@@ -6331,7 +6242,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="16.5">
+    <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60060</v>
       </c>
@@ -6381,7 +6292,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="16.5">
+    <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>60061</v>
       </c>
@@ -6431,7 +6342,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="16.5">
+    <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>60062</v>
       </c>
@@ -6481,7 +6392,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="16.5">
+    <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>60063</v>
       </c>
@@ -6531,7 +6442,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="16.5">
+    <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>60064</v>
       </c>
@@ -6581,7 +6492,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="16.5">
+    <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>60065</v>
       </c>
@@ -6631,7 +6542,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="16.5">
+    <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>60066</v>
       </c>
@@ -6681,7 +6592,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="16.5">
+    <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>60067</v>
       </c>
@@ -6731,7 +6642,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="16.5">
+    <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>60068</v>
       </c>
@@ -6781,7 +6692,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="16.5">
+    <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>60069</v>
       </c>
@@ -6831,7 +6742,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="16.5">
+    <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>60070</v>
       </c>
@@ -6881,7 +6792,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="16.5">
+    <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>60071</v>
       </c>
@@ -6931,7 +6842,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="16.5">
+    <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>60072</v>
       </c>
@@ -6981,7 +6892,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="16.5">
+    <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>60073</v>
       </c>
@@ -7031,7 +6942,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="16.5">
+    <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>60074</v>
       </c>
@@ -7081,7 +6992,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="16.5">
+    <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>60075</v>
       </c>
@@ -7131,7 +7042,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="16.5">
+    <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>70001</v>
       </c>
@@ -7181,7 +7092,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="16.5">
+    <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>70002</v>
       </c>
@@ -7231,7 +7142,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="16.5">
+    <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>70003</v>
       </c>
@@ -7245,7 +7156,7 @@
         <v>361</v>
       </c>
       <c r="E80" t="s">
-        <v>744</v>
+        <v>717</v>
       </c>
       <c r="F80" t="s">
         <v>199</v>
@@ -7281,7 +7192,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="16.5">
+    <row r="81" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>70004</v>
       </c>
@@ -7331,7 +7242,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="16.5">
+    <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>70005</v>
       </c>
@@ -7381,7 +7292,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="16.5">
+    <row r="83" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>70006</v>
       </c>
@@ -7431,7 +7342,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="16.5">
+    <row r="84" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>70007</v>
       </c>
@@ -7481,7 +7392,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="16.5">
+    <row r="85" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>70008</v>
       </c>
@@ -7531,7 +7442,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="16.5">
+    <row r="86" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>70009</v>
       </c>
@@ -7581,7 +7492,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="16.5">
+    <row r="87" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>70010</v>
       </c>
@@ -7589,7 +7500,7 @@
         <v>133</v>
       </c>
       <c r="C87" t="s">
-        <v>745</v>
+        <v>718</v>
       </c>
       <c r="D87" t="s">
         <v>361</v>
@@ -7631,7 +7542,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="16.5">
+    <row r="88" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>70011</v>
       </c>
@@ -7681,7 +7592,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="16.5">
+    <row r="89" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>70012</v>
       </c>
@@ -7731,7 +7642,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="16.5">
+    <row r="90" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>70013</v>
       </c>
@@ -7781,7 +7692,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="16.5">
+    <row r="91" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>70014</v>
       </c>
@@ -7831,7 +7742,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="16.5">
+    <row r="92" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>70015</v>
       </c>
@@ -7881,7 +7792,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="16.5">
+    <row r="93" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>70016</v>
       </c>
@@ -7931,7 +7842,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="16.5">
+    <row r="94" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>70017</v>
       </c>
@@ -7981,7 +7892,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="16.5">
+    <row r="95" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>70018</v>
       </c>
@@ -8031,7 +7942,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="16.5">
+    <row r="96" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>70019</v>
       </c>
@@ -8081,7 +7992,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="16.5">
+    <row r="97" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>70020</v>
       </c>
@@ -8131,7 +8042,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="16.5">
+    <row r="98" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>70021</v>
       </c>
@@ -8181,7 +8092,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="16.5">
+    <row r="99" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>70022</v>
       </c>
@@ -8231,7 +8142,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="16.5">
+    <row r="100" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>70023</v>
       </c>
@@ -8281,7 +8192,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="16.5">
+    <row r="101" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>70024</v>
       </c>
@@ -8331,7 +8242,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="16.5">
+    <row r="102" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>70025</v>
       </c>
@@ -8381,7 +8292,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="16.5">
+    <row r="103" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>70026</v>
       </c>
@@ -8431,7 +8342,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="16.5">
+    <row r="104" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>70027</v>
       </c>
@@ -8481,7 +8392,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="16.5">
+    <row r="105" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>70028</v>
       </c>
@@ -8531,7 +8442,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="16.5">
+    <row r="106" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>70029</v>
       </c>
@@ -8581,7 +8492,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="16.5">
+    <row r="107" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>70030</v>
       </c>
@@ -8631,7 +8542,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="16.5">
+    <row r="108" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>70031</v>
       </c>
@@ -8681,7 +8592,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="16.5">
+    <row r="109" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>70032</v>
       </c>
@@ -8731,7 +8642,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="16.5">
+    <row r="110" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>70033</v>
       </c>
@@ -8781,7 +8692,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="16.5">
+    <row r="111" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70034</v>
       </c>
@@ -8831,7 +8742,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="16.5">
+    <row r="112" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>70035</v>
       </c>
@@ -8881,7 +8792,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="16.5">
+    <row r="113" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>70036</v>
       </c>
@@ -8931,7 +8842,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="16.5">
+    <row r="114" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>70037</v>
       </c>
@@ -8981,7 +8892,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="16.5">
+    <row r="115" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>70038</v>
       </c>
@@ -9031,7 +8942,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="16.5">
+    <row r="116" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>70039</v>
       </c>
@@ -9081,7 +8992,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="16.5">
+    <row r="117" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>70040</v>
       </c>
@@ -9131,7 +9042,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="16.5">
+    <row r="118" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>70041</v>
       </c>
@@ -9181,7 +9092,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="16.5">
+    <row r="119" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>70042</v>
       </c>
@@ -9231,7 +9142,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="16.5">
+    <row r="120" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>70043</v>
       </c>
@@ -9281,7 +9192,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="16.5">
+    <row r="121" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>70044</v>
       </c>
@@ -9331,7 +9242,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="16.5">
+    <row r="122" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>70045</v>
       </c>
@@ -9381,7 +9292,7 @@
         <v>910167</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="16.5">
+    <row r="123" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>70046</v>
       </c>
@@ -9431,7 +9342,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="16.5">
+    <row r="124" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>70047</v>
       </c>
@@ -9481,7 +9392,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="16.5">
+    <row r="125" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>70048</v>
       </c>
@@ -9531,7 +9442,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="16.5">
+    <row r="126" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>70049</v>
       </c>
@@ -9581,7 +9492,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="16.5">
+    <row r="127" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>70050</v>
       </c>
@@ -9631,7 +9542,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="16.5">
+    <row r="128" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>70051</v>
       </c>
@@ -9681,7 +9592,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="16.5">
+    <row r="129" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>70052</v>
       </c>
@@ -9731,7 +9642,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="16.5">
+    <row r="130" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>70053</v>
       </c>
@@ -9781,7 +9692,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="16.5">
+    <row r="131" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>70054</v>
       </c>
@@ -9831,7 +9742,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="16.5">
+    <row r="132" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>70055</v>
       </c>
@@ -9881,7 +9792,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="16.5">
+    <row r="133" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>70056</v>
       </c>
@@ -9931,7 +9842,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="16.5">
+    <row r="134" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>70057</v>
       </c>
@@ -9981,7 +9892,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="16.5">
+    <row r="135" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>70058</v>
       </c>
@@ -10031,7 +9942,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="16.5">
+    <row r="136" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>70059</v>
       </c>
@@ -10081,7 +9992,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="16.5">
+    <row r="137" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>70060</v>
       </c>
@@ -10131,7 +10042,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="16.5">
+    <row r="138" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>70061</v>
       </c>
@@ -10181,7 +10092,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="16.5">
+    <row r="139" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>70062</v>
       </c>
@@ -10231,7 +10142,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="16.5">
+    <row r="140" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>70063</v>
       </c>
@@ -10281,7 +10192,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="16.5">
+    <row r="141" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>70064</v>
       </c>
@@ -10331,7 +10242,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="16.5">
+    <row r="142" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>70065</v>
       </c>
@@ -10381,7 +10292,7 @@
         <v>910069</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="16.5">
+    <row r="143" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>70066</v>
       </c>
@@ -10431,7 +10342,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="16.5">
+    <row r="144" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>70067</v>
       </c>
@@ -10481,7 +10392,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="16.5">
+    <row r="145" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>70068</v>
       </c>
@@ -10531,7 +10442,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="16.5">
+    <row r="146" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>70069</v>
       </c>
@@ -10581,7 +10492,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="16.5">
+    <row r="147" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>70070</v>
       </c>
@@ -10631,7 +10542,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="16.5">
+    <row r="148" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>70071</v>
       </c>
@@ -10681,7 +10592,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="16.5">
+    <row r="149" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>70072</v>
       </c>
@@ -10731,7 +10642,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="16.5">
+    <row r="150" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>70073</v>
       </c>
@@ -10781,7 +10692,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="16.5">
+    <row r="151" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>70074</v>
       </c>
@@ -10831,7 +10742,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="16.5">
+    <row r="152" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>70075</v>
       </c>
@@ -10881,7 +10792,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="16.5">
+    <row r="153" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>70076</v>
       </c>
@@ -10931,7 +10842,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="16.5">
+    <row r="154" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>70077</v>
       </c>
@@ -10939,16 +10850,16 @@
         <v>441</v>
       </c>
       <c r="C154" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="D154" t="s">
-        <v>747</v>
+        <v>720</v>
       </c>
       <c r="E154" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
       <c r="F154" t="s">
-        <v>749</v>
+        <v>722</v>
       </c>
       <c r="G154">
         <v>9</v>
@@ -10981,7 +10892,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="16.5">
+    <row r="155" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>70078</v>
       </c>
@@ -11031,7 +10942,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="16.5">
+    <row r="156" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>70079</v>
       </c>
@@ -11081,7 +10992,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="16.5">
+    <row r="157" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>70080</v>
       </c>
@@ -11131,7 +11042,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="16.5">
+    <row r="158" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>70081</v>
       </c>
@@ -11181,7 +11092,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="16.5">
+    <row r="159" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>70082</v>
       </c>
@@ -11231,7 +11142,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="16.5">
+    <row r="160" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>70083</v>
       </c>
@@ -11281,7 +11192,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="16.5">
+    <row r="161" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>70084</v>
       </c>
@@ -11331,15 +11242,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="16.5">
+    <row r="162" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>70085</v>
       </c>
       <c r="B162" t="s">
-        <v>750</v>
+        <v>723</v>
       </c>
       <c r="C162" t="s">
-        <v>751</v>
+        <v>724</v>
       </c>
       <c r="D162" t="s">
         <v>567</v>
@@ -11381,7 +11292,7 @@
         <v>910149</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="16.5">
+    <row r="163" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>70086</v>
       </c>
@@ -11431,7 +11342,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="16.5">
+    <row r="164" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>70087</v>
       </c>
@@ -11481,7 +11392,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="16.5">
+    <row r="165" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>70088</v>
       </c>
@@ -11531,18 +11442,18 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="16.5">
+    <row r="166" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>70089</v>
       </c>
       <c r="B166" t="s">
-        <v>752</v>
+        <v>725</v>
       </c>
       <c r="C166" t="s">
-        <v>753</v>
+        <v>726</v>
       </c>
       <c r="D166" t="s">
-        <v>754</v>
+        <v>727</v>
       </c>
       <c r="E166" t="s">
         <v>241</v>
@@ -11581,7 +11492,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="16.5">
+    <row r="167" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>70090</v>
       </c>
@@ -11631,24 +11542,24 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="16.5">
+    <row r="168" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>70091</v>
       </c>
       <c r="B168" t="s">
-        <v>755</v>
+        <v>728</v>
       </c>
       <c r="C168" t="s">
-        <v>756</v>
+        <v>729</v>
       </c>
       <c r="D168" t="s">
-        <v>757</v>
+        <v>730</v>
       </c>
       <c r="E168" s="1">
         <v>-1100</v>
       </c>
       <c r="F168" t="s">
-        <v>758</v>
+        <v>731</v>
       </c>
       <c r="G168">
         <v>5</v>
@@ -11681,18 +11592,18 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="16.5">
+    <row r="169" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>87001</v>
       </c>
       <c r="B169" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="C169" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="D169" t="s">
-        <v>761</v>
+        <v>734</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -11731,7 +11642,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="16.5">
+    <row r="170" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>87002</v>
       </c>
@@ -11739,7 +11650,7 @@
         <v>308</v>
       </c>
       <c r="C170" t="s">
-        <v>762</v>
+        <v>735</v>
       </c>
       <c r="D170" t="s">
         <v>310</v>
@@ -11781,7 +11692,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="16.5">
+    <row r="171" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>87003</v>
       </c>
@@ -11831,18 +11742,18 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="16.5">
+    <row r="172" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>87004</v>
       </c>
       <c r="B172" t="s">
-        <v>763</v>
+        <v>736</v>
       </c>
       <c r="C172" t="s">
-        <v>764</v>
+        <v>737</v>
       </c>
       <c r="D172" t="s">
-        <v>765</v>
+        <v>738</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -11881,7 +11792,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="16.5">
+    <row r="173" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>87005</v>
       </c>
@@ -11931,15 +11842,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="16.5">
+    <row r="174" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>87006</v>
       </c>
       <c r="B174" t="s">
-        <v>766</v>
+        <v>739</v>
       </c>
       <c r="C174" t="s">
-        <v>767</v>
+        <v>740</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -11981,15 +11892,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="16.5">
+    <row r="175" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>87007</v>
       </c>
       <c r="B175" t="s">
-        <v>768</v>
+        <v>741</v>
       </c>
       <c r="C175" t="s">
-        <v>769</v>
+        <v>742</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -12031,7 +11942,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="16.5">
+    <row r="176" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>87008</v>
       </c>
@@ -12081,7 +11992,7 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="16.5">
+    <row r="177" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>87009</v>
       </c>
@@ -12131,15 +12042,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="16.5">
+    <row r="178" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>87010</v>
       </c>
       <c r="B178" t="s">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="C178" t="s">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -12154,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>772</v>
+        <v>745</v>
       </c>
       <c r="I178">
         <v>987037</v>
@@ -12181,15 +12092,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="16.5">
+    <row r="179" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>87011</v>
       </c>
       <c r="B179" t="s">
-        <v>773</v>
+        <v>746</v>
       </c>
       <c r="C179" t="s">
-        <v>774</v>
+        <v>747</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -12204,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>775</v>
+        <v>748</v>
       </c>
       <c r="I179">
         <v>987038</v>
@@ -12231,15 +12142,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="16.5">
+    <row r="180" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>87012</v>
       </c>
       <c r="B180" t="s">
-        <v>776</v>
+        <v>749</v>
       </c>
       <c r="C180" t="s">
-        <v>777</v>
+        <v>750</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -12254,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>778</v>
+        <v>751</v>
       </c>
       <c r="I180">
         <v>987039</v>
@@ -12281,15 +12192,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="16.5">
+    <row r="181" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>87013</v>
       </c>
       <c r="B181" t="s">
-        <v>779</v>
+        <v>752</v>
       </c>
       <c r="C181" t="s">
-        <v>780</v>
+        <v>753</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -12304,7 +12215,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="s">
-        <v>781</v>
+        <v>754</v>
       </c>
       <c r="I181">
         <v>987040</v>
@@ -12331,15 +12242,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="16.5">
+    <row r="182" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>87014</v>
       </c>
       <c r="B182" t="s">
-        <v>782</v>
+        <v>755</v>
       </c>
       <c r="C182" t="s">
-        <v>783</v>
+        <v>756</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -12354,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>784</v>
+        <v>757</v>
       </c>
       <c r="I182">
         <v>987041</v>
@@ -12381,15 +12292,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="16.5">
+    <row r="183" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>87015</v>
       </c>
       <c r="B183" t="s">
-        <v>785</v>
+        <v>758</v>
       </c>
       <c r="C183" t="s">
-        <v>786</v>
+        <v>759</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -12431,15 +12342,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="16.5">
+    <row r="184" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>87016</v>
       </c>
       <c r="B184" t="s">
-        <v>787</v>
+        <v>760</v>
       </c>
       <c r="C184" t="s">
-        <v>788</v>
+        <v>761</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -12481,15 +12392,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="16.5">
+    <row r="185" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>87017</v>
       </c>
       <c r="B185" t="s">
-        <v>789</v>
+        <v>762</v>
       </c>
       <c r="C185" t="s">
-        <v>788</v>
+        <v>761</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -12531,7 +12442,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="16.5">
+    <row r="186" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>87018</v>
       </c>
@@ -12581,15 +12492,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="16.5">
+    <row r="187" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>87019</v>
       </c>
       <c r="B187" t="s">
-        <v>790</v>
+        <v>763</v>
       </c>
       <c r="C187" t="s">
-        <v>791</v>
+        <v>764</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -12631,15 +12542,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="16.5">
+    <row r="188" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>87020</v>
       </c>
       <c r="B188" t="s">
-        <v>792</v>
+        <v>765</v>
       </c>
       <c r="C188" t="s">
-        <v>793</v>
+        <v>766</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -12681,15 +12592,15 @@
         <v>987024</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="16.5">
+    <row r="189" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>87021</v>
       </c>
       <c r="B189" t="s">
-        <v>794</v>
+        <v>767</v>
       </c>
       <c r="C189" t="s">
-        <v>795</v>
+        <v>768</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -12731,7 +12642,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="16.5">
+    <row r="190" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>87022</v>
       </c>
@@ -12781,7 +12692,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="16.5">
+    <row r="191" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>87023</v>
       </c>
@@ -12831,15 +12742,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="16.5">
+    <row r="192" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>87024</v>
       </c>
       <c r="B192" t="s">
-        <v>796</v>
+        <v>769</v>
       </c>
       <c r="C192" t="s">
-        <v>797</v>
+        <v>770</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -12881,15 +12792,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="16.5">
+    <row r="193" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>87025</v>
       </c>
       <c r="B193" t="s">
-        <v>798</v>
+        <v>771</v>
       </c>
       <c r="C193" t="s">
-        <v>799</v>
+        <v>772</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -12931,15 +12842,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="16.5">
+    <row r="194" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>87026</v>
       </c>
       <c r="B194" t="s">
-        <v>800</v>
+        <v>773</v>
       </c>
       <c r="C194" t="s">
-        <v>801</v>
+        <v>774</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -12981,15 +12892,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="16.5">
+    <row r="195" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>87027</v>
       </c>
       <c r="B195" t="s">
-        <v>802</v>
+        <v>775</v>
       </c>
       <c r="C195" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -13031,15 +12942,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="16.5">
+    <row r="196" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>87028</v>
       </c>
       <c r="B196" t="s">
-        <v>804</v>
+        <v>777</v>
       </c>
       <c r="C196" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -13081,15 +12992,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="16.5">
+    <row r="197" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>87029</v>
       </c>
       <c r="B197" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
       <c r="C197" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -13131,15 +13042,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="16.5">
+    <row r="198" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>87030</v>
       </c>
       <c r="B198" t="s">
-        <v>808</v>
+        <v>781</v>
       </c>
       <c r="C198" t="s">
-        <v>809</v>
+        <v>782</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -13181,15 +13092,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="16.5">
+    <row r="199" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>87031</v>
       </c>
       <c r="B199" t="s">
-        <v>810</v>
+        <v>783</v>
       </c>
       <c r="C199" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -13231,15 +13142,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="16.5">
+    <row r="200" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>87032</v>
       </c>
       <c r="B200" t="s">
-        <v>812</v>
+        <v>785</v>
       </c>
       <c r="C200" t="s">
-        <v>813</v>
+        <v>786</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -13281,15 +13192,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="16.5">
+    <row r="201" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>87033</v>
       </c>
       <c r="B201" t="s">
-        <v>814</v>
+        <v>787</v>
       </c>
       <c r="C201" t="s">
-        <v>815</v>
+        <v>788</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -13331,15 +13242,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="16.5">
+    <row r="202" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>87034</v>
       </c>
       <c r="B202" t="s">
-        <v>816</v>
+        <v>789</v>
       </c>
       <c r="C202" t="s">
-        <v>817</v>
+        <v>790</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -13381,15 +13292,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="16.5">
+    <row r="203" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>87035</v>
       </c>
       <c r="B203" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="C203" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -13431,12 +13342,12 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="16.5">
+    <row r="204" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>87036</v>
       </c>
       <c r="B204" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="C204" t="s">
         <v>510</v>
@@ -13481,15 +13392,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="16.5">
+    <row r="205" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>87037</v>
       </c>
       <c r="B205" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
       <c r="C205" t="s">
-        <v>822</v>
+        <v>795</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -13531,15 +13442,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="16.5">
+    <row r="206" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>87038</v>
       </c>
       <c r="B206" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="C206" t="s">
-        <v>824</v>
+        <v>797</v>
       </c>
       <c r="D206">
         <v>2</v>
@@ -13581,15 +13492,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="16.5">
+    <row r="207" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>87039</v>
       </c>
       <c r="B207" t="s">
-        <v>825</v>
+        <v>798</v>
       </c>
       <c r="C207" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="D207">
         <v>3</v>
@@ -13631,15 +13542,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="16.5">
+    <row r="208" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>87040</v>
       </c>
       <c r="B208" t="s">
-        <v>827</v>
+        <v>800</v>
       </c>
       <c r="C208" t="s">
-        <v>828</v>
+        <v>801</v>
       </c>
       <c r="D208">
         <v>4</v>
@@ -13681,15 +13592,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="16.5">
+    <row r="209" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>87041</v>
       </c>
       <c r="B209" t="s">
-        <v>829</v>
+        <v>802</v>
       </c>
       <c r="C209" t="s">
-        <v>830</v>
+        <v>803</v>
       </c>
       <c r="D209">
         <v>5</v>
@@ -13731,15 +13642,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="16.5">
+    <row r="210" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>87042</v>
       </c>
       <c r="B210" t="s">
-        <v>831</v>
+        <v>804</v>
       </c>
       <c r="C210" t="s">
-        <v>832</v>
+        <v>805</v>
       </c>
       <c r="D210">
         <v>6</v>
@@ -13781,15 +13692,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="16.5">
+    <row r="211" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>87043</v>
       </c>
       <c r="B211" t="s">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="C211" t="s">
-        <v>834</v>
+        <v>807</v>
       </c>
       <c r="D211">
         <v>7</v>
@@ -13831,7 +13742,7 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="16.5">
+    <row r="212" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>87044</v>
       </c>
@@ -13842,7 +13753,7 @@
         <v>232</v>
       </c>
       <c r="D212" t="s">
-        <v>835</v>
+        <v>808</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -13881,15 +13792,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="16.5">
+    <row r="213" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>87045</v>
       </c>
       <c r="B213" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="C213" t="s">
-        <v>837</v>
+        <v>810</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -13931,15 +13842,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="16.5">
+    <row r="214" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>87046</v>
       </c>
       <c r="B214" t="s">
-        <v>838</v>
+        <v>811</v>
       </c>
       <c r="C214" t="s">
-        <v>839</v>
+        <v>812</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -13981,15 +13892,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="16.5">
+    <row r="215" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>87047</v>
       </c>
       <c r="B215" t="s">
-        <v>840</v>
+        <v>813</v>
       </c>
       <c r="C215" t="s">
-        <v>841</v>
+        <v>814</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -14031,15 +13942,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="16.5">
+    <row r="216" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>87048</v>
       </c>
       <c r="B216" t="s">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="C216" t="s">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -14081,15 +13992,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="16.5">
+    <row r="217" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>87049</v>
       </c>
       <c r="B217" t="s">
-        <v>844</v>
+        <v>817</v>
       </c>
       <c r="C217" t="s">
-        <v>845</v>
+        <v>818</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -14131,15 +14042,15 @@
         <v>987009</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="16.5">
+    <row r="218" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>87050</v>
       </c>
       <c r="B218" t="s">
-        <v>846</v>
+        <v>819</v>
       </c>
       <c r="C218" t="s">
-        <v>847</v>
+        <v>820</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -14182,7 +14093,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O156"/>
+  <autoFilter ref="A2:O156" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
@@ -14193,16 +14104,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14213,7 +14124,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -14236,7 +14147,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>60001</v>
       </c>
@@ -14254,7 +14165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>60002</v>
       </c>
@@ -14262,7 +14173,7 @@
         <v>28</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J67" si="0">$K$2&amp;$L$2&amp;$M$2&amp;A4&amp;$O$2</f>
+        <f t="shared" ref="J4:J65" si="0">$K$2&amp;$L$2&amp;$M$2&amp;A4&amp;$O$2</f>
         <v>(8,60002,0)</v>
       </c>
       <c r="Q4" t="s">
@@ -14272,7 +14183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>60003</v>
       </c>
@@ -14290,7 +14201,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>60004</v>
       </c>
@@ -14308,7 +14219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>60005</v>
       </c>
@@ -14326,7 +14237,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>60006</v>
       </c>
@@ -14344,7 +14255,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>60007</v>
       </c>
@@ -14362,7 +14273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>60008</v>
       </c>
@@ -14380,7 +14291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>60009</v>
       </c>
@@ -14398,7 +14309,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>60010</v>
       </c>
@@ -14416,7 +14327,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>60011</v>
       </c>
@@ -14434,7 +14345,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>60012</v>
       </c>
@@ -14452,7 +14363,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>60013</v>
       </c>
@@ -14470,7 +14381,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>60014</v>
       </c>
@@ -14488,16 +14399,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>60015</v>
+        <v>60017</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60015,0)</v>
+        <v>(8,60017,0)</v>
       </c>
       <c r="Q17" t="s">
         <v>604</v>
@@ -14506,16 +14417,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>60016</v>
+        <v>60018</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60016,0)</v>
+        <v>(8,60018,0)</v>
       </c>
       <c r="Q18" t="s">
         <v>605</v>
@@ -14524,16 +14435,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>60017</v>
+        <v>60019</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60017,0)</v>
+        <v>(8,60019,0)</v>
       </c>
       <c r="Q19" t="s">
         <v>606</v>
@@ -14542,16 +14453,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>60018</v>
+        <v>60020</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60018,0)</v>
+        <v>(8,60020,0)</v>
       </c>
       <c r="Q20" t="s">
         <v>607</v>
@@ -14560,16 +14471,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>60019</v>
+        <v>60021</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60019,0)</v>
+        <v>(8,60021,0)</v>
       </c>
       <c r="Q21" t="s">
         <v>608</v>
@@ -14578,16 +14489,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>60020</v>
+        <v>60022</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60020,0)</v>
+        <v>(8,60022,0)</v>
       </c>
       <c r="Q22" t="s">
         <v>609</v>
@@ -14596,16 +14507,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>60021</v>
+        <v>60023</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60021,0)</v>
+        <v>(8,60023,0)</v>
       </c>
       <c r="Q23" t="s">
         <v>610</v>
@@ -14614,16 +14525,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>60022</v>
+        <v>60024</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60022,0)</v>
+        <v>(8,60024,0)</v>
       </c>
       <c r="Q24" t="s">
         <v>611</v>
@@ -14632,16 +14543,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>60023</v>
+        <v>60025</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60023,0)</v>
+        <v>(8,60025,0)</v>
       </c>
       <c r="Q25" t="s">
         <v>612</v>
@@ -14650,16 +14561,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>60024</v>
+        <v>60026</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60024,0)</v>
+        <v>(8,60026,0)</v>
       </c>
       <c r="Q26" t="s">
         <v>613</v>
@@ -14668,16 +14579,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>60025</v>
+        <v>60027</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60025,0)</v>
+        <v>(8,60027,0)</v>
       </c>
       <c r="Q27" t="s">
         <v>614</v>
@@ -14686,16 +14597,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>60026</v>
+        <v>60028</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60026,0)</v>
+        <v>(8,60028,0)</v>
       </c>
       <c r="Q28" t="s">
         <v>615</v>
@@ -14704,16 +14615,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>60027</v>
+        <v>60029</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60027,0)</v>
+        <v>(8,60029,0)</v>
       </c>
       <c r="Q29" t="s">
         <v>616</v>
@@ -14722,16 +14633,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>60028</v>
+        <v>60030</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60028,0)</v>
+        <v>(8,60030,0)</v>
       </c>
       <c r="Q30" t="s">
         <v>617</v>
@@ -14740,16 +14651,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>60029</v>
+        <v>60031</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60029,0)</v>
+        <v>(8,60031,0)</v>
       </c>
       <c r="Q31" t="s">
         <v>618</v>
@@ -14758,16 +14669,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>60030</v>
+        <v>60032</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60030,0)</v>
+        <v>(8,60032,0)</v>
       </c>
       <c r="Q32" t="s">
         <v>619</v>
@@ -14776,16 +14687,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>60031</v>
+        <v>60033</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60031,0)</v>
+        <v>(8,60033,0)</v>
       </c>
       <c r="Q33" t="s">
         <v>620</v>
@@ -14794,16 +14705,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>60032</v>
+        <v>60034</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60032,0)</v>
+        <v>(8,60034,0)</v>
       </c>
       <c r="Q34" t="s">
         <v>621</v>
@@ -14812,16 +14723,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>60033</v>
+        <v>60035</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60033,0)</v>
+        <v>(8,60035,0)</v>
       </c>
       <c r="Q35" t="s">
         <v>622</v>
@@ -14830,16 +14741,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>60034</v>
+        <v>60036</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60034,0)</v>
+        <v>(8,60036,0)</v>
       </c>
       <c r="Q36" t="s">
         <v>623</v>
@@ -14848,16 +14759,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>60035</v>
+        <v>60037</v>
       </c>
       <c r="B37" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60035,0)</v>
+        <v>(8,60037,0)</v>
       </c>
       <c r="Q37" t="s">
         <v>624</v>
@@ -14866,16 +14777,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>60036</v>
+        <v>60038</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60036,0)</v>
+        <v>(8,60038,0)</v>
       </c>
       <c r="Q38" t="s">
         <v>625</v>
@@ -14884,16 +14795,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>60037</v>
+        <v>60039</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60037,0)</v>
+        <v>(8,60039,0)</v>
       </c>
       <c r="Q39" t="s">
         <v>626</v>
@@ -14902,16 +14813,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>60038</v>
+        <v>60040</v>
       </c>
       <c r="B40" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60038,0)</v>
+        <v>(8,60040,0)</v>
       </c>
       <c r="Q40" t="s">
         <v>627</v>
@@ -14920,16 +14831,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>60039</v>
+        <v>60041</v>
       </c>
       <c r="B41" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60039,0)</v>
+        <v>(8,60041,0)</v>
       </c>
       <c r="Q41" t="s">
         <v>628</v>
@@ -14938,16 +14849,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>60040</v>
+        <v>60042</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60040,0)</v>
+        <v>(8,60042,0)</v>
       </c>
       <c r="Q42" t="s">
         <v>629</v>
@@ -14956,16 +14867,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>60041</v>
+        <v>60043</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60041,0)</v>
+        <v>(8,60043,0)</v>
       </c>
       <c r="Q43" t="s">
         <v>630</v>
@@ -14974,16 +14885,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>60042</v>
+        <v>60044</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60042,0)</v>
+        <v>(8,60044,0)</v>
       </c>
       <c r="Q44" t="s">
         <v>631</v>
@@ -14992,16 +14903,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>60043</v>
+        <v>60045</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60043,0)</v>
+        <v>(8,60045,0)</v>
       </c>
       <c r="Q45" t="s">
         <v>632</v>
@@ -15010,16 +14921,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>60044</v>
+        <v>60046</v>
       </c>
       <c r="B46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60044,0)</v>
+        <v>(8,60046,0)</v>
       </c>
       <c r="Q46" t="s">
         <v>633</v>
@@ -15028,16 +14939,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>60045</v>
+        <v>60047</v>
       </c>
       <c r="B47" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60045,0)</v>
+        <v>(8,60047,0)</v>
       </c>
       <c r="Q47" t="s">
         <v>634</v>
@@ -15046,16 +14957,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>60046</v>
+        <v>60048</v>
       </c>
       <c r="B48" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60046,0)</v>
+        <v>(8,60048,0)</v>
       </c>
       <c r="Q48" t="s">
         <v>635</v>
@@ -15064,16 +14975,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>60047</v>
+        <v>60049</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60047,0)</v>
+        <v>(8,60049,0)</v>
       </c>
       <c r="Q49" t="s">
         <v>636</v>
@@ -15082,16 +14993,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>60048</v>
+        <v>60050</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60048,0)</v>
+        <v>(8,60050,0)</v>
       </c>
       <c r="Q50" t="s">
         <v>637</v>
@@ -15100,16 +15011,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>60049</v>
+        <v>60051</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60049,0)</v>
+        <v>(8,60051,0)</v>
       </c>
       <c r="Q51" t="s">
         <v>638</v>
@@ -15118,16 +15029,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>60050</v>
+        <v>60052</v>
       </c>
       <c r="B52" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60050,0)</v>
+        <v>(8,60052,0)</v>
       </c>
       <c r="Q52" t="s">
         <v>639</v>
@@ -15136,16 +15047,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>60051</v>
+        <v>60053</v>
       </c>
       <c r="B53" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60051,0)</v>
+        <v>(8,60053,0)</v>
       </c>
       <c r="Q53" t="s">
         <v>640</v>
@@ -15154,16 +15065,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>60052</v>
+        <v>60054</v>
       </c>
       <c r="B54" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60052,0)</v>
+        <v>(8,60054,0)</v>
       </c>
       <c r="Q54" t="s">
         <v>641</v>
@@ -15172,16 +15083,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>60053</v>
+        <v>60055</v>
       </c>
       <c r="B55" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60053,0)</v>
+        <v>(8,60055,0)</v>
       </c>
       <c r="Q55" t="s">
         <v>642</v>
@@ -15190,16 +15101,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>60054</v>
+        <v>60056</v>
       </c>
       <c r="B56" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60054,0)</v>
+        <v>(8,60056,0)</v>
       </c>
       <c r="Q56" t="s">
         <v>643</v>
@@ -15208,16 +15119,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>60055</v>
+        <v>60057</v>
       </c>
       <c r="B57" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60055,0)</v>
+        <v>(8,60057,0)</v>
       </c>
       <c r="Q57" t="s">
         <v>644</v>
@@ -15226,16 +15137,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>60056</v>
+        <v>60058</v>
       </c>
       <c r="B58" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60056,0)</v>
+        <v>(8,60058,0)</v>
       </c>
       <c r="Q58" t="s">
         <v>645</v>
@@ -15244,16 +15155,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>60057</v>
+        <v>60059</v>
       </c>
       <c r="B59" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60057,0)</v>
+        <v>(8,60059,0)</v>
       </c>
       <c r="Q59" t="s">
         <v>646</v>
@@ -15262,16 +15173,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>60058</v>
+        <v>60060</v>
       </c>
       <c r="B60" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60058,0)</v>
+        <v>(8,60060,0)</v>
       </c>
       <c r="Q60" t="s">
         <v>647</v>
@@ -15280,16 +15191,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>60059</v>
+        <v>60061</v>
       </c>
       <c r="B61" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60059,0)</v>
+        <v>(8,60061,0)</v>
       </c>
       <c r="Q61" t="s">
         <v>648</v>
@@ -15298,16 +15209,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>60060</v>
+        <v>60062</v>
       </c>
       <c r="B62" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60060,0)</v>
+        <v>(8,60062,0)</v>
       </c>
       <c r="Q62" t="s">
         <v>649</v>
@@ -15316,16 +15227,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>60061</v>
+        <v>60063</v>
       </c>
       <c r="B63" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60061,0)</v>
+        <v>(8,60063,0)</v>
       </c>
       <c r="Q63" t="s">
         <v>650</v>
@@ -15334,16 +15245,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>60062</v>
+        <v>60064</v>
       </c>
       <c r="B64" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60062,0)</v>
+        <v>(8,60064,0)</v>
       </c>
       <c r="Q64" t="s">
         <v>651</v>
@@ -15352,16 +15263,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>60063</v>
+        <v>60065</v>
       </c>
       <c r="B65" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="0"/>
-        <v>(8,60063,0)</v>
+        <v>(8,60065,0)</v>
       </c>
       <c r="Q65" t="s">
         <v>652</v>
@@ -15370,16 +15281,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>60064</v>
+        <v>60066</v>
       </c>
       <c r="B66" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="0"/>
-        <v>(8,60064,0)</v>
+        <f t="shared" ref="J66:J110" si="1">$K$2&amp;$L$2&amp;$M$2&amp;A66&amp;$O$2</f>
+        <v>(8,60066,0)</v>
       </c>
       <c r="Q66" t="s">
         <v>653</v>
@@ -15388,16 +15299,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>60065</v>
+        <v>60067</v>
       </c>
       <c r="B67" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="0"/>
-        <v>(8,60065,0)</v>
+        <f t="shared" si="1"/>
+        <v>(8,60067,0)</v>
       </c>
       <c r="Q67" t="s">
         <v>654</v>
@@ -15406,16 +15317,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>60066</v>
+        <v>60068</v>
       </c>
       <c r="B68" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" ref="J68:J131" si="1">$K$2&amp;$L$2&amp;$M$2&amp;A68&amp;$O$2</f>
-        <v>(8,60066,0)</v>
+        <f t="shared" si="1"/>
+        <v>(8,60068,0)</v>
       </c>
       <c r="Q68" t="s">
         <v>655</v>
@@ -15424,16 +15335,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>60067</v>
+        <v>60069</v>
       </c>
       <c r="B69" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="J69" t="str">
         <f t="shared" si="1"/>
-        <v>(8,60067,0)</v>
+        <v>(8,60069,0)</v>
       </c>
       <c r="Q69" t="s">
         <v>656</v>
@@ -15442,16 +15353,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>60068</v>
+        <v>60070</v>
       </c>
       <c r="B70" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="1"/>
-        <v>(8,60068,0)</v>
+        <v>(8,60070,0)</v>
       </c>
       <c r="Q70" t="s">
         <v>657</v>
@@ -15460,16 +15371,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>60069</v>
+        <v>60071</v>
       </c>
       <c r="B71" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" si="1"/>
-        <v>(8,60069,0)</v>
+        <v>(8,60071,0)</v>
       </c>
       <c r="Q71" t="s">
         <v>658</v>
@@ -15478,16 +15389,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>60070</v>
+        <v>60072</v>
       </c>
       <c r="B72" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="1"/>
-        <v>(8,60070,0)</v>
+        <v>(8,60072,0)</v>
       </c>
       <c r="Q72" t="s">
         <v>659</v>
@@ -15496,16 +15407,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>60071</v>
+        <v>60073</v>
       </c>
       <c r="B73" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" si="1"/>
-        <v>(8,60071,0)</v>
+        <v>(8,60073,0)</v>
       </c>
       <c r="Q73" t="s">
         <v>660</v>
@@ -15514,16 +15425,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>60072</v>
+        <v>60074</v>
       </c>
       <c r="B74" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="1"/>
-        <v>(8,60072,0)</v>
+        <v>(8,60074,0)</v>
       </c>
       <c r="Q74" t="s">
         <v>661</v>
@@ -15532,16 +15443,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>60073</v>
+        <v>60075</v>
       </c>
       <c r="B75" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="1"/>
-        <v>(8,60073,0)</v>
+        <v>(8,60075,0)</v>
       </c>
       <c r="Q75" t="s">
         <v>662</v>
@@ -15550,16 +15461,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>60074</v>
+        <v>70001</v>
       </c>
       <c r="B76" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="1"/>
-        <v>(8,60074,0)</v>
+        <v>(8,70001,0)</v>
       </c>
       <c r="Q76" t="s">
         <v>663</v>
@@ -15568,16 +15479,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>60075</v>
+        <v>70002</v>
       </c>
       <c r="B77" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="J77" t="str">
         <f t="shared" si="1"/>
-        <v>(8,60075,0)</v>
+        <v>(8,70002,0)</v>
       </c>
       <c r="Q77" t="s">
         <v>664</v>
@@ -15586,34 +15497,34 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>70001</v>
+        <v>70004</v>
       </c>
       <c r="B78" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="J78" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70001,0)</v>
+        <v>(8,70004,0)</v>
       </c>
       <c r="Q78" t="s">
         <v>665</v>
       </c>
       <c r="S78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>70002</v>
+        <v>70005</v>
       </c>
       <c r="B79" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="J79" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70002,0)</v>
+        <v>(8,70005,0)</v>
       </c>
       <c r="Q79" t="s">
         <v>666</v>
@@ -15622,34 +15533,34 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>70004</v>
+        <v>70009</v>
       </c>
       <c r="B80" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="J80" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70004,0)</v>
+        <v>(8,70009,0)</v>
       </c>
       <c r="Q80" t="s">
         <v>667</v>
       </c>
       <c r="S80" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>70005</v>
+        <v>70011</v>
       </c>
       <c r="B81" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="J81" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70005,0)</v>
+        <v>(8,70011,0)</v>
       </c>
       <c r="Q81" t="s">
         <v>668</v>
@@ -15658,16 +15569,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>70006</v>
+        <v>70012</v>
       </c>
       <c r="B82" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70006,0)</v>
+        <v>(8,70012,0)</v>
       </c>
       <c r="Q82" t="s">
         <v>669</v>
@@ -15676,16 +15587,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>70007</v>
+        <v>70013</v>
       </c>
       <c r="B83" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70007,0)</v>
+        <v>(8,70013,0)</v>
       </c>
       <c r="Q83" t="s">
         <v>670</v>
@@ -15694,16 +15605,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>70008</v>
+        <v>70014</v>
       </c>
       <c r="B84" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="J84" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70008,0)</v>
+        <v>(8,70014,0)</v>
       </c>
       <c r="Q84" t="s">
         <v>671</v>
@@ -15712,16 +15623,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>70009</v>
+        <v>70017</v>
       </c>
       <c r="B85" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="J85" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70009,0)</v>
+        <v>(8,70017,0)</v>
       </c>
       <c r="Q85" t="s">
         <v>672</v>
@@ -15730,16 +15641,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>70011</v>
+        <v>70018</v>
       </c>
       <c r="B86" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70011,0)</v>
+        <v>(8,70018,0)</v>
       </c>
       <c r="Q86" t="s">
         <v>673</v>
@@ -15748,16 +15659,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>70012</v>
+        <v>70021</v>
       </c>
       <c r="B87" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="J87" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70012,0)</v>
+        <v>(8,70021,0)</v>
       </c>
       <c r="Q87" t="s">
         <v>674</v>
@@ -15766,16 +15677,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>70013</v>
+        <v>70022</v>
       </c>
       <c r="B88" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="J88" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70013,0)</v>
+        <v>(8,70022,0)</v>
       </c>
       <c r="Q88" t="s">
         <v>675</v>
@@ -15784,16 +15695,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>70014</v>
+        <v>70023</v>
       </c>
       <c r="B89" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="J89" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70014,0)</v>
+        <v>(8,70023,0)</v>
       </c>
       <c r="Q89" t="s">
         <v>676</v>
@@ -15802,16 +15713,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>70017</v>
+        <v>70024</v>
       </c>
       <c r="B90" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="J90" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70017,0)</v>
+        <v>(8,70024,0)</v>
       </c>
       <c r="Q90" t="s">
         <v>677</v>
@@ -15820,16 +15731,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>70018</v>
+        <v>70025</v>
       </c>
       <c r="B91" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="J91" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70018,0)</v>
+        <v>(8,70025,0)</v>
       </c>
       <c r="Q91" t="s">
         <v>678</v>
@@ -15838,16 +15749,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>70020</v>
+        <v>70029</v>
       </c>
       <c r="B92" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="J92" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70020,0)</v>
+        <v>(8,70029,0)</v>
       </c>
       <c r="Q92" t="s">
         <v>679</v>
@@ -15856,16 +15767,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>70021</v>
+        <v>70030</v>
       </c>
       <c r="B93" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="J93" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70021,0)</v>
+        <v>(8,70030,0)</v>
       </c>
       <c r="Q93" t="s">
         <v>680</v>
@@ -15874,16 +15785,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>70022</v>
+        <v>70031</v>
       </c>
       <c r="B94" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="J94" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70022,0)</v>
+        <v>(8,70031,0)</v>
       </c>
       <c r="Q94" t="s">
         <v>681</v>
@@ -15892,16 +15803,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>70023</v>
+        <v>70032</v>
       </c>
       <c r="B95" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="J95" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70023,0)</v>
+        <v>(8,70032,0)</v>
       </c>
       <c r="Q95" t="s">
         <v>682</v>
@@ -15910,16 +15821,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>70024</v>
+        <v>70033</v>
       </c>
       <c r="B96" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="J96" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70024,0)</v>
+        <v>(8,70033,0)</v>
       </c>
       <c r="Q96" t="s">
         <v>683</v>
@@ -15928,16 +15839,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>70025</v>
+        <v>70034</v>
       </c>
       <c r="B97" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="J97" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70025,0)</v>
+        <v>(8,70034,0)</v>
       </c>
       <c r="Q97" t="s">
         <v>684</v>
@@ -15946,16 +15857,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>70026</v>
+        <v>70035</v>
       </c>
       <c r="B98" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="J98" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70026,0)</v>
+        <v>(8,70035,0)</v>
       </c>
       <c r="Q98" t="s">
         <v>685</v>
@@ -15964,16 +15875,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>70027</v>
+        <v>70036</v>
       </c>
       <c r="B99" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="J99" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70027,0)</v>
+        <v>(8,70036,0)</v>
       </c>
       <c r="Q99" t="s">
         <v>686</v>
@@ -15982,16 +15893,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>70028</v>
+        <v>70039</v>
       </c>
       <c r="B100" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="J100" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70028,0)</v>
+        <v>(8,70039,0)</v>
       </c>
       <c r="Q100" t="s">
         <v>687</v>
@@ -16000,16 +15911,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>70029</v>
+        <v>70041</v>
       </c>
       <c r="B101" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="J101" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70029,0)</v>
+        <v>(8,70041,0)</v>
       </c>
       <c r="Q101" t="s">
         <v>688</v>
@@ -16018,16 +15929,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>70030</v>
+        <v>70042</v>
       </c>
       <c r="B102" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="J102" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70030,0)</v>
+        <v>(8,70042,0)</v>
       </c>
       <c r="Q102" t="s">
         <v>689</v>
@@ -16036,16 +15947,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>70031</v>
+        <v>70043</v>
       </c>
       <c r="B103" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="J103" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70031,0)</v>
+        <v>(8,70043,0)</v>
       </c>
       <c r="Q103" t="s">
         <v>690</v>
@@ -16054,16 +15965,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>70032</v>
+        <v>70044</v>
       </c>
       <c r="B104" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="J104" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70032,0)</v>
+        <v>(8,70044,0)</v>
       </c>
       <c r="Q104" t="s">
         <v>691</v>
@@ -16072,16 +15983,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>70033</v>
+        <v>70046</v>
       </c>
       <c r="B105" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="J105" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70033,0)</v>
+        <v>(8,70046,0)</v>
       </c>
       <c r="Q105" t="s">
         <v>692</v>
@@ -16090,16 +16001,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>70034</v>
+        <v>70047</v>
       </c>
       <c r="B106" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="J106" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70034,0)</v>
+        <v>(8,70047,0)</v>
       </c>
       <c r="Q106" t="s">
         <v>693</v>
@@ -16108,16 +16019,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>70035</v>
+        <v>70048</v>
       </c>
       <c r="B107" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="J107" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70035,0)</v>
+        <v>(8,70048,0)</v>
       </c>
       <c r="Q107" t="s">
         <v>694</v>
@@ -16126,16 +16037,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>70036</v>
+        <v>70049</v>
       </c>
       <c r="B108" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="J108" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70036,0)</v>
+        <v>(8,70049,0)</v>
       </c>
       <c r="Q108" t="s">
         <v>695</v>
@@ -16144,16 +16055,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>70038</v>
+        <v>70050</v>
       </c>
       <c r="B109" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="J109" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70038,0)</v>
+        <v>(8,70050,0)</v>
       </c>
       <c r="Q109" t="s">
         <v>696</v>
@@ -16162,16 +16073,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>70039</v>
+        <v>70051</v>
       </c>
       <c r="B110" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="J110" t="str">
         <f t="shared" si="1"/>
-        <v>(8,70039,0)</v>
+        <v>(8,70051,0)</v>
       </c>
       <c r="Q110" t="s">
         <v>697</v>
@@ -16180,16 +16091,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>70041</v>
+        <v>70066</v>
       </c>
       <c r="B111" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="J111" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70041,0)</v>
+        <f t="shared" ref="J111:J129" si="2">$K$2&amp;$L$2&amp;$M$2&amp;A111&amp;$O$2</f>
+        <v>(8,70066,0)</v>
       </c>
       <c r="Q111" t="s">
         <v>698</v>
@@ -16198,16 +16109,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>70042</v>
+        <v>70067</v>
       </c>
       <c r="B112" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="J112" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70042,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70067,0)</v>
       </c>
       <c r="Q112" t="s">
         <v>699</v>
@@ -16216,16 +16127,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>70043</v>
+        <v>70068</v>
       </c>
       <c r="B113" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="J113" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70043,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70068,0)</v>
       </c>
       <c r="Q113" t="s">
         <v>700</v>
@@ -16234,16 +16145,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>70044</v>
+        <v>70069</v>
       </c>
       <c r="B114" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="J114" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70044,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70069,0)</v>
       </c>
       <c r="Q114" t="s">
         <v>701</v>
@@ -16252,16 +16163,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>70045</v>
+        <v>70070</v>
       </c>
       <c r="B115" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="J115" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70045,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70070,0)</v>
       </c>
       <c r="Q115" t="s">
         <v>702</v>
@@ -16270,16 +16181,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>70046</v>
+        <v>70071</v>
       </c>
       <c r="B116" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="J116" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70046,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70071,0)</v>
       </c>
       <c r="Q116" t="s">
         <v>703</v>
@@ -16288,16 +16199,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>70047</v>
+        <v>70072</v>
       </c>
       <c r="B117" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="J117" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70047,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70072,0)</v>
       </c>
       <c r="Q117" t="s">
         <v>704</v>
@@ -16306,16 +16217,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>70048</v>
+        <v>70076</v>
       </c>
       <c r="B118" t="s">
-        <v>475</v>
+        <v>540</v>
       </c>
       <c r="J118" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70048,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70076,0)</v>
       </c>
       <c r="Q118" t="s">
         <v>705</v>
@@ -16324,34 +16235,34 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>70049</v>
+        <v>70078</v>
       </c>
       <c r="B119" t="s">
-        <v>477</v>
+        <v>544</v>
       </c>
       <c r="J119" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70049,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70078,0)</v>
       </c>
       <c r="Q119" t="s">
         <v>706</v>
       </c>
       <c r="S119" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>70050</v>
+        <v>70079</v>
       </c>
       <c r="B120" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="J120" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70050,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70079,0)</v>
       </c>
       <c r="Q120" t="s">
         <v>707</v>
@@ -16360,34 +16271,34 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>70051</v>
+        <v>70080</v>
       </c>
       <c r="B121" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="J121" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70051,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70080,0)</v>
       </c>
       <c r="Q121" t="s">
         <v>708</v>
       </c>
       <c r="S121" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>70053</v>
+        <v>70081</v>
       </c>
       <c r="B122" t="s">
-        <v>483</v>
+        <v>555</v>
       </c>
       <c r="J122" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70053,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70081,0)</v>
       </c>
       <c r="Q122" t="s">
         <v>709</v>
@@ -16396,16 +16307,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>70054</v>
+        <v>70082</v>
       </c>
       <c r="B123" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="J123" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70054,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70082,0)</v>
       </c>
       <c r="Q123" t="s">
         <v>710</v>
@@ -16414,16 +16325,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>70055</v>
+        <v>70083</v>
       </c>
       <c r="B124" t="s">
-        <v>487</v>
+        <v>561</v>
       </c>
       <c r="J124" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70055,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70083,0)</v>
       </c>
       <c r="Q124" t="s">
         <v>711</v>
@@ -16432,16 +16343,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>70056</v>
+        <v>70084</v>
       </c>
       <c r="B125" t="s">
-        <v>489</v>
+        <v>565</v>
       </c>
       <c r="J125" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70056,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70084,0)</v>
       </c>
       <c r="Q125" t="s">
         <v>712</v>
@@ -16450,16 +16361,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>70057</v>
+        <v>70086</v>
       </c>
       <c r="B126" t="s">
-        <v>491</v>
+        <v>570</v>
       </c>
       <c r="J126" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70057,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70086,0)</v>
       </c>
       <c r="Q126" t="s">
         <v>713</v>
@@ -16468,16 +16379,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>70058</v>
+        <v>70087</v>
       </c>
       <c r="B127" t="s">
-        <v>493</v>
+        <v>574</v>
       </c>
       <c r="J127" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70058,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70087,0)</v>
       </c>
       <c r="Q127" t="s">
         <v>714</v>
@@ -16486,16 +16397,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>70059</v>
+        <v>70088</v>
       </c>
       <c r="B128" t="s">
-        <v>495</v>
+        <v>577</v>
       </c>
       <c r="J128" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70059,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70088,0)</v>
       </c>
       <c r="Q128" t="s">
         <v>715</v>
@@ -16504,16 +16415,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>70060</v>
+        <v>70090</v>
       </c>
       <c r="B129" t="s">
-        <v>497</v>
+        <v>581</v>
       </c>
       <c r="J129" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70060,0)</v>
+        <f t="shared" si="2"/>
+        <v>(8,70090,0)</v>
       </c>
       <c r="Q129" t="s">
         <v>716</v>
@@ -16522,511 +16433,25 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
-      <c r="A130">
-        <v>70061</v>
-      </c>
-      <c r="B130" t="s">
-        <v>499</v>
-      </c>
-      <c r="J130" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70061,0)</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>717</v>
-      </c>
-      <c r="S130" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19">
-      <c r="A131">
-        <v>70062</v>
-      </c>
-      <c r="B131" t="s">
-        <v>501</v>
-      </c>
-      <c r="J131" t="str">
-        <f t="shared" si="1"/>
-        <v>(8,70062,0)</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>718</v>
-      </c>
-      <c r="S131" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19">
-      <c r="A132">
-        <v>70063</v>
-      </c>
-      <c r="B132" t="s">
-        <v>503</v>
-      </c>
-      <c r="J132" t="str">
-        <f t="shared" ref="J132:J156" si="2">$K$2&amp;$L$2&amp;$M$2&amp;A132&amp;$O$2</f>
-        <v>(8,70063,0)</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>719</v>
-      </c>
-      <c r="S132" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19">
-      <c r="A133">
-        <v>70064</v>
-      </c>
-      <c r="B133" t="s">
-        <v>505</v>
-      </c>
-      <c r="J133" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70064,0)</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>720</v>
-      </c>
-      <c r="S133" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19">
-      <c r="A134">
-        <v>70065</v>
-      </c>
-      <c r="B134" t="s">
-        <v>507</v>
-      </c>
-      <c r="J134" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70065,0)</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>721</v>
-      </c>
-      <c r="S134" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19">
-      <c r="A135">
-        <v>70066</v>
-      </c>
-      <c r="B135" t="s">
-        <v>509</v>
-      </c>
-      <c r="J135" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70066,0)</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>722</v>
-      </c>
-      <c r="S135" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19">
-      <c r="A136">
-        <v>70067</v>
-      </c>
-      <c r="B136" t="s">
-        <v>513</v>
-      </c>
-      <c r="J136" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70067,0)</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>723</v>
-      </c>
-      <c r="S136" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19">
-      <c r="A137">
-        <v>70068</v>
-      </c>
-      <c r="B137" t="s">
-        <v>516</v>
-      </c>
-      <c r="J137" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70068,0)</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>724</v>
-      </c>
-      <c r="S137" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19">
-      <c r="A138">
-        <v>70069</v>
-      </c>
-      <c r="B138" t="s">
-        <v>518</v>
-      </c>
-      <c r="J138" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70069,0)</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>725</v>
-      </c>
-      <c r="S138" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19">
-      <c r="A139">
-        <v>70070</v>
-      </c>
-      <c r="B139" t="s">
-        <v>522</v>
-      </c>
-      <c r="J139" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70070,0)</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>726</v>
-      </c>
-      <c r="S139" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19">
-      <c r="A140">
-        <v>70071</v>
-      </c>
-      <c r="B140" t="s">
-        <v>525</v>
-      </c>
-      <c r="J140" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70071,0)</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>727</v>
-      </c>
-      <c r="S140" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19">
-      <c r="A141">
-        <v>70072</v>
-      </c>
-      <c r="B141" t="s">
-        <v>530</v>
-      </c>
-      <c r="J141" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70072,0)</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>728</v>
-      </c>
-      <c r="S141" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19">
-      <c r="A142">
-        <v>70073</v>
-      </c>
-      <c r="B142" t="s">
-        <v>534</v>
-      </c>
-      <c r="J142" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70073,0)</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>729</v>
-      </c>
-      <c r="S142" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19">
-      <c r="A143">
-        <v>70074</v>
-      </c>
-      <c r="B143" t="s">
-        <v>536</v>
-      </c>
-      <c r="J143" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70074,0)</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>730</v>
-      </c>
-      <c r="S143" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19">
-      <c r="A144">
-        <v>70075</v>
-      </c>
-      <c r="B144" t="s">
-        <v>538</v>
-      </c>
-      <c r="J144" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70075,0)</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>731</v>
-      </c>
-      <c r="S144" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19">
-      <c r="A145">
-        <v>70076</v>
-      </c>
-      <c r="B145" t="s">
-        <v>540</v>
-      </c>
-      <c r="J145" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70076,0)</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>732</v>
-      </c>
-      <c r="S145" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19">
-      <c r="A146">
-        <v>70078</v>
-      </c>
-      <c r="B146" t="s">
-        <v>544</v>
-      </c>
-      <c r="J146" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70078,0)</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>733</v>
-      </c>
-      <c r="S146" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19">
-      <c r="A147">
-        <v>70079</v>
-      </c>
-      <c r="B147" t="s">
-        <v>548</v>
-      </c>
-      <c r="J147" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70079,0)</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>734</v>
-      </c>
-      <c r="S147" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19">
-      <c r="A148">
-        <v>70080</v>
-      </c>
-      <c r="B148" t="s">
-        <v>551</v>
-      </c>
-      <c r="J148" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70080,0)</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>735</v>
-      </c>
-      <c r="S148" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19">
-      <c r="A149">
-        <v>70081</v>
-      </c>
-      <c r="B149" t="s">
-        <v>555</v>
-      </c>
-      <c r="J149" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70081,0)</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>736</v>
-      </c>
-      <c r="S149" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19">
-      <c r="A150">
-        <v>70082</v>
-      </c>
-      <c r="B150" t="s">
-        <v>558</v>
-      </c>
-      <c r="J150" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70082,0)</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>737</v>
-      </c>
-      <c r="S150" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19">
-      <c r="A151">
-        <v>70083</v>
-      </c>
-      <c r="B151" t="s">
-        <v>561</v>
-      </c>
-      <c r="J151" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70083,0)</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>738</v>
-      </c>
-      <c r="S151" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19">
-      <c r="A152">
-        <v>70084</v>
-      </c>
-      <c r="B152" t="s">
-        <v>565</v>
-      </c>
-      <c r="J152" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70084,0)</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>739</v>
-      </c>
-      <c r="S152" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19">
-      <c r="A153">
-        <v>70086</v>
-      </c>
-      <c r="B153" t="s">
-        <v>570</v>
-      </c>
-      <c r="J153" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70086,0)</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>740</v>
-      </c>
-      <c r="S153" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19">
-      <c r="A154">
-        <v>70087</v>
-      </c>
-      <c r="B154" t="s">
-        <v>574</v>
-      </c>
-      <c r="J154" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70087,0)</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>741</v>
-      </c>
-      <c r="S154" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19">
-      <c r="A155">
-        <v>70088</v>
-      </c>
-      <c r="B155" t="s">
-        <v>577</v>
-      </c>
-      <c r="J155" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70088,0)</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>742</v>
-      </c>
-      <c r="S155" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19">
-      <c r="A156">
-        <v>70090</v>
-      </c>
-      <c r="B156" t="s">
-        <v>581</v>
-      </c>
-      <c r="J156" t="str">
-        <f t="shared" si="2"/>
-        <v>(8,70090,0)</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>743</v>
-      </c>
-      <c r="S156" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B2 B157:B1048576">
+  <conditionalFormatting sqref="B130:B1048576 B1:B2">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B156">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B3:B129">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel文件/xiakeqian/心法.xlsx
+++ b/Excel文件/xiakeqian/心法.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B9DF47-373A-4DCE-BB06-91143D57AD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4DEFF-CB93-41F0-9157-F63E2FD1FA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DLC_NeigongData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$O$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DLC_NeigongData!$A$2:$O$156</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$B$191</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -3185,9 +3185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O218"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14107,7 +14107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
@@ -16435,11 +16435,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:B129">
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B130:B1048576 B1:B2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B129">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel文件/xiakeqian/心法.xlsx
+++ b/Excel文件/xiakeqian/心法.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29005"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4DEFF-CB93-41F0-9157-F63E2FD1FA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2C2BFD-0F56-4024-9B2E-BED447098A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="1026">
   <si>
     <t>#功体编号</t>
   </si>
@@ -2788,12 +2788,628 @@
   <si>
     <t>补血阵法</t>
   </si>
+  <si>
+    <t>倭寇</t>
+  </si>
+  <si>
+    <t>黑冢上忍</t>
+  </si>
+  <si>
+    <t>东瀛浪人</t>
+  </si>
+  <si>
+    <t>上泉</t>
+  </si>
+  <si>
+    <t>黑冢罗王</t>
+  </si>
+  <si>
+    <t>海鲨帮众</t>
+  </si>
+  <si>
+    <t>熊天霸</t>
+  </si>
+  <si>
+    <t>长虹镖师</t>
+  </si>
+  <si>
+    <t>关长虹</t>
+  </si>
+  <si>
+    <t>赛王府亲兵</t>
+  </si>
+  <si>
+    <t>亲兵队长</t>
+  </si>
+  <si>
+    <t>总兵长</t>
+  </si>
+  <si>
+    <t>完颜柯尔克</t>
+  </si>
+  <si>
+    <t>赛王爷</t>
+  </si>
+  <si>
+    <t>黑风寨众</t>
+  </si>
+  <si>
+    <t>江洋大盗</t>
+  </si>
+  <si>
+    <t>山贼</t>
+  </si>
+  <si>
+    <t>山贼头领</t>
+  </si>
+  <si>
+    <t>马贼首领</t>
+  </si>
+  <si>
+    <t>阿疙儿</t>
+  </si>
+  <si>
+    <t>仇霸</t>
+  </si>
+  <si>
+    <t>幸长</t>
+  </si>
+  <si>
+    <t>金涡</t>
+  </si>
+  <si>
+    <t>骆烈夫</t>
+  </si>
+  <si>
+    <t>飞垣</t>
+  </si>
+  <si>
+    <t>马琦</t>
+  </si>
+  <si>
+    <t>巴龙</t>
+  </si>
+  <si>
+    <t>郝虎</t>
+  </si>
+  <si>
+    <t>焦小</t>
+  </si>
+  <si>
+    <t>焦大</t>
+  </si>
+  <si>
+    <t>百草门人</t>
+  </si>
+  <si>
+    <t>巩光杰</t>
+  </si>
+  <si>
+    <t>霹雳帮众</t>
+  </si>
+  <si>
+    <t>秦斯龙</t>
+  </si>
+  <si>
+    <t>残兵</t>
+  </si>
+  <si>
+    <t>李武靖</t>
+  </si>
+  <si>
+    <t>李大肚</t>
+  </si>
+  <si>
+    <t>阿萨辛</t>
+  </si>
+  <si>
+    <t>心残</t>
+  </si>
+  <si>
+    <t>吃</t>
+  </si>
+  <si>
+    <t>喝</t>
+  </si>
+  <si>
+    <t>嫖</t>
+  </si>
+  <si>
+    <t>赌</t>
+  </si>
+  <si>
+    <t>马猴</t>
+  </si>
+  <si>
+    <t>猴三</t>
+  </si>
+  <si>
+    <t>挑嘴熊</t>
+  </si>
+  <si>
+    <t>小宝</t>
+  </si>
+  <si>
+    <t>巨熊</t>
+  </si>
+  <si>
+    <t>沙狼</t>
+  </si>
+  <si>
+    <t>巨鳄</t>
+  </si>
+  <si>
+    <t>老虎</t>
+  </si>
+  <si>
+    <t>金翅鸟</t>
+  </si>
+  <si>
+    <t>兽王庄门人</t>
+  </si>
+  <si>
+    <t>纪玟</t>
+  </si>
+  <si>
+    <t>万劳九</t>
+  </si>
+  <si>
+    <t>万青山</t>
+  </si>
+  <si>
+    <t>赫蒙族女战士</t>
+  </si>
+  <si>
+    <t>赫蒙族战士</t>
+  </si>
+  <si>
+    <t>毒龙教众</t>
+  </si>
+  <si>
+    <t>黄娟</t>
+  </si>
+  <si>
+    <t>蓝婷</t>
+  </si>
+  <si>
+    <t>修罗宫弟子</t>
+  </si>
+  <si>
+    <t>罗煞</t>
+  </si>
+  <si>
+    <t>销魂</t>
+  </si>
+  <si>
+    <t>樊未离</t>
+  </si>
+  <si>
+    <t>绝刀门人</t>
+  </si>
+  <si>
+    <t>夏侯非</t>
+  </si>
+  <si>
+    <t>夏侯城</t>
+  </si>
+  <si>
+    <t>八卦门人</t>
+  </si>
+  <si>
+    <t>商仲智</t>
+  </si>
+  <si>
+    <t>商鹤鸣</t>
+  </si>
+  <si>
+    <t>天剑门人</t>
+  </si>
+  <si>
+    <t>西门玄</t>
+  </si>
+  <si>
+    <t>护剑使</t>
+  </si>
+  <si>
+    <t>任浩然</t>
+  </si>
+  <si>
+    <t>唐门门人</t>
+  </si>
+  <si>
+    <t>唐冠南</t>
+  </si>
+  <si>
+    <t>唐飞</t>
+  </si>
+  <si>
+    <t>衙门官兵</t>
+  </si>
+  <si>
+    <t>六扇门捕快</t>
+  </si>
+  <si>
+    <t>六扇门官兵</t>
+  </si>
+  <si>
+    <t>神火兵</t>
+  </si>
+  <si>
+    <t>神枪兵</t>
+  </si>
+  <si>
+    <t>锦衣卫</t>
+  </si>
+  <si>
+    <t>东厂杀手</t>
+  </si>
+  <si>
+    <t>尹世允</t>
+  </si>
+  <si>
+    <t>金熙凤</t>
+  </si>
+  <si>
+    <t>花玖瑟</t>
+  </si>
+  <si>
+    <t>叶孤</t>
+  </si>
+  <si>
+    <t>上官雁</t>
+  </si>
+  <si>
+    <t>崔国伦</t>
+  </si>
+  <si>
+    <t>陈公公</t>
+  </si>
+  <si>
+    <t>封青霄</t>
+  </si>
+  <si>
+    <t>戚将军</t>
+  </si>
+  <si>
+    <t>游进</t>
+  </si>
+  <si>
+    <t>阳第上人</t>
+  </si>
+  <si>
+    <t>玄漓公</t>
+  </si>
+  <si>
+    <t>史刚</t>
+  </si>
+  <si>
+    <t>李莲杰</t>
+  </si>
+  <si>
+    <t>陈龙</t>
+  </si>
+  <si>
+    <t>洪京保</t>
+  </si>
+  <si>
+    <t>赛飞鸿</t>
+  </si>
+  <si>
+    <t>青城门人</t>
+  </si>
+  <si>
+    <t>青霞子</t>
+  </si>
+  <si>
+    <t>紫阳子</t>
+  </si>
+  <si>
+    <t>华山门人</t>
+  </si>
+  <si>
+    <t>曹寅山</t>
+  </si>
+  <si>
+    <t>曹萼华</t>
+  </si>
+  <si>
+    <t>曹岱</t>
+  </si>
+  <si>
+    <t>老胡</t>
+  </si>
+  <si>
+    <t>无瑕子</t>
+  </si>
+  <si>
+    <t>醉仙</t>
+  </si>
+  <si>
+    <t>橘叟</t>
+  </si>
+  <si>
+    <t>神医</t>
+  </si>
+  <si>
+    <t>仙音</t>
+  </si>
+  <si>
+    <t>书生</t>
+  </si>
+  <si>
+    <t>丹青</t>
+  </si>
+  <si>
+    <t>丐帮帮众</t>
+  </si>
+  <si>
+    <t>丐帮长老</t>
+  </si>
+  <si>
+    <t>李浩</t>
+  </si>
+  <si>
+    <t>柯降龙</t>
+  </si>
+  <si>
+    <t>西域番僧</t>
+  </si>
+  <si>
+    <t>利空法王</t>
+  </si>
+  <si>
+    <t>贺陀</t>
+  </si>
+  <si>
+    <t>天山门人</t>
+  </si>
+  <si>
+    <t>萧铠</t>
+  </si>
+  <si>
+    <t>阿忠</t>
+  </si>
+  <si>
+    <t>骆翎枫</t>
+  </si>
+  <si>
+    <t>何秋娟</t>
+  </si>
+  <si>
+    <t>易兰</t>
+  </si>
+  <si>
+    <t>何未峰</t>
+  </si>
+  <si>
+    <t>武当弟子</t>
+  </si>
+  <si>
+    <t>首蛇道弟子</t>
+  </si>
+  <si>
+    <t>玄龟道弟子</t>
+  </si>
+  <si>
+    <t>兵鸦道弟子</t>
+  </si>
+  <si>
+    <t>庄人骏</t>
+  </si>
+  <si>
+    <t>古叶</t>
+  </si>
+  <si>
+    <t>卓人清</t>
+  </si>
+  <si>
+    <t>少林门人</t>
+  </si>
+  <si>
+    <t>十八铜人</t>
+  </si>
+  <si>
+    <t>天悟禅师</t>
+  </si>
+  <si>
+    <t>虚明</t>
+  </si>
+  <si>
+    <t>无戒</t>
+  </si>
+  <si>
+    <t>无嗔</t>
+  </si>
+  <si>
+    <t>无慧</t>
+  </si>
+  <si>
+    <t>无色</t>
+  </si>
+  <si>
+    <t>无因方丈</t>
+  </si>
+  <si>
+    <t>赵惊风</t>
+  </si>
+  <si>
+    <t>雷震天</t>
+  </si>
+  <si>
+    <t>贾云长</t>
+  </si>
+  <si>
+    <t>仙希尔</t>
+  </si>
+  <si>
+    <t>江天雄</t>
+  </si>
+  <si>
+    <t>辟邪死士</t>
+  </si>
+  <si>
+    <t>傀尸门毒人</t>
+  </si>
+  <si>
+    <t>九阴幽仆</t>
+  </si>
+  <si>
+    <t>铁尸</t>
+  </si>
+  <si>
+    <t>银尸</t>
+  </si>
+  <si>
+    <t>金尸</t>
+  </si>
+  <si>
+    <t>傀尸</t>
+  </si>
+  <si>
+    <t>九阴</t>
+  </si>
+  <si>
+    <t>欧阳笑</t>
+  </si>
+  <si>
+    <t>佛母</t>
+  </si>
+  <si>
+    <t>狂</t>
+  </si>
+  <si>
+    <t>浪</t>
+  </si>
+  <si>
+    <t>毒</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>辟邪老人</t>
+  </si>
+  <si>
+    <t>天意城主</t>
+  </si>
+  <si>
+    <t>铁叉部女子</t>
+  </si>
+  <si>
+    <t>铁叉部勇士</t>
+  </si>
+  <si>
+    <t>酆都鬼众</t>
+  </si>
+  <si>
+    <t>酆都厉鬼</t>
+  </si>
+  <si>
+    <t>酆都伥鬼</t>
+  </si>
+  <si>
+    <t>酆都绝鬼</t>
+  </si>
+  <si>
+    <t>酆都艳鬼</t>
+  </si>
+  <si>
+    <t>酆都丽鬼</t>
+  </si>
+  <si>
+    <t>敖广</t>
+  </si>
+  <si>
+    <t>白无常</t>
+  </si>
+  <si>
+    <t>黑无常</t>
+  </si>
+  <si>
+    <t>阿傍</t>
+  </si>
+  <si>
+    <t>判官</t>
+  </si>
+  <si>
+    <t>孟婆</t>
+  </si>
+  <si>
+    <t>阎罗</t>
+  </si>
+  <si>
+    <t>天龙教众</t>
+  </si>
+  <si>
+    <t>天王旧部</t>
+  </si>
+  <si>
+    <t>天龙菁英</t>
+  </si>
+  <si>
+    <t>持国天</t>
+  </si>
+  <si>
+    <t>自在天</t>
+  </si>
+  <si>
+    <t>摄湿生</t>
+  </si>
+  <si>
+    <t>婆竭罗</t>
+  </si>
+  <si>
+    <t>南宫龙飞</t>
+  </si>
+  <si>
+    <t>公孙坚</t>
+  </si>
+  <si>
+    <t>玄冥子</t>
+  </si>
+  <si>
+    <t>宫夕瑶</t>
+  </si>
+  <si>
+    <t>东方曦</t>
+  </si>
+  <si>
+    <t>姬无双</t>
+  </si>
+  <si>
+    <t>罗蛇君</t>
+  </si>
+  <si>
+    <t>任天翔</t>
+  </si>
+  <si>
+    <t>香儿</t>
+  </si>
+  <si>
+    <t>纳兰衍</t>
+  </si>
+  <si>
+    <t>厉苍龙</t>
+  </si>
+  <si>
+    <t>厉苍天</t>
+  </si>
+  <si>
+    <t>天机老道</t>
+  </si>
+  <si>
+    <t>岳在渊</t>
+  </si>
+  <si>
+    <t>(1,80)*(3,80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2823,13 +3439,38 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2844,10 +3485,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3183,11 +3839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O218"/>
+  <dimension ref="A1:O236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="2" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3196,6 +3852,7 @@
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
     <col min="12" max="12" width="26.375" customWidth="1"/>
+    <col min="14" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
@@ -9471,21 +10128,21 @@
         <v>100075</v>
       </c>
       <c r="J126" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>"(10,0,"&amp;A126&amp;",1)"</f>
         <v>(10,0,70049,1)</v>
       </c>
       <c r="K126">
         <v>100076</v>
       </c>
       <c r="L126" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>"(10,0,"&amp;A126&amp;",7)"</f>
         <v>(10,0,70049,7)</v>
       </c>
       <c r="M126">
         <v>100037</v>
       </c>
       <c r="N126" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f>"(10,0,"&amp;A126&amp;",10)"</f>
         <v>(10,0,70049,10)</v>
       </c>
       <c r="O126">
@@ -14089,6 +14746,906 @@
         <v>(10,0,87050,10)</v>
       </c>
       <c r="O218">
+        <v>987009</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>90001</v>
+      </c>
+      <c r="B219" t="s">
+        <v>477</v>
+      </c>
+      <c r="C219" t="s">
+        <v>478</v>
+      </c>
+      <c r="D219" t="s">
+        <v>361</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F219" t="s">
+        <v>199</v>
+      </c>
+      <c r="G219">
+        <v>5</v>
+      </c>
+      <c r="H219" t="s">
+        <v>81</v>
+      </c>
+      <c r="I219">
+        <v>100075</v>
+      </c>
+      <c r="J219" s="2" t="str">
+        <f>"(10,0,"&amp;A219&amp;",1)"</f>
+        <v>(10,0,90001,1)</v>
+      </c>
+      <c r="K219">
+        <v>100076</v>
+      </c>
+      <c r="L219" s="2" t="str">
+        <f>"(10,0,"&amp;A219&amp;",7)"</f>
+        <v>(10,0,90001,7)</v>
+      </c>
+      <c r="M219">
+        <v>100037</v>
+      </c>
+      <c r="N219" s="2" t="str">
+        <f>"(10,0,"&amp;A219&amp;",10)"</f>
+        <v>(10,0,90001,10)</v>
+      </c>
+      <c r="O219">
+        <v>987009</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>90002</v>
+      </c>
+      <c r="B220" t="s">
+        <v>495</v>
+      </c>
+      <c r="C220" t="s">
+        <v>496</v>
+      </c>
+      <c r="D220" t="s">
+        <v>361</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F220" t="s">
+        <v>199</v>
+      </c>
+      <c r="G220">
+        <v>5</v>
+      </c>
+      <c r="H220" t="s">
+        <v>81</v>
+      </c>
+      <c r="I220">
+        <v>100109</v>
+      </c>
+      <c r="J220" s="2" t="str">
+        <f t="shared" ref="J220:J236" si="12">"(10,0,"&amp;A220&amp;",1)"</f>
+        <v>(10,0,90002,1)</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="str">
+        <f t="shared" ref="L220:L236" si="13">"(10,0,"&amp;A220&amp;",7)"</f>
+        <v>(10,0,90002,7)</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220" s="2" t="str">
+        <f t="shared" ref="N220:N236" si="14">"(10,0,"&amp;A220&amp;",10)"</f>
+        <v>(10,0,90002,10)</v>
+      </c>
+      <c r="O220">
+        <v>910069</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>90003</v>
+      </c>
+      <c r="B221" t="s">
+        <v>442</v>
+      </c>
+      <c r="C221" t="s">
+        <v>443</v>
+      </c>
+      <c r="D221" t="s">
+        <v>361</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F221" t="s">
+        <v>199</v>
+      </c>
+      <c r="G221">
+        <v>7</v>
+      </c>
+      <c r="H221" t="s">
+        <v>81</v>
+      </c>
+      <c r="I221">
+        <v>100035</v>
+      </c>
+      <c r="J221" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90003,1)</v>
+      </c>
+      <c r="K221">
+        <v>100016</v>
+      </c>
+      <c r="L221" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90003,7)</v>
+      </c>
+      <c r="M221">
+        <v>100065</v>
+      </c>
+      <c r="N221" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90003,10)</v>
+      </c>
+      <c r="O221">
+        <v>987024</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>90004</v>
+      </c>
+      <c r="B222" t="s">
+        <v>371</v>
+      </c>
+      <c r="C222" t="s">
+        <v>372</v>
+      </c>
+      <c r="D222" t="s">
+        <v>373</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F222" t="s">
+        <v>315</v>
+      </c>
+      <c r="G222">
+        <v>6</v>
+      </c>
+      <c r="H222" t="s">
+        <v>81</v>
+      </c>
+      <c r="I222">
+        <v>100029</v>
+      </c>
+      <c r="J222" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90004,1)</v>
+      </c>
+      <c r="K222">
+        <v>100044</v>
+      </c>
+      <c r="L222" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90004,7)</v>
+      </c>
+      <c r="M222">
+        <v>100030</v>
+      </c>
+      <c r="N222" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90004,10)</v>
+      </c>
+      <c r="O222">
+        <v>987009</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>90005</v>
+      </c>
+      <c r="B223" t="s">
+        <v>469</v>
+      </c>
+      <c r="C223" t="s">
+        <v>470</v>
+      </c>
+      <c r="D223" t="s">
+        <v>361</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F223" t="s">
+        <v>199</v>
+      </c>
+      <c r="G223">
+        <v>5</v>
+      </c>
+      <c r="H223" t="s">
+        <v>81</v>
+      </c>
+      <c r="I223">
+        <v>987189</v>
+      </c>
+      <c r="J223" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90005,1)</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90005,7)</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90005,10)</v>
+      </c>
+      <c r="O223">
+        <v>910167</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>90006</v>
+      </c>
+      <c r="B224" t="s">
+        <v>497</v>
+      </c>
+      <c r="C224" t="s">
+        <v>498</v>
+      </c>
+      <c r="D224" t="s">
+        <v>361</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F224" t="s">
+        <v>199</v>
+      </c>
+      <c r="G224">
+        <v>5</v>
+      </c>
+      <c r="H224" t="s">
+        <v>81</v>
+      </c>
+      <c r="I224">
+        <v>100112</v>
+      </c>
+      <c r="J224" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90006,1)</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90006,7)</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90006,10)</v>
+      </c>
+      <c r="O224">
+        <v>987009</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>90007</v>
+      </c>
+      <c r="B225" t="s">
+        <v>491</v>
+      </c>
+      <c r="C225" t="s">
+        <v>492</v>
+      </c>
+      <c r="D225" t="s">
+        <v>361</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F225" t="s">
+        <v>199</v>
+      </c>
+      <c r="G225">
+        <v>5</v>
+      </c>
+      <c r="H225" t="s">
+        <v>81</v>
+      </c>
+      <c r="I225">
+        <v>100107</v>
+      </c>
+      <c r="J225" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90007,1)</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90007,7)</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90007,10)</v>
+      </c>
+      <c r="O225">
+        <v>910069</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>90008</v>
+      </c>
+      <c r="B226" t="s">
+        <v>493</v>
+      </c>
+      <c r="C226" t="s">
+        <v>494</v>
+      </c>
+      <c r="D226" t="s">
+        <v>361</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F226" t="s">
+        <v>199</v>
+      </c>
+      <c r="G226">
+        <v>5</v>
+      </c>
+      <c r="H226" t="s">
+        <v>81</v>
+      </c>
+      <c r="I226">
+        <v>100108</v>
+      </c>
+      <c r="J226" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90008,1)</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90008,7)</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90008,10)</v>
+      </c>
+      <c r="O226">
+        <v>910069</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>90009</v>
+      </c>
+      <c r="B227" t="s">
+        <v>489</v>
+      </c>
+      <c r="C227" t="s">
+        <v>490</v>
+      </c>
+      <c r="D227" t="s">
+        <v>361</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F227" t="s">
+        <v>199</v>
+      </c>
+      <c r="G227">
+        <v>5</v>
+      </c>
+      <c r="H227" t="s">
+        <v>81</v>
+      </c>
+      <c r="I227">
+        <v>100106</v>
+      </c>
+      <c r="J227" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90009,1)</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90009,7)</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90009,10)</v>
+      </c>
+      <c r="O227">
+        <v>910069</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>90010</v>
+      </c>
+      <c r="B228" t="s">
+        <v>375</v>
+      </c>
+      <c r="C228" t="s">
+        <v>376</v>
+      </c>
+      <c r="D228" t="s">
+        <v>361</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F228" t="s">
+        <v>199</v>
+      </c>
+      <c r="G228">
+        <v>6</v>
+      </c>
+      <c r="H228" t="s">
+        <v>81</v>
+      </c>
+      <c r="I228">
+        <v>100037</v>
+      </c>
+      <c r="J228" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90010,1)</v>
+      </c>
+      <c r="K228">
+        <v>100051</v>
+      </c>
+      <c r="L228" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90010,7)</v>
+      </c>
+      <c r="M228">
+        <v>100023</v>
+      </c>
+      <c r="N228" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90010,10)</v>
+      </c>
+      <c r="O228">
+        <v>987009</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>90011</v>
+      </c>
+      <c r="B229" t="s">
+        <v>380</v>
+      </c>
+      <c r="C229" t="s">
+        <v>381</v>
+      </c>
+      <c r="D229" t="s">
+        <v>361</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F229" t="s">
+        <v>199</v>
+      </c>
+      <c r="G229">
+        <v>5</v>
+      </c>
+      <c r="H229" t="s">
+        <v>81</v>
+      </c>
+      <c r="I229">
+        <v>100101</v>
+      </c>
+      <c r="J229" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90011,1)</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90011,7)</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90011,10)</v>
+      </c>
+      <c r="O229">
+        <v>910069</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>90012</v>
+      </c>
+      <c r="B230" t="s">
+        <v>534</v>
+      </c>
+      <c r="C230" t="s">
+        <v>535</v>
+      </c>
+      <c r="D230" t="s">
+        <v>361</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F230" t="s">
+        <v>199</v>
+      </c>
+      <c r="G230">
+        <v>5</v>
+      </c>
+      <c r="H230" t="s">
+        <v>81</v>
+      </c>
+      <c r="I230">
+        <v>900054</v>
+      </c>
+      <c r="J230" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90012,1)</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90012,7)</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90012,10)</v>
+      </c>
+      <c r="O230">
+        <v>987009</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>90013</v>
+      </c>
+      <c r="B231" t="s">
+        <v>536</v>
+      </c>
+      <c r="C231" t="s">
+        <v>537</v>
+      </c>
+      <c r="D231" t="s">
+        <v>361</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F231" t="s">
+        <v>199</v>
+      </c>
+      <c r="G231">
+        <v>5</v>
+      </c>
+      <c r="H231" t="s">
+        <v>81</v>
+      </c>
+      <c r="I231">
+        <v>900055</v>
+      </c>
+      <c r="J231" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90013,1)</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90013,7)</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90013,10)</v>
+      </c>
+      <c r="O231">
+        <v>987009</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>90014</v>
+      </c>
+      <c r="B232" t="s">
+        <v>538</v>
+      </c>
+      <c r="C232" t="s">
+        <v>539</v>
+      </c>
+      <c r="D232" t="s">
+        <v>361</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F232" t="s">
+        <v>199</v>
+      </c>
+      <c r="G232">
+        <v>5</v>
+      </c>
+      <c r="H232" t="s">
+        <v>81</v>
+      </c>
+      <c r="I232">
+        <v>100029</v>
+      </c>
+      <c r="J232" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90014,1)</v>
+      </c>
+      <c r="K232">
+        <v>100033</v>
+      </c>
+      <c r="L232" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90014,7)</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90014,10)</v>
+      </c>
+      <c r="O232">
+        <v>987009</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>90015</v>
+      </c>
+      <c r="B233" t="s">
+        <v>437</v>
+      </c>
+      <c r="C233" t="s">
+        <v>438</v>
+      </c>
+      <c r="D233" t="s">
+        <v>439</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F233" t="s">
+        <v>423</v>
+      </c>
+      <c r="G233">
+        <v>5</v>
+      </c>
+      <c r="H233" t="s">
+        <v>81</v>
+      </c>
+      <c r="I233">
+        <v>100072</v>
+      </c>
+      <c r="J233" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90015,1)</v>
+      </c>
+      <c r="K233">
+        <v>100062</v>
+      </c>
+      <c r="L233" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90015,7)</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90015,10)</v>
+      </c>
+      <c r="O233">
+        <v>987024</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>90016</v>
+      </c>
+      <c r="B234" t="s">
+        <v>444</v>
+      </c>
+      <c r="C234" t="s">
+        <v>445</v>
+      </c>
+      <c r="D234" t="s">
+        <v>361</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F234" t="s">
+        <v>199</v>
+      </c>
+      <c r="G234">
+        <v>7</v>
+      </c>
+      <c r="H234" t="s">
+        <v>81</v>
+      </c>
+      <c r="I234">
+        <v>100019</v>
+      </c>
+      <c r="J234" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90016,1)</v>
+      </c>
+      <c r="K234">
+        <v>100017</v>
+      </c>
+      <c r="L234" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90016,7)</v>
+      </c>
+      <c r="M234">
+        <v>100077</v>
+      </c>
+      <c r="N234" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90016,10)</v>
+      </c>
+      <c r="O234">
+        <v>987024</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>90017</v>
+      </c>
+      <c r="B235" t="s">
+        <v>467</v>
+      </c>
+      <c r="C235" t="s">
+        <v>468</v>
+      </c>
+      <c r="D235" t="s">
+        <v>361</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F235" t="s">
+        <v>199</v>
+      </c>
+      <c r="G235">
+        <v>6</v>
+      </c>
+      <c r="H235" t="s">
+        <v>81</v>
+      </c>
+      <c r="I235">
+        <v>987167</v>
+      </c>
+      <c r="J235" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90017,1)</v>
+      </c>
+      <c r="K235">
+        <v>100017</v>
+      </c>
+      <c r="L235" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90017,7)</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90017,10)</v>
+      </c>
+      <c r="O235">
+        <v>987009</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>90018</v>
+      </c>
+      <c r="B236" t="s">
+        <v>424</v>
+      </c>
+      <c r="C236" t="s">
+        <v>425</v>
+      </c>
+      <c r="D236" t="s">
+        <v>361</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F236" t="s">
+        <v>199</v>
+      </c>
+      <c r="G236">
+        <v>5</v>
+      </c>
+      <c r="H236" t="s">
+        <v>81</v>
+      </c>
+      <c r="I236">
+        <v>987115</v>
+      </c>
+      <c r="J236" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90018,1)</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90018,7)</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90018,10)</v>
+      </c>
+      <c r="O236">
         <v>987009</v>
       </c>
     </row>
@@ -16447,12 +18004,4301 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="J203" sqref="J203"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="B1" s="3">
+        <v>87022</v>
+      </c>
+      <c r="D1" s="4" t="str">
+        <f>VLOOKUP(B1,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>飞天御剑流</v>
+      </c>
+      <c r="E1" s="4">
+        <f>VLOOKUP(B1,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="str">
+        <f>"("&amp;B1&amp;","&amp;"10"&amp;")"</f>
+        <v>(87022,10)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B2" s="3">
+        <v>87029</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>VLOOKUP(B2,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>黑冢忍法‧风林火山</v>
+      </c>
+      <c r="E2" s="4">
+        <f>VLOOKUP(B2,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f t="shared" ref="G2:G65" si="0">"("&amp;B2&amp;","&amp;"10"&amp;")"</f>
+        <v>(87029,10)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="B3">
+        <v>90001</v>
+      </c>
+      <c r="D3" s="7" t="e">
+        <f>VLOOKUP(B3,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="7" t="e">
+        <f>VLOOKUP(B3,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90001,10)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B4">
+        <v>90001</v>
+      </c>
+      <c r="D4" s="7" t="e">
+        <f>VLOOKUP(B4,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="7" t="e">
+        <f>VLOOKUP(B4,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90001,10)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B5" s="3">
+        <v>70048</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>VLOOKUP(B5,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>三千若水</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f>VLOOKUP(B5,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70048,10)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="B6">
+        <v>90002</v>
+      </c>
+      <c r="D6" s="7" t="e">
+        <f>VLOOKUP(B6,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="7" t="e">
+        <f>VLOOKUP(B6,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90002,10)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B7">
+        <v>90002</v>
+      </c>
+      <c r="D7" s="7" t="e">
+        <f>VLOOKUP(B7,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="7" t="e">
+        <f>VLOOKUP(B7,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90002,10)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B8" s="3">
+        <v>87048</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f>VLOOKUP(B8,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>青龙偃月阵</v>
+      </c>
+      <c r="E8" s="4">
+        <f>VLOOKUP(B8,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(87048,10)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B9" s="3">
+        <v>70009</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f>VLOOKUP(B9,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>行天功</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>VLOOKUP(B9,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70009,10)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B10" s="3">
+        <v>87047</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f>VLOOKUP(B10,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>长白枪阵</v>
+      </c>
+      <c r="E10" s="4">
+        <f>VLOOKUP(B10,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(87047,10)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="B11">
+        <v>90003</v>
+      </c>
+      <c r="D11" s="7" t="e">
+        <f>VLOOKUP(B11,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="7" t="e">
+        <f>VLOOKUP(B11,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90003,10)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B12">
+        <v>90003</v>
+      </c>
+      <c r="D12" s="7" t="e">
+        <f>VLOOKUP(B12,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="7" t="e">
+        <f>VLOOKUP(B12,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90003,10)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="B13">
+        <v>90003</v>
+      </c>
+      <c r="D13" s="7" t="e">
+        <f>VLOOKUP(B13,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="7" t="e">
+        <f>VLOOKUP(B13,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90003,10)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B14" s="3">
+        <v>70081</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>VLOOKUP(B14,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>神龙密咒</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f>VLOOKUP(B14,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,60)*(3,40)</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70081,10)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B15" s="3">
+        <v>87036</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>VLOOKUP(B15,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>江湖心法</v>
+      </c>
+      <c r="E15" s="4">
+        <f>VLOOKUP(B15,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(87036,10)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B16" s="3">
+        <v>87036</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f>VLOOKUP(B16,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>江湖心法</v>
+      </c>
+      <c r="E16" s="4">
+        <f>VLOOKUP(B16,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(87036,10)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B17" s="3">
+        <v>70066</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f>VLOOKUP(B17,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>江湖内功</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>VLOOKUP(B17,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,100)</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70066,10)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="B18" s="3">
+        <v>70066</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f>VLOOKUP(B18,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>江湖内功</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f>VLOOKUP(B18,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,100)</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70066,10)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B19" s="3">
+        <v>70067</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f>VLOOKUP(B19,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>武林内功</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f>VLOOKUP(B19,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,150)*(3,150)</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70067,10)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="B20" s="3">
+        <v>70085</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f>VLOOKUP(B20,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>强化肉体</v>
+      </c>
+      <c r="E20" s="4">
+        <f>VLOOKUP(B20,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>-1250</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70085,10)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B21" s="3">
+        <v>70068</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f>VLOOKUP(B21,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>侠客内功</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f>VLOOKUP(B21,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,200)</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70068,10)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B22" s="3">
+        <v>70084</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>VLOOKUP(B22,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>居合道</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f>VLOOKUP(B22,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,100)*(52,1)</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70084,10)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B23" s="3">
+        <v>70085</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f>VLOOKUP(B23,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>强化肉体</v>
+      </c>
+      <c r="E23" s="4">
+        <f>VLOOKUP(B23,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>-1250</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70085,10)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B24" s="3">
+        <v>70087</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f>VLOOKUP(B24,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>战斗演舞曲</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f>VLOOKUP(B24,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70087,10)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B25" s="3">
+        <v>70086</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f>VLOOKUP(B25,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>烈日诀</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f>VLOOKUP(B25,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,100)*(51,1)*(14,1)</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70086,10)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B26" s="3">
+        <v>70045</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f>VLOOKUP(B26,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>兽性大发</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f>VLOOKUP(B26,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70045,10)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B27" s="3">
+        <v>70068</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f>VLOOKUP(B27,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>侠客内功</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f>VLOOKUP(B27,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,200)</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70068,10)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B28" s="3">
+        <v>70068</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f>VLOOKUP(B28,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>侠客内功</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f>VLOOKUP(B28,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,200)</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70068,10)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="B29" s="3">
+        <v>70068</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f>VLOOKUP(B29,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>侠客内功</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f>VLOOKUP(B29,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,200)</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70068,10)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="B30" s="3">
+        <v>70068</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <f>VLOOKUP(B30,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>侠客内功</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f>VLOOKUP(B30,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,200)</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70068,10)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="B31">
+        <v>90004</v>
+      </c>
+      <c r="D31" s="7" t="e">
+        <f>VLOOKUP(B31,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="7" t="e">
+        <f>VLOOKUP(B31,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90004,10)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B32">
+        <v>90004</v>
+      </c>
+      <c r="D32" s="7" t="e">
+        <f>VLOOKUP(B32,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="7" t="e">
+        <f>VLOOKUP(B32,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90004,10)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B33" s="3">
+        <v>60022</v>
+      </c>
+      <c r="D33" s="4" t="str">
+        <f>VLOOKUP(B33,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>霹雳心法</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f>VLOOKUP(B33,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,80)*(3,30)</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(60022,10)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B34" s="3">
+        <v>60022</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f>VLOOKUP(B34,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>霹雳心法</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f>VLOOKUP(B34,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,80)*(3,30)</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(60022,10)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B35" s="3">
+        <v>60042</v>
+      </c>
+      <c r="D35" s="4" t="str">
+        <f>VLOOKUP(B35,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>华陀医典</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f>VLOOKUP(B35,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,60)*(3,70)</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(60042,10)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="B36" s="3">
+        <v>70007</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f>VLOOKUP(B36,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>天罗地网势</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f>VLOOKUP(B36,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70007,10)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B37" s="3">
+        <v>70022</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f>VLOOKUP(B37,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>吞吐诀</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f>VLOOKUP(B37,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,120)*(3,160)</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70022,10)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B38" s="3">
+        <v>70045</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <f>VLOOKUP(B38,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>兽性大发</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <f>VLOOKUP(B38,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70045,10)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B39" s="3">
+        <v>70036</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f>VLOOKUP(B39,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>天邪神功</v>
+      </c>
+      <c r="E39" s="4" t="str">
+        <f>VLOOKUP(B39,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70036,10)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B40" s="3">
+        <v>70022</v>
+      </c>
+      <c r="D40" s="4" t="str">
+        <f>VLOOKUP(B40,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>吞吐诀</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <f>VLOOKUP(B40,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,120)*(3,160)</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70022,10)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="B41" s="3">
+        <v>70023</v>
+      </c>
+      <c r="D41" s="4" t="str">
+        <f>VLOOKUP(B41,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>酩酊诀</v>
+      </c>
+      <c r="E41" s="4" t="str">
+        <f>VLOOKUP(B41,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,140)*(3,140)</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70023,10)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B42" s="3">
+        <v>70024</v>
+      </c>
+      <c r="D42" s="4" t="str">
+        <f>VLOOKUP(B42,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>九九神功</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f>VLOOKUP(B42,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,120)*(3,140)</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70024,10)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B43" s="3">
+        <v>70025</v>
+      </c>
+      <c r="D43" s="4" t="str">
+        <f>VLOOKUP(B43,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>六合功</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f>VLOOKUP(B43,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,140)*(3,120)</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(70025,10)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="B44">
+        <v>90005</v>
+      </c>
+      <c r="D44" s="7" t="e">
+        <f>VLOOKUP(B44,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E44" s="7" t="e">
+        <f>VLOOKUP(B44,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90005,10)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="B45">
+        <v>90005</v>
+      </c>
+      <c r="D45" s="7" t="e">
+        <f>VLOOKUP(B45,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E45" s="7" t="e">
+        <f>VLOOKUP(B45,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90005,10)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="B46">
+        <v>90005</v>
+      </c>
+      <c r="D46" s="7" t="e">
+        <f>VLOOKUP(B46,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E46" s="7" t="e">
+        <f>VLOOKUP(B46,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90005,10)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="B47">
+        <v>90005</v>
+      </c>
+      <c r="D47" s="7" t="e">
+        <f>VLOOKUP(B47,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E47" s="7" t="e">
+        <f>VLOOKUP(B47,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90005,10)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B48">
+        <v>90005</v>
+      </c>
+      <c r="D48" s="7" t="e">
+        <f>VLOOKUP(B48,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E48" s="7" t="e">
+        <f>VLOOKUP(B48,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90005,10)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="B49">
+        <v>90005</v>
+      </c>
+      <c r="D49" s="7" t="e">
+        <f>VLOOKUP(B49,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E49" s="7" t="e">
+        <f>VLOOKUP(B49,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90005,10)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B50">
+        <v>90005</v>
+      </c>
+      <c r="D50" s="7" t="e">
+        <f>VLOOKUP(B50,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E50" s="7" t="e">
+        <f>VLOOKUP(B50,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90005,10)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="B51" s="3">
+        <v>87040</v>
+      </c>
+      <c r="D51" s="4" t="str">
+        <f>VLOOKUP(B51,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>野兽本能‧虎</v>
+      </c>
+      <c r="E51" s="4">
+        <f>VLOOKUP(B51,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(87040,10)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B52" s="3">
+        <v>87043</v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <f>VLOOKUP(B52,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>野兽本能‧鹰</v>
+      </c>
+      <c r="E52" s="4">
+        <f>VLOOKUP(B52,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(87043,10)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B53" s="3">
+        <v>60026</v>
+      </c>
+      <c r="D53" s="4" t="str">
+        <f>VLOOKUP(B53,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>兽王功</v>
+      </c>
+      <c r="E53" s="4" t="str">
+        <f>VLOOKUP(B53,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,80)*(3,40)</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(60026,10)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B54" s="3">
+        <v>60026</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <f>VLOOKUP(B54,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>兽王功</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <f>VLOOKUP(B54,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,80)*(3,40)</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(60026,10)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B55" s="3">
+        <v>60026</v>
+      </c>
+      <c r="D55" s="4" t="str">
+        <f>VLOOKUP(B55,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>兽王功</v>
+      </c>
+      <c r="E55" s="4" t="str">
+        <f>VLOOKUP(B55,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,80)*(3,40)</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(60026,10)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B56" s="3">
+        <v>60026</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <f>VLOOKUP(B56,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>兽王功</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f>VLOOKUP(B56,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,80)*(3,40)</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(60026,10)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B57" s="3">
+        <v>60013</v>
+      </c>
+      <c r="D57" s="4" t="str">
+        <f>VLOOKUP(B57,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>毒龙功</v>
+      </c>
+      <c r="E57" s="4" t="str">
+        <f>VLOOKUP(B57,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,42)*(3,24)</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(60013,10)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B58" s="3">
+        <v>60013</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <f>VLOOKUP(B58,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>毒龙功</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <f>VLOOKUP(B58,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,42)*(3,24)</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(60013,10)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B59" s="3">
+        <v>60013</v>
+      </c>
+      <c r="D59" s="4" t="str">
+        <f>VLOOKUP(B59,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>毒龙功</v>
+      </c>
+      <c r="E59" s="4" t="str">
+        <f>VLOOKUP(B59,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,42)*(3,24)</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(60013,10)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B60" s="3">
+        <v>60013</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <f>VLOOKUP(B60,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>毒龙功</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <f>VLOOKUP(B60,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,42)*(3,24)</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(60013,10)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="B61" s="3">
+        <v>60013</v>
+      </c>
+      <c r="D61" s="4" t="str">
+        <f>VLOOKUP(B61,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>毒龙功</v>
+      </c>
+      <c r="E61" s="4" t="str">
+        <f>VLOOKUP(B61,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,42)*(3,24)</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(60013,10)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="B62" s="3">
+        <v>60013</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <f>VLOOKUP(B62,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>毒龙功</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <f>VLOOKUP(B62,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,42)*(3,24)</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(60013,10)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="B63">
+        <v>90006</v>
+      </c>
+      <c r="D63" s="7" t="e">
+        <f>VLOOKUP(B63,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E63" s="7" t="e">
+        <f>VLOOKUP(B63,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90006,10)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="B64" s="3">
+        <v>87005</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <f>VLOOKUP(B64,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>杀神七诀</v>
+      </c>
+      <c r="E64" s="4">
+        <f>VLOOKUP(B64,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(87005,10)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B65">
+        <v>90006</v>
+      </c>
+      <c r="D65" s="7" t="e">
+        <f>VLOOKUP(B65,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E65" s="7" t="e">
+        <f>VLOOKUP(B65,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(90006,10)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B66" s="3">
+        <v>60041</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <f>VLOOKUP(B66,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>修罗心法</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <f>VLOOKUP(B66,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,80)*(3,40)</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" ref="G66:G129" si="1">"("&amp;B66&amp;","&amp;"10"&amp;")"</f>
+        <v>(60041,10)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="B67" s="3">
+        <v>70012</v>
+      </c>
+      <c r="D67" s="4" t="str">
+        <f>VLOOKUP(B67,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>绝刀势</v>
+      </c>
+      <c r="E67" s="4" t="str">
+        <f>VLOOKUP(B67,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,110)*(3,120)</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70012,10)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B68" s="3">
+        <v>70012</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <f>VLOOKUP(B68,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>绝刀势</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <f>VLOOKUP(B68,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,110)*(3,120)</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70012,10)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B69" s="3">
+        <v>70012</v>
+      </c>
+      <c r="D69" s="4" t="str">
+        <f>VLOOKUP(B69,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>绝刀势</v>
+      </c>
+      <c r="E69" s="4" t="str">
+        <f>VLOOKUP(B69,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,110)*(3,120)</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70012,10)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B70">
+        <v>90007</v>
+      </c>
+      <c r="D70" s="7" t="e">
+        <f>VLOOKUP(B70,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E70" s="7" t="e">
+        <f>VLOOKUP(B70,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(90007,10)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="B71" s="3">
+        <v>60011</v>
+      </c>
+      <c r="D71" s="4" t="str">
+        <f>VLOOKUP(B71,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>八卦心法</v>
+      </c>
+      <c r="E71" s="4" t="str">
+        <f>VLOOKUP(B71,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,40)</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60011,10)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="B72" s="3">
+        <v>60011</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <f>VLOOKUP(B72,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>八卦心法</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <f>VLOOKUP(B72,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,40)</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60011,10)</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B73" s="3">
+        <v>70011</v>
+      </c>
+      <c r="D73" s="4" t="str">
+        <f>VLOOKUP(B73,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>天剑诀</v>
+      </c>
+      <c r="E73" s="4" t="str">
+        <f>VLOOKUP(B73,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,110)*(3,110)</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70011,10)</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B74" s="3">
+        <v>70011</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <f>VLOOKUP(B74,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>天剑诀</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <f>VLOOKUP(B74,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,110)*(3,110)</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70011,10)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A75" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B75">
+        <v>90008</v>
+      </c>
+      <c r="D75" s="7" t="e">
+        <f>VLOOKUP(B75,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E75" s="7" t="e">
+        <f>VLOOKUP(B75,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(90008,10)</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B76" s="3">
+        <v>60018</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <f>VLOOKUP(B76,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>神剑诀</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <f>VLOOKUP(B76,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,60)*(3,40)</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60018,10)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A77" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B77">
+        <v>90009</v>
+      </c>
+      <c r="D77" s="7" t="e">
+        <f>VLOOKUP(B77,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E77" s="7" t="e">
+        <f>VLOOKUP(B77,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(90009,10)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B78" s="3">
+        <v>70014</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <f>VLOOKUP(B78,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>三苦神功</v>
+      </c>
+      <c r="E78" s="4" t="str">
+        <f>VLOOKUP(B78,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70014,10)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B79" s="3">
+        <v>70014</v>
+      </c>
+      <c r="D79" s="4" t="str">
+        <f>VLOOKUP(B79,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>三苦神功</v>
+      </c>
+      <c r="E79" s="4" t="str">
+        <f>VLOOKUP(B79,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70014,10)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B80" s="3">
+        <v>87019</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <f>VLOOKUP(B80,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>大刀阵</v>
+      </c>
+      <c r="E80" s="4">
+        <f>VLOOKUP(B80,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(87019,10)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B81">
+        <v>90010</v>
+      </c>
+      <c r="D81" s="7" t="e">
+        <f>VLOOKUP(B81,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E81" s="7" t="e">
+        <f>VLOOKUP(B81,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(90010,10)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B82" s="3">
+        <v>70066</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <f>VLOOKUP(B82,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>江湖内功</v>
+      </c>
+      <c r="E82" s="4" t="str">
+        <f>VLOOKUP(B82,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,100)</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70066,10)</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="B83" s="3">
+        <v>87035</v>
+      </c>
+      <c r="D83" s="4" t="str">
+        <f>VLOOKUP(B83,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>神火炮阵</v>
+      </c>
+      <c r="E83" s="4">
+        <f>VLOOKUP(B83,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(87035,10)</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B84" s="3">
+        <v>87021</v>
+      </c>
+      <c r="D84" s="4" t="str">
+        <f>VLOOKUP(B84,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>护龙阵</v>
+      </c>
+      <c r="E84" s="4">
+        <f>VLOOKUP(B84,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(87021,10)</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B85" s="3">
+        <v>87021</v>
+      </c>
+      <c r="D85" s="4" t="str">
+        <f>VLOOKUP(B85,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>护龙阵</v>
+      </c>
+      <c r="E85" s="4">
+        <f>VLOOKUP(B85,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(87021,10)</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B86" s="3">
+        <v>87006</v>
+      </c>
+      <c r="D86" s="4" t="str">
+        <f>VLOOKUP(B86,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>绝杀阵</v>
+      </c>
+      <c r="E86" s="4">
+        <f>VLOOKUP(B86,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(87006,10)</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B87" s="3">
+        <v>70034</v>
+      </c>
+      <c r="D87" s="4" t="str">
+        <f>VLOOKUP(B87,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>血海魔功</v>
+      </c>
+      <c r="E87" s="4" t="str">
+        <f>VLOOKUP(B87,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70034,10)</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B88" s="3">
+        <v>70024</v>
+      </c>
+      <c r="D88" s="4" t="str">
+        <f>VLOOKUP(B88,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>九九神功</v>
+      </c>
+      <c r="E88" s="4" t="str">
+        <f>VLOOKUP(B88,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,120)*(3,140)</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70024,10)</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B89" s="3">
+        <v>70076</v>
+      </c>
+      <c r="D89" s="4" t="str">
+        <f>VLOOKUP(B89,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>天雪功</v>
+      </c>
+      <c r="E89" s="4" t="str">
+        <f>VLOOKUP(B89,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,160)</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70076,10)</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="B90" s="3">
+        <v>70018</v>
+      </c>
+      <c r="D90" s="4" t="str">
+        <f>VLOOKUP(B90,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>万剑归宗</v>
+      </c>
+      <c r="E90" s="4" t="str">
+        <f>VLOOKUP(B90,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70018,10)</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B91" s="3">
+        <v>70015</v>
+      </c>
+      <c r="D91" s="4" t="str">
+        <f>VLOOKUP(B91,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>易筋经</v>
+      </c>
+      <c r="E91" s="4" t="str">
+        <f>VLOOKUP(B91,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70015,10)</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="B92" s="3">
+        <v>70005</v>
+      </c>
+      <c r="D92" s="4" t="str">
+        <f>VLOOKUP(B92,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>神农琉璃功</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <f>VLOOKUP(B92,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,100)</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70005,10)</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B93" s="3">
+        <v>87020</v>
+      </c>
+      <c r="D93" s="4" t="str">
+        <f>VLOOKUP(B93,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>残花宝鉴</v>
+      </c>
+      <c r="E93" s="4">
+        <f>VLOOKUP(B93,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(87020,10)</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="B94" s="3">
+        <v>60020</v>
+      </c>
+      <c r="D94" s="4" t="str">
+        <f>VLOOKUP(B94,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>少林九阳功</v>
+      </c>
+      <c r="E94" s="4" t="str">
+        <f>VLOOKUP(B94,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,120)*(3,60)</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60020,10)</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="B95" s="3">
+        <v>70068</v>
+      </c>
+      <c r="D95" s="4" t="str">
+        <f>VLOOKUP(B95,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>侠客内功</v>
+      </c>
+      <c r="E95" s="4" t="str">
+        <f>VLOOKUP(B95,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,200)</v>
+      </c>
+      <c r="G95" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70068,10)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A96" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="B96" s="3">
+        <v>87008</v>
+      </c>
+      <c r="D96" s="4" t="str">
+        <f>VLOOKUP(B96,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>无妄神功</v>
+      </c>
+      <c r="E96" s="4">
+        <f>VLOOKUP(B96,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(87008,10)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B97" s="3">
+        <v>70042</v>
+      </c>
+      <c r="D97" s="4" t="str">
+        <f>VLOOKUP(B97,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>杀神七诀</v>
+      </c>
+      <c r="E97" s="4" t="str">
+        <f>VLOOKUP(B97,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,120)*(3,130)</v>
+      </c>
+      <c r="G97" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70042,10)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B98" s="3">
+        <v>70036</v>
+      </c>
+      <c r="D98" s="4" t="str">
+        <f>VLOOKUP(B98,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>天邪神功</v>
+      </c>
+      <c r="E98" s="4" t="str">
+        <f>VLOOKUP(B98,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70036,10)</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="B99" s="3">
+        <v>60039</v>
+      </c>
+      <c r="D99" s="4" t="str">
+        <f>VLOOKUP(B99,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>金刚不坏体</v>
+      </c>
+      <c r="E99" s="4" t="str">
+        <f>VLOOKUP(B99,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,140)*(3,10)</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60039,10)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A100" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B100" s="3">
+        <v>70025</v>
+      </c>
+      <c r="D100" s="4" t="str">
+        <f>VLOOKUP(B100,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>六合功</v>
+      </c>
+      <c r="E100" s="4" t="str">
+        <f>VLOOKUP(B100,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,140)*(3,120)</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70025,10)</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A101" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="B101" s="3">
+        <v>70025</v>
+      </c>
+      <c r="D101" s="4" t="str">
+        <f>VLOOKUP(B101,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>六合功</v>
+      </c>
+      <c r="E101" s="4" t="str">
+        <f>VLOOKUP(B101,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,140)*(3,120)</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70025,10)</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A102" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B102" s="3">
+        <v>70025</v>
+      </c>
+      <c r="D102" s="4" t="str">
+        <f>VLOOKUP(B102,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>六合功</v>
+      </c>
+      <c r="E102" s="4" t="str">
+        <f>VLOOKUP(B102,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,140)*(3,120)</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70025,10)</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A103" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B103" s="3">
+        <v>70068</v>
+      </c>
+      <c r="D103" s="4" t="str">
+        <f>VLOOKUP(B103,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>侠客内功</v>
+      </c>
+      <c r="E103" s="4" t="str">
+        <f>VLOOKUP(B103,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,200)</v>
+      </c>
+      <c r="G103" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70068,10)</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A104" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="B104" s="3">
+        <v>60017</v>
+      </c>
+      <c r="D104" s="4" t="str">
+        <f>VLOOKUP(B104,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>降魔功</v>
+      </c>
+      <c r="E104" s="4" t="str">
+        <f>VLOOKUP(B104,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,50)</v>
+      </c>
+      <c r="G104" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60017,10)</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A105" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="B105" s="3">
+        <v>60017</v>
+      </c>
+      <c r="D105" s="4" t="str">
+        <f>VLOOKUP(B105,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>降魔功</v>
+      </c>
+      <c r="E105" s="4" t="str">
+        <f>VLOOKUP(B105,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,50)</v>
+      </c>
+      <c r="G105" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60017,10)</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A106" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B106" s="3">
+        <v>60017</v>
+      </c>
+      <c r="D106" s="4" t="str">
+        <f>VLOOKUP(B106,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>降魔功</v>
+      </c>
+      <c r="E106" s="4" t="str">
+        <f>VLOOKUP(B106,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,50)</v>
+      </c>
+      <c r="G106" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60017,10)</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A107" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="B107" s="3">
+        <v>70004</v>
+      </c>
+      <c r="D107" s="4" t="str">
+        <f>VLOOKUP(B107,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>紫霞功</v>
+      </c>
+      <c r="E107" s="4" t="str">
+        <f>VLOOKUP(B107,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,150)</v>
+      </c>
+      <c r="G107" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70004,10)</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A108" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="B108" s="3">
+        <v>70004</v>
+      </c>
+      <c r="D108" s="4" t="str">
+        <f>VLOOKUP(B108,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>紫霞功</v>
+      </c>
+      <c r="E108" s="4" t="str">
+        <f>VLOOKUP(B108,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,150)</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70004,10)</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A109" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="B109" s="3">
+        <v>70004</v>
+      </c>
+      <c r="D109" s="4" t="str">
+        <f>VLOOKUP(B109,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>紫霞功</v>
+      </c>
+      <c r="E109" s="4" t="str">
+        <f>VLOOKUP(B109,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,150)</v>
+      </c>
+      <c r="G109" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70004,10)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A110" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B110" s="3">
+        <v>60035</v>
+      </c>
+      <c r="D110" s="4" t="str">
+        <f>VLOOKUP(B110,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>紫霞神功</v>
+      </c>
+      <c r="E110" s="4" t="str">
+        <f>VLOOKUP(B110,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,50)*(3,50)</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60035,10)</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A111" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="B111" s="3">
+        <v>70002</v>
+      </c>
+      <c r="D111" s="4" t="str">
+        <f>VLOOKUP(B111,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>冷泉映月</v>
+      </c>
+      <c r="E111" s="4" t="str">
+        <f>VLOOKUP(B111,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,140)*(3,140)</v>
+      </c>
+      <c r="G111" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70002,10)</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A112" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B112" s="3">
+        <v>70001</v>
+      </c>
+      <c r="D112" s="4" t="str">
+        <f>VLOOKUP(B112,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>北冥无相功</v>
+      </c>
+      <c r="E112" s="4" t="str">
+        <f>VLOOKUP(B112,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,160)*(3,200)</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70001,10)</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A113" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B113" s="3">
+        <v>60028</v>
+      </c>
+      <c r="D113" s="4" t="str">
+        <f>VLOOKUP(B113,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>忘忧心法</v>
+      </c>
+      <c r="E113" s="4" t="str">
+        <f>VLOOKUP(B113,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,50)*(3,30)</v>
+      </c>
+      <c r="G113" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60028,10)</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A114" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B114" s="3">
+        <v>60028</v>
+      </c>
+      <c r="D114" s="4" t="str">
+        <f>VLOOKUP(B114,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>忘忧心法</v>
+      </c>
+      <c r="E114" s="4" t="str">
+        <f>VLOOKUP(B114,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,50)*(3,30)</v>
+      </c>
+      <c r="G114" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60028,10)</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A115" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B115" s="3">
+        <v>60028</v>
+      </c>
+      <c r="D115" s="4" t="str">
+        <f>VLOOKUP(B115,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>忘忧心法</v>
+      </c>
+      <c r="E115" s="4" t="str">
+        <f>VLOOKUP(B115,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,50)*(3,30)</v>
+      </c>
+      <c r="G115" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60028,10)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A116" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="B116" s="3">
+        <v>60028</v>
+      </c>
+      <c r="D116" s="4" t="str">
+        <f>VLOOKUP(B116,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>忘忧心法</v>
+      </c>
+      <c r="E116" s="4" t="str">
+        <f>VLOOKUP(B116,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,50)*(3,30)</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60028,10)</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A117" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B117" s="3">
+        <v>60028</v>
+      </c>
+      <c r="D117" s="4" t="str">
+        <f>VLOOKUP(B117,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>忘忧心法</v>
+      </c>
+      <c r="E117" s="4" t="str">
+        <f>VLOOKUP(B117,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,50)*(3,30)</v>
+      </c>
+      <c r="G117" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60028,10)</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A118" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="B118" s="3">
+        <v>60028</v>
+      </c>
+      <c r="D118" s="4" t="str">
+        <f>VLOOKUP(B118,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>忘忧心法</v>
+      </c>
+      <c r="E118" s="4" t="str">
+        <f>VLOOKUP(B118,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,50)*(3,30)</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60028,10)</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A119" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B119">
+        <v>90011</v>
+      </c>
+      <c r="D119" s="7" t="e">
+        <f>VLOOKUP(B119,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E119" s="7" t="e">
+        <f>VLOOKUP(B119,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G119" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(90011,10)</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A120" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B120">
+        <v>90011</v>
+      </c>
+      <c r="D120" s="7" t="e">
+        <f>VLOOKUP(B120,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E120" s="7" t="e">
+        <f>VLOOKUP(B120,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(90011,10)</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A121" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="B121" s="3">
+        <v>60038</v>
+      </c>
+      <c r="D121" s="4" t="str">
+        <f>VLOOKUP(B121,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>莲花经</v>
+      </c>
+      <c r="E121" s="4" t="str">
+        <f>VLOOKUP(B121,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,70)*(3,40)</v>
+      </c>
+      <c r="G121" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60038,10)</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A122" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="B122" s="3">
+        <v>60038</v>
+      </c>
+      <c r="D122" s="4" t="str">
+        <f>VLOOKUP(B122,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>莲花经</v>
+      </c>
+      <c r="E122" s="4" t="str">
+        <f>VLOOKUP(B122,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,70)*(3,40)</v>
+      </c>
+      <c r="G122" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60038,10)</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A123" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B123" s="3">
+        <v>70017</v>
+      </c>
+      <c r="D123" s="4" t="str">
+        <f>VLOOKUP(B123,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>降龙神功</v>
+      </c>
+      <c r="E123" s="4" t="str">
+        <f>VLOOKUP(B123,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G123" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70017,10)</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A124" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B124" s="3">
+        <v>70082</v>
+      </c>
+      <c r="D124" s="4" t="str">
+        <f>VLOOKUP(B124,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>密宗心法</v>
+      </c>
+      <c r="E124" s="4" t="str">
+        <f>VLOOKUP(B124,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G124" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70082,10)</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A125" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="B125" s="3">
+        <v>70019</v>
+      </c>
+      <c r="D125" s="4" t="str">
+        <f>VLOOKUP(B125,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>龙象般若功</v>
+      </c>
+      <c r="E125" s="4" t="str">
+        <f>VLOOKUP(B125,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G125" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70019,10)</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A126" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B126" s="3">
+        <v>70019</v>
+      </c>
+      <c r="D126" s="4" t="str">
+        <f>VLOOKUP(B126,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>龙象般若功</v>
+      </c>
+      <c r="E126" s="4" t="str">
+        <f>VLOOKUP(B126,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G126" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(70019,10)</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A127" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B127" s="3">
+        <v>60019</v>
+      </c>
+      <c r="D127" s="4" t="str">
+        <f>VLOOKUP(B127,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>天山心法</v>
+      </c>
+      <c r="E127" s="4" t="str">
+        <f>VLOOKUP(B127,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,60)*(3,40)</v>
+      </c>
+      <c r="G127" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60019,10)</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A128" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B128" s="3">
+        <v>60019</v>
+      </c>
+      <c r="D128" s="4" t="str">
+        <f>VLOOKUP(B128,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>天山心法</v>
+      </c>
+      <c r="E128" s="4" t="str">
+        <f>VLOOKUP(B128,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,60)*(3,40)</v>
+      </c>
+      <c r="G128" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60019,10)</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A129" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B129" s="3">
+        <v>60019</v>
+      </c>
+      <c r="D129" s="4" t="str">
+        <f>VLOOKUP(B129,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>天山心法</v>
+      </c>
+      <c r="E129" s="4" t="str">
+        <f>VLOOKUP(B129,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,60)*(3,40)</v>
+      </c>
+      <c r="G129" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>(60019,10)</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A130" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="B130" s="3">
+        <v>60019</v>
+      </c>
+      <c r="D130" s="4" t="str">
+        <f>VLOOKUP(B130,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>天山心法</v>
+      </c>
+      <c r="E130" s="4" t="str">
+        <f>VLOOKUP(B130,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,60)*(3,40)</v>
+      </c>
+      <c r="G130" s="4" t="str">
+        <f t="shared" ref="G130:G193" si="2">"("&amp;B130&amp;","&amp;"10"&amp;")"</f>
+        <v>(60019,10)</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A131" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B131" s="3">
+        <v>70080</v>
+      </c>
+      <c r="D131" s="4" t="str">
+        <f>VLOOKUP(B131,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>雷霆心法</v>
+      </c>
+      <c r="E131" s="4" t="str">
+        <f>VLOOKUP(B131,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,180)*(3,180)</v>
+      </c>
+      <c r="G131" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70080,10)</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A132" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="B132" s="3">
+        <v>60019</v>
+      </c>
+      <c r="D132" s="4" t="str">
+        <f>VLOOKUP(B132,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>天山心法</v>
+      </c>
+      <c r="E132" s="4" t="str">
+        <f>VLOOKUP(B132,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,60)*(3,40)</v>
+      </c>
+      <c r="G132" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60019,10)</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A133" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="B133" s="3">
+        <v>60016</v>
+      </c>
+      <c r="D133" s="4" t="str">
+        <f>VLOOKUP(B133,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>武当九阳玄功</v>
+      </c>
+      <c r="E133" s="4" t="str">
+        <f>VLOOKUP(B133,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,120)*(3,40)</v>
+      </c>
+      <c r="G133" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60016,10)</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A134" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="B134" s="3">
+        <v>60019</v>
+      </c>
+      <c r="D134" s="4" t="str">
+        <f>VLOOKUP(B134,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>天山心法</v>
+      </c>
+      <c r="E134" s="4" t="str">
+        <f>VLOOKUP(B134,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,60)*(3,40)</v>
+      </c>
+      <c r="G134" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60019,10)</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A135" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="B135" s="3">
+        <v>60016</v>
+      </c>
+      <c r="D135" s="4" t="str">
+        <f>VLOOKUP(B135,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>武当九阳玄功</v>
+      </c>
+      <c r="E135" s="4" t="str">
+        <f>VLOOKUP(B135,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,120)*(3,40)</v>
+      </c>
+      <c r="G135" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60016,10)</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A136" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="B136">
+        <v>90012</v>
+      </c>
+      <c r="D136" s="7" t="e">
+        <f>VLOOKUP(B136,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E136" s="7" t="e">
+        <f>VLOOKUP(B136,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G136" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90012,10)</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A137" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="B137">
+        <v>90013</v>
+      </c>
+      <c r="D137" s="7" t="e">
+        <f>VLOOKUP(B137,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E137" s="7" t="e">
+        <f>VLOOKUP(B137,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G137" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90013,10)</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A138" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="B138">
+        <v>90014</v>
+      </c>
+      <c r="D138" s="7" t="e">
+        <f>VLOOKUP(B138,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E138" s="7" t="e">
+        <f>VLOOKUP(B138,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G138" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90014,10)</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A139" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="B139" s="3">
+        <v>70016</v>
+      </c>
+      <c r="D139" s="4" t="str">
+        <f>VLOOKUP(B139,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>太极神功</v>
+      </c>
+      <c r="E139" s="4" t="str">
+        <f>VLOOKUP(B139,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G139" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70016,10)</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A140" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="B140" s="3">
+        <v>70016</v>
+      </c>
+      <c r="D140" s="4" t="str">
+        <f>VLOOKUP(B140,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>太极神功</v>
+      </c>
+      <c r="E140" s="4" t="str">
+        <f>VLOOKUP(B140,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G140" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70016,10)</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A141" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B141" s="3">
+        <v>70016</v>
+      </c>
+      <c r="D141" s="4" t="str">
+        <f>VLOOKUP(B141,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>太极神功</v>
+      </c>
+      <c r="E141" s="4" t="str">
+        <f>VLOOKUP(B141,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G141" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70016,10)</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A142" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B142" s="3">
+        <v>60040</v>
+      </c>
+      <c r="D142" s="4" t="str">
+        <f>VLOOKUP(B142,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>罗汉降魔功</v>
+      </c>
+      <c r="E142" s="4" t="str">
+        <f>VLOOKUP(B142,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,50)</v>
+      </c>
+      <c r="G142" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60040,10)</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A143" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B143" s="3">
+        <v>60040</v>
+      </c>
+      <c r="D143" s="4" t="str">
+        <f>VLOOKUP(B143,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>罗汉降魔功</v>
+      </c>
+      <c r="E143" s="4" t="str">
+        <f>VLOOKUP(B143,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,50)</v>
+      </c>
+      <c r="G143" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60040,10)</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A144" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B144" s="3">
+        <v>60040</v>
+      </c>
+      <c r="D144" s="4" t="str">
+        <f>VLOOKUP(B144,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>罗汉降魔功</v>
+      </c>
+      <c r="E144" s="4" t="str">
+        <f>VLOOKUP(B144,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,50)</v>
+      </c>
+      <c r="G144" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60040,10)</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A145" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B145" s="3">
+        <v>60040</v>
+      </c>
+      <c r="D145" s="4" t="str">
+        <f>VLOOKUP(B145,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>罗汉降魔功</v>
+      </c>
+      <c r="E145" s="4" t="str">
+        <f>VLOOKUP(B145,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,50)</v>
+      </c>
+      <c r="G145" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60040,10)</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A146" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B146" s="3">
+        <v>60040</v>
+      </c>
+      <c r="D146" s="4" t="str">
+        <f>VLOOKUP(B146,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>罗汉降魔功</v>
+      </c>
+      <c r="E146" s="4" t="str">
+        <f>VLOOKUP(B146,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,50)</v>
+      </c>
+      <c r="G146" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60040,10)</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A147" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="B147" s="3">
+        <v>60040</v>
+      </c>
+      <c r="D147" s="4" t="str">
+        <f>VLOOKUP(B147,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>罗汉降魔功</v>
+      </c>
+      <c r="E147" s="4" t="str">
+        <f>VLOOKUP(B147,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,50)</v>
+      </c>
+      <c r="G147" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60040,10)</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A148" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="B148" s="3">
+        <v>60040</v>
+      </c>
+      <c r="D148" s="4" t="str">
+        <f>VLOOKUP(B148,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>罗汉降魔功</v>
+      </c>
+      <c r="E148" s="4" t="str">
+        <f>VLOOKUP(B148,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,50)</v>
+      </c>
+      <c r="G148" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60040,10)</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A149" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B149" s="3">
+        <v>60039</v>
+      </c>
+      <c r="D149" s="4" t="str">
+        <f>VLOOKUP(B149,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>金刚不坏体</v>
+      </c>
+      <c r="E149" s="4" t="str">
+        <f>VLOOKUP(B149,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,140)*(3,10)</v>
+      </c>
+      <c r="G149" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60039,10)</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A150" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="B150" s="3">
+        <v>60039</v>
+      </c>
+      <c r="D150" s="4" t="str">
+        <f>VLOOKUP(B150,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>金刚不坏体</v>
+      </c>
+      <c r="E150" s="4" t="str">
+        <f>VLOOKUP(B150,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,140)*(3,10)</v>
+      </c>
+      <c r="G150" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60039,10)</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A151" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="B151" s="3">
+        <v>60053</v>
+      </c>
+      <c r="D151" s="4" t="str">
+        <f>VLOOKUP(B151,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>洗髓经</v>
+      </c>
+      <c r="E151" s="4" t="str">
+        <f>VLOOKUP(B151,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,40)</v>
+      </c>
+      <c r="G151" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60053,10)</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A152" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="B152" s="3">
+        <v>70015</v>
+      </c>
+      <c r="D152" s="4" t="str">
+        <f>VLOOKUP(B152,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>易筋经</v>
+      </c>
+      <c r="E152" s="4" t="str">
+        <f>VLOOKUP(B152,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G152" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70015,10)</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A153" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="B153" s="3">
+        <v>70015</v>
+      </c>
+      <c r="D153" s="4" t="str">
+        <f>VLOOKUP(B153,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>易筋经</v>
+      </c>
+      <c r="E153" s="4" t="str">
+        <f>VLOOKUP(B153,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G153" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70015,10)</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A154" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="B154" s="3">
+        <v>70068</v>
+      </c>
+      <c r="D154" s="4" t="str">
+        <f>VLOOKUP(B154,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>侠客内功</v>
+      </c>
+      <c r="E154" s="4" t="str">
+        <f>VLOOKUP(B154,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,200)</v>
+      </c>
+      <c r="G154" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70068,10)</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A155" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="B155" s="3">
+        <v>70068</v>
+      </c>
+      <c r="D155" s="4" t="str">
+        <f>VLOOKUP(B155,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>侠客内功</v>
+      </c>
+      <c r="E155" s="4" t="str">
+        <f>VLOOKUP(B155,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,200)</v>
+      </c>
+      <c r="G155" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70068,10)</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A156" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B156" s="3">
+        <v>70068</v>
+      </c>
+      <c r="D156" s="4" t="str">
+        <f>VLOOKUP(B156,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>侠客内功</v>
+      </c>
+      <c r="E156" s="4" t="str">
+        <f>VLOOKUP(B156,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,200)</v>
+      </c>
+      <c r="G156" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70068,10)</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A157" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="B157" s="3">
+        <v>70087</v>
+      </c>
+      <c r="D157" s="4" t="str">
+        <f>VLOOKUP(B157,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>战斗演舞曲</v>
+      </c>
+      <c r="E157" s="4" t="str">
+        <f>VLOOKUP(B157,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G157" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70087,10)</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A158" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="B158" s="3">
+        <v>60010</v>
+      </c>
+      <c r="D158" s="4" t="str">
+        <f>VLOOKUP(B158,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>天罡功</v>
+      </c>
+      <c r="E158" s="4" t="str">
+        <f>VLOOKUP(B158,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,80)*(3,40)</v>
+      </c>
+      <c r="G158" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60010,10)</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A159" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="B159" s="3">
+        <v>87007</v>
+      </c>
+      <c r="D159" s="4" t="str">
+        <f>VLOOKUP(B159,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>绣魂点魄</v>
+      </c>
+      <c r="E159" s="4">
+        <f>VLOOKUP(B159,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G159" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(87007,10)</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A160" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B160">
+        <v>90015</v>
+      </c>
+      <c r="D160" s="7" t="e">
+        <f>VLOOKUP(B160,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E160" s="7" t="e">
+        <f>VLOOKUP(B160,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G160" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90015,10)</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A161" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B161">
+        <v>90015</v>
+      </c>
+      <c r="D161" s="7" t="e">
+        <f>VLOOKUP(B161,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E161" s="7" t="e">
+        <f>VLOOKUP(B161,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G161" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90015,10)</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A162" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B162">
+        <v>90015</v>
+      </c>
+      <c r="D162" s="7" t="e">
+        <f>VLOOKUP(B162,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E162" s="7" t="e">
+        <f>VLOOKUP(B162,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G162" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90015,10)</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A163" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="B163">
+        <v>90016</v>
+      </c>
+      <c r="D163" s="7" t="e">
+        <f>VLOOKUP(B163,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E163" s="7" t="e">
+        <f>VLOOKUP(B163,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G163" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90016,10)</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A164" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="B164">
+        <v>90015</v>
+      </c>
+      <c r="D164" s="7" t="e">
+        <f>VLOOKUP(B164,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E164" s="7" t="e">
+        <f>VLOOKUP(B164,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G164" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90015,10)</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A165" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B165">
+        <v>90015</v>
+      </c>
+      <c r="D165" s="7" t="e">
+        <f>VLOOKUP(B165,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E165" s="7" t="e">
+        <f>VLOOKUP(B165,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G165" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90015,10)</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A166" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="B166">
+        <v>90015</v>
+      </c>
+      <c r="D166" s="7" t="e">
+        <f>VLOOKUP(B166,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E166" s="7" t="e">
+        <f>VLOOKUP(B166,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G166" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90015,10)</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A167" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="B167" s="3">
+        <v>70031</v>
+      </c>
+      <c r="D167" s="4" t="str">
+        <f>VLOOKUP(B167,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>旱魃奇毒</v>
+      </c>
+      <c r="E167" s="4" t="str">
+        <f>VLOOKUP(B167,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G167" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70031,10)</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A168" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="B168">
+        <v>90016</v>
+      </c>
+      <c r="D168" s="7" t="e">
+        <f>VLOOKUP(B168,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E168" s="7" t="e">
+        <f>VLOOKUP(B168,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G168" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90016,10)</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A169" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B169" s="3">
+        <v>70037</v>
+      </c>
+      <c r="D169" s="4" t="str">
+        <f>VLOOKUP(B169,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>玄冥神功</v>
+      </c>
+      <c r="E169" s="4" t="str">
+        <f>VLOOKUP(B169,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G169" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70037,10)</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A170" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="B170" s="3">
+        <v>70030</v>
+      </c>
+      <c r="D170" s="4" t="str">
+        <f>VLOOKUP(B170,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>孔雀密咒</v>
+      </c>
+      <c r="E170" s="4" t="str">
+        <f>VLOOKUP(B170,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G170" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70030,10)</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A171" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="B171" s="3">
+        <v>60056</v>
+      </c>
+      <c r="D171" s="4" t="str">
+        <f>VLOOKUP(B171,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>虎啸功</v>
+      </c>
+      <c r="E171" s="4" t="str">
+        <f>VLOOKUP(B171,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,40)</v>
+      </c>
+      <c r="G171" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60056,10)</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A172" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="B172" s="3">
+        <v>70068</v>
+      </c>
+      <c r="D172" s="4" t="str">
+        <f>VLOOKUP(B172,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>侠客内功</v>
+      </c>
+      <c r="E172" s="4" t="str">
+        <f>VLOOKUP(B172,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,200)</v>
+      </c>
+      <c r="G172" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70068,10)</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A173" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B173" s="3">
+        <v>70068</v>
+      </c>
+      <c r="D173" s="4" t="str">
+        <f>VLOOKUP(B173,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>侠客内功</v>
+      </c>
+      <c r="E173" s="4" t="str">
+        <f>VLOOKUP(B173,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,200)</v>
+      </c>
+      <c r="G173" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70068,10)</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A174" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="B174" s="3">
+        <v>60007</v>
+      </c>
+      <c r="D174" s="4" t="str">
+        <f>VLOOKUP(B174,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>心合意气流</v>
+      </c>
+      <c r="E174" s="4" t="str">
+        <f>VLOOKUP(B174,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,40)</v>
+      </c>
+      <c r="G174" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60007,10)</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A175" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B175" s="3">
+        <v>70029</v>
+      </c>
+      <c r="D175" s="4" t="str">
+        <f>VLOOKUP(B175,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>葵花宝典</v>
+      </c>
+      <c r="E175" s="4" t="str">
+        <f>VLOOKUP(B175,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G175" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(70029,10)</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A176" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B176" s="3">
+        <v>60049</v>
+      </c>
+      <c r="D176" s="4" t="str">
+        <f>VLOOKUP(B176,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>地煞无极功</v>
+      </c>
+      <c r="E176" s="4" t="str">
+        <f>VLOOKUP(B176,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,120)*(3,50)</v>
+      </c>
+      <c r="G176" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60049,10)</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A177" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="B177" s="3">
+        <v>60013</v>
+      </c>
+      <c r="D177" s="4" t="str">
+        <f>VLOOKUP(B177,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>毒龙功</v>
+      </c>
+      <c r="E177" s="4" t="str">
+        <f>VLOOKUP(B177,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,42)*(3,24)</v>
+      </c>
+      <c r="G177" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(60013,10)</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A178" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B178" s="3">
+        <v>87034</v>
+      </c>
+      <c r="D178" s="4" t="str">
+        <f>VLOOKUP(B178,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>铁叉蛊术</v>
+      </c>
+      <c r="E178" s="4">
+        <f>VLOOKUP(B178,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G178" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(87034,10)</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A179" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="B179">
+        <v>90017</v>
+      </c>
+      <c r="D179" s="7" t="e">
+        <f>VLOOKUP(B179,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E179" s="7" t="e">
+        <f>VLOOKUP(B179,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G179" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90017,10)</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A180" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="B180">
+        <v>90017</v>
+      </c>
+      <c r="D180" s="7" t="e">
+        <f>VLOOKUP(B180,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E180" s="7" t="e">
+        <f>VLOOKUP(B180,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G180" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90017,10)</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A181" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="B181">
+        <v>90017</v>
+      </c>
+      <c r="D181" s="7" t="e">
+        <f>VLOOKUP(B181,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E181" s="7" t="e">
+        <f>VLOOKUP(B181,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G181" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90017,10)</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A182" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="B182">
+        <v>90017</v>
+      </c>
+      <c r="D182" s="7" t="e">
+        <f>VLOOKUP(B182,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E182" s="7" t="e">
+        <f>VLOOKUP(B182,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G182" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90017,10)</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A183" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="B183">
+        <v>90017</v>
+      </c>
+      <c r="D183" s="7" t="e">
+        <f>VLOOKUP(B183,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E183" s="7" t="e">
+        <f>VLOOKUP(B183,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G183" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90017,10)</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A184" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="B184">
+        <v>90017</v>
+      </c>
+      <c r="D184" s="7" t="e">
+        <f>VLOOKUP(B184,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E184" s="7" t="e">
+        <f>VLOOKUP(B184,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G184" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90017,10)</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A185" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="B185" s="3">
+        <v>87002</v>
+      </c>
+      <c r="D185" s="4" t="str">
+        <f>VLOOKUP(B185,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>蛟龙翻江</v>
+      </c>
+      <c r="E185" s="4">
+        <f>VLOOKUP(B185,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G185" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(87002,10)</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A186" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B186" s="3">
+        <v>87017</v>
+      </c>
+      <c r="D186" s="4" t="str">
+        <f>VLOOKUP(B186,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>双生大法。阳</v>
+      </c>
+      <c r="E186" s="4">
+        <f>VLOOKUP(B186,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G186" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(87017,10)</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A187" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B187" s="3">
+        <v>87016</v>
+      </c>
+      <c r="D187" s="4" t="str">
+        <f>VLOOKUP(B187,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>双生大法。阴</v>
+      </c>
+      <c r="E187" s="4">
+        <f>VLOOKUP(B187,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G187" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(87016,10)</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A188" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B188" s="3">
+        <v>87018</v>
+      </c>
+      <c r="D188" s="4" t="str">
+        <f>VLOOKUP(B188,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>苗蛊毒功</v>
+      </c>
+      <c r="E188" s="4">
+        <f>VLOOKUP(B188,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G188" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(87018,10)</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A189" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B189" s="3">
+        <v>87015</v>
+      </c>
+      <c r="D189" s="4" t="str">
+        <f>VLOOKUP(B189,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>生死簿</v>
+      </c>
+      <c r="E189" s="4">
+        <f>VLOOKUP(B189,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G189" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(87015,10)</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A190" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="B190" s="3">
+        <v>87005</v>
+      </c>
+      <c r="D190" s="4" t="str">
+        <f>VLOOKUP(B190,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>杀神七诀</v>
+      </c>
+      <c r="E190" s="4">
+        <f>VLOOKUP(B190,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G190" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(87005,10)</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A191" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B191" s="3">
+        <v>87009</v>
+      </c>
+      <c r="D191" s="4" t="str">
+        <f>VLOOKUP(B191,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>妄魂三绝</v>
+      </c>
+      <c r="E191" s="4">
+        <f>VLOOKUP(B191,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G191" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(87009,10)</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A192" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B192" s="3">
+        <v>87001</v>
+      </c>
+      <c r="D192" s="4" t="str">
+        <f>VLOOKUP(B192,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>无间心法</v>
+      </c>
+      <c r="E192" s="4">
+        <f>VLOOKUP(B192,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G192" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(87001,10)</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A193" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B193">
+        <v>90018</v>
+      </c>
+      <c r="D193" s="7" t="e">
+        <f>VLOOKUP(B193,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E193" s="7" t="e">
+        <f>VLOOKUP(B193,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G193" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>(90018,10)</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A194" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B194">
+        <v>90018</v>
+      </c>
+      <c r="D194" s="7" t="e">
+        <f>VLOOKUP(B194,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E194" s="7" t="e">
+        <f>VLOOKUP(B194,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G194" s="4" t="str">
+        <f t="shared" ref="G194:G214" si="3">"("&amp;B194&amp;","&amp;"10"&amp;")"</f>
+        <v>(90018,10)</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A195" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B195">
+        <v>90018</v>
+      </c>
+      <c r="D195" s="7" t="e">
+        <f>VLOOKUP(B195,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E195" s="7" t="e">
+        <f>VLOOKUP(B195,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G195" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(90018,10)</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A196" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B196" s="3">
+        <v>70037</v>
+      </c>
+      <c r="D196" s="4" t="str">
+        <f>VLOOKUP(B196,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>玄冥神功</v>
+      </c>
+      <c r="E196" s="4" t="str">
+        <f>VLOOKUP(B196,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G196" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(70037,10)</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A197" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B197" s="3">
+        <v>60024</v>
+      </c>
+      <c r="D197" s="4" t="str">
+        <f>VLOOKUP(B197,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>清心普散咒</v>
+      </c>
+      <c r="E197" s="4" t="str">
+        <f>VLOOKUP(B197,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,40)</v>
+      </c>
+      <c r="G197" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(60024,10)</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A198" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B198" s="3">
+        <v>70030</v>
+      </c>
+      <c r="D198" s="4" t="str">
+        <f>VLOOKUP(B198,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>孔雀密咒</v>
+      </c>
+      <c r="E198" s="4" t="str">
+        <f>VLOOKUP(B198,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G198" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(70030,10)</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A199" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B199" s="3">
+        <v>60061</v>
+      </c>
+      <c r="D199" s="4" t="str">
+        <f>VLOOKUP(B199,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>明玉功</v>
+      </c>
+      <c r="E199" s="4" t="str">
+        <f>VLOOKUP(B199,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,120)*(3,50)</v>
+      </c>
+      <c r="G199" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(60061,10)</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A200" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B200" s="3">
+        <v>70018</v>
+      </c>
+      <c r="D200" s="4" t="str">
+        <f>VLOOKUP(B200,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>万剑归宗</v>
+      </c>
+      <c r="E200" s="4" t="str">
+        <f>VLOOKUP(B200,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G200" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(70018,10)</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A201" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B201" s="3">
+        <v>70090</v>
+      </c>
+      <c r="D201" s="4" t="str">
+        <f>VLOOKUP(B201,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>闭穴功夫</v>
+      </c>
+      <c r="E201" s="4" t="str">
+        <f>VLOOKUP(B201,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,130)*(3,120)</v>
+      </c>
+      <c r="G201" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(70090,10)</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A202" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B202" s="3">
+        <v>70003</v>
+      </c>
+      <c r="D202" s="4" t="str">
+        <f>VLOOKUP(B202,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>化功大法</v>
+      </c>
+      <c r="E202" s="4" t="str">
+        <f>VLOOKUP(B202,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,180)</v>
+      </c>
+      <c r="G202" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(70003,10)</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A203" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B203" s="3">
+        <v>87036</v>
+      </c>
+      <c r="D203" s="4" t="str">
+        <f>VLOOKUP(B203,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>江湖心法</v>
+      </c>
+      <c r="E203" s="4">
+        <f>VLOOKUP(B203,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G203" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(87036,10)</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A204" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B204" s="3">
+        <v>87036</v>
+      </c>
+      <c r="D204" s="4" t="str">
+        <f>VLOOKUP(B204,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>江湖心法</v>
+      </c>
+      <c r="E204" s="4">
+        <f>VLOOKUP(B204,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G204" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(87036,10)</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A205" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B205" s="3">
+        <v>60008</v>
+      </c>
+      <c r="D205" s="4" t="str">
+        <f>VLOOKUP(B205,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>冰火玄功</v>
+      </c>
+      <c r="E205" s="4" t="str">
+        <f>VLOOKUP(B205,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,50)*(3,30)</v>
+      </c>
+      <c r="G205" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(60008,10)</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A206" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B206" s="3">
+        <v>70021</v>
+      </c>
+      <c r="D206" s="4" t="str">
+        <f>VLOOKUP(B206,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>蛇虿大法</v>
+      </c>
+      <c r="E206" s="4" t="str">
+        <f>VLOOKUP(B206,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G206" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(70021,10)</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A207" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B207" s="3">
+        <v>70079</v>
+      </c>
+      <c r="D207" s="4" t="str">
+        <f>VLOOKUP(B207,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>金翼神功</v>
+      </c>
+      <c r="E207" s="4" t="str">
+        <f>VLOOKUP(B207,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G207" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(70079,10)</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A208" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B208" s="3">
+        <v>60024</v>
+      </c>
+      <c r="D208" s="4" t="str">
+        <f>VLOOKUP(B208,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>清心普散咒</v>
+      </c>
+      <c r="E208" s="4" t="str">
+        <f>VLOOKUP(B208,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,90)*(3,40)</v>
+      </c>
+      <c r="G208" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(60024,10)</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A209" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B209" s="3">
+        <v>70068</v>
+      </c>
+      <c r="D209" s="4" t="str">
+        <f>VLOOKUP(B209,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>侠客内功</v>
+      </c>
+      <c r="E209" s="4" t="str">
+        <f>VLOOKUP(B209,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,100)*(3,200)</v>
+      </c>
+      <c r="G209" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(70068,10)</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A210" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B210" s="3">
+        <v>60041</v>
+      </c>
+      <c r="D210" s="4" t="str">
+        <f>VLOOKUP(B210,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>修罗心法</v>
+      </c>
+      <c r="E210" s="4" t="str">
+        <f>VLOOKUP(B210,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,80)*(3,40)</v>
+      </c>
+      <c r="G210" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(60041,10)</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A211" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B211" s="3">
+        <v>70020</v>
+      </c>
+      <c r="D211" s="4" t="str">
+        <f>VLOOKUP(B211,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>霸秦神功</v>
+      </c>
+      <c r="E211" s="4" t="str">
+        <f>VLOOKUP(B211,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G211" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(70020,10)</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A212" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B212" s="3">
+        <v>70028</v>
+      </c>
+      <c r="D212" s="4" t="str">
+        <f>VLOOKUP(B212,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>梵天造化功</v>
+      </c>
+      <c r="E212" s="4" t="str">
+        <f>VLOOKUP(B212,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,200)*(3,200)</v>
+      </c>
+      <c r="G212" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(70028,10)</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A213" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B213" s="3">
+        <v>60063</v>
+      </c>
+      <c r="D213" s="4" t="str">
+        <f>VLOOKUP(B213,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>先天功</v>
+      </c>
+      <c r="E213" s="4" t="str">
+        <f>VLOOKUP(B213,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,135)*(3,55)</v>
+      </c>
+      <c r="G213" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(60063,10)</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A214" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B214" s="3">
+        <v>60032</v>
+      </c>
+      <c r="D214" s="4" t="str">
+        <f>VLOOKUP(B214,DLC_NeigongData!$A$3:$O$218,2,FALSE)</f>
+        <v>隐元韬晦诀</v>
+      </c>
+      <c r="E214" s="4" t="str">
+        <f>VLOOKUP(B214,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
+        <v>(1,10)*(3,10)</v>
+      </c>
+      <c r="G214" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>(60032,10)</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel文件/xiakeqian/心法.xlsx
+++ b/Excel文件/xiakeqian/心法.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29009"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2C2BFD-0F56-4024-9B2E-BED447098A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603F4F19-6CE0-49E6-8210-128AB29956E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1026">
   <si>
     <t>#功体编号</t>
   </si>
@@ -3839,11 +3839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O236"/>
+  <dimension ref="A1:O237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E221" sqref="E221"/>
+      <pane ySplit="2" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J239" sqref="J239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14828,21 +14828,21 @@
         <v>100109</v>
       </c>
       <c r="J220" s="2" t="str">
-        <f t="shared" ref="J220:J236" si="12">"(10,0,"&amp;A220&amp;",1)"</f>
+        <f t="shared" ref="J220:J237" si="12">"(10,0,"&amp;A220&amp;",1)"</f>
         <v>(10,0,90002,1)</v>
       </c>
       <c r="K220">
         <v>0</v>
       </c>
       <c r="L220" s="2" t="str">
-        <f t="shared" ref="L220:L236" si="13">"(10,0,"&amp;A220&amp;",7)"</f>
+        <f t="shared" ref="L220:L237" si="13">"(10,0,"&amp;A220&amp;",7)"</f>
         <v>(10,0,90002,7)</v>
       </c>
       <c r="M220">
         <v>0</v>
       </c>
       <c r="N220" s="2" t="str">
-        <f t="shared" ref="N220:N236" si="14">"(10,0,"&amp;A220&amp;",10)"</f>
+        <f t="shared" ref="N220:N237" si="14">"(10,0,"&amp;A220&amp;",10)"</f>
         <v>(10,0,90002,10)</v>
       </c>
       <c r="O220">
@@ -15646,6 +15646,56 @@
         <v>(10,0,90018,10)</v>
       </c>
       <c r="O236">
+        <v>987009</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>90019</v>
+      </c>
+      <c r="B237" t="s">
+        <v>793</v>
+      </c>
+      <c r="C237" t="s">
+        <v>510</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237" t="s">
+        <v>81</v>
+      </c>
+      <c r="I237">
+        <v>987125</v>
+      </c>
+      <c r="J237" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10,0,90019,1)</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>(10,0,90019,7)</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>(10,0,90019,10)</v>
+      </c>
+      <c r="O237">
         <v>987009</v>
       </c>
     </row>

--- a/Excel文件/xiakeqian/心法.xlsx
+++ b/Excel文件/xiakeqian/心法.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29009"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603F4F19-6CE0-49E6-8210-128AB29956E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A9DB07-2478-449C-B4E0-B22F058D92F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="1033">
   <si>
     <t>#功体编号</t>
   </si>
@@ -3403,6 +3403,27 @@
   <si>
     <t>(1,80)*(3,80)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾坤大挪移</t>
+  </si>
+  <si>
+    <t>明教历代相传的一门最厉害的武功，只有教主方可修炼。 其根本道理也并不奥妙，只不过是先要激发自身潜力，然后牵引挪移，其中变化莫测，匪夷所思。</t>
+  </si>
+  <si>
+    <t>(52,5)*(57,5)</t>
+  </si>
+  <si>
+    <t>(53,10)</t>
+  </si>
+  <si>
+    <t>(10,0,99001,1)</t>
+  </si>
+  <si>
+    <t>(10,0,99001,7)</t>
+  </si>
+  <si>
+    <t>(10,0,99001,10)</t>
   </si>
 </sst>
 </file>
@@ -3839,11 +3860,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O237"/>
+  <dimension ref="A1:O238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J239" sqref="J239"/>
+      <pane ySplit="2" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L245" sqref="L245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15697,6 +15718,53 @@
       </c>
       <c r="O237">
         <v>987009</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A238">
+        <v>99001</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D238" t="s">
+        <v>361</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G238">
+        <v>5</v>
+      </c>
+      <c r="H238" t="s">
+        <v>81</v>
+      </c>
+      <c r="I238">
+        <v>890001</v>
+      </c>
+      <c r="J238" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K238">
+        <v>890004</v>
+      </c>
+      <c r="L238" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M238">
+        <v>890005</v>
+      </c>
+      <c r="N238" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O238">
+        <v>910069</v>
       </c>
     </row>
   </sheetData>
@@ -15714,7 +15782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
@@ -18056,7 +18124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G214"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" workbookViewId="0">
+    <sheetView topLeftCell="A189" workbookViewId="0">
       <selection activeCell="J203" sqref="J203"/>
     </sheetView>
   </sheetViews>

--- a/Excel文件/xiakeqian/心法.xlsx
+++ b/Excel文件/xiakeqian/心法.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29009"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A9DB07-2478-449C-B4E0-B22F058D92F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57C6E71-3F62-46C2-969D-424466036B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="1738">
   <si>
     <t>#功体编号</t>
   </si>
@@ -3401,29 +3401,2143 @@
     <t>岳在渊</t>
   </si>
   <si>
+    <t>乾坤大挪移</t>
+  </si>
+  <si>
+    <t>明教历代相传的一门最厉害的武功，只有教主方可修炼。 其根本道理也并不奥妙，只不过是先要激发自身潜力，然后牵引挪移，其中变化莫测，匪夷所思。</t>
+  </si>
+  <si>
+    <t>(52,5)*(57,5)</t>
+  </si>
+  <si>
+    <t>(53,10)</t>
+  </si>
+  <si>
+    <t>(10,0,99001,1)</t>
+  </si>
+  <si>
+    <t>(10,0,99001,7)</t>
+  </si>
+  <si>
+    <t>(10,0,99001,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60001,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60001,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60001,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60002,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60002,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60002,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60003,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60003,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60003,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60004,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60004,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60004,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60005,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60005,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60005,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60006,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60006,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60006,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60007,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60007,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60007,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60008,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60008,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60008,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60009,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60009,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60009,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60010,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60010,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60010,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60011,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60011,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60011,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60012,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60012,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60012,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60013,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60013,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60013,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60014,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60014,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60014,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60015,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60015,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60015,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60016,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60016,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60016,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60017,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60017,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60017,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60018,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60018,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60018,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60019,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60019,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60019,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60020,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60020,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60020,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60021,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60021,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60021,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60022,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60022,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60022,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60023,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60023,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60023,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60024,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60024,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60024,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60025,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60025,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60025,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60026,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60026,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60026,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60027,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60027,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60027,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60028,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60028,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60028,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60029,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60029,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60029,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60030,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60030,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60030,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60031,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60031,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60031,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60032,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60032,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60032,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60033,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60033,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60033,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60034,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60034,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60034,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60035,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60035,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60035,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60036,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60036,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60036,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60037,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60037,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60037,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60038,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60038,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60038,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60039,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60039,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60039,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60040,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60040,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60040,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60041,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60041,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60041,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60042,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60042,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60042,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60043,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60043,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60043,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60044,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60044,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60044,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60045,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60045,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60045,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60046,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60046,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60046,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60047,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60047,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60047,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60048,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60048,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60048,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60049,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60049,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60049,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60050,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60050,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60050,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60051,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60051,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60051,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60052,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60052,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60052,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60053,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60053,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60053,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60054,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60054,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60054,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60055,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60055,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60055,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60056,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60056,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60056,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60057,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60057,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60057,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60058,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60058,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60058,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60059,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60059,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60059,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60060,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60060,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60060,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60061,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60061,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60061,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60062,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60062,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60062,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60063,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60063,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60063,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60064,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60064,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60064,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60065,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60065,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60065,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60066,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60066,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60066,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60067,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60067,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60067,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60068,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60068,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60068,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60069,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60069,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60069,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60070,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60070,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60070,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60071,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60071,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60071,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60072,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60072,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60072,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60073,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60073,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60073,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60074,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60074,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60074,10)</t>
+  </si>
+  <si>
+    <t>(10,0,60075,1)</t>
+  </si>
+  <si>
+    <t>(10,0,60075,7)</t>
+  </si>
+  <si>
+    <t>(10,0,60075,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70001,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70001,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70001,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70002,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70002,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70002,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70003,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70003,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70003,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70004,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70004,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70004,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70005,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70005,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70005,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70006,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70006,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70006,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70007,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70007,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70007,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70008,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70008,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70008,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70009,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70009,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70009,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70010,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70010,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70010,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70011,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70011,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70011,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70012,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70012,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70012,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70013,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70013,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70013,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70014,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70014,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70014,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70015,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70015,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70015,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70016,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70016,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70016,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70017,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70017,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70017,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70018,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70018,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70018,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70019,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70019,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70019,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70020,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70020,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70020,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70021,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70021,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70021,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70022,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70022,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70022,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70023,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70023,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70023,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70024,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70024,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70024,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70025,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70025,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70025,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70026,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70026,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70026,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70027,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70027,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70027,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70028,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70028,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70028,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70029,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70029,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70029,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70030,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70030,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70030,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70031,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70031,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70031,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70032,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70032,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70032,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70033,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70033,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70033,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70034,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70034,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70034,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70035,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70035,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70035,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70036,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70036,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70036,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70037,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70037,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70037,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70038,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70038,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70038,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70039,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70039,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70039,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70040,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70040,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70040,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70041,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70041,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70041,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70042,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70042,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70042,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70043,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70043,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70043,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70044,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70044,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70044,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70045,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70045,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70045,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70046,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70046,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70046,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70047,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70047,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70047,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70048,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70048,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70048,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70049,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70049,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70049,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70050,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70050,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70050,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70051,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70051,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70051,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70052,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70052,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70052,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70053,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70053,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70053,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70054,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70054,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70054,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70055,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70055,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70055,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70056,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70056,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70056,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70057,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70057,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70057,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70058,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70058,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70058,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70059,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70059,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70059,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70060,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70060,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70060,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70061,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70061,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70061,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70062,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70062,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70062,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70063,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70063,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70063,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70064,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70064,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70064,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70065,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70065,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70065,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70066,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70066,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70066,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70067,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70067,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70067,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70068,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70068,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70068,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70069,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70069,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70069,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70070,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70070,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70070,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70071,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70071,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70071,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70072,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70072,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70072,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70073,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70073,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70073,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70074,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70074,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70074,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70075,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70075,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70075,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70076,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70076,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70076,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70077,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70077,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70077,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70078,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70078,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70078,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70079,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70079,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70079,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70080,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70080,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70080,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70081,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70081,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70081,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70082,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70082,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70082,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70083,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70083,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70083,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70084,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70084,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70084,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70085,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70085,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70085,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70086,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70086,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70086,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70087,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70087,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70087,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70088,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70088,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70088,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70089,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70089,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70089,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70090,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70090,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70090,10)</t>
+  </si>
+  <si>
+    <t>(10,0,70091,1)</t>
+  </si>
+  <si>
+    <t>(10,0,70091,7)</t>
+  </si>
+  <si>
+    <t>(10,0,70091,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87001,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87001,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87001,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87002,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87002,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87002,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87003,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87003,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87003,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87004,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87004,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87004,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87005,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87005,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87005,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87006,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87006,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87006,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87007,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87007,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87007,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87008,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87008,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87008,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87009,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87009,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87009,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87010,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87010,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87010,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87011,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87011,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87011,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87012,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87012,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87012,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87013,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87013,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87013,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87014,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87014,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87014,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87015,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87015,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87015,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87016,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87016,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87016,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87017,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87017,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87017,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87018,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87018,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87018,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87019,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87019,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87019,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87020,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87020,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87020,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87021,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87021,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87021,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87022,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87022,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87022,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87023,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87023,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87023,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87024,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87024,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87024,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87025,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87025,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87025,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87026,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87026,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87026,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87027,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87027,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87027,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87028,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87028,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87028,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87029,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87029,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87029,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87030,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87030,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87030,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87031,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87031,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87031,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87032,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87032,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87032,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87033,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87033,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87033,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87034,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87034,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87034,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87035,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87035,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87035,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87036,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87036,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87036,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87037,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87037,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87037,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87038,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87038,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87038,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87039,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87039,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87039,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87040,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87040,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87040,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87041,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87041,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87041,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87042,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87042,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87042,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87043,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87043,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87043,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87044,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87044,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87044,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87045,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87045,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87045,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87046,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87046,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87046,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87047,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87047,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87047,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87048,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87048,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87048,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87049,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87049,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87049,10)</t>
+  </si>
+  <si>
+    <t>(10,0,87050,1)</t>
+  </si>
+  <si>
+    <t>(10,0,87050,7)</t>
+  </si>
+  <si>
+    <t>(10,0,87050,10)</t>
+  </si>
+  <si>
     <t>(1,80)*(3,80)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乾坤大挪移</t>
-  </si>
-  <si>
-    <t>明教历代相传的一门最厉害的武功，只有教主方可修炼。 其根本道理也并不奥妙，只不过是先要激发自身潜力，然后牵引挪移，其中变化莫测，匪夷所思。</t>
-  </si>
-  <si>
-    <t>(52,5)*(57,5)</t>
-  </si>
-  <si>
-    <t>(53,10)</t>
-  </si>
-  <si>
-    <t>(10,0,99001,1)</t>
-  </si>
-  <si>
-    <t>(10,0,99001,7)</t>
-  </si>
-  <si>
-    <t>(10,0,99001,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90001,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90001,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90001,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90002,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90002,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90002,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90003,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90003,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90003,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90004,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90004,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90004,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90005,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90005,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90005,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90006,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90006,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90006,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90007,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90007,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90007,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90008,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90008,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90008,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90009,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90009,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90009,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90010,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90010,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90010,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90011,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90011,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90011,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90012,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90012,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90012,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90013,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90013,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90013,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90014,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90014,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90014,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90015,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90015,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90015,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90016,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90016,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90016,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90017,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90017,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90017,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90018,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90018,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90018,10)</t>
+  </si>
+  <si>
+    <t>(10,0,90019,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90019,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90019,10)</t>
   </si>
 </sst>
 </file>
@@ -3863,8 +5977,8 @@
   <dimension ref="A1:O238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L245" sqref="L245"/>
+      <pane ySplit="2" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P229" sqref="P229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3998,26 +6112,23 @@
       <c r="I3">
         <v>100015</v>
       </c>
-      <c r="J3" s="2" t="str">
-        <f>"(10,0,"&amp;A3&amp;",1)"</f>
-        <v>(10,0,60001,1)</v>
+      <c r="J3" s="2" t="s">
+        <v>1032</v>
       </c>
       <c r="K3">
         <v>100014</v>
       </c>
-      <c r="L3" s="2" t="str">
-        <f>"(10,0,"&amp;A3&amp;",7)"</f>
-        <v>(10,0,60001,7)</v>
+      <c r="L3" s="2" t="s">
+        <v>1033</v>
       </c>
       <c r="M3">
         <v>100016</v>
       </c>
-      <c r="N3" s="2" t="str">
-        <f>"(10,0,"&amp;A3&amp;",10)"</f>
-        <v>(10,0,60001,10)</v>
+      <c r="N3" s="2" t="s">
+        <v>1034</v>
       </c>
       <c r="O3">
-        <v>987009</v>
+        <v>987024</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -4048,23 +6159,20 @@
       <c r="I4">
         <v>100042</v>
       </c>
-      <c r="J4" s="2" t="str">
-        <f t="shared" ref="J4:J67" si="0">"(10,0,"&amp;A4&amp;",1)"</f>
-        <v>(10,0,60002,1)</v>
+      <c r="J4" s="2" t="s">
+        <v>1035</v>
       </c>
       <c r="K4">
         <v>100021</v>
       </c>
-      <c r="L4" s="2" t="str">
-        <f t="shared" ref="L4:L67" si="1">"(10,0,"&amp;A4&amp;",7)"</f>
-        <v>(10,0,60002,7)</v>
+      <c r="L4" s="2" t="s">
+        <v>1036</v>
       </c>
       <c r="M4">
         <v>100051</v>
       </c>
-      <c r="N4" s="2" t="str">
-        <f t="shared" ref="N4:N67" si="2">"(10,0,"&amp;A4&amp;",10)"</f>
-        <v>(10,0,60002,10)</v>
+      <c r="N4" s="2" t="s">
+        <v>1037</v>
       </c>
       <c r="O4">
         <v>987009</v>
@@ -4098,26 +6206,23 @@
       <c r="I5">
         <v>100011</v>
       </c>
-      <c r="J5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60003,1)</v>
+      <c r="J5" s="2" t="s">
+        <v>1038</v>
       </c>
       <c r="K5">
         <v>100012</v>
       </c>
-      <c r="L5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60003,7)</v>
+      <c r="L5" s="2" t="s">
+        <v>1039</v>
       </c>
       <c r="M5">
         <v>100013</v>
       </c>
-      <c r="N5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60003,10)</v>
+      <c r="N5" s="2" t="s">
+        <v>1040</v>
       </c>
       <c r="O5">
-        <v>987009</v>
+        <v>987024</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -4148,23 +6253,20 @@
       <c r="I6">
         <v>100029</v>
       </c>
-      <c r="J6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60004,1)</v>
+      <c r="J6" s="2" t="s">
+        <v>1041</v>
       </c>
       <c r="K6">
         <v>100053</v>
       </c>
-      <c r="L6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60004,7)</v>
+      <c r="L6" s="2" t="s">
+        <v>1042</v>
       </c>
       <c r="M6">
         <v>100054</v>
       </c>
-      <c r="N6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60004,10)</v>
+      <c r="N6" s="2" t="s">
+        <v>1043</v>
       </c>
       <c r="O6">
         <v>987009</v>
@@ -4198,23 +6300,20 @@
       <c r="I7">
         <v>100075</v>
       </c>
-      <c r="J7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60005,1)</v>
+      <c r="J7" s="2" t="s">
+        <v>1044</v>
       </c>
       <c r="K7">
         <v>100076</v>
       </c>
-      <c r="L7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60005,7)</v>
+      <c r="L7" s="2" t="s">
+        <v>1045</v>
       </c>
       <c r="M7">
         <v>500023</v>
       </c>
-      <c r="N7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60005,10)</v>
+      <c r="N7" s="2" t="s">
+        <v>1046</v>
       </c>
       <c r="O7">
         <v>987009</v>
@@ -4248,23 +6347,20 @@
       <c r="I8">
         <v>100017</v>
       </c>
-      <c r="J8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60006,1)</v>
+      <c r="J8" s="2" t="s">
+        <v>1047</v>
       </c>
       <c r="K8">
         <v>100024</v>
       </c>
-      <c r="L8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60006,7)</v>
+      <c r="L8" s="2" t="s">
+        <v>1048</v>
       </c>
       <c r="M8">
         <v>100070</v>
       </c>
-      <c r="N8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60006,10)</v>
+      <c r="N8" s="2" t="s">
+        <v>1049</v>
       </c>
       <c r="O8">
         <v>987009</v>
@@ -4298,23 +6394,20 @@
       <c r="I9">
         <v>100016</v>
       </c>
-      <c r="J9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60007,1)</v>
+      <c r="J9" s="2" t="s">
+        <v>1050</v>
       </c>
       <c r="K9">
         <v>100017</v>
       </c>
-      <c r="L9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60007,7)</v>
+      <c r="L9" s="2" t="s">
+        <v>1051</v>
       </c>
       <c r="M9">
         <v>100039</v>
       </c>
-      <c r="N9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60007,10)</v>
+      <c r="N9" s="2" t="s">
+        <v>1052</v>
       </c>
       <c r="O9">
         <v>987009</v>
@@ -4348,23 +6441,20 @@
       <c r="I10">
         <v>100077</v>
       </c>
-      <c r="J10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60008,1)</v>
+      <c r="J10" s="2" t="s">
+        <v>1053</v>
       </c>
       <c r="K10">
         <v>100073</v>
       </c>
-      <c r="L10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60008,7)</v>
+      <c r="L10" s="2" t="s">
+        <v>1054</v>
       </c>
       <c r="M10">
         <v>100070</v>
       </c>
-      <c r="N10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60008,10)</v>
+      <c r="N10" s="2" t="s">
+        <v>1055</v>
       </c>
       <c r="O10">
         <v>987024</v>
@@ -4398,23 +6488,20 @@
       <c r="I11">
         <v>100077</v>
       </c>
-      <c r="J11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60009,1)</v>
+      <c r="J11" s="2" t="s">
+        <v>1056</v>
       </c>
       <c r="K11">
         <v>100045</v>
       </c>
-      <c r="L11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60009,7)</v>
+      <c r="L11" s="2" t="s">
+        <v>1057</v>
       </c>
       <c r="M11">
         <v>100147</v>
       </c>
-      <c r="N11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60009,10)</v>
+      <c r="N11" s="2" t="s">
+        <v>1058</v>
       </c>
       <c r="O11">
         <v>987009</v>
@@ -4448,23 +6535,20 @@
       <c r="I12">
         <v>100067</v>
       </c>
-      <c r="J12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60010,1)</v>
+      <c r="J12" s="2" t="s">
+        <v>1059</v>
       </c>
       <c r="K12">
         <v>100026</v>
       </c>
-      <c r="L12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60010,7)</v>
+      <c r="L12" s="2" t="s">
+        <v>1060</v>
       </c>
       <c r="M12">
         <v>100064</v>
       </c>
-      <c r="N12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60010,10)</v>
+      <c r="N12" s="2" t="s">
+        <v>1061</v>
       </c>
       <c r="O12">
         <v>987009</v>
@@ -4498,23 +6582,20 @@
       <c r="I13">
         <v>100060</v>
       </c>
-      <c r="J13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60011,1)</v>
+      <c r="J13" s="2" t="s">
+        <v>1062</v>
       </c>
       <c r="K13">
         <v>100069</v>
       </c>
-      <c r="L13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60011,7)</v>
+      <c r="L13" s="2" t="s">
+        <v>1063</v>
       </c>
       <c r="M13">
         <v>100034</v>
       </c>
-      <c r="N13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60011,10)</v>
+      <c r="N13" s="2" t="s">
+        <v>1064</v>
       </c>
       <c r="O13">
         <v>987009</v>
@@ -4548,23 +6629,20 @@
       <c r="I14">
         <v>100017</v>
       </c>
-      <c r="J14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60012,1)</v>
+      <c r="J14" s="2" t="s">
+        <v>1065</v>
       </c>
       <c r="K14">
         <v>100041</v>
       </c>
-      <c r="L14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60012,7)</v>
+      <c r="L14" s="2" t="s">
+        <v>1066</v>
       </c>
       <c r="M14">
         <v>100034</v>
       </c>
-      <c r="N14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60012,10)</v>
+      <c r="N14" s="2" t="s">
+        <v>1067</v>
       </c>
       <c r="O14">
         <v>987009</v>
@@ -4598,23 +6676,20 @@
       <c r="I15">
         <v>100062</v>
       </c>
-      <c r="J15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60013,1)</v>
+      <c r="J15" s="2" t="s">
+        <v>1068</v>
       </c>
       <c r="K15">
         <v>100061</v>
       </c>
-      <c r="L15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60013,7)</v>
+      <c r="L15" s="2" t="s">
+        <v>1069</v>
       </c>
       <c r="M15">
         <v>100064</v>
       </c>
-      <c r="N15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60013,10)</v>
+      <c r="N15" s="2" t="s">
+        <v>1070</v>
       </c>
       <c r="O15">
         <v>987009</v>
@@ -4648,23 +6723,20 @@
       <c r="I16">
         <v>100048</v>
       </c>
-      <c r="J16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60014,1)</v>
+      <c r="J16" s="2" t="s">
+        <v>1071</v>
       </c>
       <c r="K16">
         <v>100141</v>
       </c>
-      <c r="L16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60014,7)</v>
+      <c r="L16" s="2" t="s">
+        <v>1072</v>
       </c>
       <c r="M16">
         <v>100142</v>
       </c>
-      <c r="N16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60014,10)</v>
+      <c r="N16" s="2" t="s">
+        <v>1073</v>
       </c>
       <c r="O16">
         <v>987009</v>
@@ -4698,23 +6770,20 @@
       <c r="I17">
         <v>100025</v>
       </c>
-      <c r="J17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60015,1)</v>
+      <c r="J17" s="2" t="s">
+        <v>1074</v>
       </c>
       <c r="K17">
         <v>100070</v>
       </c>
-      <c r="L17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60015,7)</v>
+      <c r="L17" s="2" t="s">
+        <v>1075</v>
       </c>
       <c r="M17">
         <v>100039</v>
       </c>
-      <c r="N17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60015,10)</v>
+      <c r="N17" s="2" t="s">
+        <v>1076</v>
       </c>
       <c r="O17">
         <v>987009</v>
@@ -4748,23 +6817,20 @@
       <c r="I18">
         <v>100025</v>
       </c>
-      <c r="J18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60016,1)</v>
+      <c r="J18" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="K18">
         <v>500016</v>
       </c>
-      <c r="L18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60016,7)</v>
+      <c r="L18" s="2" t="s">
+        <v>1078</v>
       </c>
       <c r="M18">
         <v>100013</v>
       </c>
-      <c r="N18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60016,10)</v>
+      <c r="N18" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="O18">
         <v>987009</v>
@@ -4798,23 +6864,20 @@
       <c r="I19">
         <v>100029</v>
       </c>
-      <c r="J19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60017,1)</v>
+      <c r="J19" s="2" t="s">
+        <v>1080</v>
       </c>
       <c r="K19">
         <v>100028</v>
       </c>
-      <c r="L19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60017,7)</v>
+      <c r="L19" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="M19">
         <v>100039</v>
       </c>
-      <c r="N19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60017,10)</v>
+      <c r="N19" s="2" t="s">
+        <v>1082</v>
       </c>
       <c r="O19">
         <v>987009</v>
@@ -4848,23 +6911,20 @@
       <c r="I20">
         <v>100066</v>
       </c>
-      <c r="J20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60018,1)</v>
+      <c r="J20" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="K20">
         <v>100048</v>
       </c>
-      <c r="L20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60018,7)</v>
+      <c r="L20" s="2" t="s">
+        <v>1084</v>
       </c>
       <c r="M20">
         <v>100016</v>
       </c>
-      <c r="N20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60018,10)</v>
+      <c r="N20" s="2" t="s">
+        <v>1085</v>
       </c>
       <c r="O20">
         <v>987009</v>
@@ -4898,23 +6958,20 @@
       <c r="I21">
         <v>100050</v>
       </c>
-      <c r="J21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60019,1)</v>
+      <c r="J21" s="2" t="s">
+        <v>1086</v>
       </c>
       <c r="K21">
         <v>100077</v>
       </c>
-      <c r="L21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60019,7)</v>
+      <c r="L21" s="2" t="s">
+        <v>1087</v>
       </c>
       <c r="M21">
         <v>100039</v>
       </c>
-      <c r="N21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60019,10)</v>
+      <c r="N21" s="2" t="s">
+        <v>1088</v>
       </c>
       <c r="O21">
         <v>987009</v>
@@ -4948,23 +7005,20 @@
       <c r="I22">
         <v>100049</v>
       </c>
-      <c r="J22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60020,1)</v>
+      <c r="J22" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="K22">
         <v>100018</v>
       </c>
-      <c r="L22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60020,7)</v>
+      <c r="L22" s="2" t="s">
+        <v>1090</v>
       </c>
       <c r="M22">
         <v>100030</v>
       </c>
-      <c r="N22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60020,10)</v>
+      <c r="N22" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="O22">
         <v>987009</v>
@@ -4998,23 +7052,20 @@
       <c r="I23">
         <v>100059</v>
       </c>
-      <c r="J23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60021,1)</v>
+      <c r="J23" s="2" t="s">
+        <v>1092</v>
       </c>
       <c r="K23">
         <v>100029</v>
       </c>
-      <c r="L23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60021,7)</v>
+      <c r="L23" s="2" t="s">
+        <v>1093</v>
       </c>
       <c r="M23">
         <v>100013</v>
       </c>
-      <c r="N23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60021,10)</v>
+      <c r="N23" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="O23">
         <v>987009</v>
@@ -5048,23 +7099,20 @@
       <c r="I24">
         <v>100065</v>
       </c>
-      <c r="J24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60022,1)</v>
+      <c r="J24" s="2" t="s">
+        <v>1095</v>
       </c>
       <c r="K24">
         <v>100035</v>
       </c>
-      <c r="L24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60022,7)</v>
+      <c r="L24" s="2" t="s">
+        <v>1096</v>
       </c>
       <c r="M24">
         <v>100034</v>
       </c>
-      <c r="N24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60022,10)</v>
+      <c r="N24" s="2" t="s">
+        <v>1097</v>
       </c>
       <c r="O24">
         <v>987009</v>
@@ -5098,23 +7146,20 @@
       <c r="I25">
         <v>100077</v>
       </c>
-      <c r="J25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60023,1)</v>
+      <c r="J25" s="2" t="s">
+        <v>1098</v>
       </c>
       <c r="K25">
         <v>500018</v>
       </c>
-      <c r="L25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60023,7)</v>
+      <c r="L25" s="2" t="s">
+        <v>1099</v>
       </c>
       <c r="M25">
         <v>100045</v>
       </c>
-      <c r="N25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60023,10)</v>
+      <c r="N25" s="2" t="s">
+        <v>1100</v>
       </c>
       <c r="O25">
         <v>987009</v>
@@ -5148,23 +7193,20 @@
       <c r="I26">
         <v>100038</v>
       </c>
-      <c r="J26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60024,1)</v>
+      <c r="J26" s="2" t="s">
+        <v>1101</v>
       </c>
       <c r="K26">
         <v>100029</v>
       </c>
-      <c r="L26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60024,7)</v>
+      <c r="L26" s="2" t="s">
+        <v>1102</v>
       </c>
       <c r="M26">
         <v>100053</v>
       </c>
-      <c r="N26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60024,10)</v>
+      <c r="N26" s="2" t="s">
+        <v>1103</v>
       </c>
       <c r="O26">
         <v>987009</v>
@@ -5198,23 +7240,20 @@
       <c r="I27">
         <v>100062</v>
       </c>
-      <c r="J27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60025,1)</v>
+      <c r="J27" s="2" t="s">
+        <v>1104</v>
       </c>
       <c r="K27">
         <v>100063</v>
       </c>
-      <c r="L27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60025,7)</v>
+      <c r="L27" s="2" t="s">
+        <v>1105</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="N27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60025,10)</v>
+      <c r="N27" s="2" t="s">
+        <v>1106</v>
       </c>
       <c r="O27">
         <v>987009</v>
@@ -5248,23 +7287,20 @@
       <c r="I28">
         <v>100031</v>
       </c>
-      <c r="J28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60026,1)</v>
+      <c r="J28" s="2" t="s">
+        <v>1107</v>
       </c>
       <c r="K28">
         <v>100032</v>
       </c>
-      <c r="L28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60026,7)</v>
+      <c r="L28" s="2" t="s">
+        <v>1108</v>
       </c>
       <c r="M28">
         <v>100052</v>
       </c>
-      <c r="N28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60026,10)</v>
+      <c r="N28" s="2" t="s">
+        <v>1109</v>
       </c>
       <c r="O28">
         <v>987009</v>
@@ -5298,23 +7334,20 @@
       <c r="I29">
         <v>100067</v>
       </c>
-      <c r="J29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60027,1)</v>
+      <c r="J29" s="2" t="s">
+        <v>1110</v>
       </c>
       <c r="K29">
         <v>100058</v>
       </c>
-      <c r="L29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60027,7)</v>
+      <c r="L29" s="2" t="s">
+        <v>1111</v>
       </c>
       <c r="M29">
         <v>100028</v>
       </c>
-      <c r="N29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60027,10)</v>
+      <c r="N29" s="2" t="s">
+        <v>1112</v>
       </c>
       <c r="O29">
         <v>987009</v>
@@ -5348,23 +7381,20 @@
       <c r="I30">
         <v>100025</v>
       </c>
-      <c r="J30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60028,1)</v>
+      <c r="J30" s="2" t="s">
+        <v>1113</v>
       </c>
       <c r="K30">
         <v>100059</v>
       </c>
-      <c r="L30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60028,7)</v>
+      <c r="L30" s="2" t="s">
+        <v>1114</v>
       </c>
       <c r="M30">
         <v>100147</v>
       </c>
-      <c r="N30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60028,10)</v>
+      <c r="N30" s="2" t="s">
+        <v>1115</v>
       </c>
       <c r="O30">
         <v>987009</v>
@@ -5398,23 +7428,20 @@
       <c r="I31">
         <v>100019</v>
       </c>
-      <c r="J31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60029,1)</v>
+      <c r="J31" s="2" t="s">
+        <v>1116</v>
       </c>
       <c r="K31">
         <v>100049</v>
       </c>
-      <c r="L31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60029,7)</v>
+      <c r="L31" s="2" t="s">
+        <v>1117</v>
       </c>
       <c r="M31">
         <v>100077</v>
       </c>
-      <c r="N31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60029,10)</v>
+      <c r="N31" s="2" t="s">
+        <v>1118</v>
       </c>
       <c r="O31">
         <v>987009</v>
@@ -5448,23 +7475,20 @@
       <c r="I32">
         <v>100044</v>
       </c>
-      <c r="J32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60030,1)</v>
+      <c r="J32" s="2" t="s">
+        <v>1119</v>
       </c>
       <c r="K32">
         <v>100064</v>
       </c>
-      <c r="L32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60030,7)</v>
+      <c r="L32" s="2" t="s">
+        <v>1120</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60030,10)</v>
+      <c r="N32" s="2" t="s">
+        <v>1121</v>
       </c>
       <c r="O32">
         <v>987009</v>
@@ -5498,23 +7522,20 @@
       <c r="I33">
         <v>100040</v>
       </c>
-      <c r="J33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60031,1)</v>
+      <c r="J33" s="2" t="s">
+        <v>1122</v>
       </c>
       <c r="K33">
         <v>100014</v>
       </c>
-      <c r="L33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60031,7)</v>
+      <c r="L33" s="2" t="s">
+        <v>1123</v>
       </c>
       <c r="M33">
         <v>100039</v>
       </c>
-      <c r="N33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60031,10)</v>
+      <c r="N33" s="2" t="s">
+        <v>1124</v>
       </c>
       <c r="O33">
         <v>987009</v>
@@ -5548,23 +7569,20 @@
       <c r="I34">
         <v>100130</v>
       </c>
-      <c r="J34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60032,1)</v>
+      <c r="J34" s="2" t="s">
+        <v>1125</v>
       </c>
       <c r="K34">
         <v>100131</v>
       </c>
-      <c r="L34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60032,7)</v>
+      <c r="L34" s="2" t="s">
+        <v>1126</v>
       </c>
       <c r="M34">
         <v>100133</v>
       </c>
-      <c r="N34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60032,10)</v>
+      <c r="N34" s="2" t="s">
+        <v>1127</v>
       </c>
       <c r="O34">
         <v>987009</v>
@@ -5598,23 +7616,20 @@
       <c r="I35">
         <v>500015</v>
       </c>
-      <c r="J35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60033,1)</v>
+      <c r="J35" s="2" t="s">
+        <v>1128</v>
       </c>
       <c r="K35">
         <v>500013</v>
       </c>
-      <c r="L35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60033,7)</v>
+      <c r="L35" s="2" t="s">
+        <v>1129</v>
       </c>
       <c r="M35">
         <v>500016</v>
       </c>
-      <c r="N35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60033,10)</v>
+      <c r="N35" s="2" t="s">
+        <v>1130</v>
       </c>
       <c r="O35">
         <v>910069</v>
@@ -5648,23 +7663,20 @@
       <c r="I36">
         <v>100011</v>
       </c>
-      <c r="J36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60034,1)</v>
+      <c r="J36" s="2" t="s">
+        <v>1131</v>
       </c>
       <c r="K36">
         <v>100044</v>
       </c>
-      <c r="L36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60034,7)</v>
+      <c r="L36" s="2" t="s">
+        <v>1132</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="N36" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60034,10)</v>
+      <c r="N36" s="2" t="s">
+        <v>1133</v>
       </c>
       <c r="O36">
         <v>987009</v>
@@ -5698,23 +7710,20 @@
       <c r="I37">
         <v>100037</v>
       </c>
-      <c r="J37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60035,1)</v>
+      <c r="J37" s="2" t="s">
+        <v>1134</v>
       </c>
       <c r="K37">
         <v>100041</v>
       </c>
-      <c r="L37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60035,7)</v>
+      <c r="L37" s="2" t="s">
+        <v>1135</v>
       </c>
       <c r="M37">
         <v>100043</v>
       </c>
-      <c r="N37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60035,10)</v>
+      <c r="N37" s="2" t="s">
+        <v>1136</v>
       </c>
       <c r="O37">
         <v>987009</v>
@@ -5748,23 +7757,20 @@
       <c r="I38">
         <v>100035</v>
       </c>
-      <c r="J38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60036,1)</v>
+      <c r="J38" s="2" t="s">
+        <v>1137</v>
       </c>
       <c r="K38">
         <v>100065</v>
       </c>
-      <c r="L38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60036,7)</v>
+      <c r="L38" s="2" t="s">
+        <v>1138</v>
       </c>
       <c r="M38">
         <v>100016</v>
       </c>
-      <c r="N38" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60036,10)</v>
+      <c r="N38" s="2" t="s">
+        <v>1139</v>
       </c>
       <c r="O38">
         <v>987009</v>
@@ -5798,23 +7804,20 @@
       <c r="I39">
         <v>100130</v>
       </c>
-      <c r="J39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60037,1)</v>
+      <c r="J39" s="2" t="s">
+        <v>1140</v>
       </c>
       <c r="K39">
         <v>100131</v>
       </c>
-      <c r="L39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60037,7)</v>
+      <c r="L39" s="2" t="s">
+        <v>1141</v>
       </c>
       <c r="M39">
         <v>100133</v>
       </c>
-      <c r="N39" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60037,10)</v>
+      <c r="N39" s="2" t="s">
+        <v>1142</v>
       </c>
       <c r="O39">
         <v>987009</v>
@@ -5848,23 +7851,20 @@
       <c r="I40">
         <v>100101</v>
       </c>
-      <c r="J40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60038,1)</v>
+      <c r="J40" s="2" t="s">
+        <v>1143</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="L40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60038,7)</v>
+      <c r="L40" s="2" t="s">
+        <v>1144</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
-      <c r="N40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60038,10)</v>
+      <c r="N40" s="2" t="s">
+        <v>1145</v>
       </c>
       <c r="O40">
         <v>987009</v>
@@ -5898,26 +7898,23 @@
       <c r="I41">
         <v>910198</v>
       </c>
-      <c r="J41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60039,1)</v>
+      <c r="J41" s="2" t="s">
+        <v>1146</v>
       </c>
       <c r="K41">
         <v>100018</v>
       </c>
-      <c r="L41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60039,7)</v>
+      <c r="L41" s="2" t="s">
+        <v>1147</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
-      <c r="N41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60039,10)</v>
+      <c r="N41" s="2" t="s">
+        <v>1148</v>
       </c>
       <c r="O41">
-        <v>987009</v>
+        <v>987024</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -5948,23 +7945,20 @@
       <c r="I42">
         <v>100036</v>
       </c>
-      <c r="J42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60040,1)</v>
+      <c r="J42" s="2" t="s">
+        <v>1149</v>
       </c>
       <c r="K42">
         <v>100051</v>
       </c>
-      <c r="L42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60040,7)</v>
+      <c r="L42" s="2" t="s">
+        <v>1150</v>
       </c>
       <c r="M42">
         <v>100034</v>
       </c>
-      <c r="N42" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60040,10)</v>
+      <c r="N42" s="2" t="s">
+        <v>1151</v>
       </c>
       <c r="O42">
         <v>987009</v>
@@ -5998,23 +7992,20 @@
       <c r="I43">
         <v>100075</v>
       </c>
-      <c r="J43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60041,1)</v>
+      <c r="J43" s="2" t="s">
+        <v>1152</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
-      <c r="L43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60041,7)</v>
+      <c r="L43" s="2" t="s">
+        <v>1153</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60041,10)</v>
+      <c r="N43" s="2" t="s">
+        <v>1154</v>
       </c>
       <c r="O43">
         <v>987024</v>
@@ -6048,23 +8039,20 @@
       <c r="I44">
         <v>100029</v>
       </c>
-      <c r="J44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60042,1)</v>
+      <c r="J44" s="2" t="s">
+        <v>1155</v>
       </c>
       <c r="K44">
         <v>100064</v>
       </c>
-      <c r="L44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60042,7)</v>
+      <c r="L44" s="2" t="s">
+        <v>1156</v>
       </c>
       <c r="M44">
         <v>100077</v>
       </c>
-      <c r="N44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60042,10)</v>
+      <c r="N44" s="2" t="s">
+        <v>1157</v>
       </c>
       <c r="O44">
         <v>987009</v>
@@ -6098,23 +8086,20 @@
       <c r="I45">
         <v>100082</v>
       </c>
-      <c r="J45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60043,1)</v>
+      <c r="J45" s="2" t="s">
+        <v>1158</v>
       </c>
       <c r="K45">
         <v>100019</v>
       </c>
-      <c r="L45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60043,7)</v>
+      <c r="L45" s="2" t="s">
+        <v>1159</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60043,10)</v>
+      <c r="N45" s="2" t="s">
+        <v>1160</v>
       </c>
       <c r="O45">
         <v>987009</v>
@@ -6148,23 +8133,20 @@
       <c r="I46">
         <v>100079</v>
       </c>
-      <c r="J46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60044,1)</v>
+      <c r="J46" s="2" t="s">
+        <v>1161</v>
       </c>
       <c r="K46">
         <v>100040</v>
       </c>
-      <c r="L46" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60044,7)</v>
+      <c r="L46" s="2" t="s">
+        <v>1162</v>
       </c>
       <c r="M46">
         <v>100014</v>
       </c>
-      <c r="N46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60044,10)</v>
+      <c r="N46" s="2" t="s">
+        <v>1163</v>
       </c>
       <c r="O46">
         <v>987009</v>
@@ -6198,23 +8180,20 @@
       <c r="I47">
         <v>100011</v>
       </c>
-      <c r="J47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60045,1)</v>
+      <c r="J47" s="2" t="s">
+        <v>1164</v>
       </c>
       <c r="K47">
         <v>100034</v>
       </c>
-      <c r="L47" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60045,7)</v>
+      <c r="L47" s="2" t="s">
+        <v>1165</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60045,10)</v>
+      <c r="N47" s="2" t="s">
+        <v>1166</v>
       </c>
       <c r="O47">
         <v>987009</v>
@@ -6248,23 +8227,20 @@
       <c r="I48">
         <v>100014</v>
       </c>
-      <c r="J48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60046,1)</v>
+      <c r="J48" s="2" t="s">
+        <v>1167</v>
       </c>
       <c r="K48">
         <v>100033</v>
       </c>
-      <c r="L48" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60046,7)</v>
+      <c r="L48" s="2" t="s">
+        <v>1168</v>
       </c>
       <c r="M48">
         <v>100039</v>
       </c>
-      <c r="N48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60046,10)</v>
+      <c r="N48" s="2" t="s">
+        <v>1169</v>
       </c>
       <c r="O48">
         <v>987009</v>
@@ -6298,23 +8274,20 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60047,1)</v>
+      <c r="J49" s="2" t="s">
+        <v>1170</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
-      <c r="L49" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60047,7)</v>
+      <c r="L49" s="2" t="s">
+        <v>1171</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="N49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60047,10)</v>
+      <c r="N49" s="2" t="s">
+        <v>1172</v>
       </c>
       <c r="O49">
         <v>987009</v>
@@ -6348,23 +8321,20 @@
       <c r="I50">
         <v>100073</v>
       </c>
-      <c r="J50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60048,1)</v>
+      <c r="J50" s="2" t="s">
+        <v>1173</v>
       </c>
       <c r="K50">
         <v>100074</v>
       </c>
-      <c r="L50" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60048,7)</v>
+      <c r="L50" s="2" t="s">
+        <v>1174</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
-      <c r="N50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60048,10)</v>
+      <c r="N50" s="2" t="s">
+        <v>1175</v>
       </c>
       <c r="O50">
         <v>987009</v>
@@ -6398,23 +8368,20 @@
       <c r="I51">
         <v>100070</v>
       </c>
-      <c r="J51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60049,1)</v>
+      <c r="J51" s="2" t="s">
+        <v>1176</v>
       </c>
       <c r="K51">
         <v>100052</v>
       </c>
-      <c r="L51" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60049,7)</v>
+      <c r="L51" s="2" t="s">
+        <v>1177</v>
       </c>
       <c r="M51">
         <v>100015</v>
       </c>
-      <c r="N51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60049,10)</v>
+      <c r="N51" s="2" t="s">
+        <v>1178</v>
       </c>
       <c r="O51">
         <v>987009</v>
@@ -6448,23 +8415,20 @@
       <c r="I52">
         <v>900009</v>
       </c>
-      <c r="J52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60050,1)</v>
+      <c r="J52" s="2" t="s">
+        <v>1179</v>
       </c>
       <c r="K52">
         <v>910097</v>
       </c>
-      <c r="L52" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60050,7)</v>
+      <c r="L52" s="2" t="s">
+        <v>1180</v>
       </c>
       <c r="M52">
         <v>100025</v>
       </c>
-      <c r="N52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60050,10)</v>
+      <c r="N52" s="2" t="s">
+        <v>1181</v>
       </c>
       <c r="O52">
         <v>987009</v>
@@ -6498,23 +8462,20 @@
       <c r="I53">
         <v>100130</v>
       </c>
-      <c r="J53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60051,1)</v>
+      <c r="J53" s="2" t="s">
+        <v>1182</v>
       </c>
       <c r="K53">
         <v>100131</v>
       </c>
-      <c r="L53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60051,7)</v>
+      <c r="L53" s="2" t="s">
+        <v>1183</v>
       </c>
       <c r="M53">
         <v>100133</v>
       </c>
-      <c r="N53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60051,10)</v>
+      <c r="N53" s="2" t="s">
+        <v>1184</v>
       </c>
       <c r="O53">
         <v>987009</v>
@@ -6548,23 +8509,20 @@
       <c r="I54">
         <v>910168</v>
       </c>
-      <c r="J54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60052,1)</v>
+      <c r="J54" s="2" t="s">
+        <v>1185</v>
       </c>
       <c r="K54">
         <v>910169</v>
       </c>
-      <c r="L54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60052,7)</v>
+      <c r="L54" s="2" t="s">
+        <v>1186</v>
       </c>
       <c r="M54">
         <v>910170</v>
       </c>
-      <c r="N54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60052,10)</v>
+      <c r="N54" s="2" t="s">
+        <v>1187</v>
       </c>
       <c r="O54">
         <v>987024</v>
@@ -6598,23 +8556,20 @@
       <c r="I55">
         <v>100130</v>
       </c>
-      <c r="J55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60053,1)</v>
+      <c r="J55" s="2" t="s">
+        <v>1188</v>
       </c>
       <c r="K55">
         <v>100131</v>
       </c>
-      <c r="L55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60053,7)</v>
+      <c r="L55" s="2" t="s">
+        <v>1189</v>
       </c>
       <c r="M55">
         <v>100133</v>
       </c>
-      <c r="N55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60053,10)</v>
+      <c r="N55" s="2" t="s">
+        <v>1190</v>
       </c>
       <c r="O55">
         <v>987024</v>
@@ -6648,23 +8603,20 @@
       <c r="I56">
         <v>100025</v>
       </c>
-      <c r="J56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60054,1)</v>
+      <c r="J56" s="2" t="s">
+        <v>1191</v>
       </c>
       <c r="K56">
         <v>100024</v>
       </c>
-      <c r="L56" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60054,7)</v>
+      <c r="L56" s="2" t="s">
+        <v>1192</v>
       </c>
       <c r="M56">
         <v>100038</v>
       </c>
-      <c r="N56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60054,10)</v>
+      <c r="N56" s="2" t="s">
+        <v>1193</v>
       </c>
       <c r="O56">
         <v>987009</v>
@@ -6698,23 +8650,20 @@
       <c r="I57">
         <v>100077</v>
       </c>
-      <c r="J57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60055,1)</v>
+      <c r="J57" s="2" t="s">
+        <v>1194</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
-      <c r="L57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60055,7)</v>
+      <c r="L57" s="2" t="s">
+        <v>1195</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
-      <c r="N57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60055,10)</v>
+      <c r="N57" s="2" t="s">
+        <v>1196</v>
       </c>
       <c r="O57">
         <v>987009</v>
@@ -6748,23 +8697,20 @@
       <c r="I58">
         <v>100068</v>
       </c>
-      <c r="J58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60056,1)</v>
+      <c r="J58" s="2" t="s">
+        <v>1197</v>
       </c>
       <c r="K58">
         <v>100065</v>
       </c>
-      <c r="L58" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60056,7)</v>
+      <c r="L58" s="2" t="s">
+        <v>1198</v>
       </c>
       <c r="M58">
         <v>100015</v>
       </c>
-      <c r="N58" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60056,10)</v>
+      <c r="N58" s="2" t="s">
+        <v>1199</v>
       </c>
       <c r="O58">
         <v>987009</v>
@@ -6798,23 +8744,20 @@
       <c r="I59">
         <v>100025</v>
       </c>
-      <c r="J59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60057,1)</v>
+      <c r="J59" s="2" t="s">
+        <v>1200</v>
       </c>
       <c r="K59">
         <v>100050</v>
       </c>
-      <c r="L59" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60057,7)</v>
+      <c r="L59" s="2" t="s">
+        <v>1201</v>
       </c>
       <c r="M59">
         <v>100028</v>
       </c>
-      <c r="N59" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60057,10)</v>
+      <c r="N59" s="2" t="s">
+        <v>1202</v>
       </c>
       <c r="O59">
         <v>987009</v>
@@ -6848,23 +8791,20 @@
       <c r="I60">
         <v>100020</v>
       </c>
-      <c r="J60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60058,1)</v>
+      <c r="J60" s="2" t="s">
+        <v>1203</v>
       </c>
       <c r="K60">
         <v>100047</v>
       </c>
-      <c r="L60" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60058,7)</v>
+      <c r="L60" s="2" t="s">
+        <v>1204</v>
       </c>
       <c r="M60">
         <v>100046</v>
       </c>
-      <c r="N60" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60058,10)</v>
+      <c r="N60" s="2" t="s">
+        <v>1205</v>
       </c>
       <c r="O60">
         <v>987009</v>
@@ -6898,26 +8838,23 @@
       <c r="I61">
         <v>100021</v>
       </c>
-      <c r="J61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60059,1)</v>
+      <c r="J61" s="2" t="s">
+        <v>1206</v>
       </c>
       <c r="K61">
         <v>100026</v>
       </c>
-      <c r="L61" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60059,7)</v>
+      <c r="L61" s="2" t="s">
+        <v>1207</v>
       </c>
       <c r="M61">
         <v>100043</v>
       </c>
-      <c r="N61" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60059,10)</v>
+      <c r="N61" s="2" t="s">
+        <v>1208</v>
       </c>
       <c r="O61">
-        <v>987009</v>
+        <v>987024</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -6948,23 +8885,20 @@
       <c r="I62">
         <v>100056</v>
       </c>
-      <c r="J62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60060,1)</v>
+      <c r="J62" s="2" t="s">
+        <v>1209</v>
       </c>
       <c r="K62">
         <v>100055</v>
       </c>
-      <c r="L62" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60060,7)</v>
+      <c r="L62" s="2" t="s">
+        <v>1210</v>
       </c>
       <c r="M62">
         <v>100054</v>
       </c>
-      <c r="N62" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60060,10)</v>
+      <c r="N62" s="2" t="s">
+        <v>1211</v>
       </c>
       <c r="O62">
         <v>987024</v>
@@ -6998,23 +8932,20 @@
       <c r="I63">
         <v>100078</v>
       </c>
-      <c r="J63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60061,1)</v>
+      <c r="J63" s="2" t="s">
+        <v>1212</v>
       </c>
       <c r="K63">
         <v>100015</v>
       </c>
-      <c r="L63" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60061,7)</v>
+      <c r="L63" s="2" t="s">
+        <v>1213</v>
       </c>
       <c r="M63">
         <v>100033</v>
       </c>
-      <c r="N63" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60061,10)</v>
+      <c r="N63" s="2" t="s">
+        <v>1214</v>
       </c>
       <c r="O63">
         <v>987009</v>
@@ -7048,23 +8979,20 @@
       <c r="I64">
         <v>100019</v>
       </c>
-      <c r="J64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60062,1)</v>
+      <c r="J64" s="2" t="s">
+        <v>1215</v>
       </c>
       <c r="K64">
         <v>100017</v>
       </c>
-      <c r="L64" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60062,7)</v>
+      <c r="L64" s="2" t="s">
+        <v>1216</v>
       </c>
       <c r="M64">
         <v>100077</v>
       </c>
-      <c r="N64" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60062,10)</v>
+      <c r="N64" s="2" t="s">
+        <v>1217</v>
       </c>
       <c r="O64">
         <v>987009</v>
@@ -7098,23 +9026,20 @@
       <c r="I65">
         <v>100026</v>
       </c>
-      <c r="J65" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60063,1)</v>
+      <c r="J65" s="2" t="s">
+        <v>1218</v>
       </c>
       <c r="K65">
         <v>100043</v>
       </c>
-      <c r="L65" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60063,7)</v>
+      <c r="L65" s="2" t="s">
+        <v>1219</v>
       </c>
       <c r="M65">
         <v>100025</v>
       </c>
-      <c r="N65" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60063,10)</v>
+      <c r="N65" s="2" t="s">
+        <v>1220</v>
       </c>
       <c r="O65">
         <v>987024</v>
@@ -7148,23 +9073,20 @@
       <c r="I66">
         <v>100068</v>
       </c>
-      <c r="J66" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60064,1)</v>
+      <c r="J66" s="2" t="s">
+        <v>1221</v>
       </c>
       <c r="K66">
         <v>100052</v>
       </c>
-      <c r="L66" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60064,7)</v>
+      <c r="L66" s="2" t="s">
+        <v>1222</v>
       </c>
       <c r="M66">
         <v>100015</v>
       </c>
-      <c r="N66" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60064,10)</v>
+      <c r="N66" s="2" t="s">
+        <v>1223</v>
       </c>
       <c r="O66">
         <v>987009</v>
@@ -7198,23 +9120,20 @@
       <c r="I67">
         <v>100039</v>
       </c>
-      <c r="J67" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>(10,0,60065,1)</v>
+      <c r="J67" s="2" t="s">
+        <v>1224</v>
       </c>
       <c r="K67">
         <v>100043</v>
       </c>
-      <c r="L67" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>(10,0,60065,7)</v>
+      <c r="L67" s="2" t="s">
+        <v>1225</v>
       </c>
       <c r="M67">
         <v>100013</v>
       </c>
-      <c r="N67" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(10,0,60065,10)</v>
+      <c r="N67" s="2" t="s">
+        <v>1226</v>
       </c>
       <c r="O67">
         <v>987009</v>
@@ -7248,23 +9167,20 @@
       <c r="I68">
         <v>100041</v>
       </c>
-      <c r="J68" s="2" t="str">
-        <f t="shared" ref="J68:J131" si="3">"(10,0,"&amp;A68&amp;",1)"</f>
-        <v>(10,0,60066,1)</v>
+      <c r="J68" s="2" t="s">
+        <v>1227</v>
       </c>
       <c r="K68">
         <v>100064</v>
       </c>
-      <c r="L68" s="2" t="str">
-        <f t="shared" ref="L68:L131" si="4">"(10,0,"&amp;A68&amp;",7)"</f>
-        <v>(10,0,60066,7)</v>
+      <c r="L68" s="2" t="s">
+        <v>1228</v>
       </c>
       <c r="M68">
         <v>100078</v>
       </c>
-      <c r="N68" s="2" t="str">
-        <f t="shared" ref="N68:N131" si="5">"(10,0,"&amp;A68&amp;",10)"</f>
-        <v>(10,0,60066,10)</v>
+      <c r="N68" s="2" t="s">
+        <v>1229</v>
       </c>
       <c r="O68">
         <v>987009</v>
@@ -7298,23 +9214,20 @@
       <c r="I69">
         <v>100025</v>
       </c>
-      <c r="J69" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,60067,1)</v>
+      <c r="J69" s="2" t="s">
+        <v>1230</v>
       </c>
       <c r="K69">
         <v>100051</v>
       </c>
-      <c r="L69" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,60067,7)</v>
+      <c r="L69" s="2" t="s">
+        <v>1231</v>
       </c>
       <c r="M69">
         <v>100034</v>
       </c>
-      <c r="N69" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,60067,10)</v>
+      <c r="N69" s="2" t="s">
+        <v>1232</v>
       </c>
       <c r="O69">
         <v>987009</v>
@@ -7348,23 +9261,20 @@
       <c r="I70">
         <v>500093</v>
       </c>
-      <c r="J70" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,60068,1)</v>
+      <c r="J70" s="2" t="s">
+        <v>1233</v>
       </c>
       <c r="K70">
         <v>100025</v>
       </c>
-      <c r="L70" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,60068,7)</v>
+      <c r="L70" s="2" t="s">
+        <v>1234</v>
       </c>
       <c r="M70">
         <v>100029</v>
       </c>
-      <c r="N70" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,60068,10)</v>
+      <c r="N70" s="2" t="s">
+        <v>1235</v>
       </c>
       <c r="O70">
         <v>987009</v>
@@ -7398,23 +9308,20 @@
       <c r="I71">
         <v>910122</v>
       </c>
-      <c r="J71" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,60069,1)</v>
+      <c r="J71" s="2" t="s">
+        <v>1236</v>
       </c>
       <c r="K71">
         <v>910123</v>
       </c>
-      <c r="L71" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,60069,7)</v>
+      <c r="L71" s="2" t="s">
+        <v>1237</v>
       </c>
       <c r="M71">
         <v>910124</v>
       </c>
-      <c r="N71" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,60069,10)</v>
+      <c r="N71" s="2" t="s">
+        <v>1238</v>
       </c>
       <c r="O71">
         <v>987009</v>
@@ -7448,23 +9355,20 @@
       <c r="I72">
         <v>910130</v>
       </c>
-      <c r="J72" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,60070,1)</v>
+      <c r="J72" s="2" t="s">
+        <v>1239</v>
       </c>
       <c r="K72">
         <v>910128</v>
       </c>
-      <c r="L72" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,60070,7)</v>
+      <c r="L72" s="2" t="s">
+        <v>1240</v>
       </c>
       <c r="M72">
         <v>100061</v>
       </c>
-      <c r="N72" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,60070,10)</v>
+      <c r="N72" s="2" t="s">
+        <v>1241</v>
       </c>
       <c r="O72">
         <v>987009</v>
@@ -7498,23 +9402,20 @@
       <c r="I73">
         <v>710003</v>
       </c>
-      <c r="J73" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,60071,1)</v>
+      <c r="J73" s="2" t="s">
+        <v>1242</v>
       </c>
       <c r="K73">
         <v>710004</v>
       </c>
-      <c r="L73" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,60071,7)</v>
+      <c r="L73" s="2" t="s">
+        <v>1243</v>
       </c>
       <c r="M73">
         <v>710005</v>
       </c>
-      <c r="N73" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,60071,10)</v>
+      <c r="N73" s="2" t="s">
+        <v>1244</v>
       </c>
       <c r="O73">
         <v>987009</v>
@@ -7548,23 +9449,20 @@
       <c r="I74">
         <v>100063</v>
       </c>
-      <c r="J74" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,60072,1)</v>
+      <c r="J74" s="2" t="s">
+        <v>1245</v>
       </c>
       <c r="K74">
         <v>100064</v>
       </c>
-      <c r="L74" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,60072,7)</v>
+      <c r="L74" s="2" t="s">
+        <v>1246</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
-      <c r="N74" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,60072,10)</v>
+      <c r="N74" s="2" t="s">
+        <v>1247</v>
       </c>
       <c r="O74">
         <v>987024</v>
@@ -7598,23 +9496,20 @@
       <c r="I75">
         <v>100066</v>
       </c>
-      <c r="J75" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,60073,1)</v>
+      <c r="J75" s="2" t="s">
+        <v>1248</v>
       </c>
       <c r="K75">
         <v>100065</v>
       </c>
-      <c r="L75" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,60073,7)</v>
+      <c r="L75" s="2" t="s">
+        <v>1249</v>
       </c>
       <c r="M75">
         <v>100075</v>
       </c>
-      <c r="N75" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,60073,10)</v>
+      <c r="N75" s="2" t="s">
+        <v>1250</v>
       </c>
       <c r="O75">
         <v>987024</v>
@@ -7648,23 +9543,20 @@
       <c r="I76">
         <v>500023</v>
       </c>
-      <c r="J76" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,60074,1)</v>
+      <c r="J76" s="2" t="s">
+        <v>1251</v>
       </c>
       <c r="K76">
         <v>100061</v>
       </c>
-      <c r="L76" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,60074,7)</v>
+      <c r="L76" s="2" t="s">
+        <v>1252</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
-      <c r="N76" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,60074,10)</v>
+      <c r="N76" s="2" t="s">
+        <v>1253</v>
       </c>
       <c r="O76">
         <v>987024</v>
@@ -7698,23 +9590,20 @@
       <c r="I77">
         <v>100078</v>
       </c>
-      <c r="J77" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,60075,1)</v>
+      <c r="J77" s="2" t="s">
+        <v>1254</v>
       </c>
       <c r="K77">
         <v>100053</v>
       </c>
-      <c r="L77" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,60075,7)</v>
+      <c r="L77" s="2" t="s">
+        <v>1255</v>
       </c>
       <c r="M77">
         <v>100024</v>
       </c>
-      <c r="N77" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,60075,10)</v>
+      <c r="N77" s="2" t="s">
+        <v>1256</v>
       </c>
       <c r="O77">
         <v>987024</v>
@@ -7748,23 +9637,20 @@
       <c r="I78">
         <v>100020</v>
       </c>
-      <c r="J78" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70001,1)</v>
+      <c r="J78" s="2" t="s">
+        <v>1257</v>
       </c>
       <c r="K78">
         <v>100055</v>
       </c>
-      <c r="L78" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70001,7)</v>
+      <c r="L78" s="2" t="s">
+        <v>1258</v>
       </c>
       <c r="M78">
         <v>100043</v>
       </c>
-      <c r="N78" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70001,10)</v>
+      <c r="N78" s="2" t="s">
+        <v>1259</v>
       </c>
       <c r="O78">
         <v>987009</v>
@@ -7798,23 +9684,20 @@
       <c r="I79">
         <v>100036</v>
       </c>
-      <c r="J79" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70002,1)</v>
+      <c r="J79" s="2" t="s">
+        <v>1260</v>
       </c>
       <c r="K79">
         <v>100074</v>
       </c>
-      <c r="L79" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70002,7)</v>
+      <c r="L79" s="2" t="s">
+        <v>1261</v>
       </c>
       <c r="M79">
         <v>100023</v>
       </c>
-      <c r="N79" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70002,10)</v>
+      <c r="N79" s="2" t="s">
+        <v>1262</v>
       </c>
       <c r="O79">
         <v>987009</v>
@@ -7848,23 +9731,20 @@
       <c r="I80">
         <v>100063</v>
       </c>
-      <c r="J80" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70003,1)</v>
+      <c r="J80" s="2" t="s">
+        <v>1263</v>
       </c>
       <c r="K80">
         <v>100064</v>
       </c>
-      <c r="L80" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70003,7)</v>
+      <c r="L80" s="2" t="s">
+        <v>1264</v>
       </c>
       <c r="M80">
         <v>100068</v>
       </c>
-      <c r="N80" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70003,10)</v>
+      <c r="N80" s="2" t="s">
+        <v>1265</v>
       </c>
       <c r="O80">
         <v>987024</v>
@@ -7898,23 +9778,20 @@
       <c r="I81">
         <v>100037</v>
       </c>
-      <c r="J81" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70004,1)</v>
+      <c r="J81" s="2" t="s">
+        <v>1266</v>
       </c>
       <c r="K81">
         <v>100041</v>
       </c>
-      <c r="L81" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70004,7)</v>
+      <c r="L81" s="2" t="s">
+        <v>1267</v>
       </c>
       <c r="M81">
         <v>100043</v>
       </c>
-      <c r="N81" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70004,10)</v>
+      <c r="N81" s="2" t="s">
+        <v>1268</v>
       </c>
       <c r="O81">
         <v>987024</v>
@@ -7948,23 +9825,20 @@
       <c r="I82">
         <v>100029</v>
       </c>
-      <c r="J82" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70005,1)</v>
+      <c r="J82" s="2" t="s">
+        <v>1269</v>
       </c>
       <c r="K82">
         <v>100044</v>
       </c>
-      <c r="L82" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70005,7)</v>
+      <c r="L82" s="2" t="s">
+        <v>1270</v>
       </c>
       <c r="M82">
         <v>100030</v>
       </c>
-      <c r="N82" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70005,10)</v>
+      <c r="N82" s="2" t="s">
+        <v>1271</v>
       </c>
       <c r="O82">
         <v>987009</v>
@@ -7998,23 +9872,20 @@
       <c r="I83">
         <v>100037</v>
       </c>
-      <c r="J83" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70006,1)</v>
+      <c r="J83" s="2" t="s">
+        <v>1272</v>
       </c>
       <c r="K83">
         <v>100051</v>
       </c>
-      <c r="L83" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70006,7)</v>
+      <c r="L83" s="2" t="s">
+        <v>1273</v>
       </c>
       <c r="M83">
         <v>100023</v>
       </c>
-      <c r="N83" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70006,10)</v>
+      <c r="N83" s="2" t="s">
+        <v>1274</v>
       </c>
       <c r="O83">
         <v>987009</v>
@@ -8048,23 +9919,20 @@
       <c r="I84">
         <v>100033</v>
       </c>
-      <c r="J84" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70007,1)</v>
+      <c r="J84" s="2" t="s">
+        <v>1275</v>
       </c>
       <c r="K84">
         <v>100038</v>
       </c>
-      <c r="L84" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70007,7)</v>
+      <c r="L84" s="2" t="s">
+        <v>1276</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
-      <c r="N84" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70007,10)</v>
+      <c r="N84" s="2" t="s">
+        <v>1277</v>
       </c>
       <c r="O84">
         <v>987009</v>
@@ -8098,23 +9966,20 @@
       <c r="I85">
         <v>100080</v>
       </c>
-      <c r="J85" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70008,1)</v>
+      <c r="J85" s="2" t="s">
+        <v>1278</v>
       </c>
       <c r="K85">
         <v>100011</v>
       </c>
-      <c r="L85" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70008,7)</v>
+      <c r="L85" s="2" t="s">
+        <v>1279</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
-      <c r="N85" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70008,10)</v>
+      <c r="N85" s="2" t="s">
+        <v>1280</v>
       </c>
       <c r="O85">
         <v>987009</v>
@@ -8148,23 +10013,20 @@
       <c r="I86">
         <v>100039</v>
       </c>
-      <c r="J86" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70009,1)</v>
+      <c r="J86" s="2" t="s">
+        <v>1281</v>
       </c>
       <c r="K86">
         <v>100050</v>
       </c>
-      <c r="L86" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70009,7)</v>
+      <c r="L86" s="2" t="s">
+        <v>1282</v>
       </c>
       <c r="M86">
         <v>100011</v>
       </c>
-      <c r="N86" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70009,10)</v>
+      <c r="N86" s="2" t="s">
+        <v>1283</v>
       </c>
       <c r="O86">
         <v>987009</v>
@@ -8198,23 +10060,20 @@
       <c r="I87">
         <v>100077</v>
       </c>
-      <c r="J87" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70010,1)</v>
+      <c r="J87" s="2" t="s">
+        <v>1284</v>
       </c>
       <c r="K87">
         <v>100045</v>
       </c>
-      <c r="L87" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70010,7)</v>
+      <c r="L87" s="2" t="s">
+        <v>1285</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
-      <c r="N87" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70010,10)</v>
+      <c r="N87" s="2" t="s">
+        <v>1286</v>
       </c>
       <c r="O87">
         <v>987009</v>
@@ -8248,23 +10107,20 @@
       <c r="I88">
         <v>100070</v>
       </c>
-      <c r="J88" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70011,1)</v>
+      <c r="J88" s="2" t="s">
+        <v>1287</v>
       </c>
       <c r="K88">
         <v>100015</v>
       </c>
-      <c r="L88" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70011,7)</v>
+      <c r="L88" s="2" t="s">
+        <v>1288</v>
       </c>
       <c r="M88">
         <v>100024</v>
       </c>
-      <c r="N88" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70011,10)</v>
+      <c r="N88" s="2" t="s">
+        <v>1289</v>
       </c>
       <c r="O88">
         <v>987009</v>
@@ -8298,23 +10154,20 @@
       <c r="I89">
         <v>100055</v>
       </c>
-      <c r="J89" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70012,1)</v>
+      <c r="J89" s="2" t="s">
+        <v>1290</v>
       </c>
       <c r="K89">
         <v>100032</v>
       </c>
-      <c r="L89" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70012,7)</v>
+      <c r="L89" s="2" t="s">
+        <v>1291</v>
       </c>
       <c r="M89">
         <v>100012</v>
       </c>
-      <c r="N89" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70012,10)</v>
+      <c r="N89" s="2" t="s">
+        <v>1292</v>
       </c>
       <c r="O89">
         <v>987009</v>
@@ -8348,23 +10201,20 @@
       <c r="I90">
         <v>100050</v>
       </c>
-      <c r="J90" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70013,1)</v>
+      <c r="J90" s="2" t="s">
+        <v>1293</v>
       </c>
       <c r="K90">
         <v>100077</v>
       </c>
-      <c r="L90" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70013,7)</v>
+      <c r="L90" s="2" t="s">
+        <v>1294</v>
       </c>
       <c r="M90">
         <v>100038</v>
       </c>
-      <c r="N90" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70013,10)</v>
+      <c r="N90" s="2" t="s">
+        <v>1295</v>
       </c>
       <c r="O90">
         <v>987009</v>
@@ -8398,23 +10248,20 @@
       <c r="I91">
         <v>100035</v>
       </c>
-      <c r="J91" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70014,1)</v>
+      <c r="J91" s="2" t="s">
+        <v>1296</v>
       </c>
       <c r="K91">
         <v>100062</v>
       </c>
-      <c r="L91" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70014,7)</v>
+      <c r="L91" s="2" t="s">
+        <v>1297</v>
       </c>
       <c r="M91">
         <v>100058</v>
       </c>
-      <c r="N91" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70014,10)</v>
+      <c r="N91" s="2" t="s">
+        <v>1298</v>
       </c>
       <c r="O91">
         <v>987009</v>
@@ -8448,23 +10295,20 @@
       <c r="I92">
         <v>100056</v>
       </c>
-      <c r="J92" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70015,1)</v>
+      <c r="J92" s="2" t="s">
+        <v>1299</v>
       </c>
       <c r="K92">
         <v>100055</v>
       </c>
-      <c r="L92" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70015,7)</v>
+      <c r="L92" s="2" t="s">
+        <v>1300</v>
       </c>
       <c r="M92">
         <v>100054</v>
       </c>
-      <c r="N92" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70015,10)</v>
+      <c r="N92" s="2" t="s">
+        <v>1301</v>
       </c>
       <c r="O92">
         <v>910069</v>
@@ -8498,23 +10342,20 @@
       <c r="I93">
         <v>100021</v>
       </c>
-      <c r="J93" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70016,1)</v>
+      <c r="J93" s="2" t="s">
+        <v>1302</v>
       </c>
       <c r="K93">
         <v>100026</v>
       </c>
-      <c r="L93" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70016,7)</v>
+      <c r="L93" s="2" t="s">
+        <v>1303</v>
       </c>
       <c r="M93">
         <v>100043</v>
       </c>
-      <c r="N93" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70016,10)</v>
+      <c r="N93" s="2" t="s">
+        <v>1304</v>
       </c>
       <c r="O93">
         <v>987024</v>
@@ -8548,23 +10389,20 @@
       <c r="I94">
         <v>100011</v>
       </c>
-      <c r="J94" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70017,1)</v>
+      <c r="J94" s="2" t="s">
+        <v>1305</v>
       </c>
       <c r="K94">
         <v>100015</v>
       </c>
-      <c r="L94" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70017,7)</v>
+      <c r="L94" s="2" t="s">
+        <v>1306</v>
       </c>
       <c r="M94">
         <v>100067</v>
       </c>
-      <c r="N94" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70017,10)</v>
+      <c r="N94" s="2" t="s">
+        <v>1307</v>
       </c>
       <c r="O94">
         <v>987024</v>
@@ -8598,23 +10436,20 @@
       <c r="I95">
         <v>100081</v>
       </c>
-      <c r="J95" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70018,1)</v>
+      <c r="J95" s="2" t="s">
+        <v>1308</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
-      <c r="L95" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70018,7)</v>
+      <c r="L95" s="2" t="s">
+        <v>1309</v>
       </c>
       <c r="M95">
         <v>0</v>
       </c>
-      <c r="N95" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70018,10)</v>
+      <c r="N95" s="2" t="s">
+        <v>1310</v>
       </c>
       <c r="O95">
         <v>910069</v>
@@ -8648,23 +10483,20 @@
       <c r="I96">
         <v>100066</v>
       </c>
-      <c r="J96" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70019,1)</v>
+      <c r="J96" s="2" t="s">
+        <v>1311</v>
       </c>
       <c r="K96">
         <v>100065</v>
       </c>
-      <c r="L96" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70019,7)</v>
+      <c r="L96" s="2" t="s">
+        <v>1312</v>
       </c>
       <c r="M96">
         <v>100075</v>
       </c>
-      <c r="N96" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70019,10)</v>
+      <c r="N96" s="2" t="s">
+        <v>1313</v>
       </c>
       <c r="O96">
         <v>987024</v>
@@ -8698,23 +10530,20 @@
       <c r="I97">
         <v>100011</v>
       </c>
-      <c r="J97" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70020,1)</v>
+      <c r="J97" s="2" t="s">
+        <v>1314</v>
       </c>
       <c r="K97">
         <v>100082</v>
       </c>
-      <c r="L97" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70020,7)</v>
+      <c r="L97" s="2" t="s">
+        <v>1315</v>
       </c>
       <c r="M97">
         <v>100083</v>
       </c>
-      <c r="N97" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70020,10)</v>
+      <c r="N97" s="2" t="s">
+        <v>1316</v>
       </c>
       <c r="O97">
         <v>910069</v>
@@ -8748,23 +10577,20 @@
       <c r="I98">
         <v>100055</v>
       </c>
-      <c r="J98" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70021,1)</v>
+      <c r="J98" s="2" t="s">
+        <v>1317</v>
       </c>
       <c r="K98">
         <v>100051</v>
       </c>
-      <c r="L98" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70021,7)</v>
+      <c r="L98" s="2" t="s">
+        <v>1318</v>
       </c>
       <c r="M98">
         <v>100061</v>
       </c>
-      <c r="N98" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70021,10)</v>
+      <c r="N98" s="2" t="s">
+        <v>1319</v>
       </c>
       <c r="O98">
         <v>987024</v>
@@ -8798,23 +10624,20 @@
       <c r="I99">
         <v>100031</v>
       </c>
-      <c r="J99" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70022,1)</v>
+      <c r="J99" s="2" t="s">
+        <v>1320</v>
       </c>
       <c r="K99">
         <v>100065</v>
       </c>
-      <c r="L99" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70022,7)</v>
+      <c r="L99" s="2" t="s">
+        <v>1321</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
-      <c r="N99" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70022,10)</v>
+      <c r="N99" s="2" t="s">
+        <v>1322</v>
       </c>
       <c r="O99">
         <v>987009</v>
@@ -8848,23 +10671,20 @@
       <c r="I100">
         <v>100032</v>
       </c>
-      <c r="J100" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70023,1)</v>
+      <c r="J100" s="2" t="s">
+        <v>1323</v>
       </c>
       <c r="K100">
         <v>100066</v>
       </c>
-      <c r="L100" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70023,7)</v>
+      <c r="L100" s="2" t="s">
+        <v>1324</v>
       </c>
       <c r="M100">
         <v>0</v>
       </c>
-      <c r="N100" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70023,10)</v>
+      <c r="N100" s="2" t="s">
+        <v>1325</v>
       </c>
       <c r="O100">
         <v>987009</v>
@@ -8898,23 +10718,20 @@
       <c r="I101">
         <v>100033</v>
       </c>
-      <c r="J101" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70024,1)</v>
+      <c r="J101" s="2" t="s">
+        <v>1326</v>
       </c>
       <c r="K101">
         <v>100073</v>
       </c>
-      <c r="L101" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70024,7)</v>
+      <c r="L101" s="2" t="s">
+        <v>1327</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
-      <c r="N101" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70024,10)</v>
+      <c r="N101" s="2" t="s">
+        <v>1328</v>
       </c>
       <c r="O101">
         <v>987009</v>
@@ -8948,23 +10765,20 @@
       <c r="I102">
         <v>100019</v>
       </c>
-      <c r="J102" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70025,1)</v>
+      <c r="J102" s="2" t="s">
+        <v>1329</v>
       </c>
       <c r="K102">
         <v>100040</v>
       </c>
-      <c r="L102" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70025,7)</v>
+      <c r="L102" s="2" t="s">
+        <v>1330</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
-      <c r="N102" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70025,10)</v>
+      <c r="N102" s="2" t="s">
+        <v>1331</v>
       </c>
       <c r="O102">
         <v>987009</v>
@@ -8998,23 +10812,20 @@
       <c r="I103">
         <v>987115</v>
       </c>
-      <c r="J103" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70026,1)</v>
+      <c r="J103" s="2" t="s">
+        <v>1332</v>
       </c>
       <c r="K103">
         <v>0</v>
       </c>
-      <c r="L103" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70026,7)</v>
+      <c r="L103" s="2" t="s">
+        <v>1333</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
-      <c r="N103" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70026,10)</v>
+      <c r="N103" s="2" t="s">
+        <v>1334</v>
       </c>
       <c r="O103">
         <v>987009</v>
@@ -9048,23 +10859,20 @@
       <c r="I104">
         <v>100111</v>
       </c>
-      <c r="J104" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70027,1)</v>
+      <c r="J104" s="2" t="s">
+        <v>1335</v>
       </c>
       <c r="K104">
         <v>0</v>
       </c>
-      <c r="L104" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70027,7)</v>
+      <c r="L104" s="2" t="s">
+        <v>1336</v>
       </c>
       <c r="M104">
         <v>0</v>
       </c>
-      <c r="N104" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70027,10)</v>
+      <c r="N104" s="2" t="s">
+        <v>1337</v>
       </c>
       <c r="O104">
         <v>987009</v>
@@ -9098,23 +10906,20 @@
       <c r="I105">
         <v>100130</v>
       </c>
-      <c r="J105" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70028,1)</v>
+      <c r="J105" s="2" t="s">
+        <v>1338</v>
       </c>
       <c r="K105">
         <v>100131</v>
       </c>
-      <c r="L105" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70028,7)</v>
+      <c r="L105" s="2" t="s">
+        <v>1339</v>
       </c>
       <c r="M105">
         <v>100133</v>
       </c>
-      <c r="N105" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70028,10)</v>
+      <c r="N105" s="2" t="s">
+        <v>1340</v>
       </c>
       <c r="O105">
         <v>987009</v>
@@ -9148,23 +10953,20 @@
       <c r="I106">
         <v>100074</v>
       </c>
-      <c r="J106" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70029,1)</v>
+      <c r="J106" s="2" t="s">
+        <v>1341</v>
       </c>
       <c r="K106">
         <v>100016</v>
       </c>
-      <c r="L106" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70029,7)</v>
+      <c r="L106" s="2" t="s">
+        <v>1342</v>
       </c>
       <c r="M106">
         <v>100014</v>
       </c>
-      <c r="N106" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70029,10)</v>
+      <c r="N106" s="2" t="s">
+        <v>1343</v>
       </c>
       <c r="O106">
         <v>910069</v>
@@ -9198,23 +11000,20 @@
       <c r="I107">
         <v>100034</v>
       </c>
-      <c r="J107" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70030,1)</v>
+      <c r="J107" s="2" t="s">
+        <v>1344</v>
       </c>
       <c r="K107">
         <v>100029</v>
       </c>
-      <c r="L107" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70030,7)</v>
+      <c r="L107" s="2" t="s">
+        <v>1345</v>
       </c>
       <c r="M107">
         <v>100054</v>
       </c>
-      <c r="N107" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70030,10)</v>
+      <c r="N107" s="2" t="s">
+        <v>1346</v>
       </c>
       <c r="O107">
         <v>987024</v>
@@ -9248,23 +11047,20 @@
       <c r="I108">
         <v>100061</v>
       </c>
-      <c r="J108" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70031,1)</v>
+      <c r="J108" s="2" t="s">
+        <v>1347</v>
       </c>
       <c r="K108">
         <v>100062</v>
       </c>
-      <c r="L108" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70031,7)</v>
+      <c r="L108" s="2" t="s">
+        <v>1348</v>
       </c>
       <c r="M108">
         <v>100063</v>
       </c>
-      <c r="N108" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70031,10)</v>
+      <c r="N108" s="2" t="s">
+        <v>1349</v>
       </c>
       <c r="O108">
         <v>987024</v>
@@ -9298,23 +11094,20 @@
       <c r="I109">
         <v>100072</v>
       </c>
-      <c r="J109" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70032,1)</v>
+      <c r="J109" s="2" t="s">
+        <v>1350</v>
       </c>
       <c r="K109">
         <v>100062</v>
       </c>
-      <c r="L109" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70032,7)</v>
+      <c r="L109" s="2" t="s">
+        <v>1351</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
-      <c r="N109" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70032,10)</v>
+      <c r="N109" s="2" t="s">
+        <v>1352</v>
       </c>
       <c r="O109">
         <v>987024</v>
@@ -9348,23 +11141,20 @@
       <c r="I110">
         <v>100019</v>
       </c>
-      <c r="J110" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70033,1)</v>
+      <c r="J110" s="2" t="s">
+        <v>1353</v>
       </c>
       <c r="K110">
         <v>100017</v>
       </c>
-      <c r="L110" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70033,7)</v>
+      <c r="L110" s="2" t="s">
+        <v>1354</v>
       </c>
       <c r="M110">
         <v>100077</v>
       </c>
-      <c r="N110" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70033,10)</v>
+      <c r="N110" s="2" t="s">
+        <v>1355</v>
       </c>
       <c r="O110">
         <v>910069</v>
@@ -9398,23 +11188,20 @@
       <c r="I111">
         <v>100035</v>
       </c>
-      <c r="J111" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70034,1)</v>
+      <c r="J111" s="2" t="s">
+        <v>1356</v>
       </c>
       <c r="K111">
         <v>100016</v>
       </c>
-      <c r="L111" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70034,7)</v>
+      <c r="L111" s="2" t="s">
+        <v>1357</v>
       </c>
       <c r="M111">
         <v>100065</v>
       </c>
-      <c r="N111" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70034,10)</v>
+      <c r="N111" s="2" t="s">
+        <v>1358</v>
       </c>
       <c r="O111">
         <v>987024</v>
@@ -9448,23 +11235,20 @@
       <c r="I112">
         <v>100019</v>
       </c>
-      <c r="J112" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70035,1)</v>
+      <c r="J112" s="2" t="s">
+        <v>1359</v>
       </c>
       <c r="K112">
         <v>100017</v>
       </c>
-      <c r="L112" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70035,7)</v>
+      <c r="L112" s="2" t="s">
+        <v>1360</v>
       </c>
       <c r="M112">
         <v>100077</v>
       </c>
-      <c r="N112" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70035,10)</v>
+      <c r="N112" s="2" t="s">
+        <v>1361</v>
       </c>
       <c r="O112">
         <v>987024</v>
@@ -9498,23 +11282,20 @@
       <c r="I113">
         <v>100016</v>
       </c>
-      <c r="J113" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70036,1)</v>
+      <c r="J113" s="2" t="s">
+        <v>1362</v>
       </c>
       <c r="K113">
         <v>100058</v>
       </c>
-      <c r="L113" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70036,7)</v>
+      <c r="L113" s="2" t="s">
+        <v>1363</v>
       </c>
       <c r="M113">
         <v>100075</v>
       </c>
-      <c r="N113" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70036,10)</v>
+      <c r="N113" s="2" t="s">
+        <v>1364</v>
       </c>
       <c r="O113">
         <v>987024</v>
@@ -9548,23 +11329,20 @@
       <c r="I114">
         <v>100078</v>
       </c>
-      <c r="J114" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70037,1)</v>
+      <c r="J114" s="2" t="s">
+        <v>1365</v>
       </c>
       <c r="K114">
         <v>100053</v>
       </c>
-      <c r="L114" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70037,7)</v>
+      <c r="L114" s="2" t="s">
+        <v>1366</v>
       </c>
       <c r="M114">
         <v>100014</v>
       </c>
-      <c r="N114" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70037,10)</v>
+      <c r="N114" s="2" t="s">
+        <v>1367</v>
       </c>
       <c r="O114">
         <v>987024</v>
@@ -9598,23 +11376,20 @@
       <c r="I115">
         <v>500023</v>
       </c>
-      <c r="J115" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70038,1)</v>
+      <c r="J115" s="2" t="s">
+        <v>1368</v>
       </c>
       <c r="K115">
         <v>100033</v>
       </c>
-      <c r="L115" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70038,7)</v>
+      <c r="L115" s="2" t="s">
+        <v>1369</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
-      <c r="N115" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70038,10)</v>
+      <c r="N115" s="2" t="s">
+        <v>1370</v>
       </c>
       <c r="O115">
         <v>987024</v>
@@ -9648,23 +11423,20 @@
       <c r="I116">
         <v>100013</v>
       </c>
-      <c r="J116" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70039,1)</v>
+      <c r="J116" s="2" t="s">
+        <v>1371</v>
       </c>
       <c r="K116">
         <v>100055</v>
       </c>
-      <c r="L116" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70039,7)</v>
+      <c r="L116" s="2" t="s">
+        <v>1372</v>
       </c>
       <c r="M116">
         <v>100064</v>
       </c>
-      <c r="N116" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70039,10)</v>
+      <c r="N116" s="2" t="s">
+        <v>1373</v>
       </c>
       <c r="O116">
         <v>910069</v>
@@ -9698,23 +11470,20 @@
       <c r="I117">
         <v>500023</v>
       </c>
-      <c r="J117" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70040,1)</v>
+      <c r="J117" s="2" t="s">
+        <v>1374</v>
       </c>
       <c r="K117">
         <v>100061</v>
       </c>
-      <c r="L117" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70040,7)</v>
+      <c r="L117" s="2" t="s">
+        <v>1375</v>
       </c>
       <c r="M117">
         <v>100049</v>
       </c>
-      <c r="N117" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70040,10)</v>
+      <c r="N117" s="2" t="s">
+        <v>1376</v>
       </c>
       <c r="O117">
         <v>987024</v>
@@ -9748,23 +11517,20 @@
       <c r="I118">
         <v>100056</v>
       </c>
-      <c r="J118" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70041,1)</v>
+      <c r="J118" s="2" t="s">
+        <v>1377</v>
       </c>
       <c r="K118">
         <v>100066</v>
       </c>
-      <c r="L118" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70041,7)</v>
+      <c r="L118" s="2" t="s">
+        <v>1378</v>
       </c>
       <c r="M118">
         <v>100064</v>
       </c>
-      <c r="N118" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70041,10)</v>
+      <c r="N118" s="2" t="s">
+        <v>1379</v>
       </c>
       <c r="O118">
         <v>987024</v>
@@ -9798,23 +11564,20 @@
       <c r="I119">
         <v>100035</v>
       </c>
-      <c r="J119" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70042,1)</v>
+      <c r="J119" s="2" t="s">
+        <v>1380</v>
       </c>
       <c r="K119">
         <v>100015</v>
       </c>
-      <c r="L119" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70042,7)</v>
+      <c r="L119" s="2" t="s">
+        <v>1381</v>
       </c>
       <c r="M119">
         <v>0</v>
       </c>
-      <c r="N119" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70042,10)</v>
+      <c r="N119" s="2" t="s">
+        <v>1382</v>
       </c>
       <c r="O119">
         <v>987024</v>
@@ -9848,23 +11611,20 @@
       <c r="I120">
         <v>100068</v>
       </c>
-      <c r="J120" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70043,1)</v>
+      <c r="J120" s="2" t="s">
+        <v>1383</v>
       </c>
       <c r="K120">
         <v>70023</v>
       </c>
-      <c r="L120" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70043,7)</v>
+      <c r="L120" s="2" t="s">
+        <v>1384</v>
       </c>
       <c r="M120">
         <v>100064</v>
       </c>
-      <c r="N120" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70043,10)</v>
+      <c r="N120" s="2" t="s">
+        <v>1385</v>
       </c>
       <c r="O120">
         <v>987009</v>
@@ -9898,23 +11658,20 @@
       <c r="I121">
         <v>987167</v>
       </c>
-      <c r="J121" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70044,1)</v>
+      <c r="J121" s="2" t="s">
+        <v>1386</v>
       </c>
       <c r="K121">
         <v>100017</v>
       </c>
-      <c r="L121" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70044,7)</v>
+      <c r="L121" s="2" t="s">
+        <v>1387</v>
       </c>
       <c r="M121">
         <v>0</v>
       </c>
-      <c r="N121" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70044,10)</v>
+      <c r="N121" s="2" t="s">
+        <v>1388</v>
       </c>
       <c r="O121">
         <v>987009</v>
@@ -9948,23 +11705,20 @@
       <c r="I122">
         <v>987189</v>
       </c>
-      <c r="J122" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70045,1)</v>
+      <c r="J122" s="2" t="s">
+        <v>1389</v>
       </c>
       <c r="K122">
         <v>0</v>
       </c>
-      <c r="L122" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70045,7)</v>
+      <c r="L122" s="2" t="s">
+        <v>1390</v>
       </c>
       <c r="M122">
         <v>0</v>
       </c>
-      <c r="N122" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70045,10)</v>
+      <c r="N122" s="2" t="s">
+        <v>1391</v>
       </c>
       <c r="O122">
         <v>910167</v>
@@ -9998,23 +11752,20 @@
       <c r="I123">
         <v>100070</v>
       </c>
-      <c r="J123" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70046,1)</v>
+      <c r="J123" s="2" t="s">
+        <v>1392</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
-      <c r="L123" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70046,7)</v>
+      <c r="L123" s="2" t="s">
+        <v>1393</v>
       </c>
       <c r="M123">
         <v>0</v>
       </c>
-      <c r="N123" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70046,10)</v>
+      <c r="N123" s="2" t="s">
+        <v>1394</v>
       </c>
       <c r="O123">
         <v>987009</v>
@@ -10048,23 +11799,20 @@
       <c r="I124">
         <v>100070</v>
       </c>
-      <c r="J124" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70047,1)</v>
+      <c r="J124" s="2" t="s">
+        <v>1395</v>
       </c>
       <c r="K124">
         <v>100073</v>
       </c>
-      <c r="L124" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70047,7)</v>
+      <c r="L124" s="2" t="s">
+        <v>1396</v>
       </c>
       <c r="M124">
         <v>0</v>
       </c>
-      <c r="N124" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70047,10)</v>
+      <c r="N124" s="2" t="s">
+        <v>1397</v>
       </c>
       <c r="O124">
         <v>987009</v>
@@ -10098,23 +11846,20 @@
       <c r="I125">
         <v>500015</v>
       </c>
-      <c r="J125" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70048,1)</v>
+      <c r="J125" s="2" t="s">
+        <v>1398</v>
       </c>
       <c r="K125">
         <v>100016</v>
       </c>
-      <c r="L125" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70048,7)</v>
+      <c r="L125" s="2" t="s">
+        <v>1399</v>
       </c>
       <c r="M125">
         <v>100020</v>
       </c>
-      <c r="N125" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70048,10)</v>
+      <c r="N125" s="2" t="s">
+        <v>1400</v>
       </c>
       <c r="O125">
         <v>910069</v>
@@ -10148,23 +11893,20 @@
       <c r="I126">
         <v>100075</v>
       </c>
-      <c r="J126" s="2" t="str">
-        <f>"(10,0,"&amp;A126&amp;",1)"</f>
-        <v>(10,0,70049,1)</v>
+      <c r="J126" s="2" t="s">
+        <v>1401</v>
       </c>
       <c r="K126">
         <v>100076</v>
       </c>
-      <c r="L126" s="2" t="str">
-        <f>"(10,0,"&amp;A126&amp;",7)"</f>
-        <v>(10,0,70049,7)</v>
+      <c r="L126" s="2" t="s">
+        <v>1402</v>
       </c>
       <c r="M126">
         <v>100037</v>
       </c>
-      <c r="N126" s="2" t="str">
-        <f>"(10,0,"&amp;A126&amp;",10)"</f>
-        <v>(10,0,70049,10)</v>
+      <c r="N126" s="2" t="s">
+        <v>1403</v>
       </c>
       <c r="O126">
         <v>987009</v>
@@ -10198,23 +11940,20 @@
       <c r="I127">
         <v>100013</v>
       </c>
-      <c r="J127" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70050,1)</v>
+      <c r="J127" s="2" t="s">
+        <v>1404</v>
       </c>
       <c r="K127">
         <v>100023</v>
       </c>
-      <c r="L127" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70050,7)</v>
+      <c r="L127" s="2" t="s">
+        <v>1405</v>
       </c>
       <c r="M127">
         <v>100024</v>
       </c>
-      <c r="N127" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70050,10)</v>
+      <c r="N127" s="2" t="s">
+        <v>1406</v>
       </c>
       <c r="O127">
         <v>910069</v>
@@ -10248,23 +11987,20 @@
       <c r="I128">
         <v>910004</v>
       </c>
-      <c r="J128" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70051,1)</v>
+      <c r="J128" s="2" t="s">
+        <v>1407</v>
       </c>
       <c r="K128">
         <v>0</v>
       </c>
-      <c r="L128" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70051,7)</v>
+      <c r="L128" s="2" t="s">
+        <v>1408</v>
       </c>
       <c r="M128">
         <v>0</v>
       </c>
-      <c r="N128" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70051,10)</v>
+      <c r="N128" s="2" t="s">
+        <v>1409</v>
       </c>
       <c r="O128">
         <v>910069</v>
@@ -10298,23 +12034,20 @@
       <c r="I129">
         <v>100101</v>
       </c>
-      <c r="J129" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70052,1)</v>
+      <c r="J129" s="2" t="s">
+        <v>1410</v>
       </c>
       <c r="K129">
         <v>0</v>
       </c>
-      <c r="L129" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70052,7)</v>
+      <c r="L129" s="2" t="s">
+        <v>1411</v>
       </c>
       <c r="M129">
         <v>0</v>
       </c>
-      <c r="N129" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70052,10)</v>
+      <c r="N129" s="2" t="s">
+        <v>1412</v>
       </c>
       <c r="O129">
         <v>910069</v>
@@ -10348,23 +12081,20 @@
       <c r="I130">
         <v>100103</v>
       </c>
-      <c r="J130" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70053,1)</v>
+      <c r="J130" s="2" t="s">
+        <v>1413</v>
       </c>
       <c r="K130">
         <v>0</v>
       </c>
-      <c r="L130" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70053,7)</v>
+      <c r="L130" s="2" t="s">
+        <v>1414</v>
       </c>
       <c r="M130">
         <v>0</v>
       </c>
-      <c r="N130" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70053,10)</v>
+      <c r="N130" s="2" t="s">
+        <v>1415</v>
       </c>
       <c r="O130">
         <v>910069</v>
@@ -10398,23 +12128,20 @@
       <c r="I131">
         <v>100104</v>
       </c>
-      <c r="J131" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>(10,0,70054,1)</v>
+      <c r="J131" s="2" t="s">
+        <v>1416</v>
       </c>
       <c r="K131">
         <v>0</v>
       </c>
-      <c r="L131" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>(10,0,70054,7)</v>
+      <c r="L131" s="2" t="s">
+        <v>1417</v>
       </c>
       <c r="M131">
         <v>0</v>
       </c>
-      <c r="N131" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>(10,0,70054,10)</v>
+      <c r="N131" s="2" t="s">
+        <v>1418</v>
       </c>
       <c r="O131">
         <v>910069</v>
@@ -10448,23 +12175,20 @@
       <c r="I132">
         <v>100105</v>
       </c>
-      <c r="J132" s="2" t="str">
-        <f t="shared" ref="J132:J195" si="6">"(10,0,"&amp;A132&amp;",1)"</f>
-        <v>(10,0,70055,1)</v>
+      <c r="J132" s="2" t="s">
+        <v>1419</v>
       </c>
       <c r="K132">
         <v>0</v>
       </c>
-      <c r="L132" s="2" t="str">
-        <f t="shared" ref="L132:L195" si="7">"(10,0,"&amp;A132&amp;",7)"</f>
-        <v>(10,0,70055,7)</v>
+      <c r="L132" s="2" t="s">
+        <v>1420</v>
       </c>
       <c r="M132">
         <v>0</v>
       </c>
-      <c r="N132" s="2" t="str">
-        <f t="shared" ref="N132:N195" si="8">"(10,0,"&amp;A132&amp;",10)"</f>
-        <v>(10,0,70055,10)</v>
+      <c r="N132" s="2" t="s">
+        <v>1421</v>
       </c>
       <c r="O132">
         <v>910069</v>
@@ -10498,23 +12222,20 @@
       <c r="I133">
         <v>100106</v>
       </c>
-      <c r="J133" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70056,1)</v>
+      <c r="J133" s="2" t="s">
+        <v>1422</v>
       </c>
       <c r="K133">
         <v>0</v>
       </c>
-      <c r="L133" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70056,7)</v>
+      <c r="L133" s="2" t="s">
+        <v>1423</v>
       </c>
       <c r="M133">
         <v>0</v>
       </c>
-      <c r="N133" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70056,10)</v>
+      <c r="N133" s="2" t="s">
+        <v>1424</v>
       </c>
       <c r="O133">
         <v>910069</v>
@@ -10548,23 +12269,20 @@
       <c r="I134">
         <v>100107</v>
       </c>
-      <c r="J134" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70057,1)</v>
+      <c r="J134" s="2" t="s">
+        <v>1425</v>
       </c>
       <c r="K134">
         <v>0</v>
       </c>
-      <c r="L134" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70057,7)</v>
+      <c r="L134" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="M134">
         <v>0</v>
       </c>
-      <c r="N134" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70057,10)</v>
+      <c r="N134" s="2" t="s">
+        <v>1427</v>
       </c>
       <c r="O134">
         <v>910069</v>
@@ -10598,23 +12316,20 @@
       <c r="I135">
         <v>100108</v>
       </c>
-      <c r="J135" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70058,1)</v>
+      <c r="J135" s="2" t="s">
+        <v>1428</v>
       </c>
       <c r="K135">
         <v>0</v>
       </c>
-      <c r="L135" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70058,7)</v>
+      <c r="L135" s="2" t="s">
+        <v>1429</v>
       </c>
       <c r="M135">
         <v>0</v>
       </c>
-      <c r="N135" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70058,10)</v>
+      <c r="N135" s="2" t="s">
+        <v>1430</v>
       </c>
       <c r="O135">
         <v>910069</v>
@@ -10648,23 +12363,20 @@
       <c r="I136">
         <v>100109</v>
       </c>
-      <c r="J136" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70059,1)</v>
+      <c r="J136" s="2" t="s">
+        <v>1431</v>
       </c>
       <c r="K136">
         <v>0</v>
       </c>
-      <c r="L136" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70059,7)</v>
+      <c r="L136" s="2" t="s">
+        <v>1432</v>
       </c>
       <c r="M136">
         <v>0</v>
       </c>
-      <c r="N136" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70059,10)</v>
+      <c r="N136" s="2" t="s">
+        <v>1433</v>
       </c>
       <c r="O136">
         <v>910069</v>
@@ -10698,23 +12410,20 @@
       <c r="I137">
         <v>100112</v>
       </c>
-      <c r="J137" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70060,1)</v>
+      <c r="J137" s="2" t="s">
+        <v>1434</v>
       </c>
       <c r="K137">
         <v>0</v>
       </c>
-      <c r="L137" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70060,7)</v>
+      <c r="L137" s="2" t="s">
+        <v>1435</v>
       </c>
       <c r="M137">
         <v>0</v>
       </c>
-      <c r="N137" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70060,10)</v>
+      <c r="N137" s="2" t="s">
+        <v>1436</v>
       </c>
       <c r="O137">
         <v>987009</v>
@@ -10748,23 +12457,20 @@
       <c r="I138">
         <v>100113</v>
       </c>
-      <c r="J138" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70061,1)</v>
+      <c r="J138" s="2" t="s">
+        <v>1437</v>
       </c>
       <c r="K138">
         <v>0</v>
       </c>
-      <c r="L138" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70061,7)</v>
+      <c r="L138" s="2" t="s">
+        <v>1438</v>
       </c>
       <c r="M138">
         <v>0</v>
       </c>
-      <c r="N138" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70061,10)</v>
+      <c r="N138" s="2" t="s">
+        <v>1439</v>
       </c>
       <c r="O138">
         <v>910069</v>
@@ -10798,23 +12504,20 @@
       <c r="I139">
         <v>100114</v>
       </c>
-      <c r="J139" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70062,1)</v>
+      <c r="J139" s="2" t="s">
+        <v>1440</v>
       </c>
       <c r="K139">
         <v>0</v>
       </c>
-      <c r="L139" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70062,7)</v>
+      <c r="L139" s="2" t="s">
+        <v>1441</v>
       </c>
       <c r="M139">
         <v>0</v>
       </c>
-      <c r="N139" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70062,10)</v>
+      <c r="N139" s="2" t="s">
+        <v>1442</v>
       </c>
       <c r="O139">
         <v>910069</v>
@@ -10848,23 +12551,20 @@
       <c r="I140">
         <v>100115</v>
       </c>
-      <c r="J140" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70063,1)</v>
+      <c r="J140" s="2" t="s">
+        <v>1443</v>
       </c>
       <c r="K140">
         <v>0</v>
       </c>
-      <c r="L140" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70063,7)</v>
+      <c r="L140" s="2" t="s">
+        <v>1444</v>
       </c>
       <c r="M140">
         <v>0</v>
       </c>
-      <c r="N140" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70063,10)</v>
+      <c r="N140" s="2" t="s">
+        <v>1445</v>
       </c>
       <c r="O140">
         <v>910069</v>
@@ -10898,23 +12598,20 @@
       <c r="I141">
         <v>100116</v>
       </c>
-      <c r="J141" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70064,1)</v>
+      <c r="J141" s="2" t="s">
+        <v>1446</v>
       </c>
       <c r="K141">
         <v>0</v>
       </c>
-      <c r="L141" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70064,7)</v>
+      <c r="L141" s="2" t="s">
+        <v>1447</v>
       </c>
       <c r="M141">
         <v>0</v>
       </c>
-      <c r="N141" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70064,10)</v>
+      <c r="N141" s="2" t="s">
+        <v>1448</v>
       </c>
       <c r="O141">
         <v>910069</v>
@@ -10948,23 +12645,20 @@
       <c r="I142">
         <v>100117</v>
       </c>
-      <c r="J142" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70065,1)</v>
+      <c r="J142" s="2" t="s">
+        <v>1449</v>
       </c>
       <c r="K142">
         <v>0</v>
       </c>
-      <c r="L142" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70065,7)</v>
+      <c r="L142" s="2" t="s">
+        <v>1450</v>
       </c>
       <c r="M142">
         <v>0</v>
       </c>
-      <c r="N142" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70065,10)</v>
+      <c r="N142" s="2" t="s">
+        <v>1451</v>
       </c>
       <c r="O142">
         <v>910069</v>
@@ -10998,23 +12692,20 @@
       <c r="I143">
         <v>0</v>
       </c>
-      <c r="J143" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70066,1)</v>
+      <c r="J143" s="2" t="s">
+        <v>1452</v>
       </c>
       <c r="K143">
         <v>0</v>
       </c>
-      <c r="L143" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70066,7)</v>
+      <c r="L143" s="2" t="s">
+        <v>1453</v>
       </c>
       <c r="M143">
         <v>0</v>
       </c>
-      <c r="N143" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70066,10)</v>
+      <c r="N143" s="2" t="s">
+        <v>1454</v>
       </c>
       <c r="O143">
         <v>987009</v>
@@ -11048,23 +12739,20 @@
       <c r="I144">
         <v>0</v>
       </c>
-      <c r="J144" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70067,1)</v>
+      <c r="J144" s="2" t="s">
+        <v>1455</v>
       </c>
       <c r="K144">
         <v>0</v>
       </c>
-      <c r="L144" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70067,7)</v>
+      <c r="L144" s="2" t="s">
+        <v>1456</v>
       </c>
       <c r="M144">
         <v>0</v>
       </c>
-      <c r="N144" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70067,10)</v>
+      <c r="N144" s="2" t="s">
+        <v>1457</v>
       </c>
       <c r="O144">
         <v>987009</v>
@@ -11098,23 +12786,20 @@
       <c r="I145">
         <v>0</v>
       </c>
-      <c r="J145" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70068,1)</v>
+      <c r="J145" s="2" t="s">
+        <v>1458</v>
       </c>
       <c r="K145">
         <v>0</v>
       </c>
-      <c r="L145" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70068,7)</v>
+      <c r="L145" s="2" t="s">
+        <v>1459</v>
       </c>
       <c r="M145">
         <v>0</v>
       </c>
-      <c r="N145" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70068,10)</v>
+      <c r="N145" s="2" t="s">
+        <v>1460</v>
       </c>
       <c r="O145">
         <v>987009</v>
@@ -11148,23 +12833,20 @@
       <c r="I146">
         <v>100131</v>
       </c>
-      <c r="J146" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70069,1)</v>
+      <c r="J146" s="2" t="s">
+        <v>1461</v>
       </c>
       <c r="K146">
         <v>100149</v>
       </c>
-      <c r="L146" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70069,7)</v>
+      <c r="L146" s="2" t="s">
+        <v>1462</v>
       </c>
       <c r="M146">
         <v>100152</v>
       </c>
-      <c r="N146" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70069,10)</v>
+      <c r="N146" s="2" t="s">
+        <v>1463</v>
       </c>
       <c r="O146">
         <v>987009</v>
@@ -11198,23 +12880,20 @@
       <c r="I147">
         <v>100130</v>
       </c>
-      <c r="J147" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70070,1)</v>
+      <c r="J147" s="2" t="s">
+        <v>1464</v>
       </c>
       <c r="K147">
         <v>100148</v>
       </c>
-      <c r="L147" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70070,7)</v>
+      <c r="L147" s="2" t="s">
+        <v>1465</v>
       </c>
       <c r="M147">
         <v>100151</v>
       </c>
-      <c r="N147" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70070,10)</v>
+      <c r="N147" s="2" t="s">
+        <v>1466</v>
       </c>
       <c r="O147">
         <v>987009</v>
@@ -11248,23 +12927,20 @@
       <c r="I148">
         <v>100132</v>
       </c>
-      <c r="J148" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70071,1)</v>
+      <c r="J148" s="2" t="s">
+        <v>1467</v>
       </c>
       <c r="K148">
         <v>100014</v>
       </c>
-      <c r="L148" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70071,7)</v>
+      <c r="L148" s="2" t="s">
+        <v>1468</v>
       </c>
       <c r="M148">
         <v>100153</v>
       </c>
-      <c r="N148" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70071,10)</v>
+      <c r="N148" s="2" t="s">
+        <v>1469</v>
       </c>
       <c r="O148">
         <v>987009</v>
@@ -11298,23 +12974,20 @@
       <c r="I149">
         <v>100131</v>
       </c>
-      <c r="J149" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70072,1)</v>
+      <c r="J149" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="K149">
         <v>100148</v>
       </c>
-      <c r="L149" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70072,7)</v>
+      <c r="L149" s="2" t="s">
+        <v>1471</v>
       </c>
       <c r="M149">
         <v>100152</v>
       </c>
-      <c r="N149" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70072,10)</v>
+      <c r="N149" s="2" t="s">
+        <v>1472</v>
       </c>
       <c r="O149">
         <v>987009</v>
@@ -11348,23 +13021,20 @@
       <c r="I150">
         <v>900054</v>
       </c>
-      <c r="J150" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70073,1)</v>
+      <c r="J150" s="2" t="s">
+        <v>1473</v>
       </c>
       <c r="K150">
         <v>0</v>
       </c>
-      <c r="L150" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70073,7)</v>
+      <c r="L150" s="2" t="s">
+        <v>1474</v>
       </c>
       <c r="M150">
         <v>0</v>
       </c>
-      <c r="N150" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70073,10)</v>
+      <c r="N150" s="2" t="s">
+        <v>1475</v>
       </c>
       <c r="O150">
         <v>987009</v>
@@ -11398,23 +13068,20 @@
       <c r="I151">
         <v>900055</v>
       </c>
-      <c r="J151" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70074,1)</v>
+      <c r="J151" s="2" t="s">
+        <v>1476</v>
       </c>
       <c r="K151">
         <v>0</v>
       </c>
-      <c r="L151" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70074,7)</v>
+      <c r="L151" s="2" t="s">
+        <v>1477</v>
       </c>
       <c r="M151">
         <v>0</v>
       </c>
-      <c r="N151" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70074,10)</v>
+      <c r="N151" s="2" t="s">
+        <v>1478</v>
       </c>
       <c r="O151">
         <v>987009</v>
@@ -11448,23 +13115,20 @@
       <c r="I152">
         <v>100029</v>
       </c>
-      <c r="J152" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70075,1)</v>
+      <c r="J152" s="2" t="s">
+        <v>1479</v>
       </c>
       <c r="K152">
         <v>100033</v>
       </c>
-      <c r="L152" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70075,7)</v>
+      <c r="L152" s="2" t="s">
+        <v>1480</v>
       </c>
       <c r="M152">
         <v>0</v>
       </c>
-      <c r="N152" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70075,10)</v>
+      <c r="N152" s="2" t="s">
+        <v>1481</v>
       </c>
       <c r="O152">
         <v>987009</v>
@@ -11498,23 +13162,20 @@
       <c r="I153">
         <v>910076</v>
       </c>
-      <c r="J153" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70076,1)</v>
+      <c r="J153" s="2" t="s">
+        <v>1482</v>
       </c>
       <c r="K153">
         <v>910077</v>
       </c>
-      <c r="L153" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70076,7)</v>
+      <c r="L153" s="2" t="s">
+        <v>1483</v>
       </c>
       <c r="M153">
         <v>0</v>
       </c>
-      <c r="N153" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70076,10)</v>
+      <c r="N153" s="2" t="s">
+        <v>1484</v>
       </c>
       <c r="O153">
         <v>987024</v>
@@ -11548,23 +13209,20 @@
       <c r="I154">
         <v>100034</v>
       </c>
-      <c r="J154" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70077,1)</v>
+      <c r="J154" s="2" t="s">
+        <v>1485</v>
       </c>
       <c r="K154">
         <v>0</v>
       </c>
-      <c r="L154" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70077,7)</v>
+      <c r="L154" s="2" t="s">
+        <v>1486</v>
       </c>
       <c r="M154">
         <v>0</v>
       </c>
-      <c r="N154" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70077,10)</v>
+      <c r="N154" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="O154">
         <v>987024</v>
@@ -11598,23 +13256,20 @@
       <c r="I155">
         <v>100119</v>
       </c>
-      <c r="J155" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70078,1)</v>
+      <c r="J155" s="2" t="s">
+        <v>1488</v>
       </c>
       <c r="K155">
         <v>0</v>
       </c>
-      <c r="L155" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70078,7)</v>
+      <c r="L155" s="2" t="s">
+        <v>1489</v>
       </c>
       <c r="M155">
         <v>0</v>
       </c>
-      <c r="N155" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70078,10)</v>
+      <c r="N155" s="2" t="s">
+        <v>1490</v>
       </c>
       <c r="O155">
         <v>987009</v>
@@ -11648,23 +13303,20 @@
       <c r="I156">
         <v>500014</v>
       </c>
-      <c r="J156" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70079,1)</v>
+      <c r="J156" s="2" t="s">
+        <v>1491</v>
       </c>
       <c r="K156">
         <v>500008</v>
       </c>
-      <c r="L156" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70079,7)</v>
+      <c r="L156" s="2" t="s">
+        <v>1492</v>
       </c>
       <c r="M156">
         <v>500003</v>
       </c>
-      <c r="N156" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70079,10)</v>
+      <c r="N156" s="2" t="s">
+        <v>1493</v>
       </c>
       <c r="O156">
         <v>987024</v>
@@ -11698,23 +13350,20 @@
       <c r="I157">
         <v>910087</v>
       </c>
-      <c r="J157" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70080,1)</v>
+      <c r="J157" s="2" t="s">
+        <v>1494</v>
       </c>
       <c r="K157">
         <v>500029</v>
       </c>
-      <c r="L157" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70080,7)</v>
+      <c r="L157" s="2" t="s">
+        <v>1495</v>
       </c>
       <c r="M157">
         <v>0</v>
       </c>
-      <c r="N157" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70080,10)</v>
+      <c r="N157" s="2" t="s">
+        <v>1496</v>
       </c>
       <c r="O157">
         <v>987009</v>
@@ -11748,23 +13397,20 @@
       <c r="I158">
         <v>100017</v>
       </c>
-      <c r="J158" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70081,1)</v>
+      <c r="J158" s="2" t="s">
+        <v>1497</v>
       </c>
       <c r="K158">
         <v>100035</v>
       </c>
-      <c r="L158" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70081,7)</v>
+      <c r="L158" s="2" t="s">
+        <v>1498</v>
       </c>
       <c r="M158">
         <v>100034</v>
       </c>
-      <c r="N158" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70081,10)</v>
+      <c r="N158" s="2" t="s">
+        <v>1499</v>
       </c>
       <c r="O158">
         <v>987009</v>
@@ -11798,23 +13444,20 @@
       <c r="I159">
         <v>910116</v>
       </c>
-      <c r="J159" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70082,1)</v>
+      <c r="J159" s="2" t="s">
+        <v>1500</v>
       </c>
       <c r="K159">
         <v>0</v>
       </c>
-      <c r="L159" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70082,7)</v>
+      <c r="L159" s="2" t="s">
+        <v>1501</v>
       </c>
       <c r="M159">
         <v>0</v>
       </c>
-      <c r="N159" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70082,10)</v>
+      <c r="N159" s="2" t="s">
+        <v>1502</v>
       </c>
       <c r="O159">
         <v>987009</v>
@@ -11848,23 +13491,20 @@
       <c r="I160">
         <v>910138</v>
       </c>
-      <c r="J160" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70083,1)</v>
+      <c r="J160" s="2" t="s">
+        <v>1503</v>
       </c>
       <c r="K160">
         <v>910139</v>
       </c>
-      <c r="L160" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70083,7)</v>
+      <c r="L160" s="2" t="s">
+        <v>1504</v>
       </c>
       <c r="M160">
         <v>910140</v>
       </c>
-      <c r="N160" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70083,10)</v>
+      <c r="N160" s="2" t="s">
+        <v>1505</v>
       </c>
       <c r="O160">
         <v>987009</v>
@@ -11898,23 +13538,20 @@
       <c r="I161">
         <v>910143</v>
       </c>
-      <c r="J161" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70084,1)</v>
+      <c r="J161" s="2" t="s">
+        <v>1506</v>
       </c>
       <c r="K161">
         <v>500038</v>
       </c>
-      <c r="L161" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70084,7)</v>
+      <c r="L161" s="2" t="s">
+        <v>1507</v>
       </c>
       <c r="M161">
         <v>0</v>
       </c>
-      <c r="N161" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70084,10)</v>
+      <c r="N161" s="2" t="s">
+        <v>1508</v>
       </c>
       <c r="O161">
         <v>987009</v>
@@ -11948,23 +13585,20 @@
       <c r="I162">
         <v>500022</v>
       </c>
-      <c r="J162" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70085,1)</v>
+      <c r="J162" s="2" t="s">
+        <v>1509</v>
       </c>
       <c r="K162">
         <v>500025</v>
       </c>
-      <c r="L162" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70085,7)</v>
+      <c r="L162" s="2" t="s">
+        <v>1510</v>
       </c>
       <c r="M162">
         <v>500038</v>
       </c>
-      <c r="N162" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70085,10)</v>
+      <c r="N162" s="2" t="s">
+        <v>1511</v>
       </c>
       <c r="O162">
         <v>910149</v>
@@ -11998,23 +13632,20 @@
       <c r="I163">
         <v>500017</v>
       </c>
-      <c r="J163" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70086,1)</v>
+      <c r="J163" s="2" t="s">
+        <v>1512</v>
       </c>
       <c r="K163">
         <v>500014</v>
       </c>
-      <c r="L163" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70086,7)</v>
+      <c r="L163" s="2" t="s">
+        <v>1513</v>
       </c>
       <c r="M163">
         <v>910146</v>
       </c>
-      <c r="N163" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70086,10)</v>
+      <c r="N163" s="2" t="s">
+        <v>1514</v>
       </c>
       <c r="O163">
         <v>987009</v>
@@ -12048,23 +13679,20 @@
       <c r="I164">
         <v>500038</v>
       </c>
-      <c r="J164" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70087,1)</v>
+      <c r="J164" s="2" t="s">
+        <v>1515</v>
       </c>
       <c r="K164">
         <v>910148</v>
       </c>
-      <c r="L164" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70087,7)</v>
+      <c r="L164" s="2" t="s">
+        <v>1516</v>
       </c>
       <c r="M164">
         <v>500042</v>
       </c>
-      <c r="N164" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70087,10)</v>
+      <c r="N164" s="2" t="s">
+        <v>1517</v>
       </c>
       <c r="O164">
         <v>987009</v>
@@ -12098,23 +13726,20 @@
       <c r="I165">
         <v>910173</v>
       </c>
-      <c r="J165" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70088,1)</v>
+      <c r="J165" s="2" t="s">
+        <v>1518</v>
       </c>
       <c r="K165">
         <v>910174</v>
       </c>
-      <c r="L165" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70088,7)</v>
+      <c r="L165" s="2" t="s">
+        <v>1519</v>
       </c>
       <c r="M165">
         <v>910175</v>
       </c>
-      <c r="N165" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70088,10)</v>
+      <c r="N165" s="2" t="s">
+        <v>1520</v>
       </c>
       <c r="O165">
         <v>987024</v>
@@ -12148,23 +13773,20 @@
       <c r="I166">
         <v>910181</v>
       </c>
-      <c r="J166" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70089,1)</v>
+      <c r="J166" s="2" t="s">
+        <v>1521</v>
       </c>
       <c r="K166">
         <v>0</v>
       </c>
-      <c r="L166" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70089,7)</v>
+      <c r="L166" s="2" t="s">
+        <v>1522</v>
       </c>
       <c r="M166">
         <v>0</v>
       </c>
-      <c r="N166" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70089,10)</v>
+      <c r="N166" s="2" t="s">
+        <v>1523</v>
       </c>
       <c r="O166">
         <v>987024</v>
@@ -12198,23 +13820,20 @@
       <c r="I167">
         <v>910072</v>
       </c>
-      <c r="J167" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70090,1)</v>
+      <c r="J167" s="2" t="s">
+        <v>1524</v>
       </c>
       <c r="K167">
         <v>100069</v>
       </c>
-      <c r="L167" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70090,7)</v>
+      <c r="L167" s="2" t="s">
+        <v>1525</v>
       </c>
       <c r="M167">
         <v>100076</v>
       </c>
-      <c r="N167" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70090,10)</v>
+      <c r="N167" s="2" t="s">
+        <v>1526</v>
       </c>
       <c r="O167">
         <v>987009</v>
@@ -12248,23 +13867,20 @@
       <c r="I168">
         <v>100076</v>
       </c>
-      <c r="J168" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,70091,1)</v>
+      <c r="J168" s="2" t="s">
+        <v>1527</v>
       </c>
       <c r="K168">
         <v>500036</v>
       </c>
-      <c r="L168" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,70091,7)</v>
+      <c r="L168" s="2" t="s">
+        <v>1528</v>
       </c>
       <c r="M168">
         <v>0</v>
       </c>
-      <c r="N168" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,70091,10)</v>
+      <c r="N168" s="2" t="s">
+        <v>1529</v>
       </c>
       <c r="O168">
         <v>987009</v>
@@ -12298,23 +13914,20 @@
       <c r="I169">
         <v>987001</v>
       </c>
-      <c r="J169" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87001,1)</v>
+      <c r="J169" s="2" t="s">
+        <v>1530</v>
       </c>
       <c r="K169">
         <v>0</v>
       </c>
-      <c r="L169" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87001,7)</v>
+      <c r="L169" s="2" t="s">
+        <v>1531</v>
       </c>
       <c r="M169">
         <v>0</v>
       </c>
-      <c r="N169" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87001,10)</v>
+      <c r="N169" s="2" t="s">
+        <v>1532</v>
       </c>
       <c r="O169">
         <v>987009</v>
@@ -12348,23 +13961,20 @@
       <c r="I170">
         <v>987010</v>
       </c>
-      <c r="J170" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87002,1)</v>
+      <c r="J170" s="2" t="s">
+        <v>1533</v>
       </c>
       <c r="K170">
         <v>0</v>
       </c>
-      <c r="L170" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87002,7)</v>
+      <c r="L170" s="2" t="s">
+        <v>1534</v>
       </c>
       <c r="M170">
         <v>0</v>
       </c>
-      <c r="N170" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87002,10)</v>
+      <c r="N170" s="2" t="s">
+        <v>1535</v>
       </c>
       <c r="O170">
         <v>987009</v>
@@ -12398,23 +14008,20 @@
       <c r="I171">
         <v>987012</v>
       </c>
-      <c r="J171" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87003,1)</v>
+      <c r="J171" s="2" t="s">
+        <v>1536</v>
       </c>
       <c r="K171">
         <v>0</v>
       </c>
-      <c r="L171" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87003,7)</v>
+      <c r="L171" s="2" t="s">
+        <v>1537</v>
       </c>
       <c r="M171">
         <v>0</v>
       </c>
-      <c r="N171" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87003,10)</v>
+      <c r="N171" s="2" t="s">
+        <v>1538</v>
       </c>
       <c r="O171">
         <v>987009</v>
@@ -12448,23 +14055,20 @@
       <c r="I172">
         <v>987015</v>
       </c>
-      <c r="J172" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87004,1)</v>
+      <c r="J172" s="2" t="s">
+        <v>1539</v>
       </c>
       <c r="K172">
         <v>0</v>
       </c>
-      <c r="L172" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87004,7)</v>
+      <c r="L172" s="2" t="s">
+        <v>1540</v>
       </c>
       <c r="M172">
         <v>0</v>
       </c>
-      <c r="N172" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87004,10)</v>
+      <c r="N172" s="2" t="s">
+        <v>1541</v>
       </c>
       <c r="O172">
         <v>987009</v>
@@ -12498,23 +14102,20 @@
       <c r="I173">
         <v>987017</v>
       </c>
-      <c r="J173" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87005,1)</v>
+      <c r="J173" s="2" t="s">
+        <v>1542</v>
       </c>
       <c r="K173">
         <v>0</v>
       </c>
-      <c r="L173" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87005,7)</v>
+      <c r="L173" s="2" t="s">
+        <v>1543</v>
       </c>
       <c r="M173">
         <v>0</v>
       </c>
-      <c r="N173" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87005,10)</v>
+      <c r="N173" s="2" t="s">
+        <v>1544</v>
       </c>
       <c r="O173">
         <v>987009</v>
@@ -12548,23 +14149,20 @@
       <c r="I174">
         <v>987022</v>
       </c>
-      <c r="J174" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87006,1)</v>
+      <c r="J174" s="2" t="s">
+        <v>1545</v>
       </c>
       <c r="K174">
         <v>987097</v>
       </c>
-      <c r="L174" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87006,7)</v>
+      <c r="L174" s="2" t="s">
+        <v>1546</v>
       </c>
       <c r="M174">
         <v>987003</v>
       </c>
-      <c r="N174" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87006,10)</v>
+      <c r="N174" s="2" t="s">
+        <v>1547</v>
       </c>
       <c r="O174">
         <v>987009</v>
@@ -12598,23 +14196,20 @@
       <c r="I175">
         <v>987004</v>
       </c>
-      <c r="J175" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87007,1)</v>
+      <c r="J175" s="2" t="s">
+        <v>1548</v>
       </c>
       <c r="K175">
         <v>987023</v>
       </c>
-      <c r="L175" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87007,7)</v>
+      <c r="L175" s="2" t="s">
+        <v>1549</v>
       </c>
       <c r="M175">
         <v>0</v>
       </c>
-      <c r="N175" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87007,10)</v>
+      <c r="N175" s="2" t="s">
+        <v>1550</v>
       </c>
       <c r="O175">
         <v>987024</v>
@@ -12648,23 +14243,20 @@
       <c r="I176">
         <v>100013</v>
       </c>
-      <c r="J176" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87008,1)</v>
+      <c r="J176" s="2" t="s">
+        <v>1551</v>
       </c>
       <c r="K176">
         <v>0</v>
       </c>
-      <c r="L176" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87008,7)</v>
+      <c r="L176" s="2" t="s">
+        <v>1552</v>
       </c>
       <c r="M176">
         <v>0</v>
       </c>
-      <c r="N176" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87008,10)</v>
+      <c r="N176" s="2" t="s">
+        <v>1553</v>
       </c>
       <c r="O176">
         <v>987024</v>
@@ -12698,23 +14290,20 @@
       <c r="I177">
         <v>987069</v>
       </c>
-      <c r="J177" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87009,1)</v>
+      <c r="J177" s="2" t="s">
+        <v>1554</v>
       </c>
       <c r="K177">
         <v>0</v>
       </c>
-      <c r="L177" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87009,7)</v>
+      <c r="L177" s="2" t="s">
+        <v>1555</v>
       </c>
       <c r="M177">
         <v>0</v>
       </c>
-      <c r="N177" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87009,10)</v>
+      <c r="N177" s="2" t="s">
+        <v>1556</v>
       </c>
       <c r="O177">
         <v>987009</v>
@@ -12748,23 +14337,20 @@
       <c r="I178">
         <v>987037</v>
       </c>
-      <c r="J178" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87010,1)</v>
+      <c r="J178" s="2" t="s">
+        <v>1557</v>
       </c>
       <c r="K178">
         <v>0</v>
       </c>
-      <c r="L178" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87010,7)</v>
+      <c r="L178" s="2" t="s">
+        <v>1558</v>
       </c>
       <c r="M178">
         <v>0</v>
       </c>
-      <c r="N178" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87010,10)</v>
+      <c r="N178" s="2" t="s">
+        <v>1559</v>
       </c>
       <c r="O178">
         <v>987009</v>
@@ -12798,23 +14384,20 @@
       <c r="I179">
         <v>987038</v>
       </c>
-      <c r="J179" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87011,1)</v>
+      <c r="J179" s="2" t="s">
+        <v>1560</v>
       </c>
       <c r="K179">
         <v>0</v>
       </c>
-      <c r="L179" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87011,7)</v>
+      <c r="L179" s="2" t="s">
+        <v>1561</v>
       </c>
       <c r="M179">
         <v>0</v>
       </c>
-      <c r="N179" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87011,10)</v>
+      <c r="N179" s="2" t="s">
+        <v>1562</v>
       </c>
       <c r="O179">
         <v>987009</v>
@@ -12848,23 +14431,20 @@
       <c r="I180">
         <v>987039</v>
       </c>
-      <c r="J180" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87012,1)</v>
+      <c r="J180" s="2" t="s">
+        <v>1563</v>
       </c>
       <c r="K180">
         <v>0</v>
       </c>
-      <c r="L180" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87012,7)</v>
+      <c r="L180" s="2" t="s">
+        <v>1564</v>
       </c>
       <c r="M180">
         <v>0</v>
       </c>
-      <c r="N180" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87012,10)</v>
+      <c r="N180" s="2" t="s">
+        <v>1565</v>
       </c>
       <c r="O180">
         <v>987009</v>
@@ -12898,23 +14478,20 @@
       <c r="I181">
         <v>987040</v>
       </c>
-      <c r="J181" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87013,1)</v>
+      <c r="J181" s="2" t="s">
+        <v>1566</v>
       </c>
       <c r="K181">
         <v>0</v>
       </c>
-      <c r="L181" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87013,7)</v>
+      <c r="L181" s="2" t="s">
+        <v>1567</v>
       </c>
       <c r="M181">
         <v>0</v>
       </c>
-      <c r="N181" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87013,10)</v>
+      <c r="N181" s="2" t="s">
+        <v>1568</v>
       </c>
       <c r="O181">
         <v>987009</v>
@@ -12948,23 +14525,20 @@
       <c r="I182">
         <v>987041</v>
       </c>
-      <c r="J182" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87014,1)</v>
+      <c r="J182" s="2" t="s">
+        <v>1569</v>
       </c>
       <c r="K182">
         <v>0</v>
       </c>
-      <c r="L182" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87014,7)</v>
+      <c r="L182" s="2" t="s">
+        <v>1570</v>
       </c>
       <c r="M182">
         <v>0</v>
       </c>
-      <c r="N182" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87014,10)</v>
+      <c r="N182" s="2" t="s">
+        <v>1571</v>
       </c>
       <c r="O182">
         <v>987009</v>
@@ -12998,23 +14572,20 @@
       <c r="I183">
         <v>987072</v>
       </c>
-      <c r="J183" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87015,1)</v>
+      <c r="J183" s="2" t="s">
+        <v>1572</v>
       </c>
       <c r="K183">
         <v>0</v>
       </c>
-      <c r="L183" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87015,7)</v>
+      <c r="L183" s="2" t="s">
+        <v>1573</v>
       </c>
       <c r="M183">
         <v>0</v>
       </c>
-      <c r="N183" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87015,10)</v>
+      <c r="N183" s="2" t="s">
+        <v>1574</v>
       </c>
       <c r="O183">
         <v>987009</v>
@@ -13048,23 +14619,20 @@
       <c r="I184">
         <v>987081</v>
       </c>
-      <c r="J184" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87016,1)</v>
+      <c r="J184" s="2" t="s">
+        <v>1575</v>
       </c>
       <c r="K184">
         <v>0</v>
       </c>
-      <c r="L184" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87016,7)</v>
+      <c r="L184" s="2" t="s">
+        <v>1576</v>
       </c>
       <c r="M184">
         <v>0</v>
       </c>
-      <c r="N184" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87016,10)</v>
+      <c r="N184" s="2" t="s">
+        <v>1577</v>
       </c>
       <c r="O184">
         <v>987009</v>
@@ -13098,23 +14666,20 @@
       <c r="I185">
         <v>987084</v>
       </c>
-      <c r="J185" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87017,1)</v>
+      <c r="J185" s="2" t="s">
+        <v>1578</v>
       </c>
       <c r="K185">
         <v>0</v>
       </c>
-      <c r="L185" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87017,7)</v>
+      <c r="L185" s="2" t="s">
+        <v>1579</v>
       </c>
       <c r="M185">
         <v>0</v>
       </c>
-      <c r="N185" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87017,10)</v>
+      <c r="N185" s="2" t="s">
+        <v>1580</v>
       </c>
       <c r="O185">
         <v>987009</v>
@@ -13148,23 +14713,20 @@
       <c r="I186">
         <v>987078</v>
       </c>
-      <c r="J186" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87018,1)</v>
+      <c r="J186" s="2" t="s">
+        <v>1581</v>
       </c>
       <c r="K186">
         <v>0</v>
       </c>
-      <c r="L186" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87018,7)</v>
+      <c r="L186" s="2" t="s">
+        <v>1582</v>
       </c>
       <c r="M186">
         <v>0</v>
       </c>
-      <c r="N186" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87018,10)</v>
+      <c r="N186" s="2" t="s">
+        <v>1583</v>
       </c>
       <c r="O186">
         <v>987009</v>
@@ -13198,23 +14760,20 @@
       <c r="I187">
         <v>987093</v>
       </c>
-      <c r="J187" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87019,1)</v>
+      <c r="J187" s="2" t="s">
+        <v>1584</v>
       </c>
       <c r="K187">
         <v>0</v>
       </c>
-      <c r="L187" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87019,7)</v>
+      <c r="L187" s="2" t="s">
+        <v>1585</v>
       </c>
       <c r="M187">
         <v>0</v>
       </c>
-      <c r="N187" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87019,10)</v>
+      <c r="N187" s="2" t="s">
+        <v>1586</v>
       </c>
       <c r="O187">
         <v>987009</v>
@@ -13248,23 +14807,20 @@
       <c r="I188">
         <v>100016</v>
       </c>
-      <c r="J188" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87020,1)</v>
+      <c r="J188" s="2" t="s">
+        <v>1587</v>
       </c>
       <c r="K188">
         <v>987094</v>
       </c>
-      <c r="L188" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87020,7)</v>
+      <c r="L188" s="2" t="s">
+        <v>1588</v>
       </c>
       <c r="M188">
         <v>987095</v>
       </c>
-      <c r="N188" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87020,10)</v>
+      <c r="N188" s="2" t="s">
+        <v>1589</v>
       </c>
       <c r="O188">
         <v>987024</v>
@@ -13298,23 +14854,20 @@
       <c r="I189">
         <v>987096</v>
       </c>
-      <c r="J189" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87021,1)</v>
+      <c r="J189" s="2" t="s">
+        <v>1590</v>
       </c>
       <c r="K189">
         <v>100051</v>
       </c>
-      <c r="L189" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87021,7)</v>
+      <c r="L189" s="2" t="s">
+        <v>1591</v>
       </c>
       <c r="M189">
         <v>0</v>
       </c>
-      <c r="N189" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87021,10)</v>
+      <c r="N189" s="2" t="s">
+        <v>1592</v>
       </c>
       <c r="O189">
         <v>987009</v>
@@ -13348,23 +14901,20 @@
       <c r="I190">
         <v>100075</v>
       </c>
-      <c r="J190" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87022,1)</v>
+      <c r="J190" s="2" t="s">
+        <v>1593</v>
       </c>
       <c r="K190">
         <v>0</v>
       </c>
-      <c r="L190" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87022,7)</v>
+      <c r="L190" s="2" t="s">
+        <v>1594</v>
       </c>
       <c r="M190">
         <v>0</v>
       </c>
-      <c r="N190" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87022,10)</v>
+      <c r="N190" s="2" t="s">
+        <v>1595</v>
       </c>
       <c r="O190">
         <v>987009</v>
@@ -13398,23 +14948,20 @@
       <c r="I191">
         <v>100075</v>
       </c>
-      <c r="J191" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87023,1)</v>
+      <c r="J191" s="2" t="s">
+        <v>1596</v>
       </c>
       <c r="K191">
         <v>987100</v>
       </c>
-      <c r="L191" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87023,7)</v>
+      <c r="L191" s="2" t="s">
+        <v>1597</v>
       </c>
       <c r="M191">
         <v>0</v>
       </c>
-      <c r="N191" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87023,10)</v>
+      <c r="N191" s="2" t="s">
+        <v>1598</v>
       </c>
       <c r="O191">
         <v>987009</v>
@@ -13448,23 +14995,20 @@
       <c r="I192">
         <v>987101</v>
       </c>
-      <c r="J192" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87024,1)</v>
+      <c r="J192" s="2" t="s">
+        <v>1599</v>
       </c>
       <c r="K192">
         <v>0</v>
       </c>
-      <c r="L192" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87024,7)</v>
+      <c r="L192" s="2" t="s">
+        <v>1600</v>
       </c>
       <c r="M192">
         <v>0</v>
       </c>
-      <c r="N192" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87024,10)</v>
+      <c r="N192" s="2" t="s">
+        <v>1601</v>
       </c>
       <c r="O192">
         <v>987009</v>
@@ -13498,23 +15042,20 @@
       <c r="I193">
         <v>987102</v>
       </c>
-      <c r="J193" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87025,1)</v>
+      <c r="J193" s="2" t="s">
+        <v>1602</v>
       </c>
       <c r="K193">
         <v>0</v>
       </c>
-      <c r="L193" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87025,7)</v>
+      <c r="L193" s="2" t="s">
+        <v>1603</v>
       </c>
       <c r="M193">
         <v>0</v>
       </c>
-      <c r="N193" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87025,10)</v>
+      <c r="N193" s="2" t="s">
+        <v>1604</v>
       </c>
       <c r="O193">
         <v>987009</v>
@@ -13548,23 +15089,20 @@
       <c r="I194">
         <v>987103</v>
       </c>
-      <c r="J194" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87026,1)</v>
+      <c r="J194" s="2" t="s">
+        <v>1605</v>
       </c>
       <c r="K194">
         <v>0</v>
       </c>
-      <c r="L194" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87026,7)</v>
+      <c r="L194" s="2" t="s">
+        <v>1606</v>
       </c>
       <c r="M194">
         <v>0</v>
       </c>
-      <c r="N194" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87026,10)</v>
+      <c r="N194" s="2" t="s">
+        <v>1607</v>
       </c>
       <c r="O194">
         <v>987009</v>
@@ -13598,23 +15136,20 @@
       <c r="I195">
         <v>987104</v>
       </c>
-      <c r="J195" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>(10,0,87027,1)</v>
+      <c r="J195" s="2" t="s">
+        <v>1608</v>
       </c>
       <c r="K195">
         <v>0</v>
       </c>
-      <c r="L195" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>(10,0,87027,7)</v>
+      <c r="L195" s="2" t="s">
+        <v>1609</v>
       </c>
       <c r="M195">
         <v>0</v>
       </c>
-      <c r="N195" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>(10,0,87027,10)</v>
+      <c r="N195" s="2" t="s">
+        <v>1610</v>
       </c>
       <c r="O195">
         <v>987009</v>
@@ -13648,23 +15183,20 @@
       <c r="I196">
         <v>987105</v>
       </c>
-      <c r="J196" s="2" t="str">
-        <f t="shared" ref="J196:J218" si="9">"(10,0,"&amp;A196&amp;",1)"</f>
-        <v>(10,0,87028,1)</v>
+      <c r="J196" s="2" t="s">
+        <v>1611</v>
       </c>
       <c r="K196">
         <v>0</v>
       </c>
-      <c r="L196" s="2" t="str">
-        <f t="shared" ref="L196:L218" si="10">"(10,0,"&amp;A196&amp;",7)"</f>
-        <v>(10,0,87028,7)</v>
+      <c r="L196" s="2" t="s">
+        <v>1612</v>
       </c>
       <c r="M196">
         <v>0</v>
       </c>
-      <c r="N196" s="2" t="str">
-        <f t="shared" ref="N196:N218" si="11">"(10,0,"&amp;A196&amp;",10)"</f>
-        <v>(10,0,87028,10)</v>
+      <c r="N196" s="2" t="s">
+        <v>1613</v>
       </c>
       <c r="O196">
         <v>987009</v>
@@ -13698,23 +15230,20 @@
       <c r="I197">
         <v>987106</v>
       </c>
-      <c r="J197" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87029,1)</v>
+      <c r="J197" s="2" t="s">
+        <v>1614</v>
       </c>
       <c r="K197">
         <v>0</v>
       </c>
-      <c r="L197" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87029,7)</v>
+      <c r="L197" s="2" t="s">
+        <v>1615</v>
       </c>
       <c r="M197">
         <v>0</v>
       </c>
-      <c r="N197" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87029,10)</v>
+      <c r="N197" s="2" t="s">
+        <v>1616</v>
       </c>
       <c r="O197">
         <v>987009</v>
@@ -13748,23 +15277,20 @@
       <c r="I198">
         <v>987109</v>
       </c>
-      <c r="J198" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87030,1)</v>
+      <c r="J198" s="2" t="s">
+        <v>1617</v>
       </c>
       <c r="K198">
         <v>0</v>
       </c>
-      <c r="L198" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87030,7)</v>
+      <c r="L198" s="2" t="s">
+        <v>1618</v>
       </c>
       <c r="M198">
         <v>0</v>
       </c>
-      <c r="N198" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87030,10)</v>
+      <c r="N198" s="2" t="s">
+        <v>1619</v>
       </c>
       <c r="O198">
         <v>987009</v>
@@ -13798,23 +15324,20 @@
       <c r="I199">
         <v>987110</v>
       </c>
-      <c r="J199" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87031,1)</v>
+      <c r="J199" s="2" t="s">
+        <v>1620</v>
       </c>
       <c r="K199">
         <v>0</v>
       </c>
-      <c r="L199" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87031,7)</v>
+      <c r="L199" s="2" t="s">
+        <v>1621</v>
       </c>
       <c r="M199">
         <v>0</v>
       </c>
-      <c r="N199" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87031,10)</v>
+      <c r="N199" s="2" t="s">
+        <v>1622</v>
       </c>
       <c r="O199">
         <v>987009</v>
@@ -13848,23 +15371,20 @@
       <c r="I200">
         <v>987111</v>
       </c>
-      <c r="J200" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87032,1)</v>
+      <c r="J200" s="2" t="s">
+        <v>1623</v>
       </c>
       <c r="K200">
         <v>0</v>
       </c>
-      <c r="L200" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87032,7)</v>
+      <c r="L200" s="2" t="s">
+        <v>1624</v>
       </c>
       <c r="M200">
         <v>0</v>
       </c>
-      <c r="N200" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87032,10)</v>
+      <c r="N200" s="2" t="s">
+        <v>1625</v>
       </c>
       <c r="O200">
         <v>987009</v>
@@ -13898,23 +15418,20 @@
       <c r="I201">
         <v>987112</v>
       </c>
-      <c r="J201" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87033,1)</v>
+      <c r="J201" s="2" t="s">
+        <v>1626</v>
       </c>
       <c r="K201">
         <v>0</v>
       </c>
-      <c r="L201" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87033,7)</v>
+      <c r="L201" s="2" t="s">
+        <v>1627</v>
       </c>
       <c r="M201">
         <v>0</v>
       </c>
-      <c r="N201" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87033,10)</v>
+      <c r="N201" s="2" t="s">
+        <v>1628</v>
       </c>
       <c r="O201">
         <v>987009</v>
@@ -13948,23 +15465,20 @@
       <c r="I202">
         <v>987113</v>
       </c>
-      <c r="J202" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87034,1)</v>
+      <c r="J202" s="2" t="s">
+        <v>1629</v>
       </c>
       <c r="K202">
         <v>0</v>
       </c>
-      <c r="L202" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87034,7)</v>
+      <c r="L202" s="2" t="s">
+        <v>1630</v>
       </c>
       <c r="M202">
         <v>0</v>
       </c>
-      <c r="N202" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87034,10)</v>
+      <c r="N202" s="2" t="s">
+        <v>1631</v>
       </c>
       <c r="O202">
         <v>987009</v>
@@ -13998,23 +15512,20 @@
       <c r="I203">
         <v>987119</v>
       </c>
-      <c r="J203" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87035,1)</v>
+      <c r="J203" s="2" t="s">
+        <v>1632</v>
       </c>
       <c r="K203">
         <v>0</v>
       </c>
-      <c r="L203" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87035,7)</v>
+      <c r="L203" s="2" t="s">
+        <v>1633</v>
       </c>
       <c r="M203">
         <v>0</v>
       </c>
-      <c r="N203" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87035,10)</v>
+      <c r="N203" s="2" t="s">
+        <v>1634</v>
       </c>
       <c r="O203">
         <v>987009</v>
@@ -14048,23 +15559,20 @@
       <c r="I204">
         <v>987120</v>
       </c>
-      <c r="J204" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87036,1)</v>
+      <c r="J204" s="2" t="s">
+        <v>1635</v>
       </c>
       <c r="K204">
         <v>0</v>
       </c>
-      <c r="L204" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87036,7)</v>
+      <c r="L204" s="2" t="s">
+        <v>1636</v>
       </c>
       <c r="M204">
         <v>0</v>
       </c>
-      <c r="N204" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87036,10)</v>
+      <c r="N204" s="2" t="s">
+        <v>1637</v>
       </c>
       <c r="O204">
         <v>987009</v>
@@ -14098,23 +15606,20 @@
       <c r="I205">
         <v>987120</v>
       </c>
-      <c r="J205" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87037,1)</v>
+      <c r="J205" s="2" t="s">
+        <v>1638</v>
       </c>
       <c r="K205">
         <v>0</v>
       </c>
-      <c r="L205" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87037,7)</v>
+      <c r="L205" s="2" t="s">
+        <v>1639</v>
       </c>
       <c r="M205">
         <v>0</v>
       </c>
-      <c r="N205" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87037,10)</v>
+      <c r="N205" s="2" t="s">
+        <v>1640</v>
       </c>
       <c r="O205">
         <v>987009</v>
@@ -14148,23 +15653,20 @@
       <c r="I206">
         <v>987121</v>
       </c>
-      <c r="J206" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87038,1)</v>
+      <c r="J206" s="2" t="s">
+        <v>1641</v>
       </c>
       <c r="K206">
         <v>0</v>
       </c>
-      <c r="L206" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87038,7)</v>
+      <c r="L206" s="2" t="s">
+        <v>1642</v>
       </c>
       <c r="M206">
         <v>0</v>
       </c>
-      <c r="N206" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87038,10)</v>
+      <c r="N206" s="2" t="s">
+        <v>1643</v>
       </c>
       <c r="O206">
         <v>987009</v>
@@ -14198,23 +15700,20 @@
       <c r="I207">
         <v>987122</v>
       </c>
-      <c r="J207" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87039,1)</v>
+      <c r="J207" s="2" t="s">
+        <v>1644</v>
       </c>
       <c r="K207">
         <v>0</v>
       </c>
-      <c r="L207" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87039,7)</v>
+      <c r="L207" s="2" t="s">
+        <v>1645</v>
       </c>
       <c r="M207">
         <v>0</v>
       </c>
-      <c r="N207" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87039,10)</v>
+      <c r="N207" s="2" t="s">
+        <v>1646</v>
       </c>
       <c r="O207">
         <v>987009</v>
@@ -14248,23 +15747,20 @@
       <c r="I208">
         <v>987123</v>
       </c>
-      <c r="J208" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87040,1)</v>
+      <c r="J208" s="2" t="s">
+        <v>1647</v>
       </c>
       <c r="K208">
         <v>0</v>
       </c>
-      <c r="L208" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87040,7)</v>
+      <c r="L208" s="2" t="s">
+        <v>1648</v>
       </c>
       <c r="M208">
         <v>0</v>
       </c>
-      <c r="N208" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87040,10)</v>
+      <c r="N208" s="2" t="s">
+        <v>1649</v>
       </c>
       <c r="O208">
         <v>987009</v>
@@ -14298,23 +15794,20 @@
       <c r="I209">
         <v>987124</v>
       </c>
-      <c r="J209" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87041,1)</v>
+      <c r="J209" s="2" t="s">
+        <v>1650</v>
       </c>
       <c r="K209">
         <v>0</v>
       </c>
-      <c r="L209" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87041,7)</v>
+      <c r="L209" s="2" t="s">
+        <v>1651</v>
       </c>
       <c r="M209">
         <v>0</v>
       </c>
-      <c r="N209" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87041,10)</v>
+      <c r="N209" s="2" t="s">
+        <v>1652</v>
       </c>
       <c r="O209">
         <v>987009</v>
@@ -14348,23 +15841,20 @@
       <c r="I210">
         <v>987125</v>
       </c>
-      <c r="J210" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87042,1)</v>
+      <c r="J210" s="2" t="s">
+        <v>1653</v>
       </c>
       <c r="K210">
         <v>0</v>
       </c>
-      <c r="L210" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87042,7)</v>
+      <c r="L210" s="2" t="s">
+        <v>1654</v>
       </c>
       <c r="M210">
         <v>0</v>
       </c>
-      <c r="N210" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87042,10)</v>
+      <c r="N210" s="2" t="s">
+        <v>1655</v>
       </c>
       <c r="O210">
         <v>987009</v>
@@ -14398,23 +15888,20 @@
       <c r="I211">
         <v>987126</v>
       </c>
-      <c r="J211" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87043,1)</v>
+      <c r="J211" s="2" t="s">
+        <v>1656</v>
       </c>
       <c r="K211">
         <v>0</v>
       </c>
-      <c r="L211" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87043,7)</v>
+      <c r="L211" s="2" t="s">
+        <v>1657</v>
       </c>
       <c r="M211">
         <v>0</v>
       </c>
-      <c r="N211" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87043,10)</v>
+      <c r="N211" s="2" t="s">
+        <v>1658</v>
       </c>
       <c r="O211">
         <v>987009</v>
@@ -14448,23 +15935,20 @@
       <c r="I212">
         <v>987012</v>
       </c>
-      <c r="J212" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87044,1)</v>
+      <c r="J212" s="2" t="s">
+        <v>1659</v>
       </c>
       <c r="K212">
         <v>987161</v>
       </c>
-      <c r="L212" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87044,7)</v>
+      <c r="L212" s="2" t="s">
+        <v>1660</v>
       </c>
       <c r="M212">
         <v>0</v>
       </c>
-      <c r="N212" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87044,10)</v>
+      <c r="N212" s="2" t="s">
+        <v>1661</v>
       </c>
       <c r="O212">
         <v>987009</v>
@@ -14498,23 +15982,20 @@
       <c r="I213">
         <v>987114</v>
       </c>
-      <c r="J213" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87045,1)</v>
+      <c r="J213" s="2" t="s">
+        <v>1662</v>
       </c>
       <c r="K213">
         <v>0</v>
       </c>
-      <c r="L213" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87045,7)</v>
+      <c r="L213" s="2" t="s">
+        <v>1663</v>
       </c>
       <c r="M213">
         <v>0</v>
       </c>
-      <c r="N213" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87045,10)</v>
+      <c r="N213" s="2" t="s">
+        <v>1664</v>
       </c>
       <c r="O213">
         <v>987009</v>
@@ -14548,23 +16029,20 @@
       <c r="I214">
         <v>987116</v>
       </c>
-      <c r="J214" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87046,1)</v>
+      <c r="J214" s="2" t="s">
+        <v>1665</v>
       </c>
       <c r="K214">
         <v>0</v>
       </c>
-      <c r="L214" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87046,7)</v>
+      <c r="L214" s="2" t="s">
+        <v>1666</v>
       </c>
       <c r="M214">
         <v>0</v>
       </c>
-      <c r="N214" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87046,10)</v>
+      <c r="N214" s="2" t="s">
+        <v>1667</v>
       </c>
       <c r="O214">
         <v>987009</v>
@@ -14598,23 +16076,20 @@
       <c r="I215">
         <v>987117</v>
       </c>
-      <c r="J215" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87047,1)</v>
+      <c r="J215" s="2" t="s">
+        <v>1668</v>
       </c>
       <c r="K215">
         <v>0</v>
       </c>
-      <c r="L215" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87047,7)</v>
+      <c r="L215" s="2" t="s">
+        <v>1669</v>
       </c>
       <c r="M215">
         <v>0</v>
       </c>
-      <c r="N215" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87047,10)</v>
+      <c r="N215" s="2" t="s">
+        <v>1670</v>
       </c>
       <c r="O215">
         <v>987009</v>
@@ -14648,23 +16123,20 @@
       <c r="I216">
         <v>987183</v>
       </c>
-      <c r="J216" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87048,1)</v>
+      <c r="J216" s="2" t="s">
+        <v>1671</v>
       </c>
       <c r="K216">
         <v>0</v>
       </c>
-      <c r="L216" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87048,7)</v>
+      <c r="L216" s="2" t="s">
+        <v>1672</v>
       </c>
       <c r="M216">
         <v>0</v>
       </c>
-      <c r="N216" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87048,10)</v>
+      <c r="N216" s="2" t="s">
+        <v>1673</v>
       </c>
       <c r="O216">
         <v>987009</v>
@@ -14698,23 +16170,20 @@
       <c r="I217">
         <v>987184</v>
       </c>
-      <c r="J217" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87049,1)</v>
+      <c r="J217" s="2" t="s">
+        <v>1674</v>
       </c>
       <c r="K217">
         <v>0</v>
       </c>
-      <c r="L217" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87049,7)</v>
+      <c r="L217" s="2" t="s">
+        <v>1675</v>
       </c>
       <c r="M217">
         <v>0</v>
       </c>
-      <c r="N217" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87049,10)</v>
+      <c r="N217" s="2" t="s">
+        <v>1676</v>
       </c>
       <c r="O217">
         <v>987009</v>
@@ -14748,23 +16217,20 @@
       <c r="I218">
         <v>500092</v>
       </c>
-      <c r="J218" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>(10,0,87050,1)</v>
+      <c r="J218" s="2" t="s">
+        <v>1677</v>
       </c>
       <c r="K218">
         <v>0</v>
       </c>
-      <c r="L218" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>(10,0,87050,7)</v>
+      <c r="L218" s="2" t="s">
+        <v>1678</v>
       </c>
       <c r="M218">
         <v>0</v>
       </c>
-      <c r="N218" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(10,0,87050,10)</v>
+      <c r="N218" s="2" t="s">
+        <v>1679</v>
       </c>
       <c r="O218">
         <v>987009</v>
@@ -14784,7 +16250,7 @@
         <v>361</v>
       </c>
       <c r="E219" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F219" t="s">
         <v>199</v>
@@ -14798,23 +16264,20 @@
       <c r="I219">
         <v>100075</v>
       </c>
-      <c r="J219" s="2" t="str">
-        <f>"(10,0,"&amp;A219&amp;",1)"</f>
-        <v>(10,0,90001,1)</v>
+      <c r="J219" s="2" t="s">
+        <v>1681</v>
       </c>
       <c r="K219">
         <v>100076</v>
       </c>
-      <c r="L219" s="2" t="str">
-        <f>"(10,0,"&amp;A219&amp;",7)"</f>
-        <v>(10,0,90001,7)</v>
+      <c r="L219" s="2" t="s">
+        <v>1682</v>
       </c>
       <c r="M219">
         <v>100037</v>
       </c>
-      <c r="N219" s="2" t="str">
-        <f>"(10,0,"&amp;A219&amp;",10)"</f>
-        <v>(10,0,90001,10)</v>
+      <c r="N219" s="2" t="s">
+        <v>1683</v>
       </c>
       <c r="O219">
         <v>987009</v>
@@ -14834,7 +16297,7 @@
         <v>361</v>
       </c>
       <c r="E220" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F220" t="s">
         <v>199</v>
@@ -14848,26 +16311,23 @@
       <c r="I220">
         <v>100109</v>
       </c>
-      <c r="J220" s="2" t="str">
-        <f t="shared" ref="J220:J237" si="12">"(10,0,"&amp;A220&amp;",1)"</f>
-        <v>(10,0,90002,1)</v>
+      <c r="J220" s="2" t="s">
+        <v>1684</v>
       </c>
       <c r="K220">
         <v>0</v>
       </c>
-      <c r="L220" s="2" t="str">
-        <f t="shared" ref="L220:L237" si="13">"(10,0,"&amp;A220&amp;",7)"</f>
-        <v>(10,0,90002,7)</v>
+      <c r="L220" s="2" t="s">
+        <v>1685</v>
       </c>
       <c r="M220">
         <v>0</v>
       </c>
-      <c r="N220" s="2" t="str">
-        <f t="shared" ref="N220:N237" si="14">"(10,0,"&amp;A220&amp;",10)"</f>
-        <v>(10,0,90002,10)</v>
+      <c r="N220" s="2" t="s">
+        <v>1686</v>
       </c>
       <c r="O220">
-        <v>910069</v>
+        <v>987009</v>
       </c>
     </row>
     <row r="221" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -14884,7 +16344,7 @@
         <v>361</v>
       </c>
       <c r="E221" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F221" t="s">
         <v>199</v>
@@ -14898,23 +16358,20 @@
       <c r="I221">
         <v>100035</v>
       </c>
-      <c r="J221" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90003,1)</v>
+      <c r="J221" s="2" t="s">
+        <v>1687</v>
       </c>
       <c r="K221">
         <v>100016</v>
       </c>
-      <c r="L221" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90003,7)</v>
+      <c r="L221" s="2" t="s">
+        <v>1688</v>
       </c>
       <c r="M221">
         <v>100065</v>
       </c>
-      <c r="N221" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90003,10)</v>
+      <c r="N221" s="2" t="s">
+        <v>1689</v>
       </c>
       <c r="O221">
         <v>987024</v>
@@ -14934,7 +16391,7 @@
         <v>373</v>
       </c>
       <c r="E222" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F222" t="s">
         <v>315</v>
@@ -14948,23 +16405,20 @@
       <c r="I222">
         <v>100029</v>
       </c>
-      <c r="J222" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90004,1)</v>
+      <c r="J222" s="2" t="s">
+        <v>1690</v>
       </c>
       <c r="K222">
         <v>100044</v>
       </c>
-      <c r="L222" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90004,7)</v>
+      <c r="L222" s="2" t="s">
+        <v>1691</v>
       </c>
       <c r="M222">
         <v>100030</v>
       </c>
-      <c r="N222" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90004,10)</v>
+      <c r="N222" s="2" t="s">
+        <v>1692</v>
       </c>
       <c r="O222">
         <v>987009</v>
@@ -14984,7 +16438,7 @@
         <v>361</v>
       </c>
       <c r="E223" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F223" t="s">
         <v>199</v>
@@ -14998,23 +16452,20 @@
       <c r="I223">
         <v>987189</v>
       </c>
-      <c r="J223" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90005,1)</v>
+      <c r="J223" s="2" t="s">
+        <v>1693</v>
       </c>
       <c r="K223">
         <v>0</v>
       </c>
-      <c r="L223" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90005,7)</v>
+      <c r="L223" s="2" t="s">
+        <v>1694</v>
       </c>
       <c r="M223">
         <v>0</v>
       </c>
-      <c r="N223" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90005,10)</v>
+      <c r="N223" s="2" t="s">
+        <v>1695</v>
       </c>
       <c r="O223">
         <v>910167</v>
@@ -15034,7 +16485,7 @@
         <v>361</v>
       </c>
       <c r="E224" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F224" t="s">
         <v>199</v>
@@ -15048,23 +16499,20 @@
       <c r="I224">
         <v>100112</v>
       </c>
-      <c r="J224" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90006,1)</v>
+      <c r="J224" s="2" t="s">
+        <v>1696</v>
       </c>
       <c r="K224">
         <v>0</v>
       </c>
-      <c r="L224" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90006,7)</v>
+      <c r="L224" s="2" t="s">
+        <v>1697</v>
       </c>
       <c r="M224">
         <v>0</v>
       </c>
-      <c r="N224" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90006,10)</v>
+      <c r="N224" s="2" t="s">
+        <v>1698</v>
       </c>
       <c r="O224">
         <v>987009</v>
@@ -15084,7 +16532,7 @@
         <v>361</v>
       </c>
       <c r="E225" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F225" t="s">
         <v>199</v>
@@ -15098,26 +16546,23 @@
       <c r="I225">
         <v>100107</v>
       </c>
-      <c r="J225" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90007,1)</v>
+      <c r="J225" s="2" t="s">
+        <v>1699</v>
       </c>
       <c r="K225">
         <v>0</v>
       </c>
-      <c r="L225" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90007,7)</v>
+      <c r="L225" s="2" t="s">
+        <v>1700</v>
       </c>
       <c r="M225">
         <v>0</v>
       </c>
-      <c r="N225" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90007,10)</v>
+      <c r="N225" s="2" t="s">
+        <v>1701</v>
       </c>
       <c r="O225">
-        <v>910069</v>
+        <v>987009</v>
       </c>
     </row>
     <row r="226" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -15134,7 +16579,7 @@
         <v>361</v>
       </c>
       <c r="E226" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F226" t="s">
         <v>199</v>
@@ -15148,26 +16593,23 @@
       <c r="I226">
         <v>100108</v>
       </c>
-      <c r="J226" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90008,1)</v>
+      <c r="J226" s="2" t="s">
+        <v>1702</v>
       </c>
       <c r="K226">
         <v>0</v>
       </c>
-      <c r="L226" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90008,7)</v>
+      <c r="L226" s="2" t="s">
+        <v>1703</v>
       </c>
       <c r="M226">
         <v>0</v>
       </c>
-      <c r="N226" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90008,10)</v>
+      <c r="N226" s="2" t="s">
+        <v>1704</v>
       </c>
       <c r="O226">
-        <v>910069</v>
+        <v>987009</v>
       </c>
     </row>
     <row r="227" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -15184,7 +16626,7 @@
         <v>361</v>
       </c>
       <c r="E227" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F227" t="s">
         <v>199</v>
@@ -15198,26 +16640,23 @@
       <c r="I227">
         <v>100106</v>
       </c>
-      <c r="J227" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90009,1)</v>
+      <c r="J227" s="2" t="s">
+        <v>1705</v>
       </c>
       <c r="K227">
         <v>0</v>
       </c>
-      <c r="L227" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90009,7)</v>
+      <c r="L227" s="2" t="s">
+        <v>1706</v>
       </c>
       <c r="M227">
         <v>0</v>
       </c>
-      <c r="N227" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90009,10)</v>
+      <c r="N227" s="2" t="s">
+        <v>1707</v>
       </c>
       <c r="O227">
-        <v>910069</v>
+        <v>987009</v>
       </c>
     </row>
     <row r="228" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -15234,7 +16673,7 @@
         <v>361</v>
       </c>
       <c r="E228" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F228" t="s">
         <v>199</v>
@@ -15248,23 +16687,20 @@
       <c r="I228">
         <v>100037</v>
       </c>
-      <c r="J228" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90010,1)</v>
+      <c r="J228" s="2" t="s">
+        <v>1708</v>
       </c>
       <c r="K228">
         <v>100051</v>
       </c>
-      <c r="L228" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90010,7)</v>
+      <c r="L228" s="2" t="s">
+        <v>1709</v>
       </c>
       <c r="M228">
         <v>100023</v>
       </c>
-      <c r="N228" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90010,10)</v>
+      <c r="N228" s="2" t="s">
+        <v>1710</v>
       </c>
       <c r="O228">
         <v>987009</v>
@@ -15284,7 +16720,7 @@
         <v>361</v>
       </c>
       <c r="E229" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F229" t="s">
         <v>199</v>
@@ -15298,26 +16734,23 @@
       <c r="I229">
         <v>100101</v>
       </c>
-      <c r="J229" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90011,1)</v>
+      <c r="J229" s="2" t="s">
+        <v>1711</v>
       </c>
       <c r="K229">
         <v>0</v>
       </c>
-      <c r="L229" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90011,7)</v>
+      <c r="L229" s="2" t="s">
+        <v>1712</v>
       </c>
       <c r="M229">
         <v>0</v>
       </c>
-      <c r="N229" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90011,10)</v>
+      <c r="N229" s="2" t="s">
+        <v>1713</v>
       </c>
       <c r="O229">
-        <v>910069</v>
+        <v>987009</v>
       </c>
     </row>
     <row r="230" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -15334,7 +16767,7 @@
         <v>361</v>
       </c>
       <c r="E230" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F230" t="s">
         <v>199</v>
@@ -15348,23 +16781,20 @@
       <c r="I230">
         <v>900054</v>
       </c>
-      <c r="J230" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90012,1)</v>
+      <c r="J230" s="2" t="s">
+        <v>1714</v>
       </c>
       <c r="K230">
         <v>0</v>
       </c>
-      <c r="L230" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90012,7)</v>
+      <c r="L230" s="2" t="s">
+        <v>1715</v>
       </c>
       <c r="M230">
         <v>0</v>
       </c>
-      <c r="N230" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90012,10)</v>
+      <c r="N230" s="2" t="s">
+        <v>1716</v>
       </c>
       <c r="O230">
         <v>987009</v>
@@ -15384,7 +16814,7 @@
         <v>361</v>
       </c>
       <c r="E231" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F231" t="s">
         <v>199</v>
@@ -15398,23 +16828,20 @@
       <c r="I231">
         <v>900055</v>
       </c>
-      <c r="J231" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90013,1)</v>
+      <c r="J231" s="2" t="s">
+        <v>1717</v>
       </c>
       <c r="K231">
         <v>0</v>
       </c>
-      <c r="L231" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90013,7)</v>
+      <c r="L231" s="2" t="s">
+        <v>1718</v>
       </c>
       <c r="M231">
         <v>0</v>
       </c>
-      <c r="N231" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90013,10)</v>
+      <c r="N231" s="2" t="s">
+        <v>1719</v>
       </c>
       <c r="O231">
         <v>987009</v>
@@ -15434,7 +16861,7 @@
         <v>361</v>
       </c>
       <c r="E232" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F232" t="s">
         <v>199</v>
@@ -15448,23 +16875,20 @@
       <c r="I232">
         <v>100029</v>
       </c>
-      <c r="J232" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90014,1)</v>
+      <c r="J232" s="2" t="s">
+        <v>1720</v>
       </c>
       <c r="K232">
         <v>100033</v>
       </c>
-      <c r="L232" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90014,7)</v>
+      <c r="L232" s="2" t="s">
+        <v>1721</v>
       </c>
       <c r="M232">
         <v>0</v>
       </c>
-      <c r="N232" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90014,10)</v>
+      <c r="N232" s="2" t="s">
+        <v>1722</v>
       </c>
       <c r="O232">
         <v>987009</v>
@@ -15484,7 +16908,7 @@
         <v>439</v>
       </c>
       <c r="E233" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F233" t="s">
         <v>423</v>
@@ -15498,26 +16922,23 @@
       <c r="I233">
         <v>100072</v>
       </c>
-      <c r="J233" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90015,1)</v>
+      <c r="J233" s="2" t="s">
+        <v>1723</v>
       </c>
       <c r="K233">
         <v>100062</v>
       </c>
-      <c r="L233" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90015,7)</v>
+      <c r="L233" s="2" t="s">
+        <v>1724</v>
       </c>
       <c r="M233">
         <v>0</v>
       </c>
-      <c r="N233" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90015,10)</v>
+      <c r="N233" s="2" t="s">
+        <v>1725</v>
       </c>
       <c r="O233">
-        <v>987024</v>
+        <v>987009</v>
       </c>
     </row>
     <row r="234" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -15534,7 +16955,7 @@
         <v>361</v>
       </c>
       <c r="E234" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F234" t="s">
         <v>199</v>
@@ -15548,26 +16969,23 @@
       <c r="I234">
         <v>100019</v>
       </c>
-      <c r="J234" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90016,1)</v>
+      <c r="J234" s="2" t="s">
+        <v>1726</v>
       </c>
       <c r="K234">
         <v>100017</v>
       </c>
-      <c r="L234" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90016,7)</v>
+      <c r="L234" s="2" t="s">
+        <v>1727</v>
       </c>
       <c r="M234">
         <v>100077</v>
       </c>
-      <c r="N234" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90016,10)</v>
+      <c r="N234" s="2" t="s">
+        <v>1728</v>
       </c>
       <c r="O234">
-        <v>987024</v>
+        <v>987009</v>
       </c>
     </row>
     <row r="235" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -15584,7 +17002,7 @@
         <v>361</v>
       </c>
       <c r="E235" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F235" t="s">
         <v>199</v>
@@ -15598,23 +17016,20 @@
       <c r="I235">
         <v>987167</v>
       </c>
-      <c r="J235" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90017,1)</v>
+      <c r="J235" s="2" t="s">
+        <v>1729</v>
       </c>
       <c r="K235">
         <v>100017</v>
       </c>
-      <c r="L235" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90017,7)</v>
+      <c r="L235" s="2" t="s">
+        <v>1730</v>
       </c>
       <c r="M235">
         <v>0</v>
       </c>
-      <c r="N235" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90017,10)</v>
+      <c r="N235" s="2" t="s">
+        <v>1731</v>
       </c>
       <c r="O235">
         <v>987009</v>
@@ -15634,7 +17049,7 @@
         <v>361</v>
       </c>
       <c r="E236" t="s">
-        <v>1025</v>
+        <v>1680</v>
       </c>
       <c r="F236" t="s">
         <v>199</v>
@@ -15648,23 +17063,20 @@
       <c r="I236">
         <v>987115</v>
       </c>
-      <c r="J236" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90018,1)</v>
+      <c r="J236" s="2" t="s">
+        <v>1732</v>
       </c>
       <c r="K236">
         <v>0</v>
       </c>
-      <c r="L236" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90018,7)</v>
+      <c r="L236" s="2" t="s">
+        <v>1733</v>
       </c>
       <c r="M236">
         <v>0</v>
       </c>
-      <c r="N236" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90018,10)</v>
+      <c r="N236" s="2" t="s">
+        <v>1734</v>
       </c>
       <c r="O236">
         <v>987009</v>
@@ -15698,23 +17110,20 @@
       <c r="I237">
         <v>987125</v>
       </c>
-      <c r="J237" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>(10,0,90019,1)</v>
+      <c r="J237" s="2" t="s">
+        <v>1735</v>
       </c>
       <c r="K237">
         <v>0</v>
       </c>
-      <c r="L237" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>(10,0,90019,7)</v>
+      <c r="L237" s="2" t="s">
+        <v>1736</v>
       </c>
       <c r="M237">
         <v>0</v>
       </c>
-      <c r="N237" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>(10,0,90019,10)</v>
+      <c r="N237" s="2" t="s">
+        <v>1737</v>
       </c>
       <c r="O237">
         <v>987009</v>
@@ -15725,19 +17134,19 @@
         <v>99001</v>
       </c>
       <c r="B238" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C238" t="s">
         <v>1026</v>
-      </c>
-      <c r="C238" t="s">
-        <v>1027</v>
       </c>
       <c r="D238" t="s">
         <v>361</v>
       </c>
       <c r="E238" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F238" t="s">
         <v>1028</v>
-      </c>
-      <c r="F238" t="s">
-        <v>1029</v>
       </c>
       <c r="G238">
         <v>5</v>
@@ -15749,19 +17158,19 @@
         <v>890001</v>
       </c>
       <c r="J238" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="K238">
         <v>890004</v>
       </c>
       <c r="L238" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="M238">
         <v>890005</v>
       </c>
       <c r="N238" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="O238">
         <v>910069</v>

--- a/Excel文件/xiakeqian/心法.xlsx
+++ b/Excel文件/xiakeqian/心法.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57C6E71-3F62-46C2-969D-424466036B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F96070-9FC6-4F02-AF2D-A34F49D82EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="1738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="1748">
   <si>
     <t>#功体编号</t>
   </si>
@@ -5538,6 +5538,36 @@
   </si>
   <si>
     <t>(10,0,90019,10)</t>
+  </si>
+  <si>
+    <t>龙虎般若功</t>
+  </si>
+  <si>
+    <t>气血+100，内力+200 &lt;br&gt;满重增益：反击+5%</t>
+  </si>
+  <si>
+    <t>(10,0,90021,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90021,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90021,10)</t>
+  </si>
+  <si>
+    <t>疾风功</t>
+  </si>
+  <si>
+    <t>气血+100，内力+200 &lt;br&gt;满重增益：暴击+5%</t>
+  </si>
+  <si>
+    <t>(10,0,90020,1)</t>
+  </si>
+  <si>
+    <t>(10,0,90020,7)</t>
+  </si>
+  <si>
+    <t>(10,0,90020,10)</t>
   </si>
 </sst>
 </file>
@@ -5974,11 +6004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O238"/>
+  <dimension ref="A1:O240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P229" sqref="P229"/>
+      <pane ySplit="2" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F244" sqref="F244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17131,22 +17161,19 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A238">
-        <v>99001</v>
+        <v>90020</v>
       </c>
       <c r="B238" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C238" t="s">
-        <v>1026</v>
+        <v>1743</v>
       </c>
       <c r="D238" t="s">
-        <v>361</v>
+        <v>1744</v>
       </c>
       <c r="E238" t="s">
-        <v>1027</v>
+        <v>451</v>
       </c>
       <c r="F238" t="s">
-        <v>1028</v>
+        <v>199</v>
       </c>
       <c r="G238">
         <v>5</v>
@@ -17155,24 +17182,115 @@
         <v>81</v>
       </c>
       <c r="I238">
+        <v>987200</v>
+      </c>
+      <c r="J238" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K238">
+        <v>987201</v>
+      </c>
+      <c r="L238" t="s">
+        <v>1746</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238" t="s">
+        <v>1747</v>
+      </c>
+      <c r="O238">
+        <v>987024</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A239">
+        <v>90021</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E239" t="s">
+        <v>451</v>
+      </c>
+      <c r="F239" t="s">
+        <v>413</v>
+      </c>
+      <c r="G239">
+        <v>5</v>
+      </c>
+      <c r="H239" t="s">
+        <v>81</v>
+      </c>
+      <c r="I239">
+        <v>987202</v>
+      </c>
+      <c r="J239" t="s">
+        <v>1740</v>
+      </c>
+      <c r="K239">
+        <v>987203</v>
+      </c>
+      <c r="L239" t="s">
+        <v>1741</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O239">
+        <v>987024</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A240">
+        <v>99001</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D240" t="s">
+        <v>361</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G240">
+        <v>5</v>
+      </c>
+      <c r="H240" t="s">
+        <v>81</v>
+      </c>
+      <c r="I240">
         <v>890001</v>
       </c>
-      <c r="J238" t="s">
+      <c r="J240" t="s">
         <v>1029</v>
       </c>
-      <c r="K238">
+      <c r="K240">
         <v>890004</v>
       </c>
-      <c r="L238" t="s">
+      <c r="L240" t="s">
         <v>1030</v>
       </c>
-      <c r="M238">
+      <c r="M240">
         <v>890005</v>
       </c>
-      <c r="N238" t="s">
+      <c r="N240" t="s">
         <v>1031</v>
       </c>
-      <c r="O238">
+      <c r="O240">
         <v>910069</v>
       </c>
     </row>

--- a/Excel文件/xiakeqian/心法.xlsx
+++ b/Excel文件/xiakeqian/心法.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F96070-9FC6-4F02-AF2D-A34F49D82EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB3E4D3-588E-4F26-941F-9069E7213ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="1748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="1035">
   <si>
     <t>#功体编号</t>
   </si>
@@ -3413,2161 +3413,23 @@
     <t>(53,10)</t>
   </si>
   <si>
-    <t>(10,0,99001,1)</t>
-  </si>
-  <si>
-    <t>(10,0,99001,7)</t>
-  </si>
-  <si>
-    <t>(10,0,99001,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60001,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60001,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60001,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60002,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60002,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60002,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60003,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60003,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60003,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60004,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60004,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60004,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60005,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60005,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60005,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60006,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60006,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60006,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60007,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60007,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60007,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60008,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60008,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60008,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60009,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60009,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60009,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60010,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60010,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60010,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60011,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60011,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60011,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60012,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60012,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60012,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60013,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60013,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60013,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60014,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60014,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60014,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60015,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60015,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60015,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60016,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60016,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60016,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60017,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60017,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60017,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60018,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60018,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60018,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60019,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60019,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60019,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60020,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60020,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60020,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60021,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60021,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60021,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60022,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60022,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60022,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60023,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60023,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60023,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60024,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60024,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60024,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60025,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60025,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60025,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60026,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60026,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60026,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60027,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60027,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60027,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60028,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60028,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60028,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60029,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60029,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60029,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60030,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60030,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60030,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60031,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60031,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60031,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60032,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60032,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60032,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60033,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60033,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60033,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60034,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60034,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60034,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60035,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60035,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60035,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60036,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60036,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60036,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60037,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60037,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60037,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60038,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60038,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60038,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60039,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60039,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60039,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60040,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60040,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60040,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60041,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60041,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60041,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60042,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60042,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60042,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60043,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60043,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60043,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60044,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60044,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60044,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60045,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60045,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60045,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60046,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60046,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60046,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60047,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60047,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60047,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60048,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60048,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60048,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60049,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60049,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60049,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60050,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60050,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60050,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60051,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60051,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60051,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60052,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60052,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60052,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60053,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60053,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60053,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60054,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60054,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60054,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60055,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60055,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60055,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60056,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60056,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60056,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60057,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60057,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60057,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60058,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60058,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60058,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60059,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60059,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60059,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60060,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60060,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60060,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60061,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60061,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60061,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60062,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60062,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60062,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60063,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60063,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60063,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60064,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60064,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60064,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60065,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60065,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60065,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60066,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60066,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60066,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60067,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60067,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60067,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60068,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60068,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60068,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60069,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60069,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60069,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60070,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60070,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60070,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60071,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60071,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60071,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60072,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60072,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60072,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60073,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60073,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60073,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60074,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60074,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60074,10)</t>
-  </si>
-  <si>
-    <t>(10,0,60075,1)</t>
-  </si>
-  <si>
-    <t>(10,0,60075,7)</t>
-  </si>
-  <si>
-    <t>(10,0,60075,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70001,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70001,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70001,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70002,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70002,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70002,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70003,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70003,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70003,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70004,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70004,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70004,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70005,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70005,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70005,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70006,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70006,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70006,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70007,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70007,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70007,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70008,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70008,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70008,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70009,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70009,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70009,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70010,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70010,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70010,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70011,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70011,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70011,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70012,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70012,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70012,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70013,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70013,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70013,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70014,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70014,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70014,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70015,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70015,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70015,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70016,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70016,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70016,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70017,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70017,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70017,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70018,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70018,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70018,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70019,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70019,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70019,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70020,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70020,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70020,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70021,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70021,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70021,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70022,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70022,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70022,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70023,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70023,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70023,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70024,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70024,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70024,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70025,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70025,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70025,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70026,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70026,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70026,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70027,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70027,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70027,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70028,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70028,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70028,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70029,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70029,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70029,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70030,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70030,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70030,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70031,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70031,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70031,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70032,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70032,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70032,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70033,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70033,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70033,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70034,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70034,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70034,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70035,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70035,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70035,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70036,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70036,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70036,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70037,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70037,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70037,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70038,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70038,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70038,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70039,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70039,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70039,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70040,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70040,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70040,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70041,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70041,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70041,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70042,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70042,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70042,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70043,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70043,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70043,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70044,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70044,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70044,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70045,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70045,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70045,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70046,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70046,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70046,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70047,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70047,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70047,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70048,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70048,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70048,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70049,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70049,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70049,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70050,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70050,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70050,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70051,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70051,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70051,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70052,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70052,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70052,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70053,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70053,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70053,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70054,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70054,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70054,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70055,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70055,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70055,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70056,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70056,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70056,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70057,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70057,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70057,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70058,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70058,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70058,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70059,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70059,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70059,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70060,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70060,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70060,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70061,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70061,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70061,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70062,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70062,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70062,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70063,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70063,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70063,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70064,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70064,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70064,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70065,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70065,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70065,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70066,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70066,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70066,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70067,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70067,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70067,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70068,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70068,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70068,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70069,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70069,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70069,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70070,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70070,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70070,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70071,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70071,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70071,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70072,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70072,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70072,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70073,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70073,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70073,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70074,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70074,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70074,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70075,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70075,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70075,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70076,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70076,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70076,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70077,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70077,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70077,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70078,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70078,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70078,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70079,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70079,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70079,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70080,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70080,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70080,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70081,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70081,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70081,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70082,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70082,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70082,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70083,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70083,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70083,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70084,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70084,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70084,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70085,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70085,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70085,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70086,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70086,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70086,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70087,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70087,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70087,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70088,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70088,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70088,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70089,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70089,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70089,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70090,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70090,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70090,10)</t>
-  </si>
-  <si>
-    <t>(10,0,70091,1)</t>
-  </si>
-  <si>
-    <t>(10,0,70091,7)</t>
-  </si>
-  <si>
-    <t>(10,0,70091,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87001,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87001,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87001,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87002,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87002,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87002,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87003,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87003,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87003,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87004,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87004,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87004,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87005,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87005,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87005,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87006,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87006,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87006,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87007,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87007,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87007,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87008,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87008,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87008,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87009,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87009,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87009,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87010,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87010,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87010,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87011,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87011,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87011,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87012,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87012,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87012,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87013,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87013,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87013,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87014,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87014,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87014,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87015,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87015,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87015,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87016,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87016,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87016,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87017,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87017,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87017,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87018,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87018,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87018,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87019,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87019,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87019,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87020,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87020,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87020,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87021,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87021,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87021,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87022,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87022,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87022,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87023,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87023,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87023,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87024,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87024,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87024,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87025,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87025,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87025,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87026,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87026,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87026,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87027,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87027,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87027,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87028,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87028,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87028,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87029,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87029,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87029,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87030,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87030,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87030,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87031,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87031,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87031,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87032,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87032,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87032,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87033,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87033,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87033,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87034,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87034,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87034,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87035,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87035,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87035,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87036,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87036,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87036,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87037,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87037,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87037,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87038,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87038,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87038,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87039,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87039,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87039,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87040,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87040,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87040,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87041,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87041,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87041,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87042,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87042,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87042,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87043,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87043,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87043,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87044,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87044,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87044,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87045,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87045,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87045,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87046,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87046,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87046,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87047,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87047,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87047,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87048,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87048,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87048,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87049,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87049,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87049,10)</t>
-  </si>
-  <si>
-    <t>(10,0,87050,1)</t>
-  </si>
-  <si>
-    <t>(10,0,87050,7)</t>
-  </si>
-  <si>
-    <t>(10,0,87050,10)</t>
-  </si>
-  <si>
     <t>(1,80)*(3,80)</t>
   </si>
   <si>
-    <t>(10,0,90001,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90001,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90001,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90002,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90002,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90002,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90003,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90003,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90003,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90004,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90004,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90004,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90005,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90005,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90005,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90006,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90006,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90006,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90007,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90007,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90007,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90008,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90008,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90008,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90009,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90009,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90009,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90010,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90010,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90010,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90011,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90011,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90011,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90012,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90012,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90012,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90013,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90013,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90013,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90014,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90014,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90014,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90015,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90015,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90015,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90016,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90016,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90016,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90017,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90017,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90017,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90018,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90018,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90018,10)</t>
-  </si>
-  <si>
-    <t>(10,0,90019,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90019,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90019,10)</t>
-  </si>
-  <si>
     <t>龙虎般若功</t>
   </si>
   <si>
     <t>气血+100，内力+200 &lt;br&gt;满重增益：反击+5%</t>
   </si>
   <si>
-    <t>(10,0,90021,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90021,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90021,10)</t>
-  </si>
-  <si>
     <t>疾风功</t>
   </si>
   <si>
     <t>气血+100，内力+200 &lt;br&gt;满重增益：暴击+5%</t>
   </si>
   <si>
-    <t>(10,0,90020,1)</t>
-  </si>
-  <si>
-    <t>(10,0,90020,7)</t>
-  </si>
-  <si>
-    <t>(10,0,90020,10)</t>
+    <t>青龙心法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6004,11 +3866,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O240"/>
+  <dimension ref="A1:O241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F244" sqref="F244"/>
+      <pane ySplit="2" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L240" sqref="L240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6016,6 +3878,7 @@
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
     <col min="12" max="12" width="26.375" customWidth="1"/>
     <col min="14" max="14" width="15.625" customWidth="1"/>
   </cols>
@@ -6142,20 +4005,23 @@
       <c r="I3">
         <v>100015</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>1032</v>
+      <c r="J3" s="2" t="str">
+        <f>"(10,0,"&amp;A3&amp;",1)"</f>
+        <v>(10,0,60001,1)</v>
       </c>
       <c r="K3">
         <v>100014</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>1033</v>
+      <c r="L3" s="2" t="str">
+        <f>"(10,0,"&amp;A3&amp;",7)"</f>
+        <v>(10,0,60001,7)</v>
       </c>
       <c r="M3">
         <v>100016</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>1034</v>
+      <c r="N3" s="2" t="str">
+        <f>"(10,0,"&amp;A3&amp;",10)"</f>
+        <v>(10,0,60001,10)</v>
       </c>
       <c r="O3">
         <v>987024</v>
@@ -6189,20 +4055,23 @@
       <c r="I4">
         <v>100042</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>1035</v>
+      <c r="J4" s="2" t="str">
+        <f t="shared" ref="J4:J67" si="0">"(10,0,"&amp;A4&amp;",1)"</f>
+        <v>(10,0,60002,1)</v>
       </c>
       <c r="K4">
         <v>100021</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>1036</v>
+      <c r="L4" s="2" t="str">
+        <f t="shared" ref="L4:L67" si="1">"(10,0,"&amp;A4&amp;",7)"</f>
+        <v>(10,0,60002,7)</v>
       </c>
       <c r="M4">
         <v>100051</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>1037</v>
+      <c r="N4" s="2" t="str">
+        <f t="shared" ref="N4:N67" si="2">"(10,0,"&amp;A4&amp;",10)"</f>
+        <v>(10,0,60002,10)</v>
       </c>
       <c r="O4">
         <v>987009</v>
@@ -6236,20 +4105,23 @@
       <c r="I5">
         <v>100011</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>1038</v>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60003,1)</v>
       </c>
       <c r="K5">
         <v>100012</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>1039</v>
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60003,7)</v>
       </c>
       <c r="M5">
         <v>100013</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>1040</v>
+      <c r="N5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60003,10)</v>
       </c>
       <c r="O5">
         <v>987024</v>
@@ -6283,20 +4155,23 @@
       <c r="I6">
         <v>100029</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>1041</v>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60004,1)</v>
       </c>
       <c r="K6">
         <v>100053</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>1042</v>
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60004,7)</v>
       </c>
       <c r="M6">
         <v>100054</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>1043</v>
+      <c r="N6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60004,10)</v>
       </c>
       <c r="O6">
         <v>987009</v>
@@ -6330,20 +4205,23 @@
       <c r="I7">
         <v>100075</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>1044</v>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60005,1)</v>
       </c>
       <c r="K7">
         <v>100076</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>1045</v>
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60005,7)</v>
       </c>
       <c r="M7">
         <v>500023</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>1046</v>
+      <c r="N7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60005,10)</v>
       </c>
       <c r="O7">
         <v>987009</v>
@@ -6377,20 +4255,23 @@
       <c r="I8">
         <v>100017</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>1047</v>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60006,1)</v>
       </c>
       <c r="K8">
         <v>100024</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>1048</v>
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60006,7)</v>
       </c>
       <c r="M8">
         <v>100070</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>1049</v>
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60006,10)</v>
       </c>
       <c r="O8">
         <v>987009</v>
@@ -6424,20 +4305,23 @@
       <c r="I9">
         <v>100016</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>1050</v>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60007,1)</v>
       </c>
       <c r="K9">
         <v>100017</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>1051</v>
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60007,7)</v>
       </c>
       <c r="M9">
         <v>100039</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>1052</v>
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60007,10)</v>
       </c>
       <c r="O9">
         <v>987009</v>
@@ -6471,20 +4355,23 @@
       <c r="I10">
         <v>100077</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>1053</v>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60008,1)</v>
       </c>
       <c r="K10">
         <v>100073</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>1054</v>
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60008,7)</v>
       </c>
       <c r="M10">
         <v>100070</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>1055</v>
+      <c r="N10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60008,10)</v>
       </c>
       <c r="O10">
         <v>987024</v>
@@ -6518,20 +4405,23 @@
       <c r="I11">
         <v>100077</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>1056</v>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60009,1)</v>
       </c>
       <c r="K11">
         <v>100045</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>1057</v>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60009,7)</v>
       </c>
       <c r="M11">
         <v>100147</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>1058</v>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60009,10)</v>
       </c>
       <c r="O11">
         <v>987009</v>
@@ -6565,20 +4455,23 @@
       <c r="I12">
         <v>100067</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>1059</v>
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60010,1)</v>
       </c>
       <c r="K12">
         <v>100026</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>1060</v>
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60010,7)</v>
       </c>
       <c r="M12">
         <v>100064</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>1061</v>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60010,10)</v>
       </c>
       <c r="O12">
         <v>987009</v>
@@ -6612,20 +4505,23 @@
       <c r="I13">
         <v>100060</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>1062</v>
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60011,1)</v>
       </c>
       <c r="K13">
         <v>100069</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>1063</v>
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60011,7)</v>
       </c>
       <c r="M13">
         <v>100034</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>1064</v>
+      <c r="N13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60011,10)</v>
       </c>
       <c r="O13">
         <v>987009</v>
@@ -6659,20 +4555,23 @@
       <c r="I14">
         <v>100017</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>1065</v>
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60012,1)</v>
       </c>
       <c r="K14">
         <v>100041</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>1066</v>
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60012,7)</v>
       </c>
       <c r="M14">
         <v>100034</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>1067</v>
+      <c r="N14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60012,10)</v>
       </c>
       <c r="O14">
         <v>987009</v>
@@ -6706,20 +4605,23 @@
       <c r="I15">
         <v>100062</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>1068</v>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60013,1)</v>
       </c>
       <c r="K15">
         <v>100061</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>1069</v>
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60013,7)</v>
       </c>
       <c r="M15">
         <v>100064</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>1070</v>
+      <c r="N15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60013,10)</v>
       </c>
       <c r="O15">
         <v>987009</v>
@@ -6753,20 +4655,23 @@
       <c r="I16">
         <v>100048</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>1071</v>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60014,1)</v>
       </c>
       <c r="K16">
         <v>100141</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>1072</v>
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60014,7)</v>
       </c>
       <c r="M16">
         <v>100142</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>1073</v>
+      <c r="N16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60014,10)</v>
       </c>
       <c r="O16">
         <v>987009</v>
@@ -6800,20 +4705,23 @@
       <c r="I17">
         <v>100025</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>1074</v>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60015,1)</v>
       </c>
       <c r="K17">
         <v>100070</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>1075</v>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60015,7)</v>
       </c>
       <c r="M17">
         <v>100039</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>1076</v>
+      <c r="N17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60015,10)</v>
       </c>
       <c r="O17">
         <v>987009</v>
@@ -6847,20 +4755,23 @@
       <c r="I18">
         <v>100025</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>1077</v>
+      <c r="J18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60016,1)</v>
       </c>
       <c r="K18">
         <v>500016</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>1078</v>
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60016,7)</v>
       </c>
       <c r="M18">
         <v>100013</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>1079</v>
+      <c r="N18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60016,10)</v>
       </c>
       <c r="O18">
         <v>987009</v>
@@ -6894,20 +4805,23 @@
       <c r="I19">
         <v>100029</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>1080</v>
+      <c r="J19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60017,1)</v>
       </c>
       <c r="K19">
         <v>100028</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>1081</v>
+      <c r="L19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60017,7)</v>
       </c>
       <c r="M19">
         <v>100039</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>1082</v>
+      <c r="N19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60017,10)</v>
       </c>
       <c r="O19">
         <v>987009</v>
@@ -6941,20 +4855,23 @@
       <c r="I20">
         <v>100066</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>1083</v>
+      <c r="J20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60018,1)</v>
       </c>
       <c r="K20">
         <v>100048</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>1084</v>
+      <c r="L20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60018,7)</v>
       </c>
       <c r="M20">
         <v>100016</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>1085</v>
+      <c r="N20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60018,10)</v>
       </c>
       <c r="O20">
         <v>987009</v>
@@ -6988,20 +4905,23 @@
       <c r="I21">
         <v>100050</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>1086</v>
+      <c r="J21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60019,1)</v>
       </c>
       <c r="K21">
         <v>100077</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>1087</v>
+      <c r="L21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60019,7)</v>
       </c>
       <c r="M21">
         <v>100039</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>1088</v>
+      <c r="N21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60019,10)</v>
       </c>
       <c r="O21">
         <v>987009</v>
@@ -7035,20 +4955,23 @@
       <c r="I22">
         <v>100049</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>1089</v>
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60020,1)</v>
       </c>
       <c r="K22">
         <v>100018</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>1090</v>
+      <c r="L22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60020,7)</v>
       </c>
       <c r="M22">
         <v>100030</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>1091</v>
+      <c r="N22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60020,10)</v>
       </c>
       <c r="O22">
         <v>987009</v>
@@ -7082,20 +5005,23 @@
       <c r="I23">
         <v>100059</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>1092</v>
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60021,1)</v>
       </c>
       <c r="K23">
         <v>100029</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>1093</v>
+      <c r="L23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60021,7)</v>
       </c>
       <c r="M23">
         <v>100013</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>1094</v>
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60021,10)</v>
       </c>
       <c r="O23">
         <v>987009</v>
@@ -7129,20 +5055,23 @@
       <c r="I24">
         <v>100065</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>1095</v>
+      <c r="J24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60022,1)</v>
       </c>
       <c r="K24">
         <v>100035</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>1096</v>
+      <c r="L24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60022,7)</v>
       </c>
       <c r="M24">
         <v>100034</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>1097</v>
+      <c r="N24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60022,10)</v>
       </c>
       <c r="O24">
         <v>987009</v>
@@ -7176,20 +5105,23 @@
       <c r="I25">
         <v>100077</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>1098</v>
+      <c r="J25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60023,1)</v>
       </c>
       <c r="K25">
         <v>500018</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>1099</v>
+      <c r="L25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60023,7)</v>
       </c>
       <c r="M25">
         <v>100045</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>1100</v>
+      <c r="N25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60023,10)</v>
       </c>
       <c r="O25">
         <v>987009</v>
@@ -7223,20 +5155,23 @@
       <c r="I26">
         <v>100038</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>1101</v>
+      <c r="J26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60024,1)</v>
       </c>
       <c r="K26">
         <v>100029</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>1102</v>
+      <c r="L26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60024,7)</v>
       </c>
       <c r="M26">
         <v>100053</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>1103</v>
+      <c r="N26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60024,10)</v>
       </c>
       <c r="O26">
         <v>987009</v>
@@ -7270,20 +5205,23 @@
       <c r="I27">
         <v>100062</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>1104</v>
+      <c r="J27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60025,1)</v>
       </c>
       <c r="K27">
         <v>100063</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>1105</v>
+      <c r="L27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60025,7)</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>1106</v>
+      <c r="N27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60025,10)</v>
       </c>
       <c r="O27">
         <v>987009</v>
@@ -7317,20 +5255,23 @@
       <c r="I28">
         <v>100031</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>1107</v>
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60026,1)</v>
       </c>
       <c r="K28">
         <v>100032</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>1108</v>
+      <c r="L28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60026,7)</v>
       </c>
       <c r="M28">
         <v>100052</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>1109</v>
+      <c r="N28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60026,10)</v>
       </c>
       <c r="O28">
         <v>987009</v>
@@ -7364,20 +5305,23 @@
       <c r="I29">
         <v>100067</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>1110</v>
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60027,1)</v>
       </c>
       <c r="K29">
         <v>100058</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>1111</v>
+      <c r="L29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60027,7)</v>
       </c>
       <c r="M29">
         <v>100028</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>1112</v>
+      <c r="N29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60027,10)</v>
       </c>
       <c r="O29">
         <v>987009</v>
@@ -7411,20 +5355,23 @@
       <c r="I30">
         <v>100025</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>1113</v>
+      <c r="J30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60028,1)</v>
       </c>
       <c r="K30">
         <v>100059</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>1114</v>
+      <c r="L30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60028,7)</v>
       </c>
       <c r="M30">
         <v>100147</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>1115</v>
+      <c r="N30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60028,10)</v>
       </c>
       <c r="O30">
         <v>987009</v>
@@ -7458,20 +5405,23 @@
       <c r="I31">
         <v>100019</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>1116</v>
+      <c r="J31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60029,1)</v>
       </c>
       <c r="K31">
         <v>100049</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>1117</v>
+      <c r="L31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60029,7)</v>
       </c>
       <c r="M31">
         <v>100077</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>1118</v>
+      <c r="N31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60029,10)</v>
       </c>
       <c r="O31">
         <v>987009</v>
@@ -7505,20 +5455,23 @@
       <c r="I32">
         <v>100044</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>1119</v>
+      <c r="J32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60030,1)</v>
       </c>
       <c r="K32">
         <v>100064</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>1120</v>
+      <c r="L32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60030,7)</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>1121</v>
+      <c r="N32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60030,10)</v>
       </c>
       <c r="O32">
         <v>987009</v>
@@ -7552,20 +5505,23 @@
       <c r="I33">
         <v>100040</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>1122</v>
+      <c r="J33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60031,1)</v>
       </c>
       <c r="K33">
         <v>100014</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>1123</v>
+      <c r="L33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60031,7)</v>
       </c>
       <c r="M33">
         <v>100039</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>1124</v>
+      <c r="N33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60031,10)</v>
       </c>
       <c r="O33">
         <v>987009</v>
@@ -7599,20 +5555,23 @@
       <c r="I34">
         <v>100130</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>1125</v>
+      <c r="J34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60032,1)</v>
       </c>
       <c r="K34">
         <v>100131</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>1126</v>
+      <c r="L34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60032,7)</v>
       </c>
       <c r="M34">
         <v>100133</v>
       </c>
-      <c r="N34" s="2" t="s">
-        <v>1127</v>
+      <c r="N34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60032,10)</v>
       </c>
       <c r="O34">
         <v>987009</v>
@@ -7646,20 +5605,23 @@
       <c r="I35">
         <v>500015</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>1128</v>
+      <c r="J35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60033,1)</v>
       </c>
       <c r="K35">
         <v>500013</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>1129</v>
+      <c r="L35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60033,7)</v>
       </c>
       <c r="M35">
         <v>500016</v>
       </c>
-      <c r="N35" s="2" t="s">
-        <v>1130</v>
+      <c r="N35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60033,10)</v>
       </c>
       <c r="O35">
         <v>910069</v>
@@ -7693,20 +5655,23 @@
       <c r="I36">
         <v>100011</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>1131</v>
+      <c r="J36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60034,1)</v>
       </c>
       <c r="K36">
         <v>100044</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>1132</v>
+      <c r="L36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60034,7)</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>1133</v>
+      <c r="N36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60034,10)</v>
       </c>
       <c r="O36">
         <v>987009</v>
@@ -7740,20 +5705,23 @@
       <c r="I37">
         <v>100037</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>1134</v>
+      <c r="J37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60035,1)</v>
       </c>
       <c r="K37">
         <v>100041</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>1135</v>
+      <c r="L37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60035,7)</v>
       </c>
       <c r="M37">
         <v>100043</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>1136</v>
+      <c r="N37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60035,10)</v>
       </c>
       <c r="O37">
         <v>987009</v>
@@ -7787,20 +5755,23 @@
       <c r="I38">
         <v>100035</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>1137</v>
+      <c r="J38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60036,1)</v>
       </c>
       <c r="K38">
         <v>100065</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>1138</v>
+      <c r="L38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60036,7)</v>
       </c>
       <c r="M38">
         <v>100016</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>1139</v>
+      <c r="N38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60036,10)</v>
       </c>
       <c r="O38">
         <v>987009</v>
@@ -7834,20 +5805,23 @@
       <c r="I39">
         <v>100130</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>1140</v>
+      <c r="J39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60037,1)</v>
       </c>
       <c r="K39">
         <v>100131</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>1141</v>
+      <c r="L39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60037,7)</v>
       </c>
       <c r="M39">
         <v>100133</v>
       </c>
-      <c r="N39" s="2" t="s">
-        <v>1142</v>
+      <c r="N39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60037,10)</v>
       </c>
       <c r="O39">
         <v>987009</v>
@@ -7881,20 +5855,23 @@
       <c r="I40">
         <v>100101</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>1143</v>
+      <c r="J40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60038,1)</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>1144</v>
+      <c r="L40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60038,7)</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
-      <c r="N40" s="2" t="s">
-        <v>1145</v>
+      <c r="N40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60038,10)</v>
       </c>
       <c r="O40">
         <v>987009</v>
@@ -7928,20 +5905,23 @@
       <c r="I41">
         <v>910198</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>1146</v>
+      <c r="J41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60039,1)</v>
       </c>
       <c r="K41">
         <v>100018</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>1147</v>
+      <c r="L41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60039,7)</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
-      <c r="N41" s="2" t="s">
-        <v>1148</v>
+      <c r="N41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60039,10)</v>
       </c>
       <c r="O41">
         <v>987024</v>
@@ -7975,20 +5955,23 @@
       <c r="I42">
         <v>100036</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>1149</v>
+      <c r="J42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60040,1)</v>
       </c>
       <c r="K42">
         <v>100051</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>1150</v>
+      <c r="L42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60040,7)</v>
       </c>
       <c r="M42">
         <v>100034</v>
       </c>
-      <c r="N42" s="2" t="s">
-        <v>1151</v>
+      <c r="N42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60040,10)</v>
       </c>
       <c r="O42">
         <v>987009</v>
@@ -8022,20 +6005,23 @@
       <c r="I43">
         <v>100075</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>1152</v>
+      <c r="J43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60041,1)</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>1153</v>
+      <c r="L43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60041,7)</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43" s="2" t="s">
-        <v>1154</v>
+      <c r="N43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60041,10)</v>
       </c>
       <c r="O43">
         <v>987024</v>
@@ -8069,20 +6055,23 @@
       <c r="I44">
         <v>100029</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>1155</v>
+      <c r="J44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60042,1)</v>
       </c>
       <c r="K44">
         <v>100064</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>1156</v>
+      <c r="L44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60042,7)</v>
       </c>
       <c r="M44">
         <v>100077</v>
       </c>
-      <c r="N44" s="2" t="s">
-        <v>1157</v>
+      <c r="N44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60042,10)</v>
       </c>
       <c r="O44">
         <v>987009</v>
@@ -8116,20 +6105,23 @@
       <c r="I45">
         <v>100082</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>1158</v>
+      <c r="J45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60043,1)</v>
       </c>
       <c r="K45">
         <v>100019</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>1159</v>
+      <c r="L45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60043,7)</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>1160</v>
+      <c r="N45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60043,10)</v>
       </c>
       <c r="O45">
         <v>987009</v>
@@ -8163,20 +6155,23 @@
       <c r="I46">
         <v>100079</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>1161</v>
+      <c r="J46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60044,1)</v>
       </c>
       <c r="K46">
         <v>100040</v>
       </c>
-      <c r="L46" s="2" t="s">
-        <v>1162</v>
+      <c r="L46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60044,7)</v>
       </c>
       <c r="M46">
         <v>100014</v>
       </c>
-      <c r="N46" s="2" t="s">
-        <v>1163</v>
+      <c r="N46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60044,10)</v>
       </c>
       <c r="O46">
         <v>987009</v>
@@ -8210,20 +6205,23 @@
       <c r="I47">
         <v>100011</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>1164</v>
+      <c r="J47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60045,1)</v>
       </c>
       <c r="K47">
         <v>100034</v>
       </c>
-      <c r="L47" s="2" t="s">
-        <v>1165</v>
+      <c r="L47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60045,7)</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47" s="2" t="s">
-        <v>1166</v>
+      <c r="N47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60045,10)</v>
       </c>
       <c r="O47">
         <v>987009</v>
@@ -8257,20 +6255,23 @@
       <c r="I48">
         <v>100014</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>1167</v>
+      <c r="J48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60046,1)</v>
       </c>
       <c r="K48">
         <v>100033</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>1168</v>
+      <c r="L48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60046,7)</v>
       </c>
       <c r="M48">
         <v>100039</v>
       </c>
-      <c r="N48" s="2" t="s">
-        <v>1169</v>
+      <c r="N48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60046,10)</v>
       </c>
       <c r="O48">
         <v>987009</v>
@@ -8304,20 +6305,23 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>1170</v>
+      <c r="J49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60047,1)</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>1171</v>
+      <c r="L49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60047,7)</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="N49" s="2" t="s">
-        <v>1172</v>
+      <c r="N49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60047,10)</v>
       </c>
       <c r="O49">
         <v>987009</v>
@@ -8351,20 +6355,23 @@
       <c r="I50">
         <v>100073</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>1173</v>
+      <c r="J50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60048,1)</v>
       </c>
       <c r="K50">
         <v>100074</v>
       </c>
-      <c r="L50" s="2" t="s">
-        <v>1174</v>
+      <c r="L50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60048,7)</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>1175</v>
+      <c r="N50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60048,10)</v>
       </c>
       <c r="O50">
         <v>987009</v>
@@ -8398,20 +6405,23 @@
       <c r="I51">
         <v>100070</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>1176</v>
+      <c r="J51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60049,1)</v>
       </c>
       <c r="K51">
         <v>100052</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>1177</v>
+      <c r="L51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60049,7)</v>
       </c>
       <c r="M51">
         <v>100015</v>
       </c>
-      <c r="N51" s="2" t="s">
-        <v>1178</v>
+      <c r="N51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60049,10)</v>
       </c>
       <c r="O51">
         <v>987009</v>
@@ -8445,20 +6455,23 @@
       <c r="I52">
         <v>900009</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>1179</v>
+      <c r="J52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60050,1)</v>
       </c>
       <c r="K52">
         <v>910097</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>1180</v>
+      <c r="L52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60050,7)</v>
       </c>
       <c r="M52">
         <v>100025</v>
       </c>
-      <c r="N52" s="2" t="s">
-        <v>1181</v>
+      <c r="N52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60050,10)</v>
       </c>
       <c r="O52">
         <v>987009</v>
@@ -8492,20 +6505,23 @@
       <c r="I53">
         <v>100130</v>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>1182</v>
+      <c r="J53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60051,1)</v>
       </c>
       <c r="K53">
         <v>100131</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>1183</v>
+      <c r="L53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60051,7)</v>
       </c>
       <c r="M53">
         <v>100133</v>
       </c>
-      <c r="N53" s="2" t="s">
-        <v>1184</v>
+      <c r="N53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60051,10)</v>
       </c>
       <c r="O53">
         <v>987009</v>
@@ -8539,20 +6555,23 @@
       <c r="I54">
         <v>910168</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>1185</v>
+      <c r="J54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60052,1)</v>
       </c>
       <c r="K54">
         <v>910169</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>1186</v>
+      <c r="L54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60052,7)</v>
       </c>
       <c r="M54">
         <v>910170</v>
       </c>
-      <c r="N54" s="2" t="s">
-        <v>1187</v>
+      <c r="N54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60052,10)</v>
       </c>
       <c r="O54">
         <v>987024</v>
@@ -8586,20 +6605,23 @@
       <c r="I55">
         <v>100130</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>1188</v>
+      <c r="J55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60053,1)</v>
       </c>
       <c r="K55">
         <v>100131</v>
       </c>
-      <c r="L55" s="2" t="s">
-        <v>1189</v>
+      <c r="L55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60053,7)</v>
       </c>
       <c r="M55">
         <v>100133</v>
       </c>
-      <c r="N55" s="2" t="s">
-        <v>1190</v>
+      <c r="N55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60053,10)</v>
       </c>
       <c r="O55">
         <v>987024</v>
@@ -8633,20 +6655,23 @@
       <c r="I56">
         <v>100025</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>1191</v>
+      <c r="J56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60054,1)</v>
       </c>
       <c r="K56">
         <v>100024</v>
       </c>
-      <c r="L56" s="2" t="s">
-        <v>1192</v>
+      <c r="L56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60054,7)</v>
       </c>
       <c r="M56">
         <v>100038</v>
       </c>
-      <c r="N56" s="2" t="s">
-        <v>1193</v>
+      <c r="N56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60054,10)</v>
       </c>
       <c r="O56">
         <v>987009</v>
@@ -8680,20 +6705,23 @@
       <c r="I57">
         <v>100077</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>1194</v>
+      <c r="J57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60055,1)</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
-      <c r="L57" s="2" t="s">
-        <v>1195</v>
+      <c r="L57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60055,7)</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
-      <c r="N57" s="2" t="s">
-        <v>1196</v>
+      <c r="N57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60055,10)</v>
       </c>
       <c r="O57">
         <v>987009</v>
@@ -8727,20 +6755,23 @@
       <c r="I58">
         <v>100068</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>1197</v>
+      <c r="J58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60056,1)</v>
       </c>
       <c r="K58">
         <v>100065</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>1198</v>
+      <c r="L58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60056,7)</v>
       </c>
       <c r="M58">
         <v>100015</v>
       </c>
-      <c r="N58" s="2" t="s">
-        <v>1199</v>
+      <c r="N58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60056,10)</v>
       </c>
       <c r="O58">
         <v>987009</v>
@@ -8774,20 +6805,23 @@
       <c r="I59">
         <v>100025</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>1200</v>
+      <c r="J59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60057,1)</v>
       </c>
       <c r="K59">
         <v>100050</v>
       </c>
-      <c r="L59" s="2" t="s">
-        <v>1201</v>
+      <c r="L59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60057,7)</v>
       </c>
       <c r="M59">
         <v>100028</v>
       </c>
-      <c r="N59" s="2" t="s">
-        <v>1202</v>
+      <c r="N59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60057,10)</v>
       </c>
       <c r="O59">
         <v>987009</v>
@@ -8821,20 +6855,23 @@
       <c r="I60">
         <v>100020</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>1203</v>
+      <c r="J60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60058,1)</v>
       </c>
       <c r="K60">
         <v>100047</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>1204</v>
+      <c r="L60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60058,7)</v>
       </c>
       <c r="M60">
         <v>100046</v>
       </c>
-      <c r="N60" s="2" t="s">
-        <v>1205</v>
+      <c r="N60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60058,10)</v>
       </c>
       <c r="O60">
         <v>987009</v>
@@ -8868,20 +6905,23 @@
       <c r="I61">
         <v>100021</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>1206</v>
+      <c r="J61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60059,1)</v>
       </c>
       <c r="K61">
         <v>100026</v>
       </c>
-      <c r="L61" s="2" t="s">
-        <v>1207</v>
+      <c r="L61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60059,7)</v>
       </c>
       <c r="M61">
         <v>100043</v>
       </c>
-      <c r="N61" s="2" t="s">
-        <v>1208</v>
+      <c r="N61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60059,10)</v>
       </c>
       <c r="O61">
         <v>987024</v>
@@ -8915,20 +6955,23 @@
       <c r="I62">
         <v>100056</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>1209</v>
+      <c r="J62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60060,1)</v>
       </c>
       <c r="K62">
         <v>100055</v>
       </c>
-      <c r="L62" s="2" t="s">
-        <v>1210</v>
+      <c r="L62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60060,7)</v>
       </c>
       <c r="M62">
         <v>100054</v>
       </c>
-      <c r="N62" s="2" t="s">
-        <v>1211</v>
+      <c r="N62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60060,10)</v>
       </c>
       <c r="O62">
         <v>987024</v>
@@ -8962,20 +7005,23 @@
       <c r="I63">
         <v>100078</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>1212</v>
+      <c r="J63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60061,1)</v>
       </c>
       <c r="K63">
         <v>100015</v>
       </c>
-      <c r="L63" s="2" t="s">
-        <v>1213</v>
+      <c r="L63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60061,7)</v>
       </c>
       <c r="M63">
         <v>100033</v>
       </c>
-      <c r="N63" s="2" t="s">
-        <v>1214</v>
+      <c r="N63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60061,10)</v>
       </c>
       <c r="O63">
         <v>987009</v>
@@ -9009,20 +7055,23 @@
       <c r="I64">
         <v>100019</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>1215</v>
+      <c r="J64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60062,1)</v>
       </c>
       <c r="K64">
         <v>100017</v>
       </c>
-      <c r="L64" s="2" t="s">
-        <v>1216</v>
+      <c r="L64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60062,7)</v>
       </c>
       <c r="M64">
         <v>100077</v>
       </c>
-      <c r="N64" s="2" t="s">
-        <v>1217</v>
+      <c r="N64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60062,10)</v>
       </c>
       <c r="O64">
         <v>987009</v>
@@ -9056,20 +7105,23 @@
       <c r="I65">
         <v>100026</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>1218</v>
+      <c r="J65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60063,1)</v>
       </c>
       <c r="K65">
         <v>100043</v>
       </c>
-      <c r="L65" s="2" t="s">
-        <v>1219</v>
+      <c r="L65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60063,7)</v>
       </c>
       <c r="M65">
         <v>100025</v>
       </c>
-      <c r="N65" s="2" t="s">
-        <v>1220</v>
+      <c r="N65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60063,10)</v>
       </c>
       <c r="O65">
         <v>987024</v>
@@ -9103,20 +7155,23 @@
       <c r="I66">
         <v>100068</v>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>1221</v>
+      <c r="J66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60064,1)</v>
       </c>
       <c r="K66">
         <v>100052</v>
       </c>
-      <c r="L66" s="2" t="s">
-        <v>1222</v>
+      <c r="L66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60064,7)</v>
       </c>
       <c r="M66">
         <v>100015</v>
       </c>
-      <c r="N66" s="2" t="s">
-        <v>1223</v>
+      <c r="N66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60064,10)</v>
       </c>
       <c r="O66">
         <v>987009</v>
@@ -9150,20 +7205,23 @@
       <c r="I67">
         <v>100039</v>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>1224</v>
+      <c r="J67" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0,60065,1)</v>
       </c>
       <c r="K67">
         <v>100043</v>
       </c>
-      <c r="L67" s="2" t="s">
-        <v>1225</v>
+      <c r="L67" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0,60065,7)</v>
       </c>
       <c r="M67">
         <v>100013</v>
       </c>
-      <c r="N67" s="2" t="s">
-        <v>1226</v>
+      <c r="N67" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0,60065,10)</v>
       </c>
       <c r="O67">
         <v>987009</v>
@@ -9197,20 +7255,23 @@
       <c r="I68">
         <v>100041</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>1227</v>
+      <c r="J68" s="2" t="str">
+        <f t="shared" ref="J68:J131" si="3">"(10,0,"&amp;A68&amp;",1)"</f>
+        <v>(10,0,60066,1)</v>
       </c>
       <c r="K68">
         <v>100064</v>
       </c>
-      <c r="L68" s="2" t="s">
-        <v>1228</v>
+      <c r="L68" s="2" t="str">
+        <f t="shared" ref="L68:L131" si="4">"(10,0,"&amp;A68&amp;",7)"</f>
+        <v>(10,0,60066,7)</v>
       </c>
       <c r="M68">
         <v>100078</v>
       </c>
-      <c r="N68" s="2" t="s">
-        <v>1229</v>
+      <c r="N68" s="2" t="str">
+        <f t="shared" ref="N68:N131" si="5">"(10,0,"&amp;A68&amp;",10)"</f>
+        <v>(10,0,60066,10)</v>
       </c>
       <c r="O68">
         <v>987009</v>
@@ -9244,20 +7305,23 @@
       <c r="I69">
         <v>100025</v>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>1230</v>
+      <c r="J69" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,60067,1)</v>
       </c>
       <c r="K69">
         <v>100051</v>
       </c>
-      <c r="L69" s="2" t="s">
-        <v>1231</v>
+      <c r="L69" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,60067,7)</v>
       </c>
       <c r="M69">
         <v>100034</v>
       </c>
-      <c r="N69" s="2" t="s">
-        <v>1232</v>
+      <c r="N69" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,60067,10)</v>
       </c>
       <c r="O69">
         <v>987009</v>
@@ -9291,20 +7355,23 @@
       <c r="I70">
         <v>500093</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>1233</v>
+      <c r="J70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,60068,1)</v>
       </c>
       <c r="K70">
         <v>100025</v>
       </c>
-      <c r="L70" s="2" t="s">
-        <v>1234</v>
+      <c r="L70" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,60068,7)</v>
       </c>
       <c r="M70">
         <v>100029</v>
       </c>
-      <c r="N70" s="2" t="s">
-        <v>1235</v>
+      <c r="N70" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,60068,10)</v>
       </c>
       <c r="O70">
         <v>987009</v>
@@ -9338,20 +7405,23 @@
       <c r="I71">
         <v>910122</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>1236</v>
+      <c r="J71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,60069,1)</v>
       </c>
       <c r="K71">
         <v>910123</v>
       </c>
-      <c r="L71" s="2" t="s">
-        <v>1237</v>
+      <c r="L71" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,60069,7)</v>
       </c>
       <c r="M71">
         <v>910124</v>
       </c>
-      <c r="N71" s="2" t="s">
-        <v>1238</v>
+      <c r="N71" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,60069,10)</v>
       </c>
       <c r="O71">
         <v>987009</v>
@@ -9385,20 +7455,23 @@
       <c r="I72">
         <v>910130</v>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>1239</v>
+      <c r="J72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,60070,1)</v>
       </c>
       <c r="K72">
         <v>910128</v>
       </c>
-      <c r="L72" s="2" t="s">
-        <v>1240</v>
+      <c r="L72" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,60070,7)</v>
       </c>
       <c r="M72">
         <v>100061</v>
       </c>
-      <c r="N72" s="2" t="s">
-        <v>1241</v>
+      <c r="N72" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,60070,10)</v>
       </c>
       <c r="O72">
         <v>987009</v>
@@ -9432,20 +7505,23 @@
       <c r="I73">
         <v>710003</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>1242</v>
+      <c r="J73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,60071,1)</v>
       </c>
       <c r="K73">
         <v>710004</v>
       </c>
-      <c r="L73" s="2" t="s">
-        <v>1243</v>
+      <c r="L73" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,60071,7)</v>
       </c>
       <c r="M73">
         <v>710005</v>
       </c>
-      <c r="N73" s="2" t="s">
-        <v>1244</v>
+      <c r="N73" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,60071,10)</v>
       </c>
       <c r="O73">
         <v>987009</v>
@@ -9479,20 +7555,23 @@
       <c r="I74">
         <v>100063</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>1245</v>
+      <c r="J74" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,60072,1)</v>
       </c>
       <c r="K74">
         <v>100064</v>
       </c>
-      <c r="L74" s="2" t="s">
-        <v>1246</v>
+      <c r="L74" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,60072,7)</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
-      <c r="N74" s="2" t="s">
-        <v>1247</v>
+      <c r="N74" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,60072,10)</v>
       </c>
       <c r="O74">
         <v>987024</v>
@@ -9526,20 +7605,23 @@
       <c r="I75">
         <v>100066</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>1248</v>
+      <c r="J75" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,60073,1)</v>
       </c>
       <c r="K75">
         <v>100065</v>
       </c>
-      <c r="L75" s="2" t="s">
-        <v>1249</v>
+      <c r="L75" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,60073,7)</v>
       </c>
       <c r="M75">
         <v>100075</v>
       </c>
-      <c r="N75" s="2" t="s">
-        <v>1250</v>
+      <c r="N75" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,60073,10)</v>
       </c>
       <c r="O75">
         <v>987024</v>
@@ -9573,20 +7655,23 @@
       <c r="I76">
         <v>500023</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>1251</v>
+      <c r="J76" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,60074,1)</v>
       </c>
       <c r="K76">
         <v>100061</v>
       </c>
-      <c r="L76" s="2" t="s">
-        <v>1252</v>
+      <c r="L76" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,60074,7)</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
-      <c r="N76" s="2" t="s">
-        <v>1253</v>
+      <c r="N76" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,60074,10)</v>
       </c>
       <c r="O76">
         <v>987024</v>
@@ -9620,20 +7705,23 @@
       <c r="I77">
         <v>100078</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>1254</v>
+      <c r="J77" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,60075,1)</v>
       </c>
       <c r="K77">
         <v>100053</v>
       </c>
-      <c r="L77" s="2" t="s">
-        <v>1255</v>
+      <c r="L77" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,60075,7)</v>
       </c>
       <c r="M77">
         <v>100024</v>
       </c>
-      <c r="N77" s="2" t="s">
-        <v>1256</v>
+      <c r="N77" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,60075,10)</v>
       </c>
       <c r="O77">
         <v>987024</v>
@@ -9667,20 +7755,23 @@
       <c r="I78">
         <v>100020</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>1257</v>
+      <c r="J78" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70001,1)</v>
       </c>
       <c r="K78">
         <v>100055</v>
       </c>
-      <c r="L78" s="2" t="s">
-        <v>1258</v>
+      <c r="L78" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70001,7)</v>
       </c>
       <c r="M78">
         <v>100043</v>
       </c>
-      <c r="N78" s="2" t="s">
-        <v>1259</v>
+      <c r="N78" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70001,10)</v>
       </c>
       <c r="O78">
         <v>987009</v>
@@ -9714,20 +7805,23 @@
       <c r="I79">
         <v>100036</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>1260</v>
+      <c r="J79" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70002,1)</v>
       </c>
       <c r="K79">
         <v>100074</v>
       </c>
-      <c r="L79" s="2" t="s">
-        <v>1261</v>
+      <c r="L79" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70002,7)</v>
       </c>
       <c r="M79">
         <v>100023</v>
       </c>
-      <c r="N79" s="2" t="s">
-        <v>1262</v>
+      <c r="N79" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70002,10)</v>
       </c>
       <c r="O79">
         <v>987009</v>
@@ -9761,20 +7855,23 @@
       <c r="I80">
         <v>100063</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>1263</v>
+      <c r="J80" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70003,1)</v>
       </c>
       <c r="K80">
         <v>100064</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>1264</v>
+      <c r="L80" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70003,7)</v>
       </c>
       <c r="M80">
         <v>100068</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>1265</v>
+      <c r="N80" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70003,10)</v>
       </c>
       <c r="O80">
         <v>987024</v>
@@ -9808,20 +7905,23 @@
       <c r="I81">
         <v>100037</v>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>1266</v>
+      <c r="J81" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70004,1)</v>
       </c>
       <c r="K81">
         <v>100041</v>
       </c>
-      <c r="L81" s="2" t="s">
-        <v>1267</v>
+      <c r="L81" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70004,7)</v>
       </c>
       <c r="M81">
         <v>100043</v>
       </c>
-      <c r="N81" s="2" t="s">
-        <v>1268</v>
+      <c r="N81" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70004,10)</v>
       </c>
       <c r="O81">
         <v>987024</v>
@@ -9855,20 +7955,23 @@
       <c r="I82">
         <v>100029</v>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>1269</v>
+      <c r="J82" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70005,1)</v>
       </c>
       <c r="K82">
         <v>100044</v>
       </c>
-      <c r="L82" s="2" t="s">
-        <v>1270</v>
+      <c r="L82" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70005,7)</v>
       </c>
       <c r="M82">
         <v>100030</v>
       </c>
-      <c r="N82" s="2" t="s">
-        <v>1271</v>
+      <c r="N82" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70005,10)</v>
       </c>
       <c r="O82">
         <v>987009</v>
@@ -9902,20 +8005,23 @@
       <c r="I83">
         <v>100037</v>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>1272</v>
+      <c r="J83" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70006,1)</v>
       </c>
       <c r="K83">
         <v>100051</v>
       </c>
-      <c r="L83" s="2" t="s">
-        <v>1273</v>
+      <c r="L83" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70006,7)</v>
       </c>
       <c r="M83">
         <v>100023</v>
       </c>
-      <c r="N83" s="2" t="s">
-        <v>1274</v>
+      <c r="N83" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70006,10)</v>
       </c>
       <c r="O83">
         <v>987009</v>
@@ -9949,20 +8055,23 @@
       <c r="I84">
         <v>100033</v>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>1275</v>
+      <c r="J84" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70007,1)</v>
       </c>
       <c r="K84">
         <v>100038</v>
       </c>
-      <c r="L84" s="2" t="s">
-        <v>1276</v>
+      <c r="L84" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70007,7)</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
-      <c r="N84" s="2" t="s">
-        <v>1277</v>
+      <c r="N84" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70007,10)</v>
       </c>
       <c r="O84">
         <v>987009</v>
@@ -9996,20 +8105,23 @@
       <c r="I85">
         <v>100080</v>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>1278</v>
+      <c r="J85" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70008,1)</v>
       </c>
       <c r="K85">
         <v>100011</v>
       </c>
-      <c r="L85" s="2" t="s">
-        <v>1279</v>
+      <c r="L85" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70008,7)</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
-      <c r="N85" s="2" t="s">
-        <v>1280</v>
+      <c r="N85" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70008,10)</v>
       </c>
       <c r="O85">
         <v>987009</v>
@@ -10043,20 +8155,23 @@
       <c r="I86">
         <v>100039</v>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>1281</v>
+      <c r="J86" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70009,1)</v>
       </c>
       <c r="K86">
         <v>100050</v>
       </c>
-      <c r="L86" s="2" t="s">
-        <v>1282</v>
+      <c r="L86" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70009,7)</v>
       </c>
       <c r="M86">
         <v>100011</v>
       </c>
-      <c r="N86" s="2" t="s">
-        <v>1283</v>
+      <c r="N86" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70009,10)</v>
       </c>
       <c r="O86">
         <v>987009</v>
@@ -10090,20 +8205,23 @@
       <c r="I87">
         <v>100077</v>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>1284</v>
+      <c r="J87" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70010,1)</v>
       </c>
       <c r="K87">
         <v>100045</v>
       </c>
-      <c r="L87" s="2" t="s">
-        <v>1285</v>
+      <c r="L87" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70010,7)</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
-      <c r="N87" s="2" t="s">
-        <v>1286</v>
+      <c r="N87" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70010,10)</v>
       </c>
       <c r="O87">
         <v>987009</v>
@@ -10137,20 +8255,23 @@
       <c r="I88">
         <v>100070</v>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>1287</v>
+      <c r="J88" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70011,1)</v>
       </c>
       <c r="K88">
         <v>100015</v>
       </c>
-      <c r="L88" s="2" t="s">
-        <v>1288</v>
+      <c r="L88" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70011,7)</v>
       </c>
       <c r="M88">
         <v>100024</v>
       </c>
-      <c r="N88" s="2" t="s">
-        <v>1289</v>
+      <c r="N88" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70011,10)</v>
       </c>
       <c r="O88">
         <v>987009</v>
@@ -10184,20 +8305,23 @@
       <c r="I89">
         <v>100055</v>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>1290</v>
+      <c r="J89" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70012,1)</v>
       </c>
       <c r="K89">
         <v>100032</v>
       </c>
-      <c r="L89" s="2" t="s">
-        <v>1291</v>
+      <c r="L89" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70012,7)</v>
       </c>
       <c r="M89">
         <v>100012</v>
       </c>
-      <c r="N89" s="2" t="s">
-        <v>1292</v>
+      <c r="N89" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70012,10)</v>
       </c>
       <c r="O89">
         <v>987009</v>
@@ -10231,20 +8355,23 @@
       <c r="I90">
         <v>100050</v>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>1293</v>
+      <c r="J90" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70013,1)</v>
       </c>
       <c r="K90">
         <v>100077</v>
       </c>
-      <c r="L90" s="2" t="s">
-        <v>1294</v>
+      <c r="L90" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70013,7)</v>
       </c>
       <c r="M90">
         <v>100038</v>
       </c>
-      <c r="N90" s="2" t="s">
-        <v>1295</v>
+      <c r="N90" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70013,10)</v>
       </c>
       <c r="O90">
         <v>987009</v>
@@ -10278,20 +8405,23 @@
       <c r="I91">
         <v>100035</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>1296</v>
+      <c r="J91" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70014,1)</v>
       </c>
       <c r="K91">
         <v>100062</v>
       </c>
-      <c r="L91" s="2" t="s">
-        <v>1297</v>
+      <c r="L91" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70014,7)</v>
       </c>
       <c r="M91">
         <v>100058</v>
       </c>
-      <c r="N91" s="2" t="s">
-        <v>1298</v>
+      <c r="N91" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70014,10)</v>
       </c>
       <c r="O91">
         <v>987009</v>
@@ -10325,20 +8455,23 @@
       <c r="I92">
         <v>100056</v>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>1299</v>
+      <c r="J92" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70015,1)</v>
       </c>
       <c r="K92">
         <v>100055</v>
       </c>
-      <c r="L92" s="2" t="s">
-        <v>1300</v>
+      <c r="L92" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70015,7)</v>
       </c>
       <c r="M92">
         <v>100054</v>
       </c>
-      <c r="N92" s="2" t="s">
-        <v>1301</v>
+      <c r="N92" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70015,10)</v>
       </c>
       <c r="O92">
         <v>910069</v>
@@ -10372,20 +8505,23 @@
       <c r="I93">
         <v>100021</v>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>1302</v>
+      <c r="J93" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70016,1)</v>
       </c>
       <c r="K93">
         <v>100026</v>
       </c>
-      <c r="L93" s="2" t="s">
-        <v>1303</v>
+      <c r="L93" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70016,7)</v>
       </c>
       <c r="M93">
         <v>100043</v>
       </c>
-      <c r="N93" s="2" t="s">
-        <v>1304</v>
+      <c r="N93" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70016,10)</v>
       </c>
       <c r="O93">
         <v>987024</v>
@@ -10419,20 +8555,23 @@
       <c r="I94">
         <v>100011</v>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>1305</v>
+      <c r="J94" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70017,1)</v>
       </c>
       <c r="K94">
         <v>100015</v>
       </c>
-      <c r="L94" s="2" t="s">
-        <v>1306</v>
+      <c r="L94" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70017,7)</v>
       </c>
       <c r="M94">
         <v>100067</v>
       </c>
-      <c r="N94" s="2" t="s">
-        <v>1307</v>
+      <c r="N94" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70017,10)</v>
       </c>
       <c r="O94">
         <v>987024</v>
@@ -10466,20 +8605,23 @@
       <c r="I95">
         <v>100081</v>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>1308</v>
+      <c r="J95" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70018,1)</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
-      <c r="L95" s="2" t="s">
-        <v>1309</v>
+      <c r="L95" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70018,7)</v>
       </c>
       <c r="M95">
         <v>0</v>
       </c>
-      <c r="N95" s="2" t="s">
-        <v>1310</v>
+      <c r="N95" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70018,10)</v>
       </c>
       <c r="O95">
         <v>910069</v>
@@ -10513,20 +8655,23 @@
       <c r="I96">
         <v>100066</v>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>1311</v>
+      <c r="J96" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70019,1)</v>
       </c>
       <c r="K96">
         <v>100065</v>
       </c>
-      <c r="L96" s="2" t="s">
-        <v>1312</v>
+      <c r="L96" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70019,7)</v>
       </c>
       <c r="M96">
         <v>100075</v>
       </c>
-      <c r="N96" s="2" t="s">
-        <v>1313</v>
+      <c r="N96" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70019,10)</v>
       </c>
       <c r="O96">
         <v>987024</v>
@@ -10560,20 +8705,23 @@
       <c r="I97">
         <v>100011</v>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>1314</v>
+      <c r="J97" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70020,1)</v>
       </c>
       <c r="K97">
         <v>100082</v>
       </c>
-      <c r="L97" s="2" t="s">
-        <v>1315</v>
+      <c r="L97" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70020,7)</v>
       </c>
       <c r="M97">
         <v>100083</v>
       </c>
-      <c r="N97" s="2" t="s">
-        <v>1316</v>
+      <c r="N97" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70020,10)</v>
       </c>
       <c r="O97">
         <v>910069</v>
@@ -10607,20 +8755,23 @@
       <c r="I98">
         <v>100055</v>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>1317</v>
+      <c r="J98" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70021,1)</v>
       </c>
       <c r="K98">
         <v>100051</v>
       </c>
-      <c r="L98" s="2" t="s">
-        <v>1318</v>
+      <c r="L98" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70021,7)</v>
       </c>
       <c r="M98">
         <v>100061</v>
       </c>
-      <c r="N98" s="2" t="s">
-        <v>1319</v>
+      <c r="N98" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70021,10)</v>
       </c>
       <c r="O98">
         <v>987024</v>
@@ -10654,20 +8805,23 @@
       <c r="I99">
         <v>100031</v>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>1320</v>
+      <c r="J99" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70022,1)</v>
       </c>
       <c r="K99">
         <v>100065</v>
       </c>
-      <c r="L99" s="2" t="s">
-        <v>1321</v>
+      <c r="L99" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70022,7)</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
-      <c r="N99" s="2" t="s">
-        <v>1322</v>
+      <c r="N99" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70022,10)</v>
       </c>
       <c r="O99">
         <v>987009</v>
@@ -10701,20 +8855,23 @@
       <c r="I100">
         <v>100032</v>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>1323</v>
+      <c r="J100" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70023,1)</v>
       </c>
       <c r="K100">
         <v>100066</v>
       </c>
-      <c r="L100" s="2" t="s">
-        <v>1324</v>
+      <c r="L100" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70023,7)</v>
       </c>
       <c r="M100">
         <v>0</v>
       </c>
-      <c r="N100" s="2" t="s">
-        <v>1325</v>
+      <c r="N100" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70023,10)</v>
       </c>
       <c r="O100">
         <v>987009</v>
@@ -10748,20 +8905,23 @@
       <c r="I101">
         <v>100033</v>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>1326</v>
+      <c r="J101" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70024,1)</v>
       </c>
       <c r="K101">
         <v>100073</v>
       </c>
-      <c r="L101" s="2" t="s">
-        <v>1327</v>
+      <c r="L101" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70024,7)</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
-      <c r="N101" s="2" t="s">
-        <v>1328</v>
+      <c r="N101" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70024,10)</v>
       </c>
       <c r="O101">
         <v>987009</v>
@@ -10795,20 +8955,23 @@
       <c r="I102">
         <v>100019</v>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>1329</v>
+      <c r="J102" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70025,1)</v>
       </c>
       <c r="K102">
         <v>100040</v>
       </c>
-      <c r="L102" s="2" t="s">
-        <v>1330</v>
+      <c r="L102" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70025,7)</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
-      <c r="N102" s="2" t="s">
-        <v>1331</v>
+      <c r="N102" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70025,10)</v>
       </c>
       <c r="O102">
         <v>987009</v>
@@ -10842,20 +9005,23 @@
       <c r="I103">
         <v>987115</v>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>1332</v>
+      <c r="J103" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70026,1)</v>
       </c>
       <c r="K103">
         <v>0</v>
       </c>
-      <c r="L103" s="2" t="s">
-        <v>1333</v>
+      <c r="L103" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70026,7)</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
-      <c r="N103" s="2" t="s">
-        <v>1334</v>
+      <c r="N103" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70026,10)</v>
       </c>
       <c r="O103">
         <v>987009</v>
@@ -10889,20 +9055,23 @@
       <c r="I104">
         <v>100111</v>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>1335</v>
+      <c r="J104" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70027,1)</v>
       </c>
       <c r="K104">
         <v>0</v>
       </c>
-      <c r="L104" s="2" t="s">
-        <v>1336</v>
+      <c r="L104" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70027,7)</v>
       </c>
       <c r="M104">
         <v>0</v>
       </c>
-      <c r="N104" s="2" t="s">
-        <v>1337</v>
+      <c r="N104" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70027,10)</v>
       </c>
       <c r="O104">
         <v>987009</v>
@@ -10936,20 +9105,23 @@
       <c r="I105">
         <v>100130</v>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>1338</v>
+      <c r="J105" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70028,1)</v>
       </c>
       <c r="K105">
         <v>100131</v>
       </c>
-      <c r="L105" s="2" t="s">
-        <v>1339</v>
+      <c r="L105" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70028,7)</v>
       </c>
       <c r="M105">
         <v>100133</v>
       </c>
-      <c r="N105" s="2" t="s">
-        <v>1340</v>
+      <c r="N105" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70028,10)</v>
       </c>
       <c r="O105">
         <v>987009</v>
@@ -10983,20 +9155,23 @@
       <c r="I106">
         <v>100074</v>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>1341</v>
+      <c r="J106" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70029,1)</v>
       </c>
       <c r="K106">
         <v>100016</v>
       </c>
-      <c r="L106" s="2" t="s">
-        <v>1342</v>
+      <c r="L106" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70029,7)</v>
       </c>
       <c r="M106">
         <v>100014</v>
       </c>
-      <c r="N106" s="2" t="s">
-        <v>1343</v>
+      <c r="N106" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70029,10)</v>
       </c>
       <c r="O106">
         <v>910069</v>
@@ -11030,20 +9205,23 @@
       <c r="I107">
         <v>100034</v>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>1344</v>
+      <c r="J107" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70030,1)</v>
       </c>
       <c r="K107">
         <v>100029</v>
       </c>
-      <c r="L107" s="2" t="s">
-        <v>1345</v>
+      <c r="L107" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70030,7)</v>
       </c>
       <c r="M107">
         <v>100054</v>
       </c>
-      <c r="N107" s="2" t="s">
-        <v>1346</v>
+      <c r="N107" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70030,10)</v>
       </c>
       <c r="O107">
         <v>987024</v>
@@ -11077,20 +9255,23 @@
       <c r="I108">
         <v>100061</v>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>1347</v>
+      <c r="J108" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70031,1)</v>
       </c>
       <c r="K108">
         <v>100062</v>
       </c>
-      <c r="L108" s="2" t="s">
-        <v>1348</v>
+      <c r="L108" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70031,7)</v>
       </c>
       <c r="M108">
         <v>100063</v>
       </c>
-      <c r="N108" s="2" t="s">
-        <v>1349</v>
+      <c r="N108" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70031,10)</v>
       </c>
       <c r="O108">
         <v>987024</v>
@@ -11124,20 +9305,23 @@
       <c r="I109">
         <v>100072</v>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>1350</v>
+      <c r="J109" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70032,1)</v>
       </c>
       <c r="K109">
         <v>100062</v>
       </c>
-      <c r="L109" s="2" t="s">
-        <v>1351</v>
+      <c r="L109" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70032,7)</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
-      <c r="N109" s="2" t="s">
-        <v>1352</v>
+      <c r="N109" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70032,10)</v>
       </c>
       <c r="O109">
         <v>987024</v>
@@ -11171,20 +9355,23 @@
       <c r="I110">
         <v>100019</v>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>1353</v>
+      <c r="J110" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70033,1)</v>
       </c>
       <c r="K110">
         <v>100017</v>
       </c>
-      <c r="L110" s="2" t="s">
-        <v>1354</v>
+      <c r="L110" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70033,7)</v>
       </c>
       <c r="M110">
         <v>100077</v>
       </c>
-      <c r="N110" s="2" t="s">
-        <v>1355</v>
+      <c r="N110" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70033,10)</v>
       </c>
       <c r="O110">
         <v>910069</v>
@@ -11218,20 +9405,23 @@
       <c r="I111">
         <v>100035</v>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>1356</v>
+      <c r="J111" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70034,1)</v>
       </c>
       <c r="K111">
         <v>100016</v>
       </c>
-      <c r="L111" s="2" t="s">
-        <v>1357</v>
+      <c r="L111" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70034,7)</v>
       </c>
       <c r="M111">
         <v>100065</v>
       </c>
-      <c r="N111" s="2" t="s">
-        <v>1358</v>
+      <c r="N111" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70034,10)</v>
       </c>
       <c r="O111">
         <v>987024</v>
@@ -11265,20 +9455,23 @@
       <c r="I112">
         <v>100019</v>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>1359</v>
+      <c r="J112" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70035,1)</v>
       </c>
       <c r="K112">
         <v>100017</v>
       </c>
-      <c r="L112" s="2" t="s">
-        <v>1360</v>
+      <c r="L112" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70035,7)</v>
       </c>
       <c r="M112">
         <v>100077</v>
       </c>
-      <c r="N112" s="2" t="s">
-        <v>1361</v>
+      <c r="N112" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70035,10)</v>
       </c>
       <c r="O112">
         <v>987024</v>
@@ -11312,20 +9505,23 @@
       <c r="I113">
         <v>100016</v>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>1362</v>
+      <c r="J113" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70036,1)</v>
       </c>
       <c r="K113">
         <v>100058</v>
       </c>
-      <c r="L113" s="2" t="s">
-        <v>1363</v>
+      <c r="L113" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70036,7)</v>
       </c>
       <c r="M113">
         <v>100075</v>
       </c>
-      <c r="N113" s="2" t="s">
-        <v>1364</v>
+      <c r="N113" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70036,10)</v>
       </c>
       <c r="O113">
         <v>987024</v>
@@ -11359,20 +9555,23 @@
       <c r="I114">
         <v>100078</v>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>1365</v>
+      <c r="J114" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70037,1)</v>
       </c>
       <c r="K114">
         <v>100053</v>
       </c>
-      <c r="L114" s="2" t="s">
-        <v>1366</v>
+      <c r="L114" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70037,7)</v>
       </c>
       <c r="M114">
         <v>100014</v>
       </c>
-      <c r="N114" s="2" t="s">
-        <v>1367</v>
+      <c r="N114" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70037,10)</v>
       </c>
       <c r="O114">
         <v>987024</v>
@@ -11406,20 +9605,23 @@
       <c r="I115">
         <v>500023</v>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>1368</v>
+      <c r="J115" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70038,1)</v>
       </c>
       <c r="K115">
         <v>100033</v>
       </c>
-      <c r="L115" s="2" t="s">
-        <v>1369</v>
+      <c r="L115" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70038,7)</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
-      <c r="N115" s="2" t="s">
-        <v>1370</v>
+      <c r="N115" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70038,10)</v>
       </c>
       <c r="O115">
         <v>987024</v>
@@ -11453,20 +9655,23 @@
       <c r="I116">
         <v>100013</v>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>1371</v>
+      <c r="J116" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70039,1)</v>
       </c>
       <c r="K116">
         <v>100055</v>
       </c>
-      <c r="L116" s="2" t="s">
-        <v>1372</v>
+      <c r="L116" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70039,7)</v>
       </c>
       <c r="M116">
         <v>100064</v>
       </c>
-      <c r="N116" s="2" t="s">
-        <v>1373</v>
+      <c r="N116" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70039,10)</v>
       </c>
       <c r="O116">
         <v>910069</v>
@@ -11500,20 +9705,23 @@
       <c r="I117">
         <v>500023</v>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>1374</v>
+      <c r="J117" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70040,1)</v>
       </c>
       <c r="K117">
         <v>100061</v>
       </c>
-      <c r="L117" s="2" t="s">
-        <v>1375</v>
+      <c r="L117" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70040,7)</v>
       </c>
       <c r="M117">
         <v>100049</v>
       </c>
-      <c r="N117" s="2" t="s">
-        <v>1376</v>
+      <c r="N117" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70040,10)</v>
       </c>
       <c r="O117">
         <v>987024</v>
@@ -11547,20 +9755,23 @@
       <c r="I118">
         <v>100056</v>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>1377</v>
+      <c r="J118" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70041,1)</v>
       </c>
       <c r="K118">
         <v>100066</v>
       </c>
-      <c r="L118" s="2" t="s">
-        <v>1378</v>
+      <c r="L118" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70041,7)</v>
       </c>
       <c r="M118">
         <v>100064</v>
       </c>
-      <c r="N118" s="2" t="s">
-        <v>1379</v>
+      <c r="N118" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70041,10)</v>
       </c>
       <c r="O118">
         <v>987024</v>
@@ -11594,20 +9805,23 @@
       <c r="I119">
         <v>100035</v>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>1380</v>
+      <c r="J119" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70042,1)</v>
       </c>
       <c r="K119">
         <v>100015</v>
       </c>
-      <c r="L119" s="2" t="s">
-        <v>1381</v>
+      <c r="L119" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70042,7)</v>
       </c>
       <c r="M119">
         <v>0</v>
       </c>
-      <c r="N119" s="2" t="s">
-        <v>1382</v>
+      <c r="N119" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70042,10)</v>
       </c>
       <c r="O119">
         <v>987024</v>
@@ -11641,20 +9855,23 @@
       <c r="I120">
         <v>100068</v>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>1383</v>
+      <c r="J120" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70043,1)</v>
       </c>
       <c r="K120">
         <v>70023</v>
       </c>
-      <c r="L120" s="2" t="s">
-        <v>1384</v>
+      <c r="L120" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70043,7)</v>
       </c>
       <c r="M120">
         <v>100064</v>
       </c>
-      <c r="N120" s="2" t="s">
-        <v>1385</v>
+      <c r="N120" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70043,10)</v>
       </c>
       <c r="O120">
         <v>987009</v>
@@ -11688,20 +9905,23 @@
       <c r="I121">
         <v>987167</v>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>1386</v>
+      <c r="J121" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70044,1)</v>
       </c>
       <c r="K121">
         <v>100017</v>
       </c>
-      <c r="L121" s="2" t="s">
-        <v>1387</v>
+      <c r="L121" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70044,7)</v>
       </c>
       <c r="M121">
         <v>0</v>
       </c>
-      <c r="N121" s="2" t="s">
-        <v>1388</v>
+      <c r="N121" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70044,10)</v>
       </c>
       <c r="O121">
         <v>987009</v>
@@ -11735,20 +9955,23 @@
       <c r="I122">
         <v>987189</v>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>1389</v>
+      <c r="J122" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70045,1)</v>
       </c>
       <c r="K122">
         <v>0</v>
       </c>
-      <c r="L122" s="2" t="s">
-        <v>1390</v>
+      <c r="L122" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70045,7)</v>
       </c>
       <c r="M122">
         <v>0</v>
       </c>
-      <c r="N122" s="2" t="s">
-        <v>1391</v>
+      <c r="N122" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70045,10)</v>
       </c>
       <c r="O122">
         <v>910167</v>
@@ -11782,20 +10005,23 @@
       <c r="I123">
         <v>100070</v>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>1392</v>
+      <c r="J123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70046,1)</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
-      <c r="L123" s="2" t="s">
-        <v>1393</v>
+      <c r="L123" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70046,7)</v>
       </c>
       <c r="M123">
         <v>0</v>
       </c>
-      <c r="N123" s="2" t="s">
-        <v>1394</v>
+      <c r="N123" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70046,10)</v>
       </c>
       <c r="O123">
         <v>987009</v>
@@ -11829,20 +10055,23 @@
       <c r="I124">
         <v>100070</v>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>1395</v>
+      <c r="J124" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70047,1)</v>
       </c>
       <c r="K124">
         <v>100073</v>
       </c>
-      <c r="L124" s="2" t="s">
-        <v>1396</v>
+      <c r="L124" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70047,7)</v>
       </c>
       <c r="M124">
         <v>0</v>
       </c>
-      <c r="N124" s="2" t="s">
-        <v>1397</v>
+      <c r="N124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70047,10)</v>
       </c>
       <c r="O124">
         <v>987009</v>
@@ -11876,20 +10105,23 @@
       <c r="I125">
         <v>500015</v>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>1398</v>
+      <c r="J125" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70048,1)</v>
       </c>
       <c r="K125">
         <v>100016</v>
       </c>
-      <c r="L125" s="2" t="s">
-        <v>1399</v>
+      <c r="L125" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70048,7)</v>
       </c>
       <c r="M125">
         <v>100020</v>
       </c>
-      <c r="N125" s="2" t="s">
-        <v>1400</v>
+      <c r="N125" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70048,10)</v>
       </c>
       <c r="O125">
         <v>910069</v>
@@ -11923,20 +10155,23 @@
       <c r="I126">
         <v>100075</v>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>1401</v>
+      <c r="J126" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70049,1)</v>
       </c>
       <c r="K126">
         <v>100076</v>
       </c>
-      <c r="L126" s="2" t="s">
-        <v>1402</v>
+      <c r="L126" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70049,7)</v>
       </c>
       <c r="M126">
         <v>100037</v>
       </c>
-      <c r="N126" s="2" t="s">
-        <v>1403</v>
+      <c r="N126" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70049,10)</v>
       </c>
       <c r="O126">
         <v>987009</v>
@@ -11970,20 +10205,23 @@
       <c r="I127">
         <v>100013</v>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>1404</v>
+      <c r="J127" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70050,1)</v>
       </c>
       <c r="K127">
         <v>100023</v>
       </c>
-      <c r="L127" s="2" t="s">
-        <v>1405</v>
+      <c r="L127" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70050,7)</v>
       </c>
       <c r="M127">
         <v>100024</v>
       </c>
-      <c r="N127" s="2" t="s">
-        <v>1406</v>
+      <c r="N127" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70050,10)</v>
       </c>
       <c r="O127">
         <v>910069</v>
@@ -12017,20 +10255,23 @@
       <c r="I128">
         <v>910004</v>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>1407</v>
+      <c r="J128" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70051,1)</v>
       </c>
       <c r="K128">
         <v>0</v>
       </c>
-      <c r="L128" s="2" t="s">
-        <v>1408</v>
+      <c r="L128" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70051,7)</v>
       </c>
       <c r="M128">
         <v>0</v>
       </c>
-      <c r="N128" s="2" t="s">
-        <v>1409</v>
+      <c r="N128" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70051,10)</v>
       </c>
       <c r="O128">
         <v>910069</v>
@@ -12064,20 +10305,23 @@
       <c r="I129">
         <v>100101</v>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>1410</v>
+      <c r="J129" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70052,1)</v>
       </c>
       <c r="K129">
         <v>0</v>
       </c>
-      <c r="L129" s="2" t="s">
-        <v>1411</v>
+      <c r="L129" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70052,7)</v>
       </c>
       <c r="M129">
         <v>0</v>
       </c>
-      <c r="N129" s="2" t="s">
-        <v>1412</v>
+      <c r="N129" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70052,10)</v>
       </c>
       <c r="O129">
         <v>910069</v>
@@ -12111,20 +10355,23 @@
       <c r="I130">
         <v>100103</v>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>1413</v>
+      <c r="J130" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70053,1)</v>
       </c>
       <c r="K130">
         <v>0</v>
       </c>
-      <c r="L130" s="2" t="s">
-        <v>1414</v>
+      <c r="L130" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70053,7)</v>
       </c>
       <c r="M130">
         <v>0</v>
       </c>
-      <c r="N130" s="2" t="s">
-        <v>1415</v>
+      <c r="N130" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70053,10)</v>
       </c>
       <c r="O130">
         <v>910069</v>
@@ -12158,20 +10405,23 @@
       <c r="I131">
         <v>100104</v>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>1416</v>
+      <c r="J131" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,0,70054,1)</v>
       </c>
       <c r="K131">
         <v>0</v>
       </c>
-      <c r="L131" s="2" t="s">
-        <v>1417</v>
+      <c r="L131" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,0,70054,7)</v>
       </c>
       <c r="M131">
         <v>0</v>
       </c>
-      <c r="N131" s="2" t="s">
-        <v>1418</v>
+      <c r="N131" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>(10,0,70054,10)</v>
       </c>
       <c r="O131">
         <v>910069</v>
@@ -12205,20 +10455,23 @@
       <c r="I132">
         <v>100105</v>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>1419</v>
+      <c r="J132" s="2" t="str">
+        <f t="shared" ref="J132:J195" si="6">"(10,0,"&amp;A132&amp;",1)"</f>
+        <v>(10,0,70055,1)</v>
       </c>
       <c r="K132">
         <v>0</v>
       </c>
-      <c r="L132" s="2" t="s">
-        <v>1420</v>
+      <c r="L132" s="2" t="str">
+        <f t="shared" ref="L132:L195" si="7">"(10,0,"&amp;A132&amp;",7)"</f>
+        <v>(10,0,70055,7)</v>
       </c>
       <c r="M132">
         <v>0</v>
       </c>
-      <c r="N132" s="2" t="s">
-        <v>1421</v>
+      <c r="N132" s="2" t="str">
+        <f t="shared" ref="N132:N195" si="8">"(10,0,"&amp;A132&amp;",10)"</f>
+        <v>(10,0,70055,10)</v>
       </c>
       <c r="O132">
         <v>910069</v>
@@ -12252,20 +10505,23 @@
       <c r="I133">
         <v>100106</v>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>1422</v>
+      <c r="J133" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70056,1)</v>
       </c>
       <c r="K133">
         <v>0</v>
       </c>
-      <c r="L133" s="2" t="s">
-        <v>1423</v>
+      <c r="L133" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70056,7)</v>
       </c>
       <c r="M133">
         <v>0</v>
       </c>
-      <c r="N133" s="2" t="s">
-        <v>1424</v>
+      <c r="N133" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70056,10)</v>
       </c>
       <c r="O133">
         <v>910069</v>
@@ -12299,20 +10555,23 @@
       <c r="I134">
         <v>100107</v>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>1425</v>
+      <c r="J134" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70057,1)</v>
       </c>
       <c r="K134">
         <v>0</v>
       </c>
-      <c r="L134" s="2" t="s">
-        <v>1426</v>
+      <c r="L134" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70057,7)</v>
       </c>
       <c r="M134">
         <v>0</v>
       </c>
-      <c r="N134" s="2" t="s">
-        <v>1427</v>
+      <c r="N134" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70057,10)</v>
       </c>
       <c r="O134">
         <v>910069</v>
@@ -12346,20 +10605,23 @@
       <c r="I135">
         <v>100108</v>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>1428</v>
+      <c r="J135" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70058,1)</v>
       </c>
       <c r="K135">
         <v>0</v>
       </c>
-      <c r="L135" s="2" t="s">
-        <v>1429</v>
+      <c r="L135" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70058,7)</v>
       </c>
       <c r="M135">
         <v>0</v>
       </c>
-      <c r="N135" s="2" t="s">
-        <v>1430</v>
+      <c r="N135" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70058,10)</v>
       </c>
       <c r="O135">
         <v>910069</v>
@@ -12393,20 +10655,23 @@
       <c r="I136">
         <v>100109</v>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>1431</v>
+      <c r="J136" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70059,1)</v>
       </c>
       <c r="K136">
         <v>0</v>
       </c>
-      <c r="L136" s="2" t="s">
-        <v>1432</v>
+      <c r="L136" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70059,7)</v>
       </c>
       <c r="M136">
         <v>0</v>
       </c>
-      <c r="N136" s="2" t="s">
-        <v>1433</v>
+      <c r="N136" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70059,10)</v>
       </c>
       <c r="O136">
         <v>910069</v>
@@ -12440,20 +10705,23 @@
       <c r="I137">
         <v>100112</v>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>1434</v>
+      <c r="J137" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70060,1)</v>
       </c>
       <c r="K137">
         <v>0</v>
       </c>
-      <c r="L137" s="2" t="s">
-        <v>1435</v>
+      <c r="L137" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70060,7)</v>
       </c>
       <c r="M137">
         <v>0</v>
       </c>
-      <c r="N137" s="2" t="s">
-        <v>1436</v>
+      <c r="N137" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70060,10)</v>
       </c>
       <c r="O137">
         <v>987009</v>
@@ -12487,20 +10755,23 @@
       <c r="I138">
         <v>100113</v>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>1437</v>
+      <c r="J138" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70061,1)</v>
       </c>
       <c r="K138">
         <v>0</v>
       </c>
-      <c r="L138" s="2" t="s">
-        <v>1438</v>
+      <c r="L138" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70061,7)</v>
       </c>
       <c r="M138">
         <v>0</v>
       </c>
-      <c r="N138" s="2" t="s">
-        <v>1439</v>
+      <c r="N138" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70061,10)</v>
       </c>
       <c r="O138">
         <v>910069</v>
@@ -12534,20 +10805,23 @@
       <c r="I139">
         <v>100114</v>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>1440</v>
+      <c r="J139" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70062,1)</v>
       </c>
       <c r="K139">
         <v>0</v>
       </c>
-      <c r="L139" s="2" t="s">
-        <v>1441</v>
+      <c r="L139" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70062,7)</v>
       </c>
       <c r="M139">
         <v>0</v>
       </c>
-      <c r="N139" s="2" t="s">
-        <v>1442</v>
+      <c r="N139" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70062,10)</v>
       </c>
       <c r="O139">
         <v>910069</v>
@@ -12581,20 +10855,23 @@
       <c r="I140">
         <v>100115</v>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>1443</v>
+      <c r="J140" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70063,1)</v>
       </c>
       <c r="K140">
         <v>0</v>
       </c>
-      <c r="L140" s="2" t="s">
-        <v>1444</v>
+      <c r="L140" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70063,7)</v>
       </c>
       <c r="M140">
         <v>0</v>
       </c>
-      <c r="N140" s="2" t="s">
-        <v>1445</v>
+      <c r="N140" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70063,10)</v>
       </c>
       <c r="O140">
         <v>910069</v>
@@ -12628,20 +10905,23 @@
       <c r="I141">
         <v>100116</v>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>1446</v>
+      <c r="J141" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70064,1)</v>
       </c>
       <c r="K141">
         <v>0</v>
       </c>
-      <c r="L141" s="2" t="s">
-        <v>1447</v>
+      <c r="L141" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70064,7)</v>
       </c>
       <c r="M141">
         <v>0</v>
       </c>
-      <c r="N141" s="2" t="s">
-        <v>1448</v>
+      <c r="N141" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70064,10)</v>
       </c>
       <c r="O141">
         <v>910069</v>
@@ -12675,20 +10955,23 @@
       <c r="I142">
         <v>100117</v>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>1449</v>
+      <c r="J142" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70065,1)</v>
       </c>
       <c r="K142">
         <v>0</v>
       </c>
-      <c r="L142" s="2" t="s">
-        <v>1450</v>
+      <c r="L142" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70065,7)</v>
       </c>
       <c r="M142">
         <v>0</v>
       </c>
-      <c r="N142" s="2" t="s">
-        <v>1451</v>
+      <c r="N142" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70065,10)</v>
       </c>
       <c r="O142">
         <v>910069</v>
@@ -12722,20 +11005,23 @@
       <c r="I143">
         <v>0</v>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>1452</v>
+      <c r="J143" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70066,1)</v>
       </c>
       <c r="K143">
         <v>0</v>
       </c>
-      <c r="L143" s="2" t="s">
-        <v>1453</v>
+      <c r="L143" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70066,7)</v>
       </c>
       <c r="M143">
         <v>0</v>
       </c>
-      <c r="N143" s="2" t="s">
-        <v>1454</v>
+      <c r="N143" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70066,10)</v>
       </c>
       <c r="O143">
         <v>987009</v>
@@ -12769,20 +11055,23 @@
       <c r="I144">
         <v>0</v>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>1455</v>
+      <c r="J144" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70067,1)</v>
       </c>
       <c r="K144">
         <v>0</v>
       </c>
-      <c r="L144" s="2" t="s">
-        <v>1456</v>
+      <c r="L144" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70067,7)</v>
       </c>
       <c r="M144">
         <v>0</v>
       </c>
-      <c r="N144" s="2" t="s">
-        <v>1457</v>
+      <c r="N144" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70067,10)</v>
       </c>
       <c r="O144">
         <v>987009</v>
@@ -12816,20 +11105,23 @@
       <c r="I145">
         <v>0</v>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>1458</v>
+      <c r="J145" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70068,1)</v>
       </c>
       <c r="K145">
         <v>0</v>
       </c>
-      <c r="L145" s="2" t="s">
-        <v>1459</v>
+      <c r="L145" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70068,7)</v>
       </c>
       <c r="M145">
         <v>0</v>
       </c>
-      <c r="N145" s="2" t="s">
-        <v>1460</v>
+      <c r="N145" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70068,10)</v>
       </c>
       <c r="O145">
         <v>987009</v>
@@ -12863,20 +11155,23 @@
       <c r="I146">
         <v>100131</v>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>1461</v>
+      <c r="J146" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70069,1)</v>
       </c>
       <c r="K146">
         <v>100149</v>
       </c>
-      <c r="L146" s="2" t="s">
-        <v>1462</v>
+      <c r="L146" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70069,7)</v>
       </c>
       <c r="M146">
         <v>100152</v>
       </c>
-      <c r="N146" s="2" t="s">
-        <v>1463</v>
+      <c r="N146" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70069,10)</v>
       </c>
       <c r="O146">
         <v>987009</v>
@@ -12910,20 +11205,23 @@
       <c r="I147">
         <v>100130</v>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>1464</v>
+      <c r="J147" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70070,1)</v>
       </c>
       <c r="K147">
         <v>100148</v>
       </c>
-      <c r="L147" s="2" t="s">
-        <v>1465</v>
+      <c r="L147" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70070,7)</v>
       </c>
       <c r="M147">
         <v>100151</v>
       </c>
-      <c r="N147" s="2" t="s">
-        <v>1466</v>
+      <c r="N147" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70070,10)</v>
       </c>
       <c r="O147">
         <v>987009</v>
@@ -12957,20 +11255,23 @@
       <c r="I148">
         <v>100132</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>1467</v>
+      <c r="J148" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70071,1)</v>
       </c>
       <c r="K148">
         <v>100014</v>
       </c>
-      <c r="L148" s="2" t="s">
-        <v>1468</v>
+      <c r="L148" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70071,7)</v>
       </c>
       <c r="M148">
         <v>100153</v>
       </c>
-      <c r="N148" s="2" t="s">
-        <v>1469</v>
+      <c r="N148" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70071,10)</v>
       </c>
       <c r="O148">
         <v>987009</v>
@@ -13004,20 +11305,23 @@
       <c r="I149">
         <v>100131</v>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>1470</v>
+      <c r="J149" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70072,1)</v>
       </c>
       <c r="K149">
         <v>100148</v>
       </c>
-      <c r="L149" s="2" t="s">
-        <v>1471</v>
+      <c r="L149" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70072,7)</v>
       </c>
       <c r="M149">
         <v>100152</v>
       </c>
-      <c r="N149" s="2" t="s">
-        <v>1472</v>
+      <c r="N149" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70072,10)</v>
       </c>
       <c r="O149">
         <v>987009</v>
@@ -13051,20 +11355,23 @@
       <c r="I150">
         <v>900054</v>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>1473</v>
+      <c r="J150" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70073,1)</v>
       </c>
       <c r="K150">
         <v>0</v>
       </c>
-      <c r="L150" s="2" t="s">
-        <v>1474</v>
+      <c r="L150" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70073,7)</v>
       </c>
       <c r="M150">
         <v>0</v>
       </c>
-      <c r="N150" s="2" t="s">
-        <v>1475</v>
+      <c r="N150" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70073,10)</v>
       </c>
       <c r="O150">
         <v>987009</v>
@@ -13098,20 +11405,23 @@
       <c r="I151">
         <v>900055</v>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>1476</v>
+      <c r="J151" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70074,1)</v>
       </c>
       <c r="K151">
         <v>0</v>
       </c>
-      <c r="L151" s="2" t="s">
-        <v>1477</v>
+      <c r="L151" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70074,7)</v>
       </c>
       <c r="M151">
         <v>0</v>
       </c>
-      <c r="N151" s="2" t="s">
-        <v>1478</v>
+      <c r="N151" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70074,10)</v>
       </c>
       <c r="O151">
         <v>987009</v>
@@ -13145,20 +11455,23 @@
       <c r="I152">
         <v>100029</v>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>1479</v>
+      <c r="J152" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70075,1)</v>
       </c>
       <c r="K152">
         <v>100033</v>
       </c>
-      <c r="L152" s="2" t="s">
-        <v>1480</v>
+      <c r="L152" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70075,7)</v>
       </c>
       <c r="M152">
         <v>0</v>
       </c>
-      <c r="N152" s="2" t="s">
-        <v>1481</v>
+      <c r="N152" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70075,10)</v>
       </c>
       <c r="O152">
         <v>987009</v>
@@ -13192,20 +11505,23 @@
       <c r="I153">
         <v>910076</v>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>1482</v>
+      <c r="J153" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70076,1)</v>
       </c>
       <c r="K153">
         <v>910077</v>
       </c>
-      <c r="L153" s="2" t="s">
-        <v>1483</v>
+      <c r="L153" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70076,7)</v>
       </c>
       <c r="M153">
         <v>0</v>
       </c>
-      <c r="N153" s="2" t="s">
-        <v>1484</v>
+      <c r="N153" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70076,10)</v>
       </c>
       <c r="O153">
         <v>987024</v>
@@ -13239,20 +11555,23 @@
       <c r="I154">
         <v>100034</v>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>1485</v>
+      <c r="J154" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70077,1)</v>
       </c>
       <c r="K154">
         <v>0</v>
       </c>
-      <c r="L154" s="2" t="s">
-        <v>1486</v>
+      <c r="L154" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70077,7)</v>
       </c>
       <c r="M154">
         <v>0</v>
       </c>
-      <c r="N154" s="2" t="s">
-        <v>1487</v>
+      <c r="N154" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70077,10)</v>
       </c>
       <c r="O154">
         <v>987024</v>
@@ -13286,20 +11605,23 @@
       <c r="I155">
         <v>100119</v>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>1488</v>
+      <c r="J155" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70078,1)</v>
       </c>
       <c r="K155">
         <v>0</v>
       </c>
-      <c r="L155" s="2" t="s">
-        <v>1489</v>
+      <c r="L155" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70078,7)</v>
       </c>
       <c r="M155">
         <v>0</v>
       </c>
-      <c r="N155" s="2" t="s">
-        <v>1490</v>
+      <c r="N155" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70078,10)</v>
       </c>
       <c r="O155">
         <v>987009</v>
@@ -13333,20 +11655,23 @@
       <c r="I156">
         <v>500014</v>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>1491</v>
+      <c r="J156" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70079,1)</v>
       </c>
       <c r="K156">
         <v>500008</v>
       </c>
-      <c r="L156" s="2" t="s">
-        <v>1492</v>
+      <c r="L156" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70079,7)</v>
       </c>
       <c r="M156">
         <v>500003</v>
       </c>
-      <c r="N156" s="2" t="s">
-        <v>1493</v>
+      <c r="N156" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70079,10)</v>
       </c>
       <c r="O156">
         <v>987024</v>
@@ -13380,20 +11705,23 @@
       <c r="I157">
         <v>910087</v>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>1494</v>
+      <c r="J157" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70080,1)</v>
       </c>
       <c r="K157">
         <v>500029</v>
       </c>
-      <c r="L157" s="2" t="s">
-        <v>1495</v>
+      <c r="L157" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70080,7)</v>
       </c>
       <c r="M157">
         <v>0</v>
       </c>
-      <c r="N157" s="2" t="s">
-        <v>1496</v>
+      <c r="N157" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70080,10)</v>
       </c>
       <c r="O157">
         <v>987009</v>
@@ -13427,20 +11755,23 @@
       <c r="I158">
         <v>100017</v>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>1497</v>
+      <c r="J158" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70081,1)</v>
       </c>
       <c r="K158">
         <v>100035</v>
       </c>
-      <c r="L158" s="2" t="s">
-        <v>1498</v>
+      <c r="L158" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70081,7)</v>
       </c>
       <c r="M158">
         <v>100034</v>
       </c>
-      <c r="N158" s="2" t="s">
-        <v>1499</v>
+      <c r="N158" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70081,10)</v>
       </c>
       <c r="O158">
         <v>987009</v>
@@ -13474,20 +11805,23 @@
       <c r="I159">
         <v>910116</v>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>1500</v>
+      <c r="J159" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70082,1)</v>
       </c>
       <c r="K159">
         <v>0</v>
       </c>
-      <c r="L159" s="2" t="s">
-        <v>1501</v>
+      <c r="L159" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70082,7)</v>
       </c>
       <c r="M159">
         <v>0</v>
       </c>
-      <c r="N159" s="2" t="s">
-        <v>1502</v>
+      <c r="N159" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70082,10)</v>
       </c>
       <c r="O159">
         <v>987009</v>
@@ -13521,20 +11855,23 @@
       <c r="I160">
         <v>910138</v>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>1503</v>
+      <c r="J160" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70083,1)</v>
       </c>
       <c r="K160">
         <v>910139</v>
       </c>
-      <c r="L160" s="2" t="s">
-        <v>1504</v>
+      <c r="L160" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70083,7)</v>
       </c>
       <c r="M160">
         <v>910140</v>
       </c>
-      <c r="N160" s="2" t="s">
-        <v>1505</v>
+      <c r="N160" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70083,10)</v>
       </c>
       <c r="O160">
         <v>987009</v>
@@ -13568,20 +11905,23 @@
       <c r="I161">
         <v>910143</v>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>1506</v>
+      <c r="J161" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70084,1)</v>
       </c>
       <c r="K161">
         <v>500038</v>
       </c>
-      <c r="L161" s="2" t="s">
-        <v>1507</v>
+      <c r="L161" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70084,7)</v>
       </c>
       <c r="M161">
         <v>0</v>
       </c>
-      <c r="N161" s="2" t="s">
-        <v>1508</v>
+      <c r="N161" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70084,10)</v>
       </c>
       <c r="O161">
         <v>987009</v>
@@ -13615,20 +11955,23 @@
       <c r="I162">
         <v>500022</v>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>1509</v>
+      <c r="J162" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70085,1)</v>
       </c>
       <c r="K162">
         <v>500025</v>
       </c>
-      <c r="L162" s="2" t="s">
-        <v>1510</v>
+      <c r="L162" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70085,7)</v>
       </c>
       <c r="M162">
         <v>500038</v>
       </c>
-      <c r="N162" s="2" t="s">
-        <v>1511</v>
+      <c r="N162" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70085,10)</v>
       </c>
       <c r="O162">
         <v>910149</v>
@@ -13662,20 +12005,23 @@
       <c r="I163">
         <v>500017</v>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>1512</v>
+      <c r="J163" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70086,1)</v>
       </c>
       <c r="K163">
         <v>500014</v>
       </c>
-      <c r="L163" s="2" t="s">
-        <v>1513</v>
+      <c r="L163" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70086,7)</v>
       </c>
       <c r="M163">
         <v>910146</v>
       </c>
-      <c r="N163" s="2" t="s">
-        <v>1514</v>
+      <c r="N163" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70086,10)</v>
       </c>
       <c r="O163">
         <v>987009</v>
@@ -13709,20 +12055,23 @@
       <c r="I164">
         <v>500038</v>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>1515</v>
+      <c r="J164" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70087,1)</v>
       </c>
       <c r="K164">
         <v>910148</v>
       </c>
-      <c r="L164" s="2" t="s">
-        <v>1516</v>
+      <c r="L164" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70087,7)</v>
       </c>
       <c r="M164">
         <v>500042</v>
       </c>
-      <c r="N164" s="2" t="s">
-        <v>1517</v>
+      <c r="N164" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70087,10)</v>
       </c>
       <c r="O164">
         <v>987009</v>
@@ -13756,20 +12105,23 @@
       <c r="I165">
         <v>910173</v>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>1518</v>
+      <c r="J165" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70088,1)</v>
       </c>
       <c r="K165">
         <v>910174</v>
       </c>
-      <c r="L165" s="2" t="s">
-        <v>1519</v>
+      <c r="L165" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70088,7)</v>
       </c>
       <c r="M165">
         <v>910175</v>
       </c>
-      <c r="N165" s="2" t="s">
-        <v>1520</v>
+      <c r="N165" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70088,10)</v>
       </c>
       <c r="O165">
         <v>987024</v>
@@ -13803,20 +12155,23 @@
       <c r="I166">
         <v>910181</v>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>1521</v>
+      <c r="J166" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70089,1)</v>
       </c>
       <c r="K166">
         <v>0</v>
       </c>
-      <c r="L166" s="2" t="s">
-        <v>1522</v>
+      <c r="L166" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70089,7)</v>
       </c>
       <c r="M166">
         <v>0</v>
       </c>
-      <c r="N166" s="2" t="s">
-        <v>1523</v>
+      <c r="N166" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70089,10)</v>
       </c>
       <c r="O166">
         <v>987024</v>
@@ -13850,20 +12205,23 @@
       <c r="I167">
         <v>910072</v>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>1524</v>
+      <c r="J167" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70090,1)</v>
       </c>
       <c r="K167">
         <v>100069</v>
       </c>
-      <c r="L167" s="2" t="s">
-        <v>1525</v>
+      <c r="L167" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70090,7)</v>
       </c>
       <c r="M167">
         <v>100076</v>
       </c>
-      <c r="N167" s="2" t="s">
-        <v>1526</v>
+      <c r="N167" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70090,10)</v>
       </c>
       <c r="O167">
         <v>987009</v>
@@ -13897,20 +12255,23 @@
       <c r="I168">
         <v>100076</v>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>1527</v>
+      <c r="J168" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,70091,1)</v>
       </c>
       <c r="K168">
         <v>500036</v>
       </c>
-      <c r="L168" s="2" t="s">
-        <v>1528</v>
+      <c r="L168" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,70091,7)</v>
       </c>
       <c r="M168">
         <v>0</v>
       </c>
-      <c r="N168" s="2" t="s">
-        <v>1529</v>
+      <c r="N168" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,70091,10)</v>
       </c>
       <c r="O168">
         <v>987009</v>
@@ -13944,20 +12305,23 @@
       <c r="I169">
         <v>987001</v>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>1530</v>
+      <c r="J169" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87001,1)</v>
       </c>
       <c r="K169">
         <v>0</v>
       </c>
-      <c r="L169" s="2" t="s">
-        <v>1531</v>
+      <c r="L169" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87001,7)</v>
       </c>
       <c r="M169">
         <v>0</v>
       </c>
-      <c r="N169" s="2" t="s">
-        <v>1532</v>
+      <c r="N169" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87001,10)</v>
       </c>
       <c r="O169">
         <v>987009</v>
@@ -13991,20 +12355,23 @@
       <c r="I170">
         <v>987010</v>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>1533</v>
+      <c r="J170" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87002,1)</v>
       </c>
       <c r="K170">
         <v>0</v>
       </c>
-      <c r="L170" s="2" t="s">
-        <v>1534</v>
+      <c r="L170" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87002,7)</v>
       </c>
       <c r="M170">
         <v>0</v>
       </c>
-      <c r="N170" s="2" t="s">
-        <v>1535</v>
+      <c r="N170" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87002,10)</v>
       </c>
       <c r="O170">
         <v>987009</v>
@@ -14038,20 +12405,23 @@
       <c r="I171">
         <v>987012</v>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>1536</v>
+      <c r="J171" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87003,1)</v>
       </c>
       <c r="K171">
         <v>0</v>
       </c>
-      <c r="L171" s="2" t="s">
-        <v>1537</v>
+      <c r="L171" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87003,7)</v>
       </c>
       <c r="M171">
         <v>0</v>
       </c>
-      <c r="N171" s="2" t="s">
-        <v>1538</v>
+      <c r="N171" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87003,10)</v>
       </c>
       <c r="O171">
         <v>987009</v>
@@ -14085,20 +12455,23 @@
       <c r="I172">
         <v>987015</v>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>1539</v>
+      <c r="J172" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87004,1)</v>
       </c>
       <c r="K172">
         <v>0</v>
       </c>
-      <c r="L172" s="2" t="s">
-        <v>1540</v>
+      <c r="L172" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87004,7)</v>
       </c>
       <c r="M172">
         <v>0</v>
       </c>
-      <c r="N172" s="2" t="s">
-        <v>1541</v>
+      <c r="N172" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87004,10)</v>
       </c>
       <c r="O172">
         <v>987009</v>
@@ -14132,20 +12505,23 @@
       <c r="I173">
         <v>987017</v>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>1542</v>
+      <c r="J173" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87005,1)</v>
       </c>
       <c r="K173">
         <v>0</v>
       </c>
-      <c r="L173" s="2" t="s">
-        <v>1543</v>
+      <c r="L173" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87005,7)</v>
       </c>
       <c r="M173">
         <v>0</v>
       </c>
-      <c r="N173" s="2" t="s">
-        <v>1544</v>
+      <c r="N173" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87005,10)</v>
       </c>
       <c r="O173">
         <v>987009</v>
@@ -14179,20 +12555,23 @@
       <c r="I174">
         <v>987022</v>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>1545</v>
+      <c r="J174" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87006,1)</v>
       </c>
       <c r="K174">
         <v>987097</v>
       </c>
-      <c r="L174" s="2" t="s">
-        <v>1546</v>
+      <c r="L174" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87006,7)</v>
       </c>
       <c r="M174">
         <v>987003</v>
       </c>
-      <c r="N174" s="2" t="s">
-        <v>1547</v>
+      <c r="N174" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87006,10)</v>
       </c>
       <c r="O174">
         <v>987009</v>
@@ -14226,20 +12605,23 @@
       <c r="I175">
         <v>987004</v>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>1548</v>
+      <c r="J175" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87007,1)</v>
       </c>
       <c r="K175">
         <v>987023</v>
       </c>
-      <c r="L175" s="2" t="s">
-        <v>1549</v>
+      <c r="L175" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87007,7)</v>
       </c>
       <c r="M175">
         <v>0</v>
       </c>
-      <c r="N175" s="2" t="s">
-        <v>1550</v>
+      <c r="N175" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87007,10)</v>
       </c>
       <c r="O175">
         <v>987024</v>
@@ -14273,20 +12655,23 @@
       <c r="I176">
         <v>100013</v>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>1551</v>
+      <c r="J176" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87008,1)</v>
       </c>
       <c r="K176">
         <v>0</v>
       </c>
-      <c r="L176" s="2" t="s">
-        <v>1552</v>
+      <c r="L176" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87008,7)</v>
       </c>
       <c r="M176">
         <v>0</v>
       </c>
-      <c r="N176" s="2" t="s">
-        <v>1553</v>
+      <c r="N176" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87008,10)</v>
       </c>
       <c r="O176">
         <v>987024</v>
@@ -14320,20 +12705,23 @@
       <c r="I177">
         <v>987069</v>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>1554</v>
+      <c r="J177" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87009,1)</v>
       </c>
       <c r="K177">
         <v>0</v>
       </c>
-      <c r="L177" s="2" t="s">
-        <v>1555</v>
+      <c r="L177" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87009,7)</v>
       </c>
       <c r="M177">
         <v>0</v>
       </c>
-      <c r="N177" s="2" t="s">
-        <v>1556</v>
+      <c r="N177" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87009,10)</v>
       </c>
       <c r="O177">
         <v>987009</v>
@@ -14367,20 +12755,23 @@
       <c r="I178">
         <v>987037</v>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>1557</v>
+      <c r="J178" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87010,1)</v>
       </c>
       <c r="K178">
         <v>0</v>
       </c>
-      <c r="L178" s="2" t="s">
-        <v>1558</v>
+      <c r="L178" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87010,7)</v>
       </c>
       <c r="M178">
         <v>0</v>
       </c>
-      <c r="N178" s="2" t="s">
-        <v>1559</v>
+      <c r="N178" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87010,10)</v>
       </c>
       <c r="O178">
         <v>987009</v>
@@ -14414,20 +12805,23 @@
       <c r="I179">
         <v>987038</v>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>1560</v>
+      <c r="J179" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87011,1)</v>
       </c>
       <c r="K179">
         <v>0</v>
       </c>
-      <c r="L179" s="2" t="s">
-        <v>1561</v>
+      <c r="L179" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87011,7)</v>
       </c>
       <c r="M179">
         <v>0</v>
       </c>
-      <c r="N179" s="2" t="s">
-        <v>1562</v>
+      <c r="N179" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87011,10)</v>
       </c>
       <c r="O179">
         <v>987009</v>
@@ -14461,20 +12855,23 @@
       <c r="I180">
         <v>987039</v>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>1563</v>
+      <c r="J180" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87012,1)</v>
       </c>
       <c r="K180">
         <v>0</v>
       </c>
-      <c r="L180" s="2" t="s">
-        <v>1564</v>
+      <c r="L180" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87012,7)</v>
       </c>
       <c r="M180">
         <v>0</v>
       </c>
-      <c r="N180" s="2" t="s">
-        <v>1565</v>
+      <c r="N180" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87012,10)</v>
       </c>
       <c r="O180">
         <v>987009</v>
@@ -14508,20 +12905,23 @@
       <c r="I181">
         <v>987040</v>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>1566</v>
+      <c r="J181" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87013,1)</v>
       </c>
       <c r="K181">
         <v>0</v>
       </c>
-      <c r="L181" s="2" t="s">
-        <v>1567</v>
+      <c r="L181" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87013,7)</v>
       </c>
       <c r="M181">
         <v>0</v>
       </c>
-      <c r="N181" s="2" t="s">
-        <v>1568</v>
+      <c r="N181" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87013,10)</v>
       </c>
       <c r="O181">
         <v>987009</v>
@@ -14555,20 +12955,23 @@
       <c r="I182">
         <v>987041</v>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>1569</v>
+      <c r="J182" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87014,1)</v>
       </c>
       <c r="K182">
         <v>0</v>
       </c>
-      <c r="L182" s="2" t="s">
-        <v>1570</v>
+      <c r="L182" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87014,7)</v>
       </c>
       <c r="M182">
         <v>0</v>
       </c>
-      <c r="N182" s="2" t="s">
-        <v>1571</v>
+      <c r="N182" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87014,10)</v>
       </c>
       <c r="O182">
         <v>987009</v>
@@ -14602,20 +13005,23 @@
       <c r="I183">
         <v>987072</v>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>1572</v>
+      <c r="J183" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87015,1)</v>
       </c>
       <c r="K183">
         <v>0</v>
       </c>
-      <c r="L183" s="2" t="s">
-        <v>1573</v>
+      <c r="L183" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87015,7)</v>
       </c>
       <c r="M183">
         <v>0</v>
       </c>
-      <c r="N183" s="2" t="s">
-        <v>1574</v>
+      <c r="N183" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87015,10)</v>
       </c>
       <c r="O183">
         <v>987009</v>
@@ -14649,20 +13055,23 @@
       <c r="I184">
         <v>987081</v>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>1575</v>
+      <c r="J184" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87016,1)</v>
       </c>
       <c r="K184">
         <v>0</v>
       </c>
-      <c r="L184" s="2" t="s">
-        <v>1576</v>
+      <c r="L184" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87016,7)</v>
       </c>
       <c r="M184">
         <v>0</v>
       </c>
-      <c r="N184" s="2" t="s">
-        <v>1577</v>
+      <c r="N184" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87016,10)</v>
       </c>
       <c r="O184">
         <v>987009</v>
@@ -14696,20 +13105,23 @@
       <c r="I185">
         <v>987084</v>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>1578</v>
+      <c r="J185" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87017,1)</v>
       </c>
       <c r="K185">
         <v>0</v>
       </c>
-      <c r="L185" s="2" t="s">
-        <v>1579</v>
+      <c r="L185" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87017,7)</v>
       </c>
       <c r="M185">
         <v>0</v>
       </c>
-      <c r="N185" s="2" t="s">
-        <v>1580</v>
+      <c r="N185" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87017,10)</v>
       </c>
       <c r="O185">
         <v>987009</v>
@@ -14743,20 +13155,23 @@
       <c r="I186">
         <v>987078</v>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>1581</v>
+      <c r="J186" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87018,1)</v>
       </c>
       <c r="K186">
         <v>0</v>
       </c>
-      <c r="L186" s="2" t="s">
-        <v>1582</v>
+      <c r="L186" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87018,7)</v>
       </c>
       <c r="M186">
         <v>0</v>
       </c>
-      <c r="N186" s="2" t="s">
-        <v>1583</v>
+      <c r="N186" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87018,10)</v>
       </c>
       <c r="O186">
         <v>987009</v>
@@ -14790,20 +13205,23 @@
       <c r="I187">
         <v>987093</v>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>1584</v>
+      <c r="J187" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87019,1)</v>
       </c>
       <c r="K187">
         <v>0</v>
       </c>
-      <c r="L187" s="2" t="s">
-        <v>1585</v>
+      <c r="L187" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87019,7)</v>
       </c>
       <c r="M187">
         <v>0</v>
       </c>
-      <c r="N187" s="2" t="s">
-        <v>1586</v>
+      <c r="N187" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87019,10)</v>
       </c>
       <c r="O187">
         <v>987009</v>
@@ -14837,20 +13255,23 @@
       <c r="I188">
         <v>100016</v>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>1587</v>
+      <c r="J188" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87020,1)</v>
       </c>
       <c r="K188">
         <v>987094</v>
       </c>
-      <c r="L188" s="2" t="s">
-        <v>1588</v>
+      <c r="L188" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87020,7)</v>
       </c>
       <c r="M188">
         <v>987095</v>
       </c>
-      <c r="N188" s="2" t="s">
-        <v>1589</v>
+      <c r="N188" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87020,10)</v>
       </c>
       <c r="O188">
         <v>987024</v>
@@ -14884,20 +13305,23 @@
       <c r="I189">
         <v>987096</v>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>1590</v>
+      <c r="J189" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87021,1)</v>
       </c>
       <c r="K189">
         <v>100051</v>
       </c>
-      <c r="L189" s="2" t="s">
-        <v>1591</v>
+      <c r="L189" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87021,7)</v>
       </c>
       <c r="M189">
         <v>0</v>
       </c>
-      <c r="N189" s="2" t="s">
-        <v>1592</v>
+      <c r="N189" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87021,10)</v>
       </c>
       <c r="O189">
         <v>987009</v>
@@ -14931,20 +13355,23 @@
       <c r="I190">
         <v>100075</v>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>1593</v>
+      <c r="J190" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87022,1)</v>
       </c>
       <c r="K190">
         <v>0</v>
       </c>
-      <c r="L190" s="2" t="s">
-        <v>1594</v>
+      <c r="L190" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87022,7)</v>
       </c>
       <c r="M190">
         <v>0</v>
       </c>
-      <c r="N190" s="2" t="s">
-        <v>1595</v>
+      <c r="N190" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87022,10)</v>
       </c>
       <c r="O190">
         <v>987009</v>
@@ -14978,20 +13405,23 @@
       <c r="I191">
         <v>100075</v>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>1596</v>
+      <c r="J191" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87023,1)</v>
       </c>
       <c r="K191">
         <v>987100</v>
       </c>
-      <c r="L191" s="2" t="s">
-        <v>1597</v>
+      <c r="L191" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87023,7)</v>
       </c>
       <c r="M191">
         <v>0</v>
       </c>
-      <c r="N191" s="2" t="s">
-        <v>1598</v>
+      <c r="N191" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87023,10)</v>
       </c>
       <c r="O191">
         <v>987009</v>
@@ -15025,20 +13455,23 @@
       <c r="I192">
         <v>987101</v>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>1599</v>
+      <c r="J192" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87024,1)</v>
       </c>
       <c r="K192">
         <v>0</v>
       </c>
-      <c r="L192" s="2" t="s">
-        <v>1600</v>
+      <c r="L192" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87024,7)</v>
       </c>
       <c r="M192">
         <v>0</v>
       </c>
-      <c r="N192" s="2" t="s">
-        <v>1601</v>
+      <c r="N192" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87024,10)</v>
       </c>
       <c r="O192">
         <v>987009</v>
@@ -15072,20 +13505,23 @@
       <c r="I193">
         <v>987102</v>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>1602</v>
+      <c r="J193" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87025,1)</v>
       </c>
       <c r="K193">
         <v>0</v>
       </c>
-      <c r="L193" s="2" t="s">
-        <v>1603</v>
+      <c r="L193" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87025,7)</v>
       </c>
       <c r="M193">
         <v>0</v>
       </c>
-      <c r="N193" s="2" t="s">
-        <v>1604</v>
+      <c r="N193" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87025,10)</v>
       </c>
       <c r="O193">
         <v>987009</v>
@@ -15119,20 +13555,23 @@
       <c r="I194">
         <v>987103</v>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>1605</v>
+      <c r="J194" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87026,1)</v>
       </c>
       <c r="K194">
         <v>0</v>
       </c>
-      <c r="L194" s="2" t="s">
-        <v>1606</v>
+      <c r="L194" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87026,7)</v>
       </c>
       <c r="M194">
         <v>0</v>
       </c>
-      <c r="N194" s="2" t="s">
-        <v>1607</v>
+      <c r="N194" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87026,10)</v>
       </c>
       <c r="O194">
         <v>987009</v>
@@ -15166,20 +13605,23 @@
       <c r="I195">
         <v>987104</v>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>1608</v>
+      <c r="J195" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(10,0,87027,1)</v>
       </c>
       <c r="K195">
         <v>0</v>
       </c>
-      <c r="L195" s="2" t="s">
-        <v>1609</v>
+      <c r="L195" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>(10,0,87027,7)</v>
       </c>
       <c r="M195">
         <v>0</v>
       </c>
-      <c r="N195" s="2" t="s">
-        <v>1610</v>
+      <c r="N195" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>(10,0,87027,10)</v>
       </c>
       <c r="O195">
         <v>987009</v>
@@ -15213,20 +13655,23 @@
       <c r="I196">
         <v>987105</v>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>1611</v>
+      <c r="J196" s="2" t="str">
+        <f t="shared" ref="J196:J241" si="9">"(10,0,"&amp;A196&amp;",1)"</f>
+        <v>(10,0,87028,1)</v>
       </c>
       <c r="K196">
         <v>0</v>
       </c>
-      <c r="L196" s="2" t="s">
-        <v>1612</v>
+      <c r="L196" s="2" t="str">
+        <f t="shared" ref="L196:L241" si="10">"(10,0,"&amp;A196&amp;",7)"</f>
+        <v>(10,0,87028,7)</v>
       </c>
       <c r="M196">
         <v>0</v>
       </c>
-      <c r="N196" s="2" t="s">
-        <v>1613</v>
+      <c r="N196" s="2" t="str">
+        <f t="shared" ref="N196:N241" si="11">"(10,0,"&amp;A196&amp;",10)"</f>
+        <v>(10,0,87028,10)</v>
       </c>
       <c r="O196">
         <v>987009</v>
@@ -15260,20 +13705,23 @@
       <c r="I197">
         <v>987106</v>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>1614</v>
+      <c r="J197" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87029,1)</v>
       </c>
       <c r="K197">
         <v>0</v>
       </c>
-      <c r="L197" s="2" t="s">
-        <v>1615</v>
+      <c r="L197" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87029,7)</v>
       </c>
       <c r="M197">
         <v>0</v>
       </c>
-      <c r="N197" s="2" t="s">
-        <v>1616</v>
+      <c r="N197" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87029,10)</v>
       </c>
       <c r="O197">
         <v>987009</v>
@@ -15307,20 +13755,23 @@
       <c r="I198">
         <v>987109</v>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>1617</v>
+      <c r="J198" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87030,1)</v>
       </c>
       <c r="K198">
         <v>0</v>
       </c>
-      <c r="L198" s="2" t="s">
-        <v>1618</v>
+      <c r="L198" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87030,7)</v>
       </c>
       <c r="M198">
         <v>0</v>
       </c>
-      <c r="N198" s="2" t="s">
-        <v>1619</v>
+      <c r="N198" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87030,10)</v>
       </c>
       <c r="O198">
         <v>987009</v>
@@ -15354,20 +13805,23 @@
       <c r="I199">
         <v>987110</v>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>1620</v>
+      <c r="J199" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87031,1)</v>
       </c>
       <c r="K199">
         <v>0</v>
       </c>
-      <c r="L199" s="2" t="s">
-        <v>1621</v>
+      <c r="L199" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87031,7)</v>
       </c>
       <c r="M199">
         <v>0</v>
       </c>
-      <c r="N199" s="2" t="s">
-        <v>1622</v>
+      <c r="N199" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87031,10)</v>
       </c>
       <c r="O199">
         <v>987009</v>
@@ -15401,20 +13855,23 @@
       <c r="I200">
         <v>987111</v>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>1623</v>
+      <c r="J200" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87032,1)</v>
       </c>
       <c r="K200">
         <v>0</v>
       </c>
-      <c r="L200" s="2" t="s">
-        <v>1624</v>
+      <c r="L200" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87032,7)</v>
       </c>
       <c r="M200">
         <v>0</v>
       </c>
-      <c r="N200" s="2" t="s">
-        <v>1625</v>
+      <c r="N200" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87032,10)</v>
       </c>
       <c r="O200">
         <v>987009</v>
@@ -15448,20 +13905,23 @@
       <c r="I201">
         <v>987112</v>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>1626</v>
+      <c r="J201" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87033,1)</v>
       </c>
       <c r="K201">
         <v>0</v>
       </c>
-      <c r="L201" s="2" t="s">
-        <v>1627</v>
+      <c r="L201" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87033,7)</v>
       </c>
       <c r="M201">
         <v>0</v>
       </c>
-      <c r="N201" s="2" t="s">
-        <v>1628</v>
+      <c r="N201" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87033,10)</v>
       </c>
       <c r="O201">
         <v>987009</v>
@@ -15495,20 +13955,23 @@
       <c r="I202">
         <v>987113</v>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>1629</v>
+      <c r="J202" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87034,1)</v>
       </c>
       <c r="K202">
         <v>0</v>
       </c>
-      <c r="L202" s="2" t="s">
-        <v>1630</v>
+      <c r="L202" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87034,7)</v>
       </c>
       <c r="M202">
         <v>0</v>
       </c>
-      <c r="N202" s="2" t="s">
-        <v>1631</v>
+      <c r="N202" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87034,10)</v>
       </c>
       <c r="O202">
         <v>987009</v>
@@ -15542,20 +14005,23 @@
       <c r="I203">
         <v>987119</v>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>1632</v>
+      <c r="J203" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87035,1)</v>
       </c>
       <c r="K203">
         <v>0</v>
       </c>
-      <c r="L203" s="2" t="s">
-        <v>1633</v>
+      <c r="L203" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87035,7)</v>
       </c>
       <c r="M203">
         <v>0</v>
       </c>
-      <c r="N203" s="2" t="s">
-        <v>1634</v>
+      <c r="N203" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87035,10)</v>
       </c>
       <c r="O203">
         <v>987009</v>
@@ -15589,20 +14055,23 @@
       <c r="I204">
         <v>987120</v>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>1635</v>
+      <c r="J204" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87036,1)</v>
       </c>
       <c r="K204">
         <v>0</v>
       </c>
-      <c r="L204" s="2" t="s">
-        <v>1636</v>
+      <c r="L204" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87036,7)</v>
       </c>
       <c r="M204">
         <v>0</v>
       </c>
-      <c r="N204" s="2" t="s">
-        <v>1637</v>
+      <c r="N204" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87036,10)</v>
       </c>
       <c r="O204">
         <v>987009</v>
@@ -15636,20 +14105,23 @@
       <c r="I205">
         <v>987120</v>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>1638</v>
+      <c r="J205" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87037,1)</v>
       </c>
       <c r="K205">
         <v>0</v>
       </c>
-      <c r="L205" s="2" t="s">
-        <v>1639</v>
+      <c r="L205" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87037,7)</v>
       </c>
       <c r="M205">
         <v>0</v>
       </c>
-      <c r="N205" s="2" t="s">
-        <v>1640</v>
+      <c r="N205" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87037,10)</v>
       </c>
       <c r="O205">
         <v>987009</v>
@@ -15683,20 +14155,23 @@
       <c r="I206">
         <v>987121</v>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>1641</v>
+      <c r="J206" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87038,1)</v>
       </c>
       <c r="K206">
         <v>0</v>
       </c>
-      <c r="L206" s="2" t="s">
-        <v>1642</v>
+      <c r="L206" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87038,7)</v>
       </c>
       <c r="M206">
         <v>0</v>
       </c>
-      <c r="N206" s="2" t="s">
-        <v>1643</v>
+      <c r="N206" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87038,10)</v>
       </c>
       <c r="O206">
         <v>987009</v>
@@ -15730,20 +14205,23 @@
       <c r="I207">
         <v>987122</v>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>1644</v>
+      <c r="J207" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87039,1)</v>
       </c>
       <c r="K207">
         <v>0</v>
       </c>
-      <c r="L207" s="2" t="s">
-        <v>1645</v>
+      <c r="L207" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87039,7)</v>
       </c>
       <c r="M207">
         <v>0</v>
       </c>
-      <c r="N207" s="2" t="s">
-        <v>1646</v>
+      <c r="N207" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87039,10)</v>
       </c>
       <c r="O207">
         <v>987009</v>
@@ -15777,20 +14255,23 @@
       <c r="I208">
         <v>987123</v>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>1647</v>
+      <c r="J208" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87040,1)</v>
       </c>
       <c r="K208">
         <v>0</v>
       </c>
-      <c r="L208" s="2" t="s">
-        <v>1648</v>
+      <c r="L208" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87040,7)</v>
       </c>
       <c r="M208">
         <v>0</v>
       </c>
-      <c r="N208" s="2" t="s">
-        <v>1649</v>
+      <c r="N208" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87040,10)</v>
       </c>
       <c r="O208">
         <v>987009</v>
@@ -15824,20 +14305,23 @@
       <c r="I209">
         <v>987124</v>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>1650</v>
+      <c r="J209" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87041,1)</v>
       </c>
       <c r="K209">
         <v>0</v>
       </c>
-      <c r="L209" s="2" t="s">
-        <v>1651</v>
+      <c r="L209" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87041,7)</v>
       </c>
       <c r="M209">
         <v>0</v>
       </c>
-      <c r="N209" s="2" t="s">
-        <v>1652</v>
+      <c r="N209" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87041,10)</v>
       </c>
       <c r="O209">
         <v>987009</v>
@@ -15871,20 +14355,23 @@
       <c r="I210">
         <v>987125</v>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>1653</v>
+      <c r="J210" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87042,1)</v>
       </c>
       <c r="K210">
         <v>0</v>
       </c>
-      <c r="L210" s="2" t="s">
-        <v>1654</v>
+      <c r="L210" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87042,7)</v>
       </c>
       <c r="M210">
         <v>0</v>
       </c>
-      <c r="N210" s="2" t="s">
-        <v>1655</v>
+      <c r="N210" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87042,10)</v>
       </c>
       <c r="O210">
         <v>987009</v>
@@ -15918,20 +14405,23 @@
       <c r="I211">
         <v>987126</v>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>1656</v>
+      <c r="J211" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87043,1)</v>
       </c>
       <c r="K211">
         <v>0</v>
       </c>
-      <c r="L211" s="2" t="s">
-        <v>1657</v>
+      <c r="L211" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87043,7)</v>
       </c>
       <c r="M211">
         <v>0</v>
       </c>
-      <c r="N211" s="2" t="s">
-        <v>1658</v>
+      <c r="N211" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87043,10)</v>
       </c>
       <c r="O211">
         <v>987009</v>
@@ -15965,20 +14455,23 @@
       <c r="I212">
         <v>987012</v>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>1659</v>
+      <c r="J212" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87044,1)</v>
       </c>
       <c r="K212">
         <v>987161</v>
       </c>
-      <c r="L212" s="2" t="s">
-        <v>1660</v>
+      <c r="L212" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87044,7)</v>
       </c>
       <c r="M212">
         <v>0</v>
       </c>
-      <c r="N212" s="2" t="s">
-        <v>1661</v>
+      <c r="N212" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87044,10)</v>
       </c>
       <c r="O212">
         <v>987009</v>
@@ -16012,20 +14505,23 @@
       <c r="I213">
         <v>987114</v>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>1662</v>
+      <c r="J213" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87045,1)</v>
       </c>
       <c r="K213">
         <v>0</v>
       </c>
-      <c r="L213" s="2" t="s">
-        <v>1663</v>
+      <c r="L213" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87045,7)</v>
       </c>
       <c r="M213">
         <v>0</v>
       </c>
-      <c r="N213" s="2" t="s">
-        <v>1664</v>
+      <c r="N213" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87045,10)</v>
       </c>
       <c r="O213">
         <v>987009</v>
@@ -16059,20 +14555,23 @@
       <c r="I214">
         <v>987116</v>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>1665</v>
+      <c r="J214" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87046,1)</v>
       </c>
       <c r="K214">
         <v>0</v>
       </c>
-      <c r="L214" s="2" t="s">
-        <v>1666</v>
+      <c r="L214" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87046,7)</v>
       </c>
       <c r="M214">
         <v>0</v>
       </c>
-      <c r="N214" s="2" t="s">
-        <v>1667</v>
+      <c r="N214" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87046,10)</v>
       </c>
       <c r="O214">
         <v>987009</v>
@@ -16106,20 +14605,23 @@
       <c r="I215">
         <v>987117</v>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>1668</v>
+      <c r="J215" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87047,1)</v>
       </c>
       <c r="K215">
         <v>0</v>
       </c>
-      <c r="L215" s="2" t="s">
-        <v>1669</v>
+      <c r="L215" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87047,7)</v>
       </c>
       <c r="M215">
         <v>0</v>
       </c>
-      <c r="N215" s="2" t="s">
-        <v>1670</v>
+      <c r="N215" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87047,10)</v>
       </c>
       <c r="O215">
         <v>987009</v>
@@ -16153,20 +14655,23 @@
       <c r="I216">
         <v>987183</v>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>1671</v>
+      <c r="J216" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87048,1)</v>
       </c>
       <c r="K216">
         <v>0</v>
       </c>
-      <c r="L216" s="2" t="s">
-        <v>1672</v>
+      <c r="L216" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87048,7)</v>
       </c>
       <c r="M216">
         <v>0</v>
       </c>
-      <c r="N216" s="2" t="s">
-        <v>1673</v>
+      <c r="N216" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87048,10)</v>
       </c>
       <c r="O216">
         <v>987009</v>
@@ -16200,20 +14705,23 @@
       <c r="I217">
         <v>987184</v>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>1674</v>
+      <c r="J217" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87049,1)</v>
       </c>
       <c r="K217">
         <v>0</v>
       </c>
-      <c r="L217" s="2" t="s">
-        <v>1675</v>
+      <c r="L217" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87049,7)</v>
       </c>
       <c r="M217">
         <v>0</v>
       </c>
-      <c r="N217" s="2" t="s">
-        <v>1676</v>
+      <c r="N217" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87049,10)</v>
       </c>
       <c r="O217">
         <v>987009</v>
@@ -16247,20 +14755,23 @@
       <c r="I218">
         <v>500092</v>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>1677</v>
+      <c r="J218" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,87050,1)</v>
       </c>
       <c r="K218">
         <v>0</v>
       </c>
-      <c r="L218" s="2" t="s">
-        <v>1678</v>
+      <c r="L218" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,87050,7)</v>
       </c>
       <c r="M218">
         <v>0</v>
       </c>
-      <c r="N218" s="2" t="s">
-        <v>1679</v>
+      <c r="N218" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,87050,10)</v>
       </c>
       <c r="O218">
         <v>987009</v>
@@ -16280,7 +14791,7 @@
         <v>361</v>
       </c>
       <c r="E219" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F219" t="s">
         <v>199</v>
@@ -16294,20 +14805,23 @@
       <c r="I219">
         <v>100075</v>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>1681</v>
+      <c r="J219" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90001,1)</v>
       </c>
       <c r="K219">
         <v>100076</v>
       </c>
-      <c r="L219" s="2" t="s">
-        <v>1682</v>
+      <c r="L219" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90001,7)</v>
       </c>
       <c r="M219">
         <v>100037</v>
       </c>
-      <c r="N219" s="2" t="s">
-        <v>1683</v>
+      <c r="N219" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90001,10)</v>
       </c>
       <c r="O219">
         <v>987009</v>
@@ -16327,7 +14841,7 @@
         <v>361</v>
       </c>
       <c r="E220" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F220" t="s">
         <v>199</v>
@@ -16341,20 +14855,23 @@
       <c r="I220">
         <v>100109</v>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>1684</v>
+      <c r="J220" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90002,1)</v>
       </c>
       <c r="K220">
         <v>0</v>
       </c>
-      <c r="L220" s="2" t="s">
-        <v>1685</v>
+      <c r="L220" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90002,7)</v>
       </c>
       <c r="M220">
         <v>0</v>
       </c>
-      <c r="N220" s="2" t="s">
-        <v>1686</v>
+      <c r="N220" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90002,10)</v>
       </c>
       <c r="O220">
         <v>987009</v>
@@ -16374,7 +14891,7 @@
         <v>361</v>
       </c>
       <c r="E221" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F221" t="s">
         <v>199</v>
@@ -16388,20 +14905,23 @@
       <c r="I221">
         <v>100035</v>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>1687</v>
+      <c r="J221" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90003,1)</v>
       </c>
       <c r="K221">
         <v>100016</v>
       </c>
-      <c r="L221" s="2" t="s">
-        <v>1688</v>
+      <c r="L221" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90003,7)</v>
       </c>
       <c r="M221">
         <v>100065</v>
       </c>
-      <c r="N221" s="2" t="s">
-        <v>1689</v>
+      <c r="N221" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90003,10)</v>
       </c>
       <c r="O221">
         <v>987024</v>
@@ -16421,7 +14941,7 @@
         <v>373</v>
       </c>
       <c r="E222" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F222" t="s">
         <v>315</v>
@@ -16435,20 +14955,23 @@
       <c r="I222">
         <v>100029</v>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>1690</v>
+      <c r="J222" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90004,1)</v>
       </c>
       <c r="K222">
         <v>100044</v>
       </c>
-      <c r="L222" s="2" t="s">
-        <v>1691</v>
+      <c r="L222" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90004,7)</v>
       </c>
       <c r="M222">
         <v>100030</v>
       </c>
-      <c r="N222" s="2" t="s">
-        <v>1692</v>
+      <c r="N222" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90004,10)</v>
       </c>
       <c r="O222">
         <v>987009</v>
@@ -16468,7 +14991,7 @@
         <v>361</v>
       </c>
       <c r="E223" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F223" t="s">
         <v>199</v>
@@ -16482,20 +15005,23 @@
       <c r="I223">
         <v>987189</v>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>1693</v>
+      <c r="J223" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90005,1)</v>
       </c>
       <c r="K223">
         <v>0</v>
       </c>
-      <c r="L223" s="2" t="s">
-        <v>1694</v>
+      <c r="L223" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90005,7)</v>
       </c>
       <c r="M223">
         <v>0</v>
       </c>
-      <c r="N223" s="2" t="s">
-        <v>1695</v>
+      <c r="N223" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90005,10)</v>
       </c>
       <c r="O223">
         <v>910167</v>
@@ -16515,7 +15041,7 @@
         <v>361</v>
       </c>
       <c r="E224" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F224" t="s">
         <v>199</v>
@@ -16529,20 +15055,23 @@
       <c r="I224">
         <v>100112</v>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>1696</v>
+      <c r="J224" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90006,1)</v>
       </c>
       <c r="K224">
         <v>0</v>
       </c>
-      <c r="L224" s="2" t="s">
-        <v>1697</v>
+      <c r="L224" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90006,7)</v>
       </c>
       <c r="M224">
         <v>0</v>
       </c>
-      <c r="N224" s="2" t="s">
-        <v>1698</v>
+      <c r="N224" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90006,10)</v>
       </c>
       <c r="O224">
         <v>987009</v>
@@ -16562,7 +15091,7 @@
         <v>361</v>
       </c>
       <c r="E225" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F225" t="s">
         <v>199</v>
@@ -16576,20 +15105,23 @@
       <c r="I225">
         <v>100107</v>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>1699</v>
+      <c r="J225" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90007,1)</v>
       </c>
       <c r="K225">
         <v>0</v>
       </c>
-      <c r="L225" s="2" t="s">
-        <v>1700</v>
+      <c r="L225" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90007,7)</v>
       </c>
       <c r="M225">
         <v>0</v>
       </c>
-      <c r="N225" s="2" t="s">
-        <v>1701</v>
+      <c r="N225" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90007,10)</v>
       </c>
       <c r="O225">
         <v>987009</v>
@@ -16609,7 +15141,7 @@
         <v>361</v>
       </c>
       <c r="E226" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F226" t="s">
         <v>199</v>
@@ -16623,20 +15155,23 @@
       <c r="I226">
         <v>100108</v>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>1702</v>
+      <c r="J226" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90008,1)</v>
       </c>
       <c r="K226">
         <v>0</v>
       </c>
-      <c r="L226" s="2" t="s">
-        <v>1703</v>
+      <c r="L226" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90008,7)</v>
       </c>
       <c r="M226">
         <v>0</v>
       </c>
-      <c r="N226" s="2" t="s">
-        <v>1704</v>
+      <c r="N226" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90008,10)</v>
       </c>
       <c r="O226">
         <v>987009</v>
@@ -16656,7 +15191,7 @@
         <v>361</v>
       </c>
       <c r="E227" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F227" t="s">
         <v>199</v>
@@ -16670,20 +15205,23 @@
       <c r="I227">
         <v>100106</v>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>1705</v>
+      <c r="J227" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90009,1)</v>
       </c>
       <c r="K227">
         <v>0</v>
       </c>
-      <c r="L227" s="2" t="s">
-        <v>1706</v>
+      <c r="L227" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90009,7)</v>
       </c>
       <c r="M227">
         <v>0</v>
       </c>
-      <c r="N227" s="2" t="s">
-        <v>1707</v>
+      <c r="N227" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90009,10)</v>
       </c>
       <c r="O227">
         <v>987009</v>
@@ -16703,7 +15241,7 @@
         <v>361</v>
       </c>
       <c r="E228" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F228" t="s">
         <v>199</v>
@@ -16717,20 +15255,23 @@
       <c r="I228">
         <v>100037</v>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>1708</v>
+      <c r="J228" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90010,1)</v>
       </c>
       <c r="K228">
         <v>100051</v>
       </c>
-      <c r="L228" s="2" t="s">
-        <v>1709</v>
+      <c r="L228" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90010,7)</v>
       </c>
       <c r="M228">
         <v>100023</v>
       </c>
-      <c r="N228" s="2" t="s">
-        <v>1710</v>
+      <c r="N228" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90010,10)</v>
       </c>
       <c r="O228">
         <v>987009</v>
@@ -16750,7 +15291,7 @@
         <v>361</v>
       </c>
       <c r="E229" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F229" t="s">
         <v>199</v>
@@ -16764,20 +15305,23 @@
       <c r="I229">
         <v>100101</v>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>1711</v>
+      <c r="J229" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90011,1)</v>
       </c>
       <c r="K229">
         <v>0</v>
       </c>
-      <c r="L229" s="2" t="s">
-        <v>1712</v>
+      <c r="L229" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90011,7)</v>
       </c>
       <c r="M229">
         <v>0</v>
       </c>
-      <c r="N229" s="2" t="s">
-        <v>1713</v>
+      <c r="N229" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90011,10)</v>
       </c>
       <c r="O229">
         <v>987009</v>
@@ -16797,7 +15341,7 @@
         <v>361</v>
       </c>
       <c r="E230" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F230" t="s">
         <v>199</v>
@@ -16811,20 +15355,23 @@
       <c r="I230">
         <v>900054</v>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>1714</v>
+      <c r="J230" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90012,1)</v>
       </c>
       <c r="K230">
         <v>0</v>
       </c>
-      <c r="L230" s="2" t="s">
-        <v>1715</v>
+      <c r="L230" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90012,7)</v>
       </c>
       <c r="M230">
         <v>0</v>
       </c>
-      <c r="N230" s="2" t="s">
-        <v>1716</v>
+      <c r="N230" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90012,10)</v>
       </c>
       <c r="O230">
         <v>987009</v>
@@ -16844,7 +15391,7 @@
         <v>361</v>
       </c>
       <c r="E231" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F231" t="s">
         <v>199</v>
@@ -16858,20 +15405,23 @@
       <c r="I231">
         <v>900055</v>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>1717</v>
+      <c r="J231" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90013,1)</v>
       </c>
       <c r="K231">
         <v>0</v>
       </c>
-      <c r="L231" s="2" t="s">
-        <v>1718</v>
+      <c r="L231" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90013,7)</v>
       </c>
       <c r="M231">
         <v>0</v>
       </c>
-      <c r="N231" s="2" t="s">
-        <v>1719</v>
+      <c r="N231" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90013,10)</v>
       </c>
       <c r="O231">
         <v>987009</v>
@@ -16891,7 +15441,7 @@
         <v>361</v>
       </c>
       <c r="E232" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F232" t="s">
         <v>199</v>
@@ -16905,20 +15455,23 @@
       <c r="I232">
         <v>100029</v>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>1720</v>
+      <c r="J232" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90014,1)</v>
       </c>
       <c r="K232">
         <v>100033</v>
       </c>
-      <c r="L232" s="2" t="s">
-        <v>1721</v>
+      <c r="L232" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90014,7)</v>
       </c>
       <c r="M232">
         <v>0</v>
       </c>
-      <c r="N232" s="2" t="s">
-        <v>1722</v>
+      <c r="N232" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90014,10)</v>
       </c>
       <c r="O232">
         <v>987009</v>
@@ -16938,7 +15491,7 @@
         <v>439</v>
       </c>
       <c r="E233" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F233" t="s">
         <v>423</v>
@@ -16952,20 +15505,23 @@
       <c r="I233">
         <v>100072</v>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>1723</v>
+      <c r="J233" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90015,1)</v>
       </c>
       <c r="K233">
         <v>100062</v>
       </c>
-      <c r="L233" s="2" t="s">
-        <v>1724</v>
+      <c r="L233" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90015,7)</v>
       </c>
       <c r="M233">
         <v>0</v>
       </c>
-      <c r="N233" s="2" t="s">
-        <v>1725</v>
+      <c r="N233" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90015,10)</v>
       </c>
       <c r="O233">
         <v>987009</v>
@@ -16985,7 +15541,7 @@
         <v>361</v>
       </c>
       <c r="E234" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F234" t="s">
         <v>199</v>
@@ -16999,20 +15555,23 @@
       <c r="I234">
         <v>100019</v>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>1726</v>
+      <c r="J234" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90016,1)</v>
       </c>
       <c r="K234">
         <v>100017</v>
       </c>
-      <c r="L234" s="2" t="s">
-        <v>1727</v>
+      <c r="L234" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90016,7)</v>
       </c>
       <c r="M234">
         <v>100077</v>
       </c>
-      <c r="N234" s="2" t="s">
-        <v>1728</v>
+      <c r="N234" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90016,10)</v>
       </c>
       <c r="O234">
         <v>987009</v>
@@ -17032,7 +15591,7 @@
         <v>361</v>
       </c>
       <c r="E235" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F235" t="s">
         <v>199</v>
@@ -17046,20 +15605,23 @@
       <c r="I235">
         <v>987167</v>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>1729</v>
+      <c r="J235" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90017,1)</v>
       </c>
       <c r="K235">
         <v>100017</v>
       </c>
-      <c r="L235" s="2" t="s">
-        <v>1730</v>
+      <c r="L235" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90017,7)</v>
       </c>
       <c r="M235">
         <v>0</v>
       </c>
-      <c r="N235" s="2" t="s">
-        <v>1731</v>
+      <c r="N235" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90017,10)</v>
       </c>
       <c r="O235">
         <v>987009</v>
@@ -17079,7 +15641,7 @@
         <v>361</v>
       </c>
       <c r="E236" t="s">
-        <v>1680</v>
+        <v>1029</v>
       </c>
       <c r="F236" t="s">
         <v>199</v>
@@ -17093,20 +15655,23 @@
       <c r="I236">
         <v>987115</v>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>1732</v>
+      <c r="J236" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90018,1)</v>
       </c>
       <c r="K236">
         <v>0</v>
       </c>
-      <c r="L236" s="2" t="s">
-        <v>1733</v>
+      <c r="L236" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90018,7)</v>
       </c>
       <c r="M236">
         <v>0</v>
       </c>
-      <c r="N236" s="2" t="s">
-        <v>1734</v>
+      <c r="N236" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90018,10)</v>
       </c>
       <c r="O236">
         <v>987009</v>
@@ -17140,34 +15705,37 @@
       <c r="I237">
         <v>987125</v>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>1735</v>
+      <c r="J237" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90019,1)</v>
       </c>
       <c r="K237">
         <v>0</v>
       </c>
-      <c r="L237" s="2" t="s">
-        <v>1736</v>
+      <c r="L237" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90019,7)</v>
       </c>
       <c r="M237">
         <v>0</v>
       </c>
-      <c r="N237" s="2" t="s">
-        <v>1737</v>
+      <c r="N237" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90019,10)</v>
       </c>
       <c r="O237">
         <v>987009</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>90020</v>
       </c>
       <c r="B238" t="s">
-        <v>1743</v>
+        <v>1032</v>
       </c>
       <c r="D238" t="s">
-        <v>1744</v>
+        <v>1033</v>
       </c>
       <c r="E238" t="s">
         <v>451</v>
@@ -17184,34 +15752,37 @@
       <c r="I238">
         <v>987200</v>
       </c>
-      <c r="J238" t="s">
-        <v>1745</v>
+      <c r="J238" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90020,1)</v>
       </c>
       <c r="K238">
         <v>987201</v>
       </c>
-      <c r="L238" t="s">
-        <v>1746</v>
+      <c r="L238" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90020,7)</v>
       </c>
       <c r="M238">
         <v>0</v>
       </c>
-      <c r="N238" t="s">
-        <v>1747</v>
+      <c r="N238" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90020,10)</v>
       </c>
       <c r="O238">
         <v>987024</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>90021</v>
       </c>
       <c r="B239" t="s">
-        <v>1738</v>
+        <v>1030</v>
       </c>
       <c r="D239" t="s">
-        <v>1739</v>
+        <v>1031</v>
       </c>
       <c r="E239" t="s">
         <v>451</v>
@@ -17228,43 +15799,43 @@
       <c r="I239">
         <v>987202</v>
       </c>
-      <c r="J239" t="s">
-        <v>1740</v>
+      <c r="J239" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90021,1)</v>
       </c>
       <c r="K239">
         <v>987203</v>
       </c>
-      <c r="L239" t="s">
-        <v>1741</v>
+      <c r="L239" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90021,7)</v>
       </c>
       <c r="M239">
         <v>0</v>
       </c>
-      <c r="N239" t="s">
-        <v>1742</v>
+      <c r="N239" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90021,10)</v>
       </c>
       <c r="O239">
         <v>987024</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>99001</v>
+        <v>90022</v>
       </c>
       <c r="B240" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C240" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="D240" t="s">
-        <v>361</v>
+        <v>1031</v>
       </c>
       <c r="E240" t="s">
-        <v>1027</v>
+        <v>451</v>
       </c>
       <c r="F240" t="s">
-        <v>1028</v>
+        <v>413</v>
       </c>
       <c r="G240">
         <v>5</v>
@@ -17273,24 +15844,77 @@
         <v>81</v>
       </c>
       <c r="I240">
+        <v>987116</v>
+      </c>
+      <c r="J240" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,90022,1)</v>
+      </c>
+      <c r="K240">
+        <v>987164</v>
+      </c>
+      <c r="L240" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,90022,7)</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,90022,10)</v>
+      </c>
+      <c r="O240">
+        <v>987024</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>99001</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D241" t="s">
+        <v>361</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G241">
+        <v>5</v>
+      </c>
+      <c r="H241" t="s">
+        <v>81</v>
+      </c>
+      <c r="I241">
         <v>890001</v>
       </c>
-      <c r="J240" t="s">
-        <v>1029</v>
-      </c>
-      <c r="K240">
+      <c r="J241" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>(10,0,99001,1)</v>
+      </c>
+      <c r="K241">
         <v>890004</v>
       </c>
-      <c r="L240" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M240">
+      <c r="L241" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>(10,0,99001,7)</v>
+      </c>
+      <c r="M241">
         <v>890005</v>
       </c>
-      <c r="N240" t="s">
-        <v>1031</v>
-      </c>
-      <c r="O240">
+      <c r="N241" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>(10,0,99001,10)</v>
+      </c>
+      <c r="O241">
         <v>910069</v>
       </c>
     </row>
@@ -19652,7 +18276,7 @@
   <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="J203" sqref="J203"/>
+      <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel文件/xiakeqian/心法.xlsx
+++ b/Excel文件/xiakeqian/心法.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29115"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBE778E-4334-4199-9213-F7B109F225AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9510B339-779F-4301-88DD-9EB108CE11C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DLC_NeigongData!$A$2:$O$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DLC_NeigongData!$A$2:$O$248</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$B$191</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="1802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="1805">
   <si>
     <t>#功体编号</t>
   </si>
@@ -5221,9 +5221,6 @@
     <t>气血+60，内力+40&lt;br&gt;满重增益：气血+300，抗暴+10%</t>
   </si>
   <si>
-    <t>气血+60，内力+40&lt;br&gt;满重增益：闪避+5%，气血+200，内力+200</t>
-  </si>
-  <si>
     <t>气血+120，内力+60&lt;br&gt;满重增益：抗反+10%，抗暴+10%，气血+200</t>
   </si>
   <si>
@@ -5254,9 +5251,6 @@
     <t>气血+80，内力+40&lt;br&gt;满重增益：暴击+5%，气血+300，内力+200</t>
   </si>
   <si>
-    <t>气血+50，内力+30&lt;br&gt;满重增益：闪避+5%，抗爆+5%，气血+300</t>
-  </si>
-  <si>
     <t>(51,5)*(57,5)*(1,300)</t>
   </si>
   <si>
@@ -5299,9 +5293,6 @@
     <t>(53,2)*(3,100)</t>
   </si>
   <si>
-    <t>气血+70，内力+40&lt;br&gt;满重增益：闪避+5%，气血+300，内力+100</t>
-  </si>
-  <si>
     <t>(51,5)*(1,300)*(3,100)</t>
   </si>
   <si>
@@ -5476,9 +5467,6 @@
     <t>(52,10)*(3,500)</t>
   </si>
   <si>
-    <t>气血+140，内力+140&lt;br&gt;满重增益：暴击+5%</t>
-  </si>
-  <si>
     <t>气血+80，内力+100 &lt;br&gt;满重增益：气血+200，反击+5%</t>
   </si>
   <si>
@@ -5717,6 +5705,28 @@
   </si>
   <si>
     <t>(10,0,90030,10)</t>
+  </si>
+  <si>
+    <t>(1,80)*(3,80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血+120，内力+80&lt;br&gt;满重增益：闪避+8%，气血+200，内力+200</t>
+  </si>
+  <si>
+    <t>气血+120，内力+80&lt;br&gt;满重增益：闪避+5%，抗爆+5%，气血+300</t>
+  </si>
+  <si>
+    <t>气血+100，内力+60&lt;br&gt;满重增益：闪避+5%，气血+300，内力+100</t>
+  </si>
+  <si>
+    <t>(1,100)*(60,40)</t>
+  </si>
+  <si>
+    <t>气血+140，内力+140&lt;br&gt;满重增益：暴击+8%</t>
+  </si>
+  <si>
+    <t>气血+120，内力+100 &lt;br&gt;满重增益：暴击+8%</t>
   </si>
 </sst>
 </file>
@@ -6156,15 +6166,17 @@
   <dimension ref="A1:O248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
+      <pane ySplit="2" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:O248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="3" width="9" style="6" customWidth="1"/>
-    <col min="4" max="9" width="9" style="6"/>
+    <col min="2" max="3" width="12.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="18.375" style="6" customWidth="1"/>
+    <col min="6" max="9" width="9" style="6"/>
     <col min="10" max="10" width="15.5" style="6" customWidth="1"/>
     <col min="11" max="12" width="9" style="6" customWidth="1"/>
     <col min="13" max="13" width="9" style="6"/>
@@ -7123,10 +7135,10 @@
         <v>89</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1636</v>
+        <v>1799</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>86</v>
+        <v>1752</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>90</v>
@@ -7156,7 +7168,7 @@
         <v>927</v>
       </c>
       <c r="O21" s="6">
-        <v>987009</v>
+        <v>987024</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -7170,13 +7182,13 @@
         <v>92</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>93</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="G22" s="6">
         <v>7</v>
@@ -7217,13 +7229,13 @@
         <v>95</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="G23" s="6">
         <v>6</v>
@@ -7264,13 +7276,13 @@
         <v>97</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>98</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="G24" s="6">
         <v>4</v>
@@ -7311,7 +7323,7 @@
         <v>100</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>101</v>
@@ -7358,7 +7370,7 @@
         <v>103</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>39</v>
@@ -7405,7 +7417,7 @@
         <v>105</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>106</v>
@@ -7452,7 +7464,7 @@
         <v>108</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>32</v>
@@ -7499,7 +7511,7 @@
         <v>110</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>32</v>
@@ -7546,13 +7558,13 @@
         <v>113</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1647</v>
+        <v>1800</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>52</v>
+        <v>1752</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="G30" s="6">
         <v>3</v>
@@ -7567,7 +7579,7 @@
         <v>952</v>
       </c>
       <c r="K30" s="6">
-        <v>100059</v>
+        <v>100040</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>953</v>
@@ -7593,7 +7605,7 @@
         <v>115</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>116</v>
@@ -7640,7 +7652,7 @@
         <v>118</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>119</v>
@@ -7687,7 +7699,7 @@
         <v>121</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>122</v>
@@ -7734,7 +7746,7 @@
         <v>125</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>126</v>
@@ -7781,7 +7793,7 @@
         <v>129</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>130</v>
@@ -7828,7 +7840,7 @@
         <v>133</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>134</v>
@@ -7875,13 +7887,13 @@
         <v>136</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>1655</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>1657</v>
       </c>
       <c r="G37" s="6">
         <v>9</v>
@@ -7922,13 +7934,13 @@
         <v>138</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>139</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="G38" s="6">
         <v>6</v>
@@ -7969,10 +7981,10 @@
         <v>141</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>865</v>
@@ -8016,13 +8028,13 @@
         <v>144</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1662</v>
+        <v>1801</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>145</v>
+        <v>1802</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="G40" s="6">
         <v>6</v>
@@ -8031,19 +8043,19 @@
         <v>65</v>
       </c>
       <c r="I40" s="6">
-        <v>100101</v>
+        <v>987243</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>982</v>
       </c>
       <c r="K40" s="6">
-        <v>0</v>
+        <v>987244</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>983</v>
       </c>
       <c r="M40" s="6">
-        <v>0</v>
+        <v>987245</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>984</v>
@@ -8063,10 +8075,10 @@
         <v>147</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="F41" s="7">
         <v>-1500</v>
@@ -8110,7 +8122,7 @@
         <v>149</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>27</v>
@@ -8157,7 +8169,7 @@
         <v>151</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>68</v>
@@ -8204,10 +8216,10 @@
         <v>153</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="F44" s="7">
         <v>-1300</v>
@@ -8251,7 +8263,7 @@
         <v>155</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>156</v>
@@ -8298,7 +8310,7 @@
         <v>159</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>32</v>
@@ -8345,13 +8357,13 @@
         <v>161</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="G47" s="6">
         <v>4</v>
@@ -8392,7 +8404,7 @@
         <v>164</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>68</v>
@@ -8439,13 +8451,13 @@
         <v>166</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="E49" s="7">
         <v>-1120</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="G49" s="6">
         <v>5</v>
@@ -8486,13 +8498,13 @@
         <v>169</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>170</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="G50" s="6">
         <v>3</v>
@@ -8533,7 +8545,7 @@
         <v>172</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>27</v>
@@ -8580,7 +8592,7 @@
         <v>174</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>52</v>
@@ -8627,7 +8639,7 @@
         <v>177</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>1021</v>
@@ -8674,13 +8686,13 @@
         <v>179</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="G54" s="6">
         <v>11</v>
@@ -8721,10 +8733,10 @@
         <v>181</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>1604</v>
@@ -8768,7 +8780,7 @@
         <v>183</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>82</v>
@@ -8815,7 +8827,7 @@
         <v>186</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>187</v>
@@ -8862,7 +8874,7 @@
         <v>190</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>39</v>
@@ -8909,7 +8921,7 @@
         <v>192</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>101</v>
@@ -8956,13 +8968,13 @@
         <v>194</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E60" s="7">
         <v>-3150</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="G60" s="6">
         <v>6</v>
@@ -9050,7 +9062,7 @@
         <v>199</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>1021</v>
@@ -9097,13 +9109,13 @@
         <v>201</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="G63" s="6">
         <v>8</v>
@@ -9144,7 +9156,7 @@
         <v>203</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>68</v>
@@ -9191,13 +9203,13 @@
         <v>206</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="G65" s="6">
         <v>10</v>
@@ -9238,13 +9250,13 @@
         <v>208</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>1634</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="G66" s="6">
         <v>6</v>
@@ -9285,7 +9297,7 @@
         <v>212</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>145</v>
@@ -9332,7 +9344,7 @@
         <v>215</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>86</v>
@@ -9379,10 +9391,10 @@
         <v>218</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="F69" s="7">
         <v>-1500</v>
@@ -9426,7 +9438,7 @@
         <v>220</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="E70" s="7">
         <v>-1100</v>
@@ -9473,13 +9485,13 @@
         <v>222</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>236</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="G71" s="6">
         <v>3</v>
@@ -9520,7 +9532,7 @@
         <v>225</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>48</v>
@@ -9567,13 +9579,13 @@
         <v>227</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="E73" s="7">
         <v>-3100</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="G73" s="6">
         <v>5</v>
@@ -9614,13 +9626,13 @@
         <v>229</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="G74" s="6">
         <v>9</v>
@@ -9661,13 +9673,13 @@
         <v>231</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="G75" s="6">
         <v>8</v>
@@ -9708,7 +9720,7 @@
         <v>233</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>86</v>
@@ -9755,7 +9767,7 @@
         <v>235</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>1634</v>
@@ -9802,13 +9814,13 @@
         <v>238</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>240</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="G78" s="6">
         <v>10</v>
@@ -9849,13 +9861,13 @@
         <v>242</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1721</v>
+        <v>1803</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>243</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="G79" s="6">
         <v>7</v>
@@ -9870,7 +9882,7 @@
         <v>1101</v>
       </c>
       <c r="K79" s="6">
-        <v>100074</v>
+        <v>100051</v>
       </c>
       <c r="L79" s="6" t="s">
         <v>1102</v>
@@ -9882,7 +9894,7 @@
         <v>1103</v>
       </c>
       <c r="O79" s="6">
-        <v>987009</v>
+        <v>987024</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -9943,13 +9955,13 @@
         <v>245</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="G81" s="6">
         <v>6</v>
@@ -9990,7 +10002,7 @@
         <v>248</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>250</v>
@@ -10040,7 +10052,7 @@
         <v>239</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>142</v>
@@ -10134,7 +10146,7 @@
         <v>239</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>142</v>
@@ -10178,7 +10190,7 @@
         <v>259</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>263</v>
@@ -10366,7 +10378,7 @@
         <v>271</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>263</v>
@@ -10413,7 +10425,7 @@
         <v>273</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>1634</v>
@@ -10554,7 +10566,7 @@
         <v>275</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>253</v>
@@ -10601,7 +10613,7 @@
         <v>277</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>253</v>
@@ -10695,7 +10707,7 @@
         <v>279</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>253</v>
@@ -10742,13 +10754,13 @@
         <v>281</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>1634</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="G98" s="6">
         <v>7</v>
@@ -10836,7 +10848,7 @@
         <v>287</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>243</v>
@@ -10977,7 +10989,7 @@
         <v>300</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>1634</v>
@@ -11024,7 +11036,7 @@
         <v>302</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>1634</v>
@@ -11071,7 +11083,7 @@
         <v>304</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>253</v>
@@ -11118,13 +11130,13 @@
         <v>306</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>253</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="G106" s="6">
         <v>10</v>
@@ -11165,7 +11177,7 @@
         <v>309</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>1634</v>
@@ -11212,7 +11224,7 @@
         <v>311</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>1634</v>
@@ -11259,10 +11271,10 @@
         <v>313</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>298</v>
@@ -11306,13 +11318,13 @@
         <v>203</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>253</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="G110" s="6">
         <v>9</v>
@@ -11353,7 +11365,7 @@
         <v>317</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>1634</v>
@@ -11400,13 +11412,13 @@
         <v>319</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>1634</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="G112" s="6">
         <v>7</v>
@@ -11447,7 +11459,7 @@
         <v>321</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>1634</v>
@@ -11588,7 +11600,7 @@
         <v>327</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>253</v>
@@ -11823,10 +11835,10 @@
         <v>340</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>293</v>
@@ -12011,7 +12023,7 @@
         <v>348</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>253</v>
@@ -12058,10 +12070,10 @@
         <v>350</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>288</v>
@@ -12105,7 +12117,7 @@
         <v>352</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>253</v>
@@ -12202,7 +12214,7 @@
         <v>239</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>142</v>
@@ -12232,7 +12244,7 @@
         <v>1253</v>
       </c>
       <c r="O129" s="6">
-        <v>910069</v>
+        <v>987009</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
@@ -12249,7 +12261,7 @@
         <v>239</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>142</v>
@@ -12296,7 +12308,7 @@
         <v>239</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>142</v>
@@ -12343,7 +12355,7 @@
         <v>239</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>142</v>
@@ -12390,7 +12402,7 @@
         <v>239</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>142</v>
@@ -12437,7 +12449,7 @@
         <v>239</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>142</v>
@@ -12484,7 +12496,7 @@
         <v>239</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>142</v>
@@ -12531,7 +12543,7 @@
         <v>239</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>142</v>
@@ -12578,7 +12590,7 @@
         <v>239</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>142</v>
@@ -12625,7 +12637,7 @@
         <v>239</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>142</v>
@@ -12672,7 +12684,7 @@
         <v>239</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>142</v>
@@ -12719,7 +12731,7 @@
         <v>239</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>142</v>
@@ -12766,7 +12778,7 @@
         <v>239</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>142</v>
@@ -12813,7 +12825,7 @@
         <v>239</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>142</v>
@@ -12998,7 +13010,7 @@
         <v>391</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>195</v>
@@ -13045,7 +13057,7 @@
         <v>393</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>223</v>
@@ -13092,13 +13104,13 @@
         <v>395</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>119</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="G148" s="6">
         <v>4</v>
@@ -13139,10 +13151,10 @@
         <v>397</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>293</v>
@@ -13189,7 +13201,7 @@
         <v>239</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>142</v>
@@ -13236,7 +13248,7 @@
         <v>239</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>142</v>
@@ -13283,7 +13295,7 @@
         <v>239</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>142</v>
@@ -13327,7 +13339,7 @@
         <v>405</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>1634</v>
@@ -13421,13 +13433,13 @@
         <v>408</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="G155" s="6">
         <v>6</v>
@@ -13468,7 +13480,7 @@
         <v>410</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>1634</v>
@@ -13515,10 +13527,10 @@
         <v>413</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>1759</v>
+        <v>1804</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>1745</v>
+        <v>331</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>264</v>
@@ -13562,10 +13574,10 @@
         <v>415</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>264</v>
@@ -13656,13 +13668,13 @@
         <v>420</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>1612</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="G160" s="6">
         <v>6</v>
@@ -13703,7 +13715,7 @@
         <v>422</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>424</v>
@@ -13891,7 +13903,7 @@
         <v>434</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>1612</v>
@@ -13985,13 +13997,13 @@
         <v>437</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>438</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="G167" s="6">
         <v>7</v>
@@ -14032,7 +14044,7 @@
         <v>582</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="E168" s="7">
         <v>-1180</v>
@@ -14317,7 +14329,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>142</v>
@@ -14737,13 +14749,13 @@
         <v>611</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="G183" s="6">
         <v>0</v>
@@ -14784,13 +14796,13 @@
         <v>613</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="G184" s="6">
         <v>0</v>
@@ -14831,13 +14843,13 @@
         <v>613</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="G185" s="6">
         <v>0</v>
@@ -14922,13 +14934,13 @@
         <v>615</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="D187" s="6">
         <v>0</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>288</v>
@@ -15016,13 +15028,13 @@
         <v>618</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="D189" s="6">
         <v>0</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>142</v>
@@ -15539,7 +15551,7 @@
         <v>0</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>142</v>
@@ -15680,7 +15692,7 @@
         <v>0</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>142</v>
@@ -15915,7 +15927,7 @@
         <v>4</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>142</v>
@@ -16056,7 +16068,7 @@
         <v>7</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>142</v>
@@ -16244,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>142</v>
@@ -16291,10 +16303,10 @@
         <v>0</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="G216" s="6">
         <v>0</v>
@@ -17492,7 +17504,7 @@
         <v>90024</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>262</v>
@@ -17513,19 +17525,19 @@
         <v>987218</v>
       </c>
       <c r="J242" s="6" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="K242" s="6">
         <v>987220</v>
       </c>
       <c r="L242" s="6" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="M242" s="6">
         <v>0</v>
       </c>
       <c r="N242" s="6" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="O242" s="6">
         <v>987024</v>
@@ -17536,13 +17548,13 @@
         <v>90025</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>27</v>
@@ -17560,19 +17572,19 @@
         <v>987222</v>
       </c>
       <c r="J243" s="6" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="K243" s="6">
         <v>987223</v>
       </c>
       <c r="L243" s="6" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="M243" s="6">
         <v>987224</v>
       </c>
       <c r="N243" s="6" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="O243" s="6">
         <v>987024</v>
@@ -17583,10 +17595,10 @@
         <v>90026</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>27</v>
@@ -17604,19 +17616,19 @@
         <v>987227</v>
       </c>
       <c r="J244" s="6" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="K244" s="6">
         <v>987228</v>
       </c>
       <c r="L244" s="6" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="M244" s="6">
         <v>987229</v>
       </c>
       <c r="N244" s="6" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="O244" s="6">
         <v>987024</v>
@@ -17627,10 +17639,10 @@
         <v>90027</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="E245" s="6" t="s">
         <v>27</v>
@@ -17648,19 +17660,19 @@
         <v>500121</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="K245" s="6">
         <v>500122</v>
       </c>
       <c r="L245" s="6" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="M245" s="6">
         <v>500125</v>
       </c>
       <c r="N245" s="6" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="O245" s="6">
         <v>987024</v>
@@ -17671,10 +17683,10 @@
         <v>90028</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="E246" s="6" t="s">
         <v>27</v>
@@ -17692,16 +17704,16 @@
         <v>987230</v>
       </c>
       <c r="J246" s="6" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="K246" s="6">
         <v>987231</v>
       </c>
       <c r="L246" s="6" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="N246" s="6" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="O246" s="6">
         <v>987024</v>
@@ -17712,16 +17724,16 @@
         <v>90030</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>239</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>253</v>
+        <v>1798</v>
       </c>
       <c r="F247" s="6" t="s">
         <v>142</v>
@@ -17736,22 +17748,22 @@
         <v>987242</v>
       </c>
       <c r="J247" s="6" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="K247" s="6">
         <v>0</v>
       </c>
       <c r="L247" s="6" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="M247" s="6">
         <v>0</v>
       </c>
       <c r="N247" s="6" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="O247" s="6">
-        <v>910069</v>
+        <v>987009</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.2">
@@ -17802,7 +17814,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O156" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:O248" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
@@ -20323,7 +20335,7 @@
       </c>
       <c r="E8" s="2" t="str">
         <f>VLOOKUP(B8,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,200)*(3,200)</v>
+        <v>(1,80)*(3,80)</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -20363,7 +20375,7 @@
       </c>
       <c r="E10" s="2" t="str">
         <f>VLOOKUP(B10,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,200)*(3,200)</v>
+        <v>(1,80)*(3,80)</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21763,7 +21775,7 @@
       </c>
       <c r="E80" s="2" t="str">
         <f>VLOOKUP(B80,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,200)*(3,200)</v>
+        <v>(1,80)*(3,80)</v>
       </c>
       <c r="G80" s="2" t="str">
         <f t="shared" si="1"/>
@@ -21823,7 +21835,7 @@
       </c>
       <c r="E83" s="2" t="str">
         <f>VLOOKUP(B83,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,200)*(3,200)</v>
+        <v>(1,80)*(3,80)</v>
       </c>
       <c r="G83" s="2" t="str">
         <f t="shared" si="1"/>
@@ -21843,7 +21855,7 @@
       </c>
       <c r="E84" s="2" t="str">
         <f>VLOOKUP(B84,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,200)*(3,200)</v>
+        <v>(1,80)*(3,80)</v>
       </c>
       <c r="G84" s="2" t="str">
         <f t="shared" si="1"/>
@@ -21863,7 +21875,7 @@
       </c>
       <c r="E85" s="2" t="str">
         <f>VLOOKUP(B85,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,200)*(3,200)</v>
+        <v>(1,80)*(3,80)</v>
       </c>
       <c r="G85" s="2" t="str">
         <f t="shared" si="1"/>
@@ -21883,7 +21895,7 @@
       </c>
       <c r="E86" s="2" t="str">
         <f>VLOOKUP(B86,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,200)*(3,200)</v>
+        <v>(1,80)*(3,80)</v>
       </c>
       <c r="G86" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22423,7 +22435,7 @@
       </c>
       <c r="E113" s="2" t="str">
         <f>VLOOKUP(B113,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,50)*(3,30)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G113" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22443,7 +22455,7 @@
       </c>
       <c r="E114" s="2" t="str">
         <f>VLOOKUP(B114,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,50)*(3,30)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G114" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22463,7 +22475,7 @@
       </c>
       <c r="E115" s="2" t="str">
         <f>VLOOKUP(B115,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,50)*(3,30)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G115" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22483,7 +22495,7 @@
       </c>
       <c r="E116" s="2" t="str">
         <f>VLOOKUP(B116,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,50)*(3,30)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G116" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22503,7 +22515,7 @@
       </c>
       <c r="E117" s="2" t="str">
         <f>VLOOKUP(B117,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,50)*(3,30)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G117" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22523,7 +22535,7 @@
       </c>
       <c r="E118" s="2" t="str">
         <f>VLOOKUP(B118,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,50)*(3,30)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G118" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22583,7 +22595,7 @@
       </c>
       <c r="E121" s="2" t="str">
         <f>VLOOKUP(B121,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,70)*(3,40)</v>
+        <v>(1,100)*(60,40)</v>
       </c>
       <c r="G121" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22603,7 +22615,7 @@
       </c>
       <c r="E122" s="2" t="str">
         <f>VLOOKUP(B122,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,70)*(3,40)</v>
+        <v>(1,100)*(60,40)</v>
       </c>
       <c r="G122" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22703,7 +22715,7 @@
       </c>
       <c r="E127" s="2" t="str">
         <f>VLOOKUP(B127,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,60)*(3,40)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G127" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22723,7 +22735,7 @@
       </c>
       <c r="E128" s="2" t="str">
         <f>VLOOKUP(B128,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,60)*(3,40)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G128" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22743,7 +22755,7 @@
       </c>
       <c r="E129" s="2" t="str">
         <f>VLOOKUP(B129,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,60)*(3,40)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G129" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22763,7 +22775,7 @@
       </c>
       <c r="E130" s="2" t="str">
         <f>VLOOKUP(B130,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,60)*(3,40)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G130" s="2" t="str">
         <f t="shared" ref="G130:G193" si="2">"("&amp;B130&amp;","&amp;"10"&amp;")"</f>
@@ -22783,7 +22795,7 @@
       </c>
       <c r="E131" s="2" t="str">
         <f>VLOOKUP(B131,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,120)*(3,120)</v>
+        <v>(1,120)*(3,100)</v>
       </c>
       <c r="G131" s="2" t="str">
         <f t="shared" si="2"/>
@@ -22803,7 +22815,7 @@
       </c>
       <c r="E132" s="2" t="str">
         <f>VLOOKUP(B132,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,60)*(3,40)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G132" s="2" t="str">
         <f t="shared" si="2"/>
@@ -22843,7 +22855,7 @@
       </c>
       <c r="E134" s="2" t="str">
         <f>VLOOKUP(B134,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,60)*(3,40)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G134" s="2" t="str">
         <f t="shared" si="2"/>

--- a/Excel文件/xiakeqian/心法.xlsx
+++ b/Excel文件/xiakeqian/心法.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20DD7ED-E317-4459-8CE2-F7C50B883185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1293F8-A704-4830-8DFD-EBDD6262DDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="1858">
   <si>
     <t>#功体编号</t>
   </si>
@@ -5521,9 +5521,6 @@
     <t>气血+200，内力+60 &lt;br&gt;满重增益：气血+300</t>
   </si>
   <si>
-    <t>(1,200)*(3,60)</t>
-  </si>
-  <si>
     <t>气血+110，内力+60 &lt;br&gt;满重增益：气血+500</t>
   </si>
   <si>
@@ -5813,9 +5810,6 @@
   </si>
   <si>
     <t>(1,300)</t>
-  </si>
-  <si>
-    <t>(1,300)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5859,19 +5853,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1,250)</t>
+    <t>(53,10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1,180)</t>
+    <t>(1,140)*(3,80)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1,300)*(3,200)</t>
+    <t>(1,200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(53,10)</t>
+    <t>(1,120)*(3,60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,100)*(3,60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,110)*(3,80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,150)*(3,200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,120)*(3,80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,80)*(3,40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,80)*(3,40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,150)*(3,100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3,300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,80)*(3,80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,110)*(3,60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,110)*(3,140)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,150)*(3,150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(53,8)*(3,200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6313,14 +6359,15 @@
   <dimension ref="A1:O256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D259" sqref="D259"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="3" width="12.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="31.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="6" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="6" customWidth="1"/>
@@ -6581,7 +6628,7 @@
         <v>1641</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>1591</v>
@@ -7192,7 +7239,7 @@
         <v>1658</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1645</v>
+        <v>1842</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>76</v>
@@ -7427,10 +7474,10 @@
         <v>1667</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1645</v>
+        <v>1842</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>1668</v>
+        <v>1857</v>
       </c>
       <c r="G24" s="6">
         <v>4</v>
@@ -7451,7 +7498,7 @@
         <v>889</v>
       </c>
       <c r="M24" s="6">
-        <v>100034</v>
+        <v>100068</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>890</v>
@@ -7941,13 +7988,13 @@
         <v>117</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>1826</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>1825</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>1827</v>
       </c>
       <c r="G35" s="6">
         <v>10</v>
@@ -8229,7 +8276,7 @@
         <v>1694</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G41" s="6">
         <v>7</v>
@@ -8370,7 +8417,7 @@
         <v>1699</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G44" s="6">
         <v>5</v>
@@ -8602,7 +8649,7 @@
         <v>1580</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>1581</v>
@@ -9075,7 +9122,7 @@
         <v>27</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="G59" s="6">
         <v>3</v>
@@ -9119,7 +9166,7 @@
         <v>1715</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>1716</v>
@@ -9166,7 +9213,7 @@
         <v>1566</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>28</v>
@@ -9495,7 +9542,7 @@
         <v>1724</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>196</v>
@@ -9542,7 +9589,7 @@
         <v>1725</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>1726</v>
@@ -9589,10 +9636,10 @@
         <v>1727</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G70" s="6">
         <v>4</v>
@@ -9730,7 +9777,7 @@
         <v>1590</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>1591</v>
@@ -10062,7 +10109,7 @@
         <v>1645</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="G80" s="6">
         <v>9</v>
@@ -10109,7 +10156,7 @@
         <v>1679</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="G81" s="6">
         <v>6</v>
@@ -10153,10 +10200,10 @@
         <v>1735</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>1736</v>
+        <v>1844</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>1832</v>
+        <v>1827</v>
       </c>
       <c r="G82" s="6">
         <v>6</v>
@@ -10338,13 +10385,13 @@
         <v>236</v>
       </c>
       <c r="D86" s="6" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>1737</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>1738</v>
-      </c>
       <c r="F86" s="9" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G86" s="6">
         <v>7</v>
@@ -10388,7 +10435,7 @@
         <v>217</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>230</v>
+        <v>1856</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>126</v>
@@ -10432,10 +10479,10 @@
         <v>238</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>241</v>
@@ -10479,13 +10526,13 @@
         <v>243</v>
       </c>
       <c r="D89" s="6" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>1740</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>1741</v>
       </c>
       <c r="G89" s="6">
         <v>6</v>
@@ -10526,10 +10573,10 @@
         <v>245</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>1560</v>
@@ -10573,7 +10620,7 @@
         <v>247</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>1676</v>
@@ -10626,7 +10673,7 @@
         <v>227</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G92" s="6">
         <v>9</v>
@@ -10670,7 +10717,7 @@
         <v>217</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>28</v>
@@ -10714,7 +10761,7 @@
         <v>249</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>1711</v>
@@ -10761,7 +10808,7 @@
         <v>251</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>1711</v>
@@ -10855,7 +10902,7 @@
         <v>253</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>1586</v>
@@ -10902,7 +10949,7 @@
         <v>255</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>1645</v>
@@ -10949,7 +10996,7 @@
         <v>257</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>85</v>
@@ -10996,7 +11043,7 @@
         <v>259</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>1657</v>
@@ -11043,7 +11090,7 @@
         <v>262</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>85</v>
@@ -11090,7 +11137,7 @@
         <v>265</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>85</v>
@@ -11137,7 +11184,7 @@
         <v>268</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>1645</v>
@@ -11184,7 +11231,7 @@
         <v>270</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>1645</v>
@@ -11231,13 +11278,13 @@
         <v>272</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>227</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="G105" s="6">
         <v>10</v>
@@ -11278,7 +11325,7 @@
         <v>274</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>227</v>
@@ -11325,7 +11372,7 @@
         <v>277</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>1645</v>
@@ -11372,7 +11419,7 @@
         <v>279</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>1645</v>
@@ -11419,13 +11466,13 @@
         <v>281</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>85</v>
+        <v>1854</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G109" s="6">
         <v>5</v>
@@ -11466,7 +11513,7 @@
         <v>183</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>227</v>
@@ -11513,10 +11560,10 @@
         <v>285</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>241</v>
@@ -11560,7 +11607,7 @@
         <v>287</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>1603</v>
@@ -11607,10 +11654,10 @@
         <v>289</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>241</v>
@@ -11657,10 +11704,10 @@
         <v>217</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="G114" s="6">
         <v>7</v>
@@ -11748,7 +11795,7 @@
         <v>295</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>1711</v>
@@ -11842,7 +11889,7 @@
         <v>297</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>85</v>
@@ -11889,7 +11936,7 @@
         <v>300</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>1603</v>
@@ -11939,7 +11986,7 @@
         <v>303</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>220</v>
+        <v>1855</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>266</v>
@@ -11983,7 +12030,7 @@
         <v>305</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>47</v>
@@ -12033,7 +12080,7 @@
         <v>217</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>1694</v>
+        <v>1854</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>126</v>
@@ -12077,7 +12124,7 @@
         <v>217</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>1694</v>
+        <v>1854</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>126</v>
@@ -12124,7 +12171,7 @@
         <v>217</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>230</v>
+        <v>1853</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>126</v>
@@ -12168,13 +12215,13 @@
         <v>313</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>227</v>
+        <v>1851</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1842</v>
+        <v>1852</v>
       </c>
       <c r="G125" s="6">
         <v>9</v>
@@ -12215,10 +12262,10 @@
         <v>315</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>85</v>
+        <v>1845</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>241</v>
@@ -12262,7 +12309,7 @@
         <v>317</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>227</v>
@@ -12359,7 +12406,7 @@
         <v>217</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>263</v>
@@ -12547,7 +12594,7 @@
         <v>217</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>263</v>
@@ -12641,7 +12688,7 @@
         <v>217</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>126</v>
@@ -12688,7 +12735,7 @@
         <v>217</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>126</v>
@@ -12735,7 +12782,7 @@
         <v>217</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>126</v>
@@ -12782,7 +12829,7 @@
         <v>217</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>126</v>
@@ -12829,7 +12876,7 @@
         <v>217</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>126</v>
@@ -12876,7 +12923,7 @@
         <v>217</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>126</v>
@@ -12923,7 +12970,7 @@
         <v>217</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>126</v>
@@ -12970,7 +13017,7 @@
         <v>217</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>126</v>
@@ -13014,10 +13061,10 @@
         <v>347</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>47</v>
+        <v>1849</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>126</v>
@@ -13061,10 +13108,10 @@
         <v>347</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>47</v>
+        <v>1849</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>260</v>
@@ -13108,10 +13155,10 @@
         <v>347</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>1835</v>
+        <v>1850</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>263</v>
@@ -13155,13 +13202,13 @@
         <v>351</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="G146" s="6">
         <v>4</v>
@@ -13202,13 +13249,13 @@
         <v>353</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G147" s="6">
         <v>4</v>
@@ -13346,7 +13393,7 @@
         <v>217</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>1645</v>
+        <v>1848</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>126</v>
@@ -13393,7 +13440,7 @@
         <v>217</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>1645</v>
+        <v>1848</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>126</v>
@@ -13440,7 +13487,7 @@
         <v>217</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>1645</v>
+        <v>1848</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>126</v>
@@ -13484,10 +13531,10 @@
         <v>365</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>1645</v>
+        <v>1848</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>55</v>
@@ -13622,10 +13669,10 @@
         <v>369</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>1645</v>
+        <v>1848</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>370</v>
@@ -13669,7 +13716,7 @@
         <v>372</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>73</v>
@@ -13716,7 +13763,7 @@
         <v>374</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>85</v>
@@ -13766,7 +13813,7 @@
         <v>217</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>1694</v>
+        <v>1844</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>377</v>
@@ -13810,7 +13857,7 @@
         <v>379</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>47</v>
@@ -13857,10 +13904,10 @@
         <v>381</v>
       </c>
       <c r="D161" s="6" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E161" s="6" t="s">
         <v>1774</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>1775</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>383</v>
@@ -13907,10 +13954,10 @@
         <v>382</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>1843</v>
+        <v>1829</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="G162" s="6">
         <v>6</v>
@@ -13954,7 +14001,7 @@
         <v>382</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>386</v>
@@ -14001,10 +14048,10 @@
         <v>382</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>1645</v>
+        <v>1848</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="G164" s="6">
         <v>6</v>
@@ -14045,7 +14092,7 @@
         <v>390</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>47</v>
@@ -14098,7 +14145,7 @@
         <v>150</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="G166" s="6">
         <v>10</v>
@@ -14139,10 +14186,10 @@
         <v>393</v>
       </c>
       <c r="D167" s="6" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E167" s="6" t="s">
         <v>1778</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>1779</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>1606</v>
@@ -14189,7 +14236,7 @@
         <v>1607</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>1844</v>
+        <v>1834</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>537</v>
@@ -14471,7 +14518,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>126</v>
@@ -14518,7 +14565,7 @@
         <v>0</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>85</v>
+        <v>1845</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>1591</v>
@@ -14891,10 +14938,10 @@
         <v>565</v>
       </c>
       <c r="D183" s="6" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E183" s="6" t="s">
         <v>1780</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>1781</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>1591</v>
@@ -14938,10 +14985,10 @@
         <v>567</v>
       </c>
       <c r="D184" s="6" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E184" s="6" t="s">
         <v>1780</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>1781</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>1591</v>
@@ -14985,10 +15032,10 @@
         <v>567</v>
       </c>
       <c r="D185" s="6" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E185" s="6" t="s">
         <v>1780</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>1781</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>1591</v>
@@ -15032,7 +15079,7 @@
         <v>212</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>1603</v>
@@ -15076,13 +15123,13 @@
         <v>569</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D187" s="6">
         <v>0</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>260</v>
@@ -15129,7 +15176,7 @@
         <v>0</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>1560</v>
@@ -15176,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>126</v>
@@ -15552,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>126</v>
@@ -15693,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>126</v>
@@ -15787,7 +15834,7 @@
         <v>0</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>263</v>
@@ -15834,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>126</v>
@@ -16069,7 +16116,7 @@
         <v>4</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>126</v>
@@ -16116,7 +16163,7 @@
         <v>5</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>230</v>
+        <v>1847</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>260</v>
@@ -16210,7 +16257,7 @@
         <v>7</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>126</v>
@@ -16398,7 +16445,7 @@
         <v>0</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>126</v>
@@ -16445,7 +16492,7 @@
         <v>0</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>1645</v>
+        <v>1846</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>1609</v>
@@ -17696,7 +17743,7 @@
         <v>1615</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>27</v>
@@ -17746,7 +17793,7 @@
         <v>27</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>1846</v>
+        <v>1841</v>
       </c>
       <c r="G244" s="6">
         <v>7</v>
@@ -17787,10 +17834,10 @@
         <v>1625</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="F245" s="9" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G245" s="6">
         <v>7</v>
@@ -17878,7 +17925,7 @@
         <v>217</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>1694</v>
+        <v>1845</v>
       </c>
       <c r="F247" s="6" t="s">
         <v>126</v>
@@ -17916,16 +17963,16 @@
         <v>90031</v>
       </c>
       <c r="B248" s="6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D248" s="6" t="s">
         <v>1785</v>
-      </c>
-      <c r="D248" s="6" t="s">
-        <v>1786</v>
       </c>
       <c r="E248" s="6" t="s">
         <v>96</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>1845</v>
+        <v>1824</v>
       </c>
       <c r="G248" s="6">
         <v>6</v>
@@ -17937,19 +17984,19 @@
         <v>100062</v>
       </c>
       <c r="J248" s="6" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="K248" s="6">
         <v>100063</v>
       </c>
       <c r="L248" s="6" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="M248" s="6">
         <v>987079</v>
       </c>
       <c r="N248" s="6" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="O248" s="6">
         <v>987024</v>
@@ -17960,10 +18007,10 @@
         <v>90032</v>
       </c>
       <c r="B249" s="6" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D249" s="6" t="s">
         <v>1790</v>
-      </c>
-      <c r="D249" s="6" t="s">
-        <v>1791</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>298</v>
@@ -17981,19 +18028,19 @@
         <v>987246</v>
       </c>
       <c r="J249" s="6" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="K249" s="6">
         <v>987247</v>
       </c>
       <c r="L249" s="6" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="M249" s="6">
         <v>100070</v>
       </c>
       <c r="N249" s="6" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="O249" s="6">
         <v>987024</v>
@@ -18004,10 +18051,10 @@
         <v>90033</v>
       </c>
       <c r="B250" s="6" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D250" s="6" t="s">
         <v>1795</v>
-      </c>
-      <c r="D250" s="6" t="s">
-        <v>1796</v>
       </c>
       <c r="E250" s="6" t="s">
         <v>298</v>
@@ -18025,19 +18072,19 @@
         <v>987248</v>
       </c>
       <c r="J250" s="6" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="K250" s="6">
         <v>987249</v>
       </c>
       <c r="L250" s="6" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="M250" s="6">
         <v>987250</v>
       </c>
       <c r="N250" s="6" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="O250" s="6">
         <v>987024</v>
@@ -18048,10 +18095,10 @@
         <v>90034</v>
       </c>
       <c r="B251" s="6" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D251" s="6" t="s">
         <v>1800</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>1801</v>
       </c>
       <c r="E251" s="6" t="s">
         <v>1595</v>
@@ -18069,19 +18116,19 @@
         <v>987251</v>
       </c>
       <c r="J251" s="6" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="K251" s="6">
         <v>987252</v>
       </c>
       <c r="L251" s="6" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M251" s="6">
         <v>100142</v>
       </c>
       <c r="N251" s="6" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="O251" s="6">
         <v>987024</v>
@@ -18092,10 +18139,10 @@
         <v>90035</v>
       </c>
       <c r="B252" s="6" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D252" s="6" t="s">
         <v>1805</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>1806</v>
       </c>
       <c r="E252" s="6" t="s">
         <v>1603</v>
@@ -18113,19 +18160,19 @@
         <v>987253</v>
       </c>
       <c r="J252" s="6" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="K252" s="6">
         <v>987254</v>
       </c>
       <c r="L252" s="6" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="M252" s="6">
         <v>987255</v>
       </c>
       <c r="N252" s="6" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="O252" s="6">
         <v>987024</v>
@@ -18136,19 +18183,19 @@
         <v>90036</v>
       </c>
       <c r="B253" s="6" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>1810</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>1811</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>217</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>1694</v>
+        <v>1845</v>
       </c>
       <c r="F253" s="9" t="s">
-        <v>1831</v>
+        <v>1843</v>
       </c>
       <c r="G253" s="6">
         <v>5</v>
@@ -18160,19 +18207,19 @@
         <v>987257</v>
       </c>
       <c r="J253" s="6" t="s">
+        <v>1811</v>
+      </c>
+      <c r="K253" s="6">
+        <v>0</v>
+      </c>
+      <c r="L253" s="6" t="s">
         <v>1812</v>
       </c>
-      <c r="K253" s="6">
-        <v>0</v>
-      </c>
-      <c r="L253" s="6" t="s">
+      <c r="M253" s="6">
+        <v>0</v>
+      </c>
+      <c r="N253" s="6" t="s">
         <v>1813</v>
-      </c>
-      <c r="M253" s="6">
-        <v>0</v>
-      </c>
-      <c r="N253" s="6" t="s">
-        <v>1814</v>
       </c>
       <c r="O253" s="6">
         <v>987009</v>
@@ -18183,19 +18230,19 @@
         <v>90037</v>
       </c>
       <c r="B254" s="6" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>1820</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>1821</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>217</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>1694</v>
+        <v>1845</v>
       </c>
       <c r="F254" s="9" t="s">
-        <v>1831</v>
+        <v>1843</v>
       </c>
       <c r="G254" s="6">
         <v>5</v>
@@ -18207,19 +18254,19 @@
         <v>987267</v>
       </c>
       <c r="J254" s="6" t="s">
+        <v>1821</v>
+      </c>
+      <c r="K254" s="6">
+        <v>0</v>
+      </c>
+      <c r="L254" s="6" t="s">
         <v>1822</v>
       </c>
-      <c r="K254" s="6">
-        <v>0</v>
-      </c>
-      <c r="L254" s="6" t="s">
+      <c r="M254" s="6">
+        <v>0</v>
+      </c>
+      <c r="N254" s="6" t="s">
         <v>1823</v>
-      </c>
-      <c r="M254" s="6">
-        <v>0</v>
-      </c>
-      <c r="N254" s="6" t="s">
-        <v>1824</v>
       </c>
       <c r="O254" s="6">
         <v>987009</v>
@@ -18230,19 +18277,19 @@
         <v>90038</v>
       </c>
       <c r="B255" s="6" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C255" s="6" t="s">
         <v>1815</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>1816</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>217</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>1694</v>
+        <v>1845</v>
       </c>
       <c r="F255" s="9" t="s">
-        <v>1831</v>
+        <v>1843</v>
       </c>
       <c r="G255" s="6">
         <v>5</v>
@@ -18254,19 +18301,19 @@
         <v>987269</v>
       </c>
       <c r="J255" s="6" t="s">
+        <v>1816</v>
+      </c>
+      <c r="K255" s="6">
+        <v>0</v>
+      </c>
+      <c r="L255" s="6" t="s">
         <v>1817</v>
       </c>
-      <c r="K255" s="6">
-        <v>0</v>
-      </c>
-      <c r="L255" s="6" t="s">
+      <c r="M255" s="6">
+        <v>0</v>
+      </c>
+      <c r="N255" s="6" t="s">
         <v>1818</v>
-      </c>
-      <c r="M255" s="6">
-        <v>0</v>
-      </c>
-      <c r="N255" s="6" t="s">
-        <v>1819</v>
       </c>
       <c r="O255" s="6">
         <v>987009</v>
@@ -20721,7 +20768,7 @@
       </c>
       <c r="E2" s="2" t="str">
         <f>VLOOKUP(B2,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G2" s="2" t="str">
         <f t="shared" ref="G2:G65" si="0">"("&amp;B2&amp;","&amp;"10"&amp;")"</f>
@@ -20781,7 +20828,7 @@
       </c>
       <c r="E5" s="2" t="str">
         <f>VLOOKUP(B5,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,200)*(3,100)</v>
+        <v>(1,150)*(3,100)</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -20841,7 +20888,7 @@
       </c>
       <c r="E8" s="2" t="str">
         <f>VLOOKUP(B8,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -20881,7 +20928,7 @@
       </c>
       <c r="E10" s="2" t="str">
         <f>VLOOKUP(B10,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21021,7 +21068,7 @@
       </c>
       <c r="E17" s="2" t="str">
         <f>VLOOKUP(B17,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21041,7 +21088,7 @@
       </c>
       <c r="E18" s="2" t="str">
         <f>VLOOKUP(B18,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21061,7 +21108,7 @@
       </c>
       <c r="E19" s="2" t="str">
         <f>VLOOKUP(B19,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21081,7 +21128,7 @@
       </c>
       <c r="E20" s="2" t="str">
         <f>VLOOKUP(B20,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,250)</v>
+        <v>(1,120)</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21101,7 +21148,7 @@
       </c>
       <c r="E21" s="2" t="str">
         <f>VLOOKUP(B21,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21141,7 +21188,7 @@
       </c>
       <c r="E23" s="2" t="str">
         <f>VLOOKUP(B23,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,250)</v>
+        <v>(1,120)</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21161,7 +21208,7 @@
       </c>
       <c r="E24" s="2" t="str">
         <f>VLOOKUP(B24,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21201,7 +21248,7 @@
       </c>
       <c r="E26" s="2" t="str">
         <f>VLOOKUP(B26,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,60)</v>
+        <v>(1,110)*(3,60)</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21221,7 +21268,7 @@
       </c>
       <c r="E27" s="2" t="str">
         <f>VLOOKUP(B27,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21241,7 +21288,7 @@
       </c>
       <c r="E28" s="2" t="str">
         <f>VLOOKUP(B28,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21261,7 +21308,7 @@
       </c>
       <c r="E29" s="2" t="str">
         <f>VLOOKUP(B29,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21281,7 +21328,7 @@
       </c>
       <c r="E30" s="2" t="str">
         <f>VLOOKUP(B30,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21341,7 +21388,7 @@
       </c>
       <c r="E33" s="2" t="str">
         <f>VLOOKUP(B33,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,140)*(3,80)</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21361,7 +21408,7 @@
       </c>
       <c r="E34" s="2" t="str">
         <f>VLOOKUP(B34,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,140)*(3,80)</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21441,7 +21488,7 @@
       </c>
       <c r="E38" s="2" t="str">
         <f>VLOOKUP(B38,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,60)</v>
+        <v>(1,110)*(3,60)</v>
       </c>
       <c r="G38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21461,7 +21508,7 @@
       </c>
       <c r="E39" s="2" t="str">
         <f>VLOOKUP(B39,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21701,7 +21748,7 @@
       </c>
       <c r="E51" s="2" t="str">
         <f>VLOOKUP(B51,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G51" s="2" t="str">
         <f t="shared" si="0"/>
@@ -21721,7 +21768,7 @@
       </c>
       <c r="E52" s="2" t="str">
         <f>VLOOKUP(B52,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G52" s="2" t="str">
         <f t="shared" si="0"/>
@@ -22021,7 +22068,7 @@
       </c>
       <c r="E67" s="2" t="str">
         <f>VLOOKUP(B67,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,120)*(3,60)</v>
+        <v>(1,110)*(3,60)</v>
       </c>
       <c r="G67" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22041,7 +22088,7 @@
       </c>
       <c r="E68" s="2" t="str">
         <f>VLOOKUP(B68,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,120)*(3,60)</v>
+        <v>(1,110)*(3,60)</v>
       </c>
       <c r="G68" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22061,7 +22108,7 @@
       </c>
       <c r="E69" s="2" t="str">
         <f>VLOOKUP(B69,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,120)*(3,60)</v>
+        <v>(1,110)*(3,60)</v>
       </c>
       <c r="G69" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22281,7 +22328,7 @@
       </c>
       <c r="E80" s="2" t="str">
         <f>VLOOKUP(B80,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G80" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22321,7 +22368,7 @@
       </c>
       <c r="E82" s="2" t="str">
         <f>VLOOKUP(B82,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G82" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22341,7 +22388,7 @@
       </c>
       <c r="E83" s="2" t="str">
         <f>VLOOKUP(B83,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G83" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22361,7 +22408,7 @@
       </c>
       <c r="E84" s="2" t="str">
         <f>VLOOKUP(B84,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G84" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22381,7 +22428,7 @@
       </c>
       <c r="E85" s="2" t="str">
         <f>VLOOKUP(B85,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G85" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22401,7 +22448,7 @@
       </c>
       <c r="E86" s="2" t="str">
         <f>VLOOKUP(B86,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G86" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22421,7 +22468,7 @@
       </c>
       <c r="E87" s="2" t="str">
         <f>VLOOKUP(B87,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G87" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22461,7 +22508,7 @@
       </c>
       <c r="E89" s="2" t="str">
         <f>VLOOKUP(B89,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G89" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22521,7 +22568,7 @@
       </c>
       <c r="E92" s="2" t="str">
         <f>VLOOKUP(B92,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,200)*(3,60)</v>
+        <v>(1,120)*(3,60)</v>
       </c>
       <c r="G92" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22541,7 +22588,7 @@
       </c>
       <c r="E93" s="2" t="str">
         <f>VLOOKUP(B93,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G93" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22581,7 +22628,7 @@
       </c>
       <c r="E95" s="2" t="str">
         <f>VLOOKUP(B95,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G95" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22641,7 +22688,7 @@
       </c>
       <c r="E98" s="2" t="str">
         <f>VLOOKUP(B98,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G98" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22741,7 +22788,7 @@
       </c>
       <c r="E103" s="2" t="str">
         <f>VLOOKUP(B103,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G103" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22761,7 +22808,7 @@
       </c>
       <c r="E104" s="2" t="str">
         <f>VLOOKUP(B104,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,140)*(3,80)</v>
       </c>
       <c r="G104" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22781,7 +22828,7 @@
       </c>
       <c r="E105" s="2" t="str">
         <f>VLOOKUP(B105,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,140)*(3,80)</v>
       </c>
       <c r="G105" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22801,7 +22848,7 @@
       </c>
       <c r="E106" s="2" t="str">
         <f>VLOOKUP(B106,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,140)*(3,80)</v>
       </c>
       <c r="G106" s="2" t="str">
         <f t="shared" si="1"/>
@@ -23161,7 +23208,7 @@
       </c>
       <c r="E124" s="2" t="str">
         <f>VLOOKUP(B124,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,60)</v>
+        <v>(1,120)*(3,60)</v>
       </c>
       <c r="G124" s="2" t="str">
         <f t="shared" si="1"/>
@@ -23761,7 +23808,7 @@
       </c>
       <c r="E154" s="2" t="str">
         <f>VLOOKUP(B154,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G154" s="2" t="str">
         <f t="shared" si="2"/>
@@ -23781,7 +23828,7 @@
       </c>
       <c r="E155" s="2" t="str">
         <f>VLOOKUP(B155,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G155" s="2" t="str">
         <f t="shared" si="2"/>
@@ -23801,7 +23848,7 @@
       </c>
       <c r="E156" s="2" t="str">
         <f>VLOOKUP(B156,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G156" s="2" t="str">
         <f t="shared" si="2"/>
@@ -23821,7 +23868,7 @@
       </c>
       <c r="E157" s="2" t="str">
         <f>VLOOKUP(B157,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G157" s="2" t="str">
         <f t="shared" si="2"/>
@@ -23861,7 +23908,7 @@
       </c>
       <c r="E159" s="2" t="str">
         <f>VLOOKUP(B159,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,120)*(3,60)</v>
+        <v>(1,100)*(3,60)</v>
       </c>
       <c r="G159" s="2" t="str">
         <f t="shared" si="2"/>
@@ -24061,7 +24108,7 @@
       </c>
       <c r="E169" s="2" t="str">
         <f>VLOOKUP(B169,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G169" s="2" t="str">
         <f t="shared" si="2"/>
@@ -24121,7 +24168,7 @@
       </c>
       <c r="E172" s="2" t="str">
         <f>VLOOKUP(B172,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G172" s="2" t="str">
         <f t="shared" si="2"/>
@@ -24141,7 +24188,7 @@
       </c>
       <c r="E173" s="2" t="str">
         <f>VLOOKUP(B173,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G173" s="2" t="str">
         <f t="shared" si="2"/>
@@ -24241,7 +24288,7 @@
       </c>
       <c r="E178" s="2" t="str">
         <f>VLOOKUP(B178,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G178" s="2" t="str">
         <f t="shared" si="2"/>
@@ -24601,7 +24648,7 @@
       </c>
       <c r="E196" s="2" t="str">
         <f>VLOOKUP(B196,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,110)*(3,80)</v>
       </c>
       <c r="G196" s="2" t="str">
         <f t="shared" si="3"/>
@@ -24821,7 +24868,7 @@
       </c>
       <c r="E207" s="2" t="str">
         <f>VLOOKUP(B207,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,160)*(3,80)</v>
+        <v>(1,120)*(3,80)</v>
       </c>
       <c r="G207" s="2" t="str">
         <f t="shared" si="3"/>
@@ -24861,7 +24908,7 @@
       </c>
       <c r="E209" s="2" t="str">
         <f>VLOOKUP(B209,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,100)*(3,40)</v>
+        <v>(1,80)*(3,40)</v>
       </c>
       <c r="G209" s="2" t="str">
         <f t="shared" si="3"/>

--- a/Excel文件/xiakeqian/心法.xlsx
+++ b/Excel文件/xiakeqian/心法.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1293F8-A704-4830-8DFD-EBDD6262DDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADAFFDF-C3A1-4277-A01B-0F012D77C142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="1858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="1856">
   <si>
     <t>#功体编号</t>
   </si>
@@ -5890,14 +5890,6 @@
   </si>
   <si>
     <t>(1,80)*(3,40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1,150)*(3,100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3,300)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6360,7 +6352,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomLeft" activeCell="E260" sqref="E260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7477,7 +7469,7 @@
         <v>1842</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="G24" s="6">
         <v>4</v>
@@ -10435,7 +10427,7 @@
         <v>217</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>126</v>
@@ -10529,7 +10521,7 @@
         <v>1739</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>1740</v>
@@ -11469,7 +11461,7 @@
         <v>1756</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>1828</v>
@@ -11986,7 +11978,7 @@
         <v>303</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>266</v>
@@ -12080,7 +12072,7 @@
         <v>217</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>126</v>
@@ -12124,7 +12116,7 @@
         <v>217</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>126</v>
@@ -12171,7 +12163,7 @@
         <v>217</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>126</v>
@@ -12218,10 +12210,10 @@
         <v>1763</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>1851</v>
+        <v>1824</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1852</v>
+        <v>1840</v>
       </c>
       <c r="G125" s="6">
         <v>9</v>
@@ -20828,7 +20820,7 @@
       </c>
       <c r="E5" s="2" t="str">
         <f>VLOOKUP(B5,DLC_NeigongData!$A$3:$O$218,5,FALSE)</f>
-        <v>(1,150)*(3,100)</v>
+        <v>(1,200)*(3,100)</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
